--- a/app/import/DB_seoulhang.xlsx
+++ b/app/import/DB_seoulhang.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11125" uniqueCount="3491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11723" uniqueCount="3494">
   <si>
     <t>region_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -10603,6 +10603,18 @@
   </si>
   <si>
     <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11695,8 +11707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A591" workbookViewId="0">
-      <selection activeCell="G607" sqref="G607"/>
+    <sheetView tabSelected="1" topLeftCell="A597" workbookViewId="0">
+      <selection activeCell="F604" sqref="F604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -12191,8 +12203,8 @@
       <c r="I13" t="s">
         <v>2817</v>
       </c>
-      <c r="J13" s="5">
-        <v>2</v>
+      <c r="J13" s="5" t="s">
+        <v>3493</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>2824</v>
@@ -12229,8 +12241,8 @@
       <c r="I14" t="s">
         <v>2826</v>
       </c>
-      <c r="J14" s="5">
-        <v>3</v>
+      <c r="J14" s="5" t="s">
+        <v>3491</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>2824</v>
@@ -12267,8 +12279,8 @@
       <c r="I15" t="s">
         <v>2827</v>
       </c>
-      <c r="J15" s="5">
-        <v>4</v>
+      <c r="J15" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>2824</v>
@@ -12305,8 +12317,8 @@
       <c r="I16" t="s">
         <v>2828</v>
       </c>
-      <c r="J16" s="5">
-        <v>5</v>
+      <c r="J16" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>2824</v>
@@ -12343,8 +12355,8 @@
       <c r="I17" t="s">
         <v>2829</v>
       </c>
-      <c r="J17" s="5">
-        <v>6</v>
+      <c r="J17" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>2824</v>
@@ -12379,8 +12391,8 @@
       <c r="I18" t="s">
         <v>2830</v>
       </c>
-      <c r="J18" s="5">
-        <v>7</v>
+      <c r="J18" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>2824</v>
@@ -12417,8 +12429,8 @@
       <c r="I19" t="s">
         <v>2831</v>
       </c>
-      <c r="J19" s="5">
-        <v>8</v>
+      <c r="J19" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>2824</v>
@@ -12455,8 +12467,8 @@
       <c r="I20" t="s">
         <v>2832</v>
       </c>
-      <c r="J20" s="5">
-        <v>9</v>
+      <c r="J20" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>2824</v>
@@ -12493,8 +12505,8 @@
       <c r="I21" t="s">
         <v>2833</v>
       </c>
-      <c r="J21" s="5">
-        <v>10</v>
+      <c r="J21" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>2824</v>
@@ -12531,8 +12543,8 @@
       <c r="I22" t="s">
         <v>2834</v>
       </c>
-      <c r="J22" s="5">
-        <v>11</v>
+      <c r="J22" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>2824</v>
@@ -12569,8 +12581,8 @@
       <c r="I23" t="s">
         <v>2835</v>
       </c>
-      <c r="J23" s="5">
-        <v>12</v>
+      <c r="J23" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>2824</v>
@@ -12607,8 +12619,8 @@
       <c r="I24" t="s">
         <v>2836</v>
       </c>
-      <c r="J24" s="5">
-        <v>13</v>
+      <c r="J24" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>2824</v>
@@ -12645,8 +12657,8 @@
       <c r="I25" t="s">
         <v>2837</v>
       </c>
-      <c r="J25" s="5">
-        <v>14</v>
+      <c r="J25" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>2824</v>
@@ -12683,8 +12695,8 @@
       <c r="I26" t="s">
         <v>2838</v>
       </c>
-      <c r="J26" s="5">
-        <v>15</v>
+      <c r="J26" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>2824</v>
@@ -12721,8 +12733,8 @@
       <c r="I27" t="s">
         <v>2839</v>
       </c>
-      <c r="J27" s="5">
-        <v>16</v>
+      <c r="J27" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>2824</v>
@@ -12759,8 +12771,8 @@
       <c r="I28" t="s">
         <v>2840</v>
       </c>
-      <c r="J28" s="5">
-        <v>17</v>
+      <c r="J28" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>2824</v>
@@ -12797,8 +12809,8 @@
       <c r="I29" t="s">
         <v>2841</v>
       </c>
-      <c r="J29" s="5">
-        <v>18</v>
+      <c r="J29" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>2824</v>
@@ -12835,8 +12847,8 @@
       <c r="I30" t="s">
         <v>2842</v>
       </c>
-      <c r="J30" s="5">
-        <v>19</v>
+      <c r="J30" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>2824</v>
@@ -12873,8 +12885,8 @@
       <c r="I31" t="s">
         <v>2843</v>
       </c>
-      <c r="J31" s="5">
-        <v>20</v>
+      <c r="J31" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>2824</v>
@@ -12911,8 +12923,8 @@
       <c r="I32" t="s">
         <v>2844</v>
       </c>
-      <c r="J32" s="5">
-        <v>21</v>
+      <c r="J32" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>2824</v>
@@ -12949,8 +12961,8 @@
       <c r="I33" t="s">
         <v>2845</v>
       </c>
-      <c r="J33" s="5">
-        <v>22</v>
+      <c r="J33" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>2824</v>
@@ -12987,8 +12999,8 @@
       <c r="I34" t="s">
         <v>2846</v>
       </c>
-      <c r="J34" s="5">
-        <v>23</v>
+      <c r="J34" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>2824</v>
@@ -13025,8 +13037,8 @@
       <c r="I35" t="s">
         <v>2847</v>
       </c>
-      <c r="J35" s="5">
-        <v>24</v>
+      <c r="J35" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>2824</v>
@@ -13063,8 +13075,8 @@
       <c r="I36" t="s">
         <v>2848</v>
       </c>
-      <c r="J36" s="5">
-        <v>25</v>
+      <c r="J36" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>2824</v>
@@ -13101,8 +13113,8 @@
       <c r="I37" t="s">
         <v>2849</v>
       </c>
-      <c r="J37" s="5">
-        <v>26</v>
+      <c r="J37" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>2824</v>
@@ -13139,8 +13151,8 @@
       <c r="I38" t="s">
         <v>2850</v>
       </c>
-      <c r="J38" s="5">
-        <v>27</v>
+      <c r="J38" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>2824</v>
@@ -13177,8 +13189,8 @@
       <c r="I39" t="s">
         <v>2851</v>
       </c>
-      <c r="J39" s="5">
-        <v>28</v>
+      <c r="J39" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>2824</v>
@@ -13215,8 +13227,8 @@
       <c r="I40" t="s">
         <v>2852</v>
       </c>
-      <c r="J40" s="5">
-        <v>29</v>
+      <c r="J40" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>2824</v>
@@ -13253,8 +13265,8 @@
       <c r="I41" t="s">
         <v>2853</v>
       </c>
-      <c r="J41" s="5">
-        <v>30</v>
+      <c r="J41" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>2824</v>
@@ -13291,8 +13303,8 @@
       <c r="I42" t="s">
         <v>2854</v>
       </c>
-      <c r="J42" s="5">
-        <v>31</v>
+      <c r="J42" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>2824</v>
@@ -13329,8 +13341,8 @@
       <c r="I43" t="s">
         <v>2855</v>
       </c>
-      <c r="J43" s="5">
-        <v>32</v>
+      <c r="J43" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>2824</v>
@@ -13367,8 +13379,8 @@
       <c r="I44" t="s">
         <v>2856</v>
       </c>
-      <c r="J44" s="5">
-        <v>33</v>
+      <c r="J44" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>2824</v>
@@ -13405,8 +13417,8 @@
       <c r="I45" t="s">
         <v>2857</v>
       </c>
-      <c r="J45" s="5">
-        <v>34</v>
+      <c r="J45" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>2824</v>
@@ -13443,8 +13455,8 @@
       <c r="I46" t="s">
         <v>2858</v>
       </c>
-      <c r="J46" s="5">
-        <v>35</v>
+      <c r="J46" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>2824</v>
@@ -13481,8 +13493,8 @@
       <c r="I47" t="s">
         <v>2859</v>
       </c>
-      <c r="J47" s="5">
-        <v>36</v>
+      <c r="J47" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>2824</v>
@@ -13519,8 +13531,8 @@
       <c r="I48" t="s">
         <v>2860</v>
       </c>
-      <c r="J48" s="5">
-        <v>37</v>
+      <c r="J48" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>2824</v>
@@ -13557,8 +13569,8 @@
       <c r="I49" t="s">
         <v>2861</v>
       </c>
-      <c r="J49" s="5">
-        <v>38</v>
+      <c r="J49" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>2824</v>
@@ -13595,8 +13607,8 @@
       <c r="I50" t="s">
         <v>2862</v>
       </c>
-      <c r="J50" s="5">
-        <v>39</v>
+      <c r="J50" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K50" s="5" t="s">
         <v>2824</v>
@@ -13633,8 +13645,8 @@
       <c r="I51" t="s">
         <v>2863</v>
       </c>
-      <c r="J51" s="5">
-        <v>40</v>
+      <c r="J51" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>2824</v>
@@ -13671,8 +13683,8 @@
       <c r="I52" t="s">
         <v>2864</v>
       </c>
-      <c r="J52" s="5">
-        <v>41</v>
+      <c r="J52" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>2824</v>
@@ -13709,8 +13721,8 @@
       <c r="I53" t="s">
         <v>2865</v>
       </c>
-      <c r="J53" s="5">
-        <v>42</v>
+      <c r="J53" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K53" s="5" t="s">
         <v>2824</v>
@@ -13747,8 +13759,8 @@
       <c r="I54" t="s">
         <v>2866</v>
       </c>
-      <c r="J54" s="5">
-        <v>43</v>
+      <c r="J54" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>2824</v>
@@ -13785,8 +13797,8 @@
       <c r="I55" t="s">
         <v>2867</v>
       </c>
-      <c r="J55" s="5">
-        <v>44</v>
+      <c r="J55" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>2824</v>
@@ -13823,8 +13835,8 @@
       <c r="I56" t="s">
         <v>2868</v>
       </c>
-      <c r="J56" s="5">
-        <v>45</v>
+      <c r="J56" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K56" s="5" t="s">
         <v>2824</v>
@@ -13861,8 +13873,8 @@
       <c r="I57" t="s">
         <v>2869</v>
       </c>
-      <c r="J57" s="5">
-        <v>46</v>
+      <c r="J57" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K57" s="5" t="s">
         <v>2824</v>
@@ -13899,8 +13911,8 @@
       <c r="I58" t="s">
         <v>2870</v>
       </c>
-      <c r="J58" s="5">
-        <v>47</v>
+      <c r="J58" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>2824</v>
@@ -13937,8 +13949,8 @@
       <c r="I59" t="s">
         <v>2871</v>
       </c>
-      <c r="J59" s="5">
-        <v>48</v>
+      <c r="J59" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K59" s="5" t="s">
         <v>2824</v>
@@ -13975,8 +13987,8 @@
       <c r="I60" t="s">
         <v>2872</v>
       </c>
-      <c r="J60" s="5">
-        <v>49</v>
+      <c r="J60" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>2824</v>
@@ -14013,8 +14025,8 @@
       <c r="I61" t="s">
         <v>2873</v>
       </c>
-      <c r="J61" s="5">
-        <v>50</v>
+      <c r="J61" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>2824</v>
@@ -14051,8 +14063,8 @@
       <c r="I62" t="s">
         <v>2874</v>
       </c>
-      <c r="J62" s="5">
-        <v>51</v>
+      <c r="J62" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K62" s="5" t="s">
         <v>2824</v>
@@ -14089,8 +14101,8 @@
       <c r="I63" t="s">
         <v>2875</v>
       </c>
-      <c r="J63" s="5">
-        <v>52</v>
+      <c r="J63" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>2824</v>
@@ -14127,8 +14139,8 @@
       <c r="I64" t="s">
         <v>2876</v>
       </c>
-      <c r="J64" s="5">
-        <v>53</v>
+      <c r="J64" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K64" s="5" t="s">
         <v>2824</v>
@@ -14165,8 +14177,8 @@
       <c r="I65" t="s">
         <v>2877</v>
       </c>
-      <c r="J65" s="5">
-        <v>54</v>
+      <c r="J65" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>2824</v>
@@ -14203,8 +14215,8 @@
       <c r="I66" t="s">
         <v>2878</v>
       </c>
-      <c r="J66" s="5">
-        <v>55</v>
+      <c r="J66" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>2824</v>
@@ -14241,8 +14253,8 @@
       <c r="I67" t="s">
         <v>2879</v>
       </c>
-      <c r="J67" s="5">
-        <v>56</v>
+      <c r="J67" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>2824</v>
@@ -14279,8 +14291,8 @@
       <c r="I68" t="s">
         <v>2880</v>
       </c>
-      <c r="J68" s="5">
-        <v>57</v>
+      <c r="J68" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>2824</v>
@@ -14317,8 +14329,8 @@
       <c r="I69" t="s">
         <v>2881</v>
       </c>
-      <c r="J69" s="5">
-        <v>58</v>
+      <c r="J69" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>2824</v>
@@ -14355,8 +14367,8 @@
       <c r="I70" t="s">
         <v>2882</v>
       </c>
-      <c r="J70" s="5">
-        <v>59</v>
+      <c r="J70" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K70" s="5" t="s">
         <v>2824</v>
@@ -14393,8 +14405,8 @@
       <c r="I71" t="s">
         <v>2883</v>
       </c>
-      <c r="J71" s="5">
-        <v>60</v>
+      <c r="J71" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>2824</v>
@@ -14431,8 +14443,8 @@
       <c r="I72" t="s">
         <v>2884</v>
       </c>
-      <c r="J72" s="5">
-        <v>61</v>
+      <c r="J72" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K72" s="5" t="s">
         <v>2824</v>
@@ -14469,8 +14481,8 @@
       <c r="I73" t="s">
         <v>2885</v>
       </c>
-      <c r="J73" s="5">
-        <v>62</v>
+      <c r="J73" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K73" s="5" t="s">
         <v>2824</v>
@@ -14507,8 +14519,8 @@
       <c r="I74" t="s">
         <v>2886</v>
       </c>
-      <c r="J74" s="5">
-        <v>63</v>
+      <c r="J74" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>2824</v>
@@ -14545,8 +14557,8 @@
       <c r="I75" t="s">
         <v>2887</v>
       </c>
-      <c r="J75" s="5">
-        <v>64</v>
+      <c r="J75" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>2824</v>
@@ -14583,8 +14595,8 @@
       <c r="I76" t="s">
         <v>2888</v>
       </c>
-      <c r="J76" s="5">
-        <v>65</v>
+      <c r="J76" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>2824</v>
@@ -14621,8 +14633,8 @@
       <c r="I77" t="s">
         <v>2889</v>
       </c>
-      <c r="J77" s="5">
-        <v>66</v>
+      <c r="J77" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>2824</v>
@@ -14659,8 +14671,8 @@
       <c r="I78" t="s">
         <v>2890</v>
       </c>
-      <c r="J78" s="5">
-        <v>67</v>
+      <c r="J78" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K78" s="5" t="s">
         <v>2824</v>
@@ -14697,8 +14709,8 @@
       <c r="I79" t="s">
         <v>2891</v>
       </c>
-      <c r="J79" s="5">
-        <v>68</v>
+      <c r="J79" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K79" s="5" t="s">
         <v>2824</v>
@@ -14735,8 +14747,8 @@
       <c r="I80" t="s">
         <v>2892</v>
       </c>
-      <c r="J80" s="5">
-        <v>69</v>
+      <c r="J80" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>2824</v>
@@ -14773,8 +14785,8 @@
       <c r="I81" t="s">
         <v>2893</v>
       </c>
-      <c r="J81" s="5">
-        <v>70</v>
+      <c r="J81" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>2824</v>
@@ -14811,8 +14823,8 @@
       <c r="I82" t="s">
         <v>2894</v>
       </c>
-      <c r="J82" s="5">
-        <v>71</v>
+      <c r="J82" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>2824</v>
@@ -14849,8 +14861,8 @@
       <c r="I83" t="s">
         <v>2895</v>
       </c>
-      <c r="J83" s="5">
-        <v>72</v>
+      <c r="J83" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K83" s="5" t="s">
         <v>2824</v>
@@ -14887,8 +14899,8 @@
       <c r="I84" t="s">
         <v>2896</v>
       </c>
-      <c r="J84" s="5">
-        <v>73</v>
+      <c r="J84" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K84" s="5" t="s">
         <v>2824</v>
@@ -14925,8 +14937,8 @@
       <c r="I85" t="s">
         <v>2897</v>
       </c>
-      <c r="J85" s="5">
-        <v>74</v>
+      <c r="J85" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K85" s="5" t="s">
         <v>2824</v>
@@ -14963,8 +14975,8 @@
       <c r="I86" t="s">
         <v>2898</v>
       </c>
-      <c r="J86" s="5">
-        <v>75</v>
+      <c r="J86" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K86" s="5" t="s">
         <v>2824</v>
@@ -15001,8 +15013,8 @@
       <c r="I87" t="s">
         <v>2899</v>
       </c>
-      <c r="J87" s="5">
-        <v>76</v>
+      <c r="J87" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K87" s="5" t="s">
         <v>2824</v>
@@ -15039,8 +15051,8 @@
       <c r="I88" t="s">
         <v>2900</v>
       </c>
-      <c r="J88" s="5">
-        <v>77</v>
+      <c r="J88" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K88" s="5" t="s">
         <v>2824</v>
@@ -15077,8 +15089,8 @@
       <c r="I89" t="s">
         <v>2901</v>
       </c>
-      <c r="J89" s="5">
-        <v>78</v>
+      <c r="J89" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K89" s="5" t="s">
         <v>2824</v>
@@ -15115,8 +15127,8 @@
       <c r="I90" t="s">
         <v>2902</v>
       </c>
-      <c r="J90" s="5">
-        <v>79</v>
+      <c r="J90" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K90" s="5" t="s">
         <v>2824</v>
@@ -15153,8 +15165,8 @@
       <c r="I91" t="s">
         <v>2903</v>
       </c>
-      <c r="J91" s="5">
-        <v>80</v>
+      <c r="J91" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K91" s="5" t="s">
         <v>2824</v>
@@ -15191,8 +15203,8 @@
       <c r="I92" t="s">
         <v>2904</v>
       </c>
-      <c r="J92" s="5">
-        <v>81</v>
+      <c r="J92" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K92" s="5" t="s">
         <v>2824</v>
@@ -15229,8 +15241,8 @@
       <c r="I93" t="s">
         <v>2905</v>
       </c>
-      <c r="J93" s="5">
-        <v>82</v>
+      <c r="J93" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K93" s="5" t="s">
         <v>2824</v>
@@ -15267,8 +15279,8 @@
       <c r="I94" t="s">
         <v>2906</v>
       </c>
-      <c r="J94" s="5">
-        <v>83</v>
+      <c r="J94" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K94" s="5" t="s">
         <v>2824</v>
@@ -15305,8 +15317,8 @@
       <c r="I95" t="s">
         <v>2907</v>
       </c>
-      <c r="J95" s="5">
-        <v>84</v>
+      <c r="J95" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K95" s="5" t="s">
         <v>2824</v>
@@ -15343,8 +15355,8 @@
       <c r="I96" t="s">
         <v>2908</v>
       </c>
-      <c r="J96" s="5">
-        <v>85</v>
+      <c r="J96" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K96" s="5" t="s">
         <v>2824</v>
@@ -15381,8 +15393,8 @@
       <c r="I97" t="s">
         <v>2909</v>
       </c>
-      <c r="J97" s="5">
-        <v>86</v>
+      <c r="J97" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K97" s="5" t="s">
         <v>2824</v>
@@ -15419,8 +15431,8 @@
       <c r="I98" t="s">
         <v>2910</v>
       </c>
-      <c r="J98" s="5">
-        <v>87</v>
+      <c r="J98" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K98" s="5" t="s">
         <v>2824</v>
@@ -15457,8 +15469,8 @@
       <c r="I99" t="s">
         <v>2911</v>
       </c>
-      <c r="J99" s="5">
-        <v>88</v>
+      <c r="J99" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K99" s="5" t="s">
         <v>2824</v>
@@ -15495,8 +15507,8 @@
       <c r="I100" t="s">
         <v>2912</v>
       </c>
-      <c r="J100" s="5">
-        <v>89</v>
+      <c r="J100" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K100" s="5" t="s">
         <v>2824</v>
@@ -15533,8 +15545,8 @@
       <c r="I101" t="s">
         <v>2913</v>
       </c>
-      <c r="J101" s="5">
-        <v>90</v>
+      <c r="J101" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K101" s="5" t="s">
         <v>2824</v>
@@ -15571,8 +15583,8 @@
       <c r="I102" t="s">
         <v>2914</v>
       </c>
-      <c r="J102" s="5">
-        <v>91</v>
+      <c r="J102" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K102" s="5" t="s">
         <v>2824</v>
@@ -15609,8 +15621,8 @@
       <c r="I103" t="s">
         <v>2915</v>
       </c>
-      <c r="J103" s="5">
-        <v>92</v>
+      <c r="J103" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K103" s="5" t="s">
         <v>2824</v>
@@ -15647,8 +15659,8 @@
       <c r="I104" t="s">
         <v>2916</v>
       </c>
-      <c r="J104" s="5">
-        <v>93</v>
+      <c r="J104" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K104" s="5" t="s">
         <v>2824</v>
@@ -15685,8 +15697,8 @@
       <c r="I105" t="s">
         <v>2917</v>
       </c>
-      <c r="J105" s="5">
-        <v>94</v>
+      <c r="J105" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K105" s="5" t="s">
         <v>2824</v>
@@ -15723,8 +15735,8 @@
       <c r="I106" t="s">
         <v>2918</v>
       </c>
-      <c r="J106" s="5">
-        <v>95</v>
+      <c r="J106" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K106" s="5" t="s">
         <v>2824</v>
@@ -15761,8 +15773,8 @@
       <c r="I107" t="s">
         <v>2919</v>
       </c>
-      <c r="J107" s="5">
-        <v>96</v>
+      <c r="J107" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K107" s="5" t="s">
         <v>2824</v>
@@ -15799,8 +15811,8 @@
       <c r="I108" t="s">
         <v>2920</v>
       </c>
-      <c r="J108" s="5">
-        <v>97</v>
+      <c r="J108" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K108" s="5" t="s">
         <v>2824</v>
@@ -15837,8 +15849,8 @@
       <c r="I109" t="s">
         <v>2921</v>
       </c>
-      <c r="J109" s="5">
-        <v>98</v>
+      <c r="J109" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K109" s="5" t="s">
         <v>2824</v>
@@ -15875,8 +15887,8 @@
       <c r="I110" t="s">
         <v>2922</v>
       </c>
-      <c r="J110" s="5">
-        <v>99</v>
+      <c r="J110" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K110" s="5" t="s">
         <v>2824</v>
@@ -15913,8 +15925,8 @@
       <c r="I111" t="s">
         <v>2923</v>
       </c>
-      <c r="J111" s="5">
-        <v>100</v>
+      <c r="J111" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K111" s="5" t="s">
         <v>2824</v>
@@ -15951,8 +15963,8 @@
       <c r="I112" t="s">
         <v>2924</v>
       </c>
-      <c r="J112" s="5">
-        <v>101</v>
+      <c r="J112" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K112" s="5" t="s">
         <v>2824</v>
@@ -15989,8 +16001,8 @@
       <c r="I113" t="s">
         <v>2925</v>
       </c>
-      <c r="J113" s="5">
-        <v>102</v>
+      <c r="J113" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K113" s="5" t="s">
         <v>2824</v>
@@ -16027,8 +16039,8 @@
       <c r="I114" t="s">
         <v>2926</v>
       </c>
-      <c r="J114" s="5">
-        <v>103</v>
+      <c r="J114" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K114" s="5" t="s">
         <v>2824</v>
@@ -16065,8 +16077,8 @@
       <c r="I115" t="s">
         <v>2927</v>
       </c>
-      <c r="J115" s="5">
-        <v>104</v>
+      <c r="J115" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K115" s="5" t="s">
         <v>2824</v>
@@ -16103,8 +16115,8 @@
       <c r="I116" t="s">
         <v>2928</v>
       </c>
-      <c r="J116" s="5">
-        <v>105</v>
+      <c r="J116" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K116" s="5" t="s">
         <v>2824</v>
@@ -16141,8 +16153,8 @@
       <c r="I117" t="s">
         <v>2929</v>
       </c>
-      <c r="J117" s="5">
-        <v>106</v>
+      <c r="J117" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K117" s="5" t="s">
         <v>2824</v>
@@ -16179,8 +16191,8 @@
       <c r="I118" t="s">
         <v>2930</v>
       </c>
-      <c r="J118" s="5">
-        <v>107</v>
+      <c r="J118" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K118" s="5" t="s">
         <v>2824</v>
@@ -16217,8 +16229,8 @@
       <c r="I119" t="s">
         <v>2931</v>
       </c>
-      <c r="J119" s="5">
-        <v>108</v>
+      <c r="J119" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K119" s="5" t="s">
         <v>2824</v>
@@ -16255,8 +16267,8 @@
       <c r="I120" t="s">
         <v>2932</v>
       </c>
-      <c r="J120" s="5">
-        <v>109</v>
+      <c r="J120" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K120" s="5" t="s">
         <v>2824</v>
@@ -16293,8 +16305,8 @@
       <c r="I121" t="s">
         <v>2933</v>
       </c>
-      <c r="J121" s="5">
-        <v>110</v>
+      <c r="J121" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K121" s="5" t="s">
         <v>2824</v>
@@ -16331,8 +16343,8 @@
       <c r="I122" t="s">
         <v>2934</v>
       </c>
-      <c r="J122" s="5">
-        <v>111</v>
+      <c r="J122" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K122" s="5" t="s">
         <v>2824</v>
@@ -16369,8 +16381,8 @@
       <c r="I123" t="s">
         <v>2935</v>
       </c>
-      <c r="J123" s="5">
-        <v>112</v>
+      <c r="J123" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K123" s="5" t="s">
         <v>2824</v>
@@ -16407,8 +16419,8 @@
       <c r="I124" t="s">
         <v>2936</v>
       </c>
-      <c r="J124" s="5">
-        <v>113</v>
+      <c r="J124" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K124" s="5" t="s">
         <v>2824</v>
@@ -16445,8 +16457,8 @@
       <c r="I125" t="s">
         <v>2937</v>
       </c>
-      <c r="J125" s="5">
-        <v>114</v>
+      <c r="J125" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K125" s="5" t="s">
         <v>2824</v>
@@ -16483,8 +16495,8 @@
       <c r="I126" t="s">
         <v>2938</v>
       </c>
-      <c r="J126" s="5">
-        <v>115</v>
+      <c r="J126" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K126" s="5" t="s">
         <v>2824</v>
@@ -16521,8 +16533,8 @@
       <c r="I127" t="s">
         <v>2939</v>
       </c>
-      <c r="J127" s="5">
-        <v>116</v>
+      <c r="J127" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K127" s="5" t="s">
         <v>2824</v>
@@ -16559,8 +16571,8 @@
       <c r="I128" t="s">
         <v>2940</v>
       </c>
-      <c r="J128" s="5">
-        <v>117</v>
+      <c r="J128" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K128" s="5" t="s">
         <v>2824</v>
@@ -16597,8 +16609,8 @@
       <c r="I129" t="s">
         <v>2941</v>
       </c>
-      <c r="J129" s="5">
-        <v>118</v>
+      <c r="J129" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K129" s="5" t="s">
         <v>2824</v>
@@ -16635,8 +16647,8 @@
       <c r="I130" t="s">
         <v>2942</v>
       </c>
-      <c r="J130" s="5">
-        <v>119</v>
+      <c r="J130" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K130" s="5" t="s">
         <v>2824</v>
@@ -16673,8 +16685,8 @@
       <c r="I131" t="s">
         <v>2943</v>
       </c>
-      <c r="J131" s="5">
-        <v>120</v>
+      <c r="J131" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K131" s="5" t="s">
         <v>2824</v>
@@ -16711,8 +16723,8 @@
       <c r="I132" t="s">
         <v>2944</v>
       </c>
-      <c r="J132" s="5">
-        <v>121</v>
+      <c r="J132" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K132" s="5" t="s">
         <v>2824</v>
@@ -16749,8 +16761,8 @@
       <c r="I133" t="s">
         <v>2945</v>
       </c>
-      <c r="J133" s="5">
-        <v>122</v>
+      <c r="J133" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K133" s="5" t="s">
         <v>2824</v>
@@ -16787,8 +16799,8 @@
       <c r="I134" t="s">
         <v>2946</v>
       </c>
-      <c r="J134" s="5">
-        <v>123</v>
+      <c r="J134" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K134" s="5" t="s">
         <v>2824</v>
@@ -16825,8 +16837,8 @@
       <c r="I135" t="s">
         <v>2947</v>
       </c>
-      <c r="J135" s="5">
-        <v>124</v>
+      <c r="J135" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K135" s="5" t="s">
         <v>2824</v>
@@ -16863,8 +16875,8 @@
       <c r="I136" t="s">
         <v>2948</v>
       </c>
-      <c r="J136" s="5">
-        <v>125</v>
+      <c r="J136" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K136" s="5" t="s">
         <v>2824</v>
@@ -16901,8 +16913,8 @@
       <c r="I137" t="s">
         <v>2949</v>
       </c>
-      <c r="J137" s="5">
-        <v>126</v>
+      <c r="J137" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K137" s="5" t="s">
         <v>2824</v>
@@ -16939,8 +16951,8 @@
       <c r="I138" t="s">
         <v>2950</v>
       </c>
-      <c r="J138" s="5">
-        <v>127</v>
+      <c r="J138" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K138" s="5" t="s">
         <v>2824</v>
@@ -16977,8 +16989,8 @@
       <c r="I139" t="s">
         <v>2951</v>
       </c>
-      <c r="J139" s="5">
-        <v>128</v>
+      <c r="J139" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K139" s="5" t="s">
         <v>2824</v>
@@ -17015,8 +17027,8 @@
       <c r="I140" t="s">
         <v>2952</v>
       </c>
-      <c r="J140" s="5">
-        <v>129</v>
+      <c r="J140" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K140" s="5" t="s">
         <v>2824</v>
@@ -17053,8 +17065,8 @@
       <c r="I141" t="s">
         <v>2953</v>
       </c>
-      <c r="J141" s="5">
-        <v>130</v>
+      <c r="J141" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K141" s="5" t="s">
         <v>2824</v>
@@ -17091,8 +17103,8 @@
       <c r="I142" t="s">
         <v>2954</v>
       </c>
-      <c r="J142" s="5">
-        <v>131</v>
+      <c r="J142" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K142" s="5" t="s">
         <v>2824</v>
@@ -17129,8 +17141,8 @@
       <c r="I143" t="s">
         <v>2955</v>
       </c>
-      <c r="J143" s="5">
-        <v>132</v>
+      <c r="J143" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K143" s="5" t="s">
         <v>2824</v>
@@ -17167,8 +17179,8 @@
       <c r="I144" t="s">
         <v>2956</v>
       </c>
-      <c r="J144" s="5">
-        <v>133</v>
+      <c r="J144" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K144" s="5" t="s">
         <v>2824</v>
@@ -17205,8 +17217,8 @@
       <c r="I145" t="s">
         <v>2957</v>
       </c>
-      <c r="J145" s="5">
-        <v>134</v>
+      <c r="J145" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K145" s="5" t="s">
         <v>2824</v>
@@ -17243,8 +17255,8 @@
       <c r="I146" t="s">
         <v>2958</v>
       </c>
-      <c r="J146" s="5">
-        <v>135</v>
+      <c r="J146" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K146" s="5" t="s">
         <v>2824</v>
@@ -17281,8 +17293,8 @@
       <c r="I147" t="s">
         <v>2959</v>
       </c>
-      <c r="J147" s="5">
-        <v>136</v>
+      <c r="J147" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K147" s="5" t="s">
         <v>2824</v>
@@ -17319,8 +17331,8 @@
       <c r="I148" t="s">
         <v>2960</v>
       </c>
-      <c r="J148" s="5">
-        <v>137</v>
+      <c r="J148" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K148" s="5" t="s">
         <v>2824</v>
@@ -17357,8 +17369,8 @@
       <c r="I149" t="s">
         <v>2961</v>
       </c>
-      <c r="J149" s="5">
-        <v>138</v>
+      <c r="J149" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K149" s="5" t="s">
         <v>2824</v>
@@ -17395,8 +17407,8 @@
       <c r="I150" t="s">
         <v>2962</v>
       </c>
-      <c r="J150" s="5">
-        <v>139</v>
+      <c r="J150" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K150" s="5" t="s">
         <v>2824</v>
@@ -17433,8 +17445,8 @@
       <c r="I151" t="s">
         <v>2963</v>
       </c>
-      <c r="J151" s="5">
-        <v>140</v>
+      <c r="J151" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K151" s="5" t="s">
         <v>2824</v>
@@ -17471,8 +17483,8 @@
       <c r="I152" t="s">
         <v>2964</v>
       </c>
-      <c r="J152" s="5">
-        <v>141</v>
+      <c r="J152" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K152" s="5" t="s">
         <v>2824</v>
@@ -17509,8 +17521,8 @@
       <c r="I153" t="s">
         <v>2965</v>
       </c>
-      <c r="J153" s="5">
-        <v>142</v>
+      <c r="J153" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K153" s="5" t="s">
         <v>2824</v>
@@ -17547,8 +17559,8 @@
       <c r="I154" t="s">
         <v>2966</v>
       </c>
-      <c r="J154" s="5">
-        <v>143</v>
+      <c r="J154" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K154" s="5" t="s">
         <v>2824</v>
@@ -17585,8 +17597,8 @@
       <c r="I155" t="s">
         <v>2967</v>
       </c>
-      <c r="J155" s="5">
-        <v>144</v>
+      <c r="J155" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K155" s="5" t="s">
         <v>2824</v>
@@ -17623,8 +17635,8 @@
       <c r="I156" t="s">
         <v>2968</v>
       </c>
-      <c r="J156" s="5">
-        <v>145</v>
+      <c r="J156" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K156" s="5" t="s">
         <v>2824</v>
@@ -17661,8 +17673,8 @@
       <c r="I157" t="s">
         <v>2969</v>
       </c>
-      <c r="J157" s="5">
-        <v>146</v>
+      <c r="J157" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K157" s="5" t="s">
         <v>2824</v>
@@ -17699,8 +17711,8 @@
       <c r="I158" t="s">
         <v>2970</v>
       </c>
-      <c r="J158" s="5">
-        <v>147</v>
+      <c r="J158" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K158" s="5" t="s">
         <v>2824</v>
@@ -17737,8 +17749,8 @@
       <c r="I159" t="s">
         <v>2971</v>
       </c>
-      <c r="J159" s="5">
-        <v>148</v>
+      <c r="J159" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K159" s="5" t="s">
         <v>2824</v>
@@ -17775,8 +17787,8 @@
       <c r="I160" t="s">
         <v>2972</v>
       </c>
-      <c r="J160" s="5">
-        <v>149</v>
+      <c r="J160" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K160" s="5" t="s">
         <v>2824</v>
@@ -17813,8 +17825,8 @@
       <c r="I161" t="s">
         <v>2973</v>
       </c>
-      <c r="J161" s="5">
-        <v>150</v>
+      <c r="J161" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K161" s="5" t="s">
         <v>2824</v>
@@ -17851,8 +17863,8 @@
       <c r="I162" t="s">
         <v>2974</v>
       </c>
-      <c r="J162" s="5">
-        <v>151</v>
+      <c r="J162" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K162" s="5" t="s">
         <v>2824</v>
@@ -17889,8 +17901,8 @@
       <c r="I163" t="s">
         <v>2975</v>
       </c>
-      <c r="J163" s="5">
-        <v>152</v>
+      <c r="J163" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K163" s="5" t="s">
         <v>2824</v>
@@ -17927,8 +17939,8 @@
       <c r="I164" t="s">
         <v>2976</v>
       </c>
-      <c r="J164" s="5">
-        <v>153</v>
+      <c r="J164" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K164" s="5" t="s">
         <v>2824</v>
@@ -17965,8 +17977,8 @@
       <c r="I165" t="s">
         <v>2977</v>
       </c>
-      <c r="J165" s="5">
-        <v>154</v>
+      <c r="J165" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K165" s="5" t="s">
         <v>2824</v>
@@ -18003,8 +18015,8 @@
       <c r="I166" t="s">
         <v>2978</v>
       </c>
-      <c r="J166" s="5">
-        <v>155</v>
+      <c r="J166" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K166" s="5" t="s">
         <v>2824</v>
@@ -18041,8 +18053,8 @@
       <c r="I167" t="s">
         <v>2979</v>
       </c>
-      <c r="J167" s="5">
-        <v>156</v>
+      <c r="J167" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K167" s="5" t="s">
         <v>2824</v>
@@ -18079,8 +18091,8 @@
       <c r="I168" t="s">
         <v>2980</v>
       </c>
-      <c r="J168" s="5">
-        <v>157</v>
+      <c r="J168" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K168" s="5" t="s">
         <v>2824</v>
@@ -18117,8 +18129,8 @@
       <c r="I169" t="s">
         <v>2981</v>
       </c>
-      <c r="J169" s="5">
-        <v>158</v>
+      <c r="J169" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K169" s="5" t="s">
         <v>2824</v>
@@ -18155,8 +18167,8 @@
       <c r="I170" t="s">
         <v>2982</v>
       </c>
-      <c r="J170" s="5">
-        <v>159</v>
+      <c r="J170" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K170" s="5" t="s">
         <v>2824</v>
@@ -18193,8 +18205,8 @@
       <c r="I171" t="s">
         <v>2983</v>
       </c>
-      <c r="J171" s="5">
-        <v>160</v>
+      <c r="J171" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K171" s="5" t="s">
         <v>2824</v>
@@ -18231,8 +18243,8 @@
       <c r="I172" t="s">
         <v>2984</v>
       </c>
-      <c r="J172" s="5">
-        <v>161</v>
+      <c r="J172" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K172" s="5" t="s">
         <v>2824</v>
@@ -18269,8 +18281,8 @@
       <c r="I173" t="s">
         <v>2985</v>
       </c>
-      <c r="J173" s="5">
-        <v>162</v>
+      <c r="J173" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K173" s="5" t="s">
         <v>2824</v>
@@ -18307,8 +18319,8 @@
       <c r="I174" t="s">
         <v>2986</v>
       </c>
-      <c r="J174" s="5">
-        <v>163</v>
+      <c r="J174" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K174" s="5" t="s">
         <v>2824</v>
@@ -18345,8 +18357,8 @@
       <c r="I175" t="s">
         <v>2987</v>
       </c>
-      <c r="J175" s="5">
-        <v>164</v>
+      <c r="J175" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K175" s="5" t="s">
         <v>2824</v>
@@ -18383,8 +18395,8 @@
       <c r="I176" t="s">
         <v>2988</v>
       </c>
-      <c r="J176" s="5">
-        <v>165</v>
+      <c r="J176" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K176" s="5" t="s">
         <v>2824</v>
@@ -18421,8 +18433,8 @@
       <c r="I177" t="s">
         <v>2989</v>
       </c>
-      <c r="J177" s="5">
-        <v>166</v>
+      <c r="J177" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K177" s="5" t="s">
         <v>2824</v>
@@ -18459,8 +18471,8 @@
       <c r="I178" t="s">
         <v>2990</v>
       </c>
-      <c r="J178" s="5">
-        <v>167</v>
+      <c r="J178" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K178" s="5" t="s">
         <v>2824</v>
@@ -18497,8 +18509,8 @@
       <c r="I179" t="s">
         <v>2991</v>
       </c>
-      <c r="J179" s="5">
-        <v>168</v>
+      <c r="J179" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K179" s="5" t="s">
         <v>2824</v>
@@ -18535,8 +18547,8 @@
       <c r="I180" t="s">
         <v>2992</v>
       </c>
-      <c r="J180" s="5">
-        <v>169</v>
+      <c r="J180" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K180" s="5" t="s">
         <v>2824</v>
@@ -18573,8 +18585,8 @@
       <c r="I181" t="s">
         <v>2993</v>
       </c>
-      <c r="J181" s="5">
-        <v>170</v>
+      <c r="J181" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K181" s="5" t="s">
         <v>2824</v>
@@ -18611,8 +18623,8 @@
       <c r="I182" t="s">
         <v>2994</v>
       </c>
-      <c r="J182" s="5">
-        <v>171</v>
+      <c r="J182" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K182" s="5" t="s">
         <v>2824</v>
@@ -18649,8 +18661,8 @@
       <c r="I183" t="s">
         <v>2995</v>
       </c>
-      <c r="J183" s="5">
-        <v>172</v>
+      <c r="J183" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K183" s="5" t="s">
         <v>2824</v>
@@ -18687,8 +18699,8 @@
       <c r="I184" t="s">
         <v>2996</v>
       </c>
-      <c r="J184" s="5">
-        <v>173</v>
+      <c r="J184" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K184" s="5" t="s">
         <v>2824</v>
@@ -18725,8 +18737,8 @@
       <c r="I185" t="s">
         <v>2997</v>
       </c>
-      <c r="J185" s="5">
-        <v>174</v>
+      <c r="J185" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K185" s="5" t="s">
         <v>2824</v>
@@ -18763,8 +18775,8 @@
       <c r="I186" t="s">
         <v>2998</v>
       </c>
-      <c r="J186" s="5">
-        <v>175</v>
+      <c r="J186" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K186" s="5" t="s">
         <v>2824</v>
@@ -18801,8 +18813,8 @@
       <c r="I187" t="s">
         <v>2999</v>
       </c>
-      <c r="J187" s="5">
-        <v>176</v>
+      <c r="J187" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K187" s="5" t="s">
         <v>2824</v>
@@ -18839,8 +18851,8 @@
       <c r="I188" t="s">
         <v>3000</v>
       </c>
-      <c r="J188" s="5">
-        <v>177</v>
+      <c r="J188" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K188" s="5" t="s">
         <v>2824</v>
@@ -18877,8 +18889,8 @@
       <c r="I189" t="s">
         <v>3001</v>
       </c>
-      <c r="J189" s="5">
-        <v>178</v>
+      <c r="J189" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K189" s="5" t="s">
         <v>2824</v>
@@ -18915,8 +18927,8 @@
       <c r="I190" t="s">
         <v>3002</v>
       </c>
-      <c r="J190" s="5">
-        <v>179</v>
+      <c r="J190" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K190" s="5" t="s">
         <v>2824</v>
@@ -18953,8 +18965,8 @@
       <c r="I191" t="s">
         <v>3003</v>
       </c>
-      <c r="J191" s="5">
-        <v>180</v>
+      <c r="J191" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K191" s="5" t="s">
         <v>2824</v>
@@ -18991,8 +19003,8 @@
       <c r="I192" t="s">
         <v>3004</v>
       </c>
-      <c r="J192" s="5">
-        <v>181</v>
+      <c r="J192" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K192" s="5" t="s">
         <v>2824</v>
@@ -19029,8 +19041,8 @@
       <c r="I193" t="s">
         <v>3005</v>
       </c>
-      <c r="J193" s="5">
-        <v>182</v>
+      <c r="J193" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K193" s="5" t="s">
         <v>2824</v>
@@ -19067,8 +19079,8 @@
       <c r="I194" t="s">
         <v>3006</v>
       </c>
-      <c r="J194" s="5">
-        <v>183</v>
+      <c r="J194" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K194" s="5" t="s">
         <v>2824</v>
@@ -19105,8 +19117,8 @@
       <c r="I195" t="s">
         <v>3007</v>
       </c>
-      <c r="J195" s="5">
-        <v>184</v>
+      <c r="J195" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K195" s="5" t="s">
         <v>2824</v>
@@ -19143,8 +19155,8 @@
       <c r="I196" t="s">
         <v>3008</v>
       </c>
-      <c r="J196" s="5">
-        <v>185</v>
+      <c r="J196" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K196" s="5" t="s">
         <v>2824</v>
@@ -19181,8 +19193,8 @@
       <c r="I197" t="s">
         <v>3009</v>
       </c>
-      <c r="J197" s="5">
-        <v>186</v>
+      <c r="J197" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K197" s="5" t="s">
         <v>2824</v>
@@ -19219,8 +19231,8 @@
       <c r="I198" t="s">
         <v>3010</v>
       </c>
-      <c r="J198" s="5">
-        <v>187</v>
+      <c r="J198" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K198" s="5" t="s">
         <v>2824</v>
@@ -19257,8 +19269,8 @@
       <c r="I199" t="s">
         <v>3011</v>
       </c>
-      <c r="J199" s="5">
-        <v>188</v>
+      <c r="J199" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K199" s="5" t="s">
         <v>2824</v>
@@ -19295,8 +19307,8 @@
       <c r="I200" t="s">
         <v>3012</v>
       </c>
-      <c r="J200" s="5">
-        <v>189</v>
+      <c r="J200" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K200" s="5" t="s">
         <v>2824</v>
@@ -19333,8 +19345,8 @@
       <c r="I201" t="s">
         <v>3013</v>
       </c>
-      <c r="J201" s="5">
-        <v>190</v>
+      <c r="J201" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K201" s="5" t="s">
         <v>2824</v>
@@ -19371,8 +19383,8 @@
       <c r="I202" t="s">
         <v>3014</v>
       </c>
-      <c r="J202" s="5">
-        <v>191</v>
+      <c r="J202" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K202" s="5" t="s">
         <v>2824</v>
@@ -19409,8 +19421,8 @@
       <c r="I203" t="s">
         <v>3015</v>
       </c>
-      <c r="J203" s="5">
-        <v>192</v>
+      <c r="J203" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K203" s="5" t="s">
         <v>2824</v>
@@ -19447,8 +19459,8 @@
       <c r="I204" t="s">
         <v>3016</v>
       </c>
-      <c r="J204" s="5">
-        <v>193</v>
+      <c r="J204" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K204" s="5" t="s">
         <v>2824</v>
@@ -19485,8 +19497,8 @@
       <c r="I205" t="s">
         <v>3017</v>
       </c>
-      <c r="J205" s="5">
-        <v>194</v>
+      <c r="J205" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K205" s="5" t="s">
         <v>2824</v>
@@ -19523,8 +19535,8 @@
       <c r="I206" t="s">
         <v>3018</v>
       </c>
-      <c r="J206" s="5">
-        <v>195</v>
+      <c r="J206" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K206" s="5" t="s">
         <v>2824</v>
@@ -19561,8 +19573,8 @@
       <c r="I207" t="s">
         <v>3019</v>
       </c>
-      <c r="J207" s="5">
-        <v>196</v>
+      <c r="J207" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K207" s="5" t="s">
         <v>2824</v>
@@ -19599,8 +19611,8 @@
       <c r="I208" t="s">
         <v>3020</v>
       </c>
-      <c r="J208" s="5">
-        <v>197</v>
+      <c r="J208" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K208" s="5" t="s">
         <v>2824</v>
@@ -19637,8 +19649,8 @@
       <c r="I209" t="s">
         <v>3021</v>
       </c>
-      <c r="J209" s="5">
-        <v>198</v>
+      <c r="J209" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K209" s="5" t="s">
         <v>2824</v>
@@ -19675,8 +19687,8 @@
       <c r="I210" t="s">
         <v>3022</v>
       </c>
-      <c r="J210" s="5">
-        <v>199</v>
+      <c r="J210" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K210" s="5" t="s">
         <v>2824</v>
@@ -19713,8 +19725,8 @@
       <c r="I211" t="s">
         <v>3023</v>
       </c>
-      <c r="J211" s="5">
-        <v>200</v>
+      <c r="J211" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K211" s="5" t="s">
         <v>2824</v>
@@ -19751,8 +19763,8 @@
       <c r="I212" t="s">
         <v>3024</v>
       </c>
-      <c r="J212" s="5">
-        <v>201</v>
+      <c r="J212" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K212" s="5" t="s">
         <v>2824</v>
@@ -19789,8 +19801,8 @@
       <c r="I213" t="s">
         <v>3025</v>
       </c>
-      <c r="J213" s="5">
-        <v>202</v>
+      <c r="J213" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K213" s="5" t="s">
         <v>2824</v>
@@ -19827,8 +19839,8 @@
       <c r="I214" t="s">
         <v>3026</v>
       </c>
-      <c r="J214" s="5">
-        <v>203</v>
+      <c r="J214" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K214" s="5" t="s">
         <v>2824</v>
@@ -19865,8 +19877,8 @@
       <c r="I215" t="s">
         <v>3027</v>
       </c>
-      <c r="J215" s="5">
-        <v>204</v>
+      <c r="J215" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K215" s="5" t="s">
         <v>2824</v>
@@ -19903,8 +19915,8 @@
       <c r="I216" t="s">
         <v>3028</v>
       </c>
-      <c r="J216" s="5">
-        <v>205</v>
+      <c r="J216" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K216" s="5" t="s">
         <v>2824</v>
@@ -19941,8 +19953,8 @@
       <c r="I217" t="s">
         <v>3029</v>
       </c>
-      <c r="J217" s="5">
-        <v>206</v>
+      <c r="J217" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K217" s="5" t="s">
         <v>2824</v>
@@ -19979,8 +19991,8 @@
       <c r="I218" t="s">
         <v>3030</v>
       </c>
-      <c r="J218" s="5">
-        <v>207</v>
+      <c r="J218" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K218" s="5" t="s">
         <v>2824</v>
@@ -20017,8 +20029,8 @@
       <c r="I219" t="s">
         <v>3031</v>
       </c>
-      <c r="J219" s="5">
-        <v>208</v>
+      <c r="J219" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K219" s="5" t="s">
         <v>2824</v>
@@ -20055,8 +20067,8 @@
       <c r="I220" t="s">
         <v>3032</v>
       </c>
-      <c r="J220" s="5">
-        <v>209</v>
+      <c r="J220" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K220" s="5" t="s">
         <v>2824</v>
@@ -20093,8 +20105,8 @@
       <c r="I221" t="s">
         <v>3033</v>
       </c>
-      <c r="J221" s="5">
-        <v>210</v>
+      <c r="J221" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K221" s="5" t="s">
         <v>2824</v>
@@ -20131,8 +20143,8 @@
       <c r="I222" t="s">
         <v>3034</v>
       </c>
-      <c r="J222" s="5">
-        <v>211</v>
+      <c r="J222" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K222" s="5" t="s">
         <v>2824</v>
@@ -20169,8 +20181,8 @@
       <c r="I223" t="s">
         <v>3035</v>
       </c>
-      <c r="J223" s="5">
-        <v>212</v>
+      <c r="J223" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K223" s="5" t="s">
         <v>2824</v>
@@ -20207,8 +20219,8 @@
       <c r="I224" t="s">
         <v>3036</v>
       </c>
-      <c r="J224" s="5">
-        <v>213</v>
+      <c r="J224" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K224" s="5" t="s">
         <v>2824</v>
@@ -20245,8 +20257,8 @@
       <c r="I225" t="s">
         <v>3037</v>
       </c>
-      <c r="J225" s="5">
-        <v>214</v>
+      <c r="J225" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K225" s="5" t="s">
         <v>2824</v>
@@ -20283,8 +20295,8 @@
       <c r="I226" t="s">
         <v>3038</v>
       </c>
-      <c r="J226" s="5">
-        <v>215</v>
+      <c r="J226" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K226" s="5" t="s">
         <v>2824</v>
@@ -20321,8 +20333,8 @@
       <c r="I227" t="s">
         <v>3039</v>
       </c>
-      <c r="J227" s="5">
-        <v>216</v>
+      <c r="J227" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K227" s="5" t="s">
         <v>2824</v>
@@ -20359,8 +20371,8 @@
       <c r="I228" t="s">
         <v>3040</v>
       </c>
-      <c r="J228" s="5">
-        <v>217</v>
+      <c r="J228" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K228" s="5" t="s">
         <v>2824</v>
@@ -20397,8 +20409,8 @@
       <c r="I229" t="s">
         <v>3041</v>
       </c>
-      <c r="J229" s="5">
-        <v>218</v>
+      <c r="J229" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K229" s="5" t="s">
         <v>2824</v>
@@ -20435,8 +20447,8 @@
       <c r="I230" t="s">
         <v>3042</v>
       </c>
-      <c r="J230" s="5">
-        <v>219</v>
+      <c r="J230" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K230" s="5" t="s">
         <v>2824</v>
@@ -20473,8 +20485,8 @@
       <c r="I231" t="s">
         <v>3043</v>
       </c>
-      <c r="J231" s="5">
-        <v>220</v>
+      <c r="J231" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K231" s="5" t="s">
         <v>2824</v>
@@ -20511,8 +20523,8 @@
       <c r="I232" t="s">
         <v>3044</v>
       </c>
-      <c r="J232" s="5">
-        <v>221</v>
+      <c r="J232" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K232" s="5" t="s">
         <v>2824</v>
@@ -20549,8 +20561,8 @@
       <c r="I233" t="s">
         <v>3045</v>
       </c>
-      <c r="J233" s="5">
-        <v>222</v>
+      <c r="J233" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K233" s="5" t="s">
         <v>2824</v>
@@ -20587,8 +20599,8 @@
       <c r="I234" t="s">
         <v>3046</v>
       </c>
-      <c r="J234" s="5">
-        <v>223</v>
+      <c r="J234" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K234" s="5" t="s">
         <v>2824</v>
@@ -20625,8 +20637,8 @@
       <c r="I235" t="s">
         <v>3047</v>
       </c>
-      <c r="J235" s="5">
-        <v>224</v>
+      <c r="J235" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K235" s="5" t="s">
         <v>2824</v>
@@ -20663,8 +20675,8 @@
       <c r="I236" t="s">
         <v>3048</v>
       </c>
-      <c r="J236" s="5">
-        <v>225</v>
+      <c r="J236" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K236" s="5" t="s">
         <v>2824</v>
@@ -20701,8 +20713,8 @@
       <c r="I237" t="s">
         <v>3049</v>
       </c>
-      <c r="J237" s="5">
-        <v>226</v>
+      <c r="J237" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K237" s="5" t="s">
         <v>2824</v>
@@ -20739,8 +20751,8 @@
       <c r="I238" t="s">
         <v>3050</v>
       </c>
-      <c r="J238" s="5">
-        <v>227</v>
+      <c r="J238" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K238" s="5" t="s">
         <v>2824</v>
@@ -20777,8 +20789,8 @@
       <c r="I239" t="s">
         <v>3051</v>
       </c>
-      <c r="J239" s="5">
-        <v>228</v>
+      <c r="J239" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K239" s="5" t="s">
         <v>2824</v>
@@ -20815,8 +20827,8 @@
       <c r="I240" t="s">
         <v>3052</v>
       </c>
-      <c r="J240" s="5">
-        <v>229</v>
+      <c r="J240" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K240" s="5" t="s">
         <v>2824</v>
@@ -20853,8 +20865,8 @@
       <c r="I241" t="s">
         <v>3053</v>
       </c>
-      <c r="J241" s="5">
-        <v>230</v>
+      <c r="J241" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K241" s="5" t="s">
         <v>2824</v>
@@ -20891,8 +20903,8 @@
       <c r="I242" t="s">
         <v>3054</v>
       </c>
-      <c r="J242" s="5">
-        <v>231</v>
+      <c r="J242" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K242" s="5" t="s">
         <v>2824</v>
@@ -20929,8 +20941,8 @@
       <c r="I243" t="s">
         <v>3055</v>
       </c>
-      <c r="J243" s="5">
-        <v>232</v>
+      <c r="J243" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K243" s="5" t="s">
         <v>2824</v>
@@ -20967,8 +20979,8 @@
       <c r="I244" t="s">
         <v>3056</v>
       </c>
-      <c r="J244" s="5">
-        <v>233</v>
+      <c r="J244" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K244" s="5" t="s">
         <v>2824</v>
@@ -21005,8 +21017,8 @@
       <c r="I245" t="s">
         <v>3057</v>
       </c>
-      <c r="J245" s="5">
-        <v>234</v>
+      <c r="J245" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K245" s="5" t="s">
         <v>2824</v>
@@ -21043,8 +21055,8 @@
       <c r="I246" t="s">
         <v>3058</v>
       </c>
-      <c r="J246" s="5">
-        <v>235</v>
+      <c r="J246" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K246" s="5" t="s">
         <v>2824</v>
@@ -21081,8 +21093,8 @@
       <c r="I247" t="s">
         <v>3059</v>
       </c>
-      <c r="J247" s="5">
-        <v>236</v>
+      <c r="J247" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K247" s="5" t="s">
         <v>2824</v>
@@ -21119,8 +21131,8 @@
       <c r="I248" t="s">
         <v>3060</v>
       </c>
-      <c r="J248" s="5">
-        <v>237</v>
+      <c r="J248" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K248" s="5" t="s">
         <v>2824</v>
@@ -21157,8 +21169,8 @@
       <c r="I249" t="s">
         <v>3061</v>
       </c>
-      <c r="J249" s="5">
-        <v>238</v>
+      <c r="J249" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K249" s="5" t="s">
         <v>2824</v>
@@ -21195,8 +21207,8 @@
       <c r="I250" t="s">
         <v>3062</v>
       </c>
-      <c r="J250" s="5">
-        <v>239</v>
+      <c r="J250" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K250" s="5" t="s">
         <v>2824</v>
@@ -21233,8 +21245,8 @@
       <c r="I251" t="s">
         <v>3063</v>
       </c>
-      <c r="J251" s="5">
-        <v>240</v>
+      <c r="J251" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K251" s="5" t="s">
         <v>2824</v>
@@ -21271,8 +21283,8 @@
       <c r="I252" t="s">
         <v>3064</v>
       </c>
-      <c r="J252" s="5">
-        <v>241</v>
+      <c r="J252" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K252" s="5" t="s">
         <v>2824</v>
@@ -21309,8 +21321,8 @@
       <c r="I253" t="s">
         <v>3065</v>
       </c>
-      <c r="J253" s="5">
-        <v>242</v>
+      <c r="J253" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K253" s="5" t="s">
         <v>2824</v>
@@ -21347,8 +21359,8 @@
       <c r="I254" t="s">
         <v>3066</v>
       </c>
-      <c r="J254" s="5">
-        <v>243</v>
+      <c r="J254" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K254" s="5" t="s">
         <v>2824</v>
@@ -21385,8 +21397,8 @@
       <c r="I255" t="s">
         <v>3067</v>
       </c>
-      <c r="J255" s="5">
-        <v>244</v>
+      <c r="J255" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K255" s="5" t="s">
         <v>2824</v>
@@ -21423,8 +21435,8 @@
       <c r="I256" t="s">
         <v>3068</v>
       </c>
-      <c r="J256" s="5">
-        <v>245</v>
+      <c r="J256" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K256" s="5" t="s">
         <v>2824</v>
@@ -21461,8 +21473,8 @@
       <c r="I257" t="s">
         <v>3069</v>
       </c>
-      <c r="J257" s="5">
-        <v>246</v>
+      <c r="J257" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K257" s="5" t="s">
         <v>2824</v>
@@ -21499,8 +21511,8 @@
       <c r="I258" t="s">
         <v>3070</v>
       </c>
-      <c r="J258" s="5">
-        <v>247</v>
+      <c r="J258" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K258" s="5" t="s">
         <v>2824</v>
@@ -21537,8 +21549,8 @@
       <c r="I259" t="s">
         <v>3071</v>
       </c>
-      <c r="J259" s="5">
-        <v>248</v>
+      <c r="J259" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K259" s="5" t="s">
         <v>2824</v>
@@ -21575,8 +21587,8 @@
       <c r="I260" t="s">
         <v>3072</v>
       </c>
-      <c r="J260" s="5">
-        <v>249</v>
+      <c r="J260" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K260" s="5" t="s">
         <v>2824</v>
@@ -21613,8 +21625,8 @@
       <c r="I261" t="s">
         <v>3073</v>
       </c>
-      <c r="J261" s="5">
-        <v>250</v>
+      <c r="J261" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K261" s="5" t="s">
         <v>2824</v>
@@ -21651,8 +21663,8 @@
       <c r="I262" t="s">
         <v>3074</v>
       </c>
-      <c r="J262" s="5">
-        <v>251</v>
+      <c r="J262" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K262" s="5" t="s">
         <v>2824</v>
@@ -21689,8 +21701,8 @@
       <c r="I263" t="s">
         <v>3075</v>
       </c>
-      <c r="J263" s="5">
-        <v>252</v>
+      <c r="J263" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K263" s="5" t="s">
         <v>2824</v>
@@ -21727,8 +21739,8 @@
       <c r="I264" t="s">
         <v>3076</v>
       </c>
-      <c r="J264" s="5">
-        <v>253</v>
+      <c r="J264" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K264" s="5" t="s">
         <v>2824</v>
@@ -21765,8 +21777,8 @@
       <c r="I265" t="s">
         <v>3077</v>
       </c>
-      <c r="J265" s="5">
-        <v>254</v>
+      <c r="J265" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K265" s="5" t="s">
         <v>2824</v>
@@ -21803,8 +21815,8 @@
       <c r="I266" t="s">
         <v>3078</v>
       </c>
-      <c r="J266" s="5">
-        <v>255</v>
+      <c r="J266" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K266" s="5" t="s">
         <v>2824</v>
@@ -21841,8 +21853,8 @@
       <c r="I267" t="s">
         <v>3079</v>
       </c>
-      <c r="J267" s="5">
-        <v>256</v>
+      <c r="J267" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K267" s="5" t="s">
         <v>2824</v>
@@ -21879,8 +21891,8 @@
       <c r="I268" t="s">
         <v>3080</v>
       </c>
-      <c r="J268" s="5">
-        <v>257</v>
+      <c r="J268" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K268" s="5" t="s">
         <v>2824</v>
@@ -21917,8 +21929,8 @@
       <c r="I269" t="s">
         <v>3081</v>
       </c>
-      <c r="J269" s="5">
-        <v>258</v>
+      <c r="J269" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K269" s="5" t="s">
         <v>2824</v>
@@ -21955,8 +21967,8 @@
       <c r="I270" t="s">
         <v>3082</v>
       </c>
-      <c r="J270" s="5">
-        <v>259</v>
+      <c r="J270" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K270" s="5" t="s">
         <v>2824</v>
@@ -21993,8 +22005,8 @@
       <c r="I271" t="s">
         <v>3083</v>
       </c>
-      <c r="J271" s="5">
-        <v>260</v>
+      <c r="J271" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K271" s="5" t="s">
         <v>2824</v>
@@ -22031,8 +22043,8 @@
       <c r="I272" t="s">
         <v>3084</v>
       </c>
-      <c r="J272" s="5">
-        <v>261</v>
+      <c r="J272" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K272" s="5" t="s">
         <v>2824</v>
@@ -22069,8 +22081,8 @@
       <c r="I273" t="s">
         <v>3085</v>
       </c>
-      <c r="J273" s="5">
-        <v>262</v>
+      <c r="J273" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K273" s="5" t="s">
         <v>2824</v>
@@ -22107,8 +22119,8 @@
       <c r="I274" t="s">
         <v>3086</v>
       </c>
-      <c r="J274" s="5">
-        <v>263</v>
+      <c r="J274" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K274" s="5" t="s">
         <v>2824</v>
@@ -22145,8 +22157,8 @@
       <c r="I275" t="s">
         <v>3087</v>
       </c>
-      <c r="J275" s="5">
-        <v>264</v>
+      <c r="J275" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K275" s="5" t="s">
         <v>2824</v>
@@ -22183,8 +22195,8 @@
       <c r="I276" t="s">
         <v>3088</v>
       </c>
-      <c r="J276" s="5">
-        <v>265</v>
+      <c r="J276" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K276" s="5" t="s">
         <v>2824</v>
@@ -22221,8 +22233,8 @@
       <c r="I277" t="s">
         <v>3089</v>
       </c>
-      <c r="J277" s="5">
-        <v>266</v>
+      <c r="J277" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K277" s="5" t="s">
         <v>2824</v>
@@ -22259,8 +22271,8 @@
       <c r="I278" t="s">
         <v>3090</v>
       </c>
-      <c r="J278" s="5">
-        <v>267</v>
+      <c r="J278" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K278" s="5" t="s">
         <v>2824</v>
@@ -22297,8 +22309,8 @@
       <c r="I279" t="s">
         <v>3091</v>
       </c>
-      <c r="J279" s="5">
-        <v>268</v>
+      <c r="J279" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K279" s="5" t="s">
         <v>2824</v>
@@ -22335,8 +22347,8 @@
       <c r="I280" t="s">
         <v>3092</v>
       </c>
-      <c r="J280" s="5">
-        <v>269</v>
+      <c r="J280" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K280" s="5" t="s">
         <v>2824</v>
@@ -22373,8 +22385,8 @@
       <c r="I281" t="s">
         <v>3093</v>
       </c>
-      <c r="J281" s="5">
-        <v>270</v>
+      <c r="J281" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K281" s="5" t="s">
         <v>2824</v>
@@ -22411,8 +22423,8 @@
       <c r="I282" t="s">
         <v>3094</v>
       </c>
-      <c r="J282" s="5">
-        <v>271</v>
+      <c r="J282" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K282" s="5" t="s">
         <v>2824</v>
@@ -22449,8 +22461,8 @@
       <c r="I283" t="s">
         <v>3095</v>
       </c>
-      <c r="J283" s="5">
-        <v>272</v>
+      <c r="J283" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K283" s="5" t="s">
         <v>2824</v>
@@ -22487,8 +22499,8 @@
       <c r="I284" t="s">
         <v>3096</v>
       </c>
-      <c r="J284" s="5">
-        <v>273</v>
+      <c r="J284" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K284" s="5" t="s">
         <v>2824</v>
@@ -22525,8 +22537,8 @@
       <c r="I285" t="s">
         <v>3097</v>
       </c>
-      <c r="J285" s="5">
-        <v>274</v>
+      <c r="J285" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K285" s="5" t="s">
         <v>2824</v>
@@ -22563,8 +22575,8 @@
       <c r="I286" t="s">
         <v>3098</v>
       </c>
-      <c r="J286" s="5">
-        <v>275</v>
+      <c r="J286" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K286" s="5" t="s">
         <v>2824</v>
@@ -22601,8 +22613,8 @@
       <c r="I287" t="s">
         <v>3099</v>
       </c>
-      <c r="J287" s="5">
-        <v>276</v>
+      <c r="J287" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K287" s="5" t="s">
         <v>2824</v>
@@ -22639,8 +22651,8 @@
       <c r="I288" t="s">
         <v>3100</v>
       </c>
-      <c r="J288" s="5">
-        <v>277</v>
+      <c r="J288" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K288" s="5" t="s">
         <v>2824</v>
@@ -22677,8 +22689,8 @@
       <c r="I289" t="s">
         <v>3101</v>
       </c>
-      <c r="J289" s="5">
-        <v>278</v>
+      <c r="J289" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K289" s="5" t="s">
         <v>2824</v>
@@ -22715,8 +22727,8 @@
       <c r="I290" t="s">
         <v>3102</v>
       </c>
-      <c r="J290" s="5">
-        <v>279</v>
+      <c r="J290" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K290" s="5" t="s">
         <v>2824</v>
@@ -22753,8 +22765,8 @@
       <c r="I291" t="s">
         <v>3103</v>
       </c>
-      <c r="J291" s="5">
-        <v>280</v>
+      <c r="J291" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K291" s="5" t="s">
         <v>2824</v>
@@ -22791,8 +22803,8 @@
       <c r="I292" t="s">
         <v>3104</v>
       </c>
-      <c r="J292" s="5">
-        <v>281</v>
+      <c r="J292" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K292" s="5" t="s">
         <v>2824</v>
@@ -22829,8 +22841,8 @@
       <c r="I293" t="s">
         <v>3105</v>
       </c>
-      <c r="J293" s="5">
-        <v>282</v>
+      <c r="J293" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K293" s="5" t="s">
         <v>2824</v>
@@ -22867,8 +22879,8 @@
       <c r="I294" t="s">
         <v>3106</v>
       </c>
-      <c r="J294" s="5">
-        <v>283</v>
+      <c r="J294" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K294" s="5" t="s">
         <v>2824</v>
@@ -22905,8 +22917,8 @@
       <c r="I295" t="s">
         <v>3107</v>
       </c>
-      <c r="J295" s="5">
-        <v>284</v>
+      <c r="J295" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K295" s="5" t="s">
         <v>2824</v>
@@ -22943,8 +22955,8 @@
       <c r="I296" t="s">
         <v>3108</v>
       </c>
-      <c r="J296" s="5">
-        <v>285</v>
+      <c r="J296" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K296" s="5" t="s">
         <v>2824</v>
@@ -22981,8 +22993,8 @@
       <c r="I297" t="s">
         <v>3109</v>
       </c>
-      <c r="J297" s="5">
-        <v>286</v>
+      <c r="J297" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K297" s="5" t="s">
         <v>2824</v>
@@ -23019,8 +23031,8 @@
       <c r="I298" t="s">
         <v>3110</v>
       </c>
-      <c r="J298" s="5">
-        <v>287</v>
+      <c r="J298" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K298" s="5" t="s">
         <v>2824</v>
@@ -23057,8 +23069,8 @@
       <c r="I299" t="s">
         <v>3111</v>
       </c>
-      <c r="J299" s="5">
-        <v>288</v>
+      <c r="J299" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K299" s="5" t="s">
         <v>2824</v>
@@ -23095,8 +23107,8 @@
       <c r="I300" t="s">
         <v>3112</v>
       </c>
-      <c r="J300" s="5">
-        <v>289</v>
+      <c r="J300" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K300" s="5" t="s">
         <v>2824</v>
@@ -23133,8 +23145,8 @@
       <c r="I301" t="s">
         <v>3113</v>
       </c>
-      <c r="J301" s="5">
-        <v>290</v>
+      <c r="J301" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K301" s="5" t="s">
         <v>2824</v>
@@ -23171,8 +23183,8 @@
       <c r="I302" t="s">
         <v>3114</v>
       </c>
-      <c r="J302" s="5">
-        <v>291</v>
+      <c r="J302" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K302" s="5" t="s">
         <v>2824</v>
@@ -23209,8 +23221,8 @@
       <c r="I303" t="s">
         <v>3115</v>
       </c>
-      <c r="J303" s="5">
-        <v>292</v>
+      <c r="J303" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K303" s="5" t="s">
         <v>2824</v>
@@ -23247,8 +23259,8 @@
       <c r="I304" t="s">
         <v>3116</v>
       </c>
-      <c r="J304" s="5">
-        <v>293</v>
+      <c r="J304" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K304" s="5" t="s">
         <v>2824</v>
@@ -23285,8 +23297,8 @@
       <c r="I305" t="s">
         <v>3117</v>
       </c>
-      <c r="J305" s="5">
-        <v>294</v>
+      <c r="J305" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K305" s="5" t="s">
         <v>2824</v>
@@ -23323,8 +23335,8 @@
       <c r="I306" t="s">
         <v>3118</v>
       </c>
-      <c r="J306" s="5">
-        <v>295</v>
+      <c r="J306" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K306" s="5" t="s">
         <v>2824</v>
@@ -23361,8 +23373,8 @@
       <c r="I307" t="s">
         <v>3119</v>
       </c>
-      <c r="J307" s="5">
-        <v>296</v>
+      <c r="J307" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K307" s="5" t="s">
         <v>2824</v>
@@ -23399,8 +23411,8 @@
       <c r="I308" t="s">
         <v>3120</v>
       </c>
-      <c r="J308" s="5">
-        <v>297</v>
+      <c r="J308" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K308" s="5" t="s">
         <v>2824</v>
@@ -23437,8 +23449,8 @@
       <c r="I309" t="s">
         <v>3121</v>
       </c>
-      <c r="J309" s="5">
-        <v>298</v>
+      <c r="J309" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K309" s="5" t="s">
         <v>2824</v>
@@ -23475,8 +23487,8 @@
       <c r="I310" t="s">
         <v>3122</v>
       </c>
-      <c r="J310" s="5">
-        <v>299</v>
+      <c r="J310" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K310" s="5" t="s">
         <v>2824</v>
@@ -23513,8 +23525,8 @@
       <c r="I311" t="s">
         <v>3123</v>
       </c>
-      <c r="J311" s="5">
-        <v>300</v>
+      <c r="J311" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K311" s="5" t="s">
         <v>2824</v>
@@ -23551,8 +23563,8 @@
       <c r="I312" t="s">
         <v>3124</v>
       </c>
-      <c r="J312" s="5">
-        <v>301</v>
+      <c r="J312" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K312" s="5" t="s">
         <v>2824</v>
@@ -23589,8 +23601,8 @@
       <c r="I313" t="s">
         <v>3125</v>
       </c>
-      <c r="J313" s="5">
-        <v>302</v>
+      <c r="J313" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K313" s="5" t="s">
         <v>2824</v>
@@ -23627,8 +23639,8 @@
       <c r="I314" t="s">
         <v>3126</v>
       </c>
-      <c r="J314" s="5">
-        <v>303</v>
+      <c r="J314" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K314" s="5" t="s">
         <v>2824</v>
@@ -23665,8 +23677,8 @@
       <c r="I315" t="s">
         <v>3127</v>
       </c>
-      <c r="J315" s="5">
-        <v>304</v>
+      <c r="J315" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K315" s="5" t="s">
         <v>2824</v>
@@ -23703,8 +23715,8 @@
       <c r="I316" t="s">
         <v>3128</v>
       </c>
-      <c r="J316" s="5">
-        <v>305</v>
+      <c r="J316" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K316" s="5" t="s">
         <v>2824</v>
@@ -23741,8 +23753,8 @@
       <c r="I317" t="s">
         <v>3129</v>
       </c>
-      <c r="J317" s="5">
-        <v>306</v>
+      <c r="J317" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K317" s="5" t="s">
         <v>2824</v>
@@ -23779,8 +23791,8 @@
       <c r="I318" t="s">
         <v>3130</v>
       </c>
-      <c r="J318" s="5">
-        <v>307</v>
+      <c r="J318" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K318" s="5" t="s">
         <v>2824</v>
@@ -23817,8 +23829,8 @@
       <c r="I319" t="s">
         <v>3131</v>
       </c>
-      <c r="J319" s="5">
-        <v>308</v>
+      <c r="J319" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K319" s="5" t="s">
         <v>2824</v>
@@ -23855,8 +23867,8 @@
       <c r="I320" t="s">
         <v>3132</v>
       </c>
-      <c r="J320" s="5">
-        <v>309</v>
+      <c r="J320" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K320" s="5" t="s">
         <v>2824</v>
@@ -23893,8 +23905,8 @@
       <c r="I321" t="s">
         <v>3133</v>
       </c>
-      <c r="J321" s="5">
-        <v>310</v>
+      <c r="J321" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K321" s="5" t="s">
         <v>2824</v>
@@ -23931,8 +23943,8 @@
       <c r="I322" t="s">
         <v>3134</v>
       </c>
-      <c r="J322" s="5">
-        <v>311</v>
+      <c r="J322" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K322" s="5" t="s">
         <v>2824</v>
@@ -23969,8 +23981,8 @@
       <c r="I323" t="s">
         <v>3135</v>
       </c>
-      <c r="J323" s="5">
-        <v>312</v>
+      <c r="J323" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K323" s="5" t="s">
         <v>2824</v>
@@ -24007,8 +24019,8 @@
       <c r="I324" t="s">
         <v>3136</v>
       </c>
-      <c r="J324" s="5">
-        <v>313</v>
+      <c r="J324" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K324" s="5" t="s">
         <v>2824</v>
@@ -24045,8 +24057,8 @@
       <c r="I325" t="s">
         <v>3137</v>
       </c>
-      <c r="J325" s="5">
-        <v>314</v>
+      <c r="J325" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K325" s="5" t="s">
         <v>2824</v>
@@ -24083,8 +24095,8 @@
       <c r="I326" t="s">
         <v>3138</v>
       </c>
-      <c r="J326" s="5">
-        <v>315</v>
+      <c r="J326" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K326" s="5" t="s">
         <v>2824</v>
@@ -24121,8 +24133,8 @@
       <c r="I327" t="s">
         <v>3139</v>
       </c>
-      <c r="J327" s="5">
-        <v>316</v>
+      <c r="J327" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K327" s="5" t="s">
         <v>2824</v>
@@ -24159,8 +24171,8 @@
       <c r="I328" t="s">
         <v>3140</v>
       </c>
-      <c r="J328" s="5">
-        <v>317</v>
+      <c r="J328" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K328" s="5" t="s">
         <v>2824</v>
@@ -24197,8 +24209,8 @@
       <c r="I329" t="s">
         <v>3141</v>
       </c>
-      <c r="J329" s="5">
-        <v>318</v>
+      <c r="J329" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K329" s="5" t="s">
         <v>2824</v>
@@ -24235,8 +24247,8 @@
       <c r="I330" t="s">
         <v>3142</v>
       </c>
-      <c r="J330" s="5">
-        <v>319</v>
+      <c r="J330" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K330" s="5" t="s">
         <v>2824</v>
@@ -24273,8 +24285,8 @@
       <c r="I331" t="s">
         <v>3143</v>
       </c>
-      <c r="J331" s="5">
-        <v>320</v>
+      <c r="J331" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K331" s="5" t="s">
         <v>2824</v>
@@ -24311,8 +24323,8 @@
       <c r="I332" t="s">
         <v>3144</v>
       </c>
-      <c r="J332" s="5">
-        <v>321</v>
+      <c r="J332" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K332" s="5" t="s">
         <v>2824</v>
@@ -24349,8 +24361,8 @@
       <c r="I333" t="s">
         <v>3145</v>
       </c>
-      <c r="J333" s="5">
-        <v>322</v>
+      <c r="J333" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K333" s="5" t="s">
         <v>2824</v>
@@ -24387,8 +24399,8 @@
       <c r="I334" t="s">
         <v>3146</v>
       </c>
-      <c r="J334" s="5">
-        <v>323</v>
+      <c r="J334" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K334" s="5" t="s">
         <v>2824</v>
@@ -24425,8 +24437,8 @@
       <c r="I335" t="s">
         <v>3147</v>
       </c>
-      <c r="J335" s="5">
-        <v>324</v>
+      <c r="J335" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K335" s="5" t="s">
         <v>2824</v>
@@ -24463,8 +24475,8 @@
       <c r="I336" t="s">
         <v>3148</v>
       </c>
-      <c r="J336" s="5">
-        <v>325</v>
+      <c r="J336" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K336" s="5" t="s">
         <v>2824</v>
@@ -24501,8 +24513,8 @@
       <c r="I337" t="s">
         <v>3149</v>
       </c>
-      <c r="J337" s="5">
-        <v>326</v>
+      <c r="J337" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K337" s="5" t="s">
         <v>2824</v>
@@ -24539,8 +24551,8 @@
       <c r="I338" t="s">
         <v>3150</v>
       </c>
-      <c r="J338" s="5">
-        <v>327</v>
+      <c r="J338" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K338" s="5" t="s">
         <v>2824</v>
@@ -24577,8 +24589,8 @@
       <c r="I339" t="s">
         <v>3151</v>
       </c>
-      <c r="J339" s="5">
-        <v>328</v>
+      <c r="J339" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K339" s="5" t="s">
         <v>2824</v>
@@ -24615,8 +24627,8 @@
       <c r="I340" t="s">
         <v>3152</v>
       </c>
-      <c r="J340" s="5">
-        <v>329</v>
+      <c r="J340" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K340" s="5" t="s">
         <v>2824</v>
@@ -24653,8 +24665,8 @@
       <c r="I341" t="s">
         <v>3153</v>
       </c>
-      <c r="J341" s="5">
-        <v>330</v>
+      <c r="J341" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K341" s="5" t="s">
         <v>2824</v>
@@ -24691,8 +24703,8 @@
       <c r="I342" t="s">
         <v>3154</v>
       </c>
-      <c r="J342" s="5">
-        <v>331</v>
+      <c r="J342" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K342" s="5" t="s">
         <v>2824</v>
@@ -24729,8 +24741,8 @@
       <c r="I343" t="s">
         <v>3155</v>
       </c>
-      <c r="J343" s="5">
-        <v>332</v>
+      <c r="J343" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K343" s="5" t="s">
         <v>2824</v>
@@ -24767,8 +24779,8 @@
       <c r="I344" t="s">
         <v>3156</v>
       </c>
-      <c r="J344" s="5">
-        <v>333</v>
+      <c r="J344" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K344" s="5" t="s">
         <v>2824</v>
@@ -24805,8 +24817,8 @@
       <c r="I345" t="s">
         <v>3157</v>
       </c>
-      <c r="J345" s="5">
-        <v>334</v>
+      <c r="J345" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K345" s="5" t="s">
         <v>2824</v>
@@ -24843,8 +24855,8 @@
       <c r="I346" t="s">
         <v>3158</v>
       </c>
-      <c r="J346" s="5">
-        <v>335</v>
+      <c r="J346" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K346" s="5" t="s">
         <v>2824</v>
@@ -24881,8 +24893,8 @@
       <c r="I347" t="s">
         <v>3159</v>
       </c>
-      <c r="J347" s="5">
-        <v>336</v>
+      <c r="J347" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K347" s="5" t="s">
         <v>2824</v>
@@ -24919,8 +24931,8 @@
       <c r="I348" t="s">
         <v>3160</v>
       </c>
-      <c r="J348" s="5">
-        <v>337</v>
+      <c r="J348" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K348" s="5" t="s">
         <v>2824</v>
@@ -24957,8 +24969,8 @@
       <c r="I349" t="s">
         <v>3161</v>
       </c>
-      <c r="J349" s="5">
-        <v>338</v>
+      <c r="J349" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K349" s="5" t="s">
         <v>2824</v>
@@ -24995,8 +25007,8 @@
       <c r="I350" t="s">
         <v>3162</v>
       </c>
-      <c r="J350" s="5">
-        <v>339</v>
+      <c r="J350" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K350" s="5" t="s">
         <v>2824</v>
@@ -25033,8 +25045,8 @@
       <c r="I351" t="s">
         <v>3163</v>
       </c>
-      <c r="J351" s="5">
-        <v>340</v>
+      <c r="J351" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K351" s="5" t="s">
         <v>2824</v>
@@ -25071,8 +25083,8 @@
       <c r="I352" t="s">
         <v>3164</v>
       </c>
-      <c r="J352" s="5">
-        <v>341</v>
+      <c r="J352" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K352" s="5" t="s">
         <v>2824</v>
@@ -25109,8 +25121,8 @@
       <c r="I353" t="s">
         <v>3165</v>
       </c>
-      <c r="J353" s="5">
-        <v>342</v>
+      <c r="J353" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K353" s="5" t="s">
         <v>2824</v>
@@ -25147,8 +25159,8 @@
       <c r="I354" t="s">
         <v>3166</v>
       </c>
-      <c r="J354" s="5">
-        <v>343</v>
+      <c r="J354" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K354" s="5" t="s">
         <v>2824</v>
@@ -25185,8 +25197,8 @@
       <c r="I355" t="s">
         <v>3167</v>
       </c>
-      <c r="J355" s="5">
-        <v>344</v>
+      <c r="J355" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K355" s="5" t="s">
         <v>2824</v>
@@ -25223,8 +25235,8 @@
       <c r="I356" t="s">
         <v>3168</v>
       </c>
-      <c r="J356" s="5">
-        <v>345</v>
+      <c r="J356" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K356" s="5" t="s">
         <v>2824</v>
@@ -25261,8 +25273,8 @@
       <c r="I357" t="s">
         <v>3169</v>
       </c>
-      <c r="J357" s="5">
-        <v>346</v>
+      <c r="J357" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K357" s="5" t="s">
         <v>2824</v>
@@ -25299,8 +25311,8 @@
       <c r="I358" t="s">
         <v>3170</v>
       </c>
-      <c r="J358" s="5">
-        <v>347</v>
+      <c r="J358" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K358" s="5" t="s">
         <v>2824</v>
@@ -25337,8 +25349,8 @@
       <c r="I359" t="s">
         <v>3171</v>
       </c>
-      <c r="J359" s="5">
-        <v>348</v>
+      <c r="J359" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K359" s="5" t="s">
         <v>2824</v>
@@ -25375,8 +25387,8 @@
       <c r="I360" t="s">
         <v>3172</v>
       </c>
-      <c r="J360" s="5">
-        <v>349</v>
+      <c r="J360" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K360" s="5" t="s">
         <v>2824</v>
@@ -25413,8 +25425,8 @@
       <c r="I361" t="s">
         <v>3173</v>
       </c>
-      <c r="J361" s="5">
-        <v>350</v>
+      <c r="J361" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K361" s="5" t="s">
         <v>2824</v>
@@ -25451,8 +25463,8 @@
       <c r="I362" t="s">
         <v>3174</v>
       </c>
-      <c r="J362" s="5">
-        <v>351</v>
+      <c r="J362" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K362" s="5" t="s">
         <v>2824</v>
@@ -25489,8 +25501,8 @@
       <c r="I363" t="s">
         <v>3175</v>
       </c>
-      <c r="J363" s="5">
-        <v>352</v>
+      <c r="J363" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K363" s="5" t="s">
         <v>2824</v>
@@ -25527,8 +25539,8 @@
       <c r="I364" t="s">
         <v>3176</v>
       </c>
-      <c r="J364" s="5">
-        <v>353</v>
+      <c r="J364" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K364" s="5" t="s">
         <v>2824</v>
@@ -25565,8 +25577,8 @@
       <c r="I365" t="s">
         <v>3177</v>
       </c>
-      <c r="J365" s="5">
-        <v>354</v>
+      <c r="J365" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K365" s="5" t="s">
         <v>2824</v>
@@ -25603,8 +25615,8 @@
       <c r="I366" t="s">
         <v>3178</v>
       </c>
-      <c r="J366" s="5">
-        <v>355</v>
+      <c r="J366" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K366" s="5" t="s">
         <v>2824</v>
@@ -25641,8 +25653,8 @@
       <c r="I367" t="s">
         <v>3179</v>
       </c>
-      <c r="J367" s="5">
-        <v>356</v>
+      <c r="J367" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K367" s="5" t="s">
         <v>2824</v>
@@ -25679,8 +25691,8 @@
       <c r="I368" t="s">
         <v>3180</v>
       </c>
-      <c r="J368" s="5">
-        <v>357</v>
+      <c r="J368" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K368" s="5" t="s">
         <v>2824</v>
@@ -25717,8 +25729,8 @@
       <c r="I369" t="s">
         <v>3181</v>
       </c>
-      <c r="J369" s="5">
-        <v>358</v>
+      <c r="J369" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K369" s="5" t="s">
         <v>2824</v>
@@ -25755,8 +25767,8 @@
       <c r="I370" t="s">
         <v>3182</v>
       </c>
-      <c r="J370" s="5">
-        <v>359</v>
+      <c r="J370" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K370" s="5" t="s">
         <v>2824</v>
@@ -25793,8 +25805,8 @@
       <c r="I371" t="s">
         <v>3183</v>
       </c>
-      <c r="J371" s="5">
-        <v>360</v>
+      <c r="J371" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K371" s="5" t="s">
         <v>2824</v>
@@ -25831,8 +25843,8 @@
       <c r="I372" t="s">
         <v>3184</v>
       </c>
-      <c r="J372" s="5">
-        <v>361</v>
+      <c r="J372" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K372" s="5" t="s">
         <v>2824</v>
@@ -25869,8 +25881,8 @@
       <c r="I373" t="s">
         <v>3185</v>
       </c>
-      <c r="J373" s="5">
-        <v>362</v>
+      <c r="J373" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K373" s="5" t="s">
         <v>2824</v>
@@ -25907,8 +25919,8 @@
       <c r="I374" t="s">
         <v>3186</v>
       </c>
-      <c r="J374" s="5">
-        <v>363</v>
+      <c r="J374" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K374" s="5" t="s">
         <v>2824</v>
@@ -25945,8 +25957,8 @@
       <c r="I375" t="s">
         <v>3187</v>
       </c>
-      <c r="J375" s="5">
-        <v>364</v>
+      <c r="J375" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K375" s="5" t="s">
         <v>2824</v>
@@ -25983,8 +25995,8 @@
       <c r="I376" t="s">
         <v>3188</v>
       </c>
-      <c r="J376" s="5">
-        <v>365</v>
+      <c r="J376" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K376" s="5" t="s">
         <v>2824</v>
@@ -26021,8 +26033,8 @@
       <c r="I377" t="s">
         <v>3189</v>
       </c>
-      <c r="J377" s="5">
-        <v>366</v>
+      <c r="J377" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K377" s="5" t="s">
         <v>2824</v>
@@ -26059,8 +26071,8 @@
       <c r="I378" t="s">
         <v>3190</v>
       </c>
-      <c r="J378" s="5">
-        <v>367</v>
+      <c r="J378" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K378" s="5" t="s">
         <v>2824</v>
@@ -26097,8 +26109,8 @@
       <c r="I379" t="s">
         <v>3191</v>
       </c>
-      <c r="J379" s="5">
-        <v>368</v>
+      <c r="J379" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K379" s="5" t="s">
         <v>2824</v>
@@ -26135,8 +26147,8 @@
       <c r="I380" t="s">
         <v>3192</v>
       </c>
-      <c r="J380" s="5">
-        <v>369</v>
+      <c r="J380" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K380" s="5" t="s">
         <v>2824</v>
@@ -26173,8 +26185,8 @@
       <c r="I381" t="s">
         <v>3193</v>
       </c>
-      <c r="J381" s="5">
-        <v>370</v>
+      <c r="J381" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K381" s="5" t="s">
         <v>2824</v>
@@ -26211,8 +26223,8 @@
       <c r="I382" t="s">
         <v>3194</v>
       </c>
-      <c r="J382" s="5">
-        <v>371</v>
+      <c r="J382" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K382" s="5" t="s">
         <v>2824</v>
@@ -26249,8 +26261,8 @@
       <c r="I383" t="s">
         <v>3195</v>
       </c>
-      <c r="J383" s="5">
-        <v>372</v>
+      <c r="J383" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K383" s="5" t="s">
         <v>2824</v>
@@ -26287,8 +26299,8 @@
       <c r="I384" t="s">
         <v>3196</v>
       </c>
-      <c r="J384" s="5">
-        <v>373</v>
+      <c r="J384" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K384" s="5" t="s">
         <v>2824</v>
@@ -26325,8 +26337,8 @@
       <c r="I385" t="s">
         <v>3197</v>
       </c>
-      <c r="J385" s="5">
-        <v>374</v>
+      <c r="J385" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K385" s="5" t="s">
         <v>2824</v>
@@ -26363,8 +26375,8 @@
       <c r="I386" t="s">
         <v>3198</v>
       </c>
-      <c r="J386" s="5">
-        <v>375</v>
+      <c r="J386" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K386" s="5" t="s">
         <v>2824</v>
@@ -26401,8 +26413,8 @@
       <c r="I387" t="s">
         <v>3199</v>
       </c>
-      <c r="J387" s="5">
-        <v>376</v>
+      <c r="J387" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K387" s="5" t="s">
         <v>2824</v>
@@ -26439,8 +26451,8 @@
       <c r="I388" t="s">
         <v>3200</v>
       </c>
-      <c r="J388" s="5">
-        <v>377</v>
+      <c r="J388" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K388" s="5" t="s">
         <v>2824</v>
@@ -26477,8 +26489,8 @@
       <c r="I389" t="s">
         <v>3201</v>
       </c>
-      <c r="J389" s="5">
-        <v>378</v>
+      <c r="J389" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K389" s="5" t="s">
         <v>2824</v>
@@ -26515,8 +26527,8 @@
       <c r="I390" t="s">
         <v>3202</v>
       </c>
-      <c r="J390" s="5">
-        <v>379</v>
+      <c r="J390" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K390" s="5" t="s">
         <v>2824</v>
@@ -26553,8 +26565,8 @@
       <c r="I391" t="s">
         <v>3203</v>
       </c>
-      <c r="J391" s="5">
-        <v>380</v>
+      <c r="J391" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K391" s="5" t="s">
         <v>2824</v>
@@ -26591,8 +26603,8 @@
       <c r="I392" t="s">
         <v>3204</v>
       </c>
-      <c r="J392" s="5">
-        <v>381</v>
+      <c r="J392" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K392" s="5" t="s">
         <v>2824</v>
@@ -26629,8 +26641,8 @@
       <c r="I393" t="s">
         <v>3205</v>
       </c>
-      <c r="J393" s="5">
-        <v>382</v>
+      <c r="J393" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K393" s="5" t="s">
         <v>2824</v>
@@ -26667,8 +26679,8 @@
       <c r="I394" t="s">
         <v>3206</v>
       </c>
-      <c r="J394" s="5">
-        <v>383</v>
+      <c r="J394" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K394" s="5" t="s">
         <v>2824</v>
@@ -26705,8 +26717,8 @@
       <c r="I395" t="s">
         <v>3207</v>
       </c>
-      <c r="J395" s="5">
-        <v>384</v>
+      <c r="J395" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K395" s="5" t="s">
         <v>2824</v>
@@ -26743,8 +26755,8 @@
       <c r="I396" t="s">
         <v>3208</v>
       </c>
-      <c r="J396" s="5">
-        <v>385</v>
+      <c r="J396" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K396" s="5" t="s">
         <v>2824</v>
@@ -26781,8 +26793,8 @@
       <c r="I397" t="s">
         <v>3209</v>
       </c>
-      <c r="J397" s="5">
-        <v>386</v>
+      <c r="J397" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K397" s="5" t="s">
         <v>2824</v>
@@ -26819,8 +26831,8 @@
       <c r="I398" t="s">
         <v>3210</v>
       </c>
-      <c r="J398" s="5">
-        <v>387</v>
+      <c r="J398" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K398" s="5" t="s">
         <v>2824</v>
@@ -26857,8 +26869,8 @@
       <c r="I399" t="s">
         <v>3211</v>
       </c>
-      <c r="J399" s="5">
-        <v>388</v>
+      <c r="J399" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K399" s="5" t="s">
         <v>2824</v>
@@ -26895,8 +26907,8 @@
       <c r="I400" t="s">
         <v>3212</v>
       </c>
-      <c r="J400" s="5">
-        <v>389</v>
+      <c r="J400" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K400" s="5" t="s">
         <v>2824</v>
@@ -26933,8 +26945,8 @@
       <c r="I401" t="s">
         <v>3213</v>
       </c>
-      <c r="J401" s="5">
-        <v>390</v>
+      <c r="J401" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K401" s="5" t="s">
         <v>2824</v>
@@ -26971,8 +26983,8 @@
       <c r="I402" t="s">
         <v>3214</v>
       </c>
-      <c r="J402" s="5">
-        <v>391</v>
+      <c r="J402" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K402" s="5" t="s">
         <v>2824</v>
@@ -27009,8 +27021,8 @@
       <c r="I403" t="s">
         <v>3215</v>
       </c>
-      <c r="J403" s="5">
-        <v>392</v>
+      <c r="J403" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K403" s="5" t="s">
         <v>2824</v>
@@ -27047,8 +27059,8 @@
       <c r="I404" t="s">
         <v>3216</v>
       </c>
-      <c r="J404" s="5">
-        <v>393</v>
+      <c r="J404" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K404" s="5" t="s">
         <v>2824</v>
@@ -27085,8 +27097,8 @@
       <c r="I405" t="s">
         <v>3217</v>
       </c>
-      <c r="J405" s="5">
-        <v>394</v>
+      <c r="J405" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K405" s="5" t="s">
         <v>2824</v>
@@ -27123,8 +27135,8 @@
       <c r="I406" t="s">
         <v>3218</v>
       </c>
-      <c r="J406" s="5">
-        <v>395</v>
+      <c r="J406" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K406" s="5" t="s">
         <v>2824</v>
@@ -27161,8 +27173,8 @@
       <c r="I407" t="s">
         <v>3219</v>
       </c>
-      <c r="J407" s="5">
-        <v>396</v>
+      <c r="J407" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K407" s="5" t="s">
         <v>2824</v>
@@ -27199,8 +27211,8 @@
       <c r="I408" t="s">
         <v>3220</v>
       </c>
-      <c r="J408" s="5">
-        <v>397</v>
+      <c r="J408" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K408" s="5" t="s">
         <v>2824</v>
@@ -27237,8 +27249,8 @@
       <c r="I409" t="s">
         <v>3221</v>
       </c>
-      <c r="J409" s="5">
-        <v>398</v>
+      <c r="J409" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K409" s="5" t="s">
         <v>2824</v>
@@ -27275,8 +27287,8 @@
       <c r="I410" t="s">
         <v>3222</v>
       </c>
-      <c r="J410" s="5">
-        <v>399</v>
+      <c r="J410" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K410" s="5" t="s">
         <v>2824</v>
@@ -27313,8 +27325,8 @@
       <c r="I411" t="s">
         <v>3223</v>
       </c>
-      <c r="J411" s="5">
-        <v>400</v>
+      <c r="J411" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K411" s="5" t="s">
         <v>2824</v>
@@ -27351,8 +27363,8 @@
       <c r="I412" t="s">
         <v>3224</v>
       </c>
-      <c r="J412" s="5">
-        <v>401</v>
+      <c r="J412" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K412" s="5" t="s">
         <v>2824</v>
@@ -27389,8 +27401,8 @@
       <c r="I413" t="s">
         <v>3225</v>
       </c>
-      <c r="J413" s="5">
-        <v>402</v>
+      <c r="J413" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K413" s="5" t="s">
         <v>2824</v>
@@ -27427,8 +27439,8 @@
       <c r="I414" t="s">
         <v>3226</v>
       </c>
-      <c r="J414" s="5">
-        <v>403</v>
+      <c r="J414" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K414" s="5" t="s">
         <v>2824</v>
@@ -27465,8 +27477,8 @@
       <c r="I415" t="s">
         <v>3227</v>
       </c>
-      <c r="J415" s="5">
-        <v>404</v>
+      <c r="J415" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K415" s="5" t="s">
         <v>2824</v>
@@ -27503,8 +27515,8 @@
       <c r="I416" t="s">
         <v>3228</v>
       </c>
-      <c r="J416" s="5">
-        <v>405</v>
+      <c r="J416" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K416" s="5" t="s">
         <v>2824</v>
@@ -27541,8 +27553,8 @@
       <c r="I417" t="s">
         <v>3229</v>
       </c>
-      <c r="J417" s="5">
-        <v>406</v>
+      <c r="J417" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K417" s="5" t="s">
         <v>2824</v>
@@ -27579,8 +27591,8 @@
       <c r="I418" t="s">
         <v>3230</v>
       </c>
-      <c r="J418" s="5">
-        <v>407</v>
+      <c r="J418" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K418" s="5" t="s">
         <v>2824</v>
@@ -27617,8 +27629,8 @@
       <c r="I419" t="s">
         <v>3231</v>
       </c>
-      <c r="J419" s="5">
-        <v>408</v>
+      <c r="J419" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K419" s="5" t="s">
         <v>2824</v>
@@ -27655,8 +27667,8 @@
       <c r="I420" t="s">
         <v>3232</v>
       </c>
-      <c r="J420" s="5">
-        <v>409</v>
+      <c r="J420" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K420" s="5" t="s">
         <v>2824</v>
@@ -27693,8 +27705,8 @@
       <c r="I421" t="s">
         <v>3233</v>
       </c>
-      <c r="J421" s="5">
-        <v>410</v>
+      <c r="J421" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K421" s="5" t="s">
         <v>2824</v>
@@ -27731,8 +27743,8 @@
       <c r="I422" t="s">
         <v>3234</v>
       </c>
-      <c r="J422" s="5">
-        <v>411</v>
+      <c r="J422" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K422" s="5" t="s">
         <v>2824</v>
@@ -27769,8 +27781,8 @@
       <c r="I423" t="s">
         <v>3235</v>
       </c>
-      <c r="J423" s="5">
-        <v>412</v>
+      <c r="J423" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K423" s="5" t="s">
         <v>2824</v>
@@ -27807,8 +27819,8 @@
       <c r="I424" t="s">
         <v>3236</v>
       </c>
-      <c r="J424" s="5">
-        <v>413</v>
+      <c r="J424" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K424" s="5" t="s">
         <v>2824</v>
@@ -27845,8 +27857,8 @@
       <c r="I425" t="s">
         <v>3237</v>
       </c>
-      <c r="J425" s="5">
-        <v>414</v>
+      <c r="J425" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K425" s="5" t="s">
         <v>2824</v>
@@ -27883,8 +27895,8 @@
       <c r="I426" t="s">
         <v>3238</v>
       </c>
-      <c r="J426" s="5">
-        <v>415</v>
+      <c r="J426" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K426" s="5" t="s">
         <v>2824</v>
@@ -27921,8 +27933,8 @@
       <c r="I427" t="s">
         <v>3239</v>
       </c>
-      <c r="J427" s="5">
-        <v>416</v>
+      <c r="J427" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K427" s="5" t="s">
         <v>2824</v>
@@ -27959,8 +27971,8 @@
       <c r="I428" t="s">
         <v>3240</v>
       </c>
-      <c r="J428" s="5">
-        <v>417</v>
+      <c r="J428" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K428" s="5" t="s">
         <v>2824</v>
@@ -27997,8 +28009,8 @@
       <c r="I429" t="s">
         <v>3241</v>
       </c>
-      <c r="J429" s="5">
-        <v>418</v>
+      <c r="J429" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K429" s="5" t="s">
         <v>2824</v>
@@ -28035,8 +28047,8 @@
       <c r="I430" t="s">
         <v>3242</v>
       </c>
-      <c r="J430" s="5">
-        <v>419</v>
+      <c r="J430" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K430" s="5" t="s">
         <v>2824</v>
@@ -28073,8 +28085,8 @@
       <c r="I431" t="s">
         <v>3243</v>
       </c>
-      <c r="J431" s="5">
-        <v>420</v>
+      <c r="J431" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K431" s="5" t="s">
         <v>2824</v>
@@ -28111,8 +28123,8 @@
       <c r="I432" t="s">
         <v>3244</v>
       </c>
-      <c r="J432" s="5">
-        <v>421</v>
+      <c r="J432" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K432" s="5" t="s">
         <v>2824</v>
@@ -28149,8 +28161,8 @@
       <c r="I433" t="s">
         <v>3245</v>
       </c>
-      <c r="J433" s="5">
-        <v>422</v>
+      <c r="J433" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K433" s="5" t="s">
         <v>2824</v>
@@ -28187,8 +28199,8 @@
       <c r="I434" t="s">
         <v>3246</v>
       </c>
-      <c r="J434" s="5">
-        <v>423</v>
+      <c r="J434" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K434" s="5" t="s">
         <v>2824</v>
@@ -28225,8 +28237,8 @@
       <c r="I435" t="s">
         <v>3247</v>
       </c>
-      <c r="J435" s="5">
-        <v>424</v>
+      <c r="J435" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K435" s="5" t="s">
         <v>2824</v>
@@ -28263,8 +28275,8 @@
       <c r="I436" t="s">
         <v>3248</v>
       </c>
-      <c r="J436" s="5">
-        <v>425</v>
+      <c r="J436" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K436" s="5" t="s">
         <v>2824</v>
@@ -28301,8 +28313,8 @@
       <c r="I437" t="s">
         <v>3249</v>
       </c>
-      <c r="J437" s="5">
-        <v>426</v>
+      <c r="J437" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K437" s="5" t="s">
         <v>2824</v>
@@ -28339,8 +28351,8 @@
       <c r="I438" t="s">
         <v>3250</v>
       </c>
-      <c r="J438" s="5">
-        <v>427</v>
+      <c r="J438" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K438" s="5" t="s">
         <v>2824</v>
@@ -28377,8 +28389,8 @@
       <c r="I439" t="s">
         <v>3251</v>
       </c>
-      <c r="J439" s="5">
-        <v>428</v>
+      <c r="J439" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K439" s="5" t="s">
         <v>2824</v>
@@ -28415,8 +28427,8 @@
       <c r="I440" t="s">
         <v>3252</v>
       </c>
-      <c r="J440" s="5">
-        <v>429</v>
+      <c r="J440" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K440" s="5" t="s">
         <v>2824</v>
@@ -28453,8 +28465,8 @@
       <c r="I441" t="s">
         <v>3253</v>
       </c>
-      <c r="J441" s="5">
-        <v>430</v>
+      <c r="J441" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K441" s="5" t="s">
         <v>2824</v>
@@ -28491,8 +28503,8 @@
       <c r="I442" t="s">
         <v>3254</v>
       </c>
-      <c r="J442" s="5">
-        <v>431</v>
+      <c r="J442" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K442" s="5" t="s">
         <v>2824</v>
@@ -28529,8 +28541,8 @@
       <c r="I443" t="s">
         <v>3255</v>
       </c>
-      <c r="J443" s="5">
-        <v>432</v>
+      <c r="J443" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K443" s="5" t="s">
         <v>2824</v>
@@ -28567,8 +28579,8 @@
       <c r="I444" t="s">
         <v>3256</v>
       </c>
-      <c r="J444" s="5">
-        <v>433</v>
+      <c r="J444" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K444" s="5" t="s">
         <v>2824</v>
@@ -28605,8 +28617,8 @@
       <c r="I445" t="s">
         <v>3257</v>
       </c>
-      <c r="J445" s="5">
-        <v>434</v>
+      <c r="J445" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K445" s="5" t="s">
         <v>2824</v>
@@ -28643,8 +28655,8 @@
       <c r="I446" t="s">
         <v>3258</v>
       </c>
-      <c r="J446" s="5">
-        <v>435</v>
+      <c r="J446" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K446" s="5" t="s">
         <v>2824</v>
@@ -28681,8 +28693,8 @@
       <c r="I447" t="s">
         <v>3259</v>
       </c>
-      <c r="J447" s="5">
-        <v>436</v>
+      <c r="J447" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K447" s="5" t="s">
         <v>2824</v>
@@ -28719,8 +28731,8 @@
       <c r="I448" t="s">
         <v>3260</v>
       </c>
-      <c r="J448" s="5">
-        <v>437</v>
+      <c r="J448" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K448" s="5" t="s">
         <v>2824</v>
@@ -28757,8 +28769,8 @@
       <c r="I449" t="s">
         <v>3261</v>
       </c>
-      <c r="J449" s="5">
-        <v>438</v>
+      <c r="J449" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K449" s="5" t="s">
         <v>2824</v>
@@ -28795,8 +28807,8 @@
       <c r="I450" t="s">
         <v>3262</v>
       </c>
-      <c r="J450" s="5">
-        <v>439</v>
+      <c r="J450" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K450" s="5" t="s">
         <v>2824</v>
@@ -28833,8 +28845,8 @@
       <c r="I451" t="s">
         <v>3263</v>
       </c>
-      <c r="J451" s="5">
-        <v>440</v>
+      <c r="J451" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K451" s="5" t="s">
         <v>2824</v>
@@ -28871,8 +28883,8 @@
       <c r="I452" t="s">
         <v>3264</v>
       </c>
-      <c r="J452" s="5">
-        <v>441</v>
+      <c r="J452" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K452" s="5" t="s">
         <v>2824</v>
@@ -28909,8 +28921,8 @@
       <c r="I453" t="s">
         <v>3265</v>
       </c>
-      <c r="J453" s="5">
-        <v>442</v>
+      <c r="J453" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K453" s="5" t="s">
         <v>2824</v>
@@ -28947,8 +28959,8 @@
       <c r="I454" t="s">
         <v>3266</v>
       </c>
-      <c r="J454" s="5">
-        <v>443</v>
+      <c r="J454" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K454" s="5" t="s">
         <v>2824</v>
@@ -28985,8 +28997,8 @@
       <c r="I455" t="s">
         <v>3267</v>
       </c>
-      <c r="J455" s="5">
-        <v>444</v>
+      <c r="J455" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K455" s="5" t="s">
         <v>2824</v>
@@ -29023,8 +29035,8 @@
       <c r="I456" t="s">
         <v>3268</v>
       </c>
-      <c r="J456" s="5">
-        <v>445</v>
+      <c r="J456" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K456" s="5" t="s">
         <v>2824</v>
@@ -29061,8 +29073,8 @@
       <c r="I457" t="s">
         <v>3269</v>
       </c>
-      <c r="J457" s="5">
-        <v>446</v>
+      <c r="J457" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K457" s="5" t="s">
         <v>2824</v>
@@ -29099,8 +29111,8 @@
       <c r="I458" t="s">
         <v>3270</v>
       </c>
-      <c r="J458" s="5">
-        <v>447</v>
+      <c r="J458" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K458" s="5" t="s">
         <v>2824</v>
@@ -29137,8 +29149,8 @@
       <c r="I459" t="s">
         <v>3271</v>
       </c>
-      <c r="J459" s="5">
-        <v>448</v>
+      <c r="J459" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K459" s="5" t="s">
         <v>2824</v>
@@ -29175,8 +29187,8 @@
       <c r="I460" t="s">
         <v>3272</v>
       </c>
-      <c r="J460" s="5">
-        <v>449</v>
+      <c r="J460" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K460" s="5" t="s">
         <v>2824</v>
@@ -29213,8 +29225,8 @@
       <c r="I461" t="s">
         <v>3273</v>
       </c>
-      <c r="J461" s="5">
-        <v>450</v>
+      <c r="J461" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K461" s="5" t="s">
         <v>2824</v>
@@ -29251,8 +29263,8 @@
       <c r="I462" t="s">
         <v>3274</v>
       </c>
-      <c r="J462" s="5">
-        <v>451</v>
+      <c r="J462" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K462" s="5" t="s">
         <v>2824</v>
@@ -29289,8 +29301,8 @@
       <c r="I463" t="s">
         <v>3275</v>
       </c>
-      <c r="J463" s="5">
-        <v>452</v>
+      <c r="J463" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K463" s="5" t="s">
         <v>2824</v>
@@ -29327,8 +29339,8 @@
       <c r="I464" t="s">
         <v>3276</v>
       </c>
-      <c r="J464" s="5">
-        <v>453</v>
+      <c r="J464" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K464" s="5" t="s">
         <v>2824</v>
@@ -29365,8 +29377,8 @@
       <c r="I465" t="s">
         <v>3277</v>
       </c>
-      <c r="J465" s="5">
-        <v>454</v>
+      <c r="J465" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K465" s="5" t="s">
         <v>2824</v>
@@ -29403,8 +29415,8 @@
       <c r="I466" t="s">
         <v>3278</v>
       </c>
-      <c r="J466" s="5">
-        <v>455</v>
+      <c r="J466" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K466" s="5" t="s">
         <v>2824</v>
@@ -29441,8 +29453,8 @@
       <c r="I467" t="s">
         <v>3279</v>
       </c>
-      <c r="J467" s="5">
-        <v>456</v>
+      <c r="J467" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K467" s="5" t="s">
         <v>2824</v>
@@ -29479,8 +29491,8 @@
       <c r="I468" t="s">
         <v>3280</v>
       </c>
-      <c r="J468" s="5">
-        <v>457</v>
+      <c r="J468" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K468" s="5" t="s">
         <v>2824</v>
@@ -29517,8 +29529,8 @@
       <c r="I469" t="s">
         <v>3281</v>
       </c>
-      <c r="J469" s="5">
-        <v>458</v>
+      <c r="J469" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K469" s="5" t="s">
         <v>2824</v>
@@ -29555,8 +29567,8 @@
       <c r="I470" t="s">
         <v>3282</v>
       </c>
-      <c r="J470" s="5">
-        <v>459</v>
+      <c r="J470" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K470" s="5" t="s">
         <v>2824</v>
@@ -29593,8 +29605,8 @@
       <c r="I471" t="s">
         <v>3283</v>
       </c>
-      <c r="J471" s="5">
-        <v>460</v>
+      <c r="J471" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K471" s="5" t="s">
         <v>2824</v>
@@ -29631,8 +29643,8 @@
       <c r="I472" t="s">
         <v>3284</v>
       </c>
-      <c r="J472" s="5">
-        <v>461</v>
+      <c r="J472" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K472" s="5" t="s">
         <v>2824</v>
@@ -29669,8 +29681,8 @@
       <c r="I473" t="s">
         <v>3285</v>
       </c>
-      <c r="J473" s="5">
-        <v>462</v>
+      <c r="J473" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K473" s="5" t="s">
         <v>2824</v>
@@ -29707,8 +29719,8 @@
       <c r="I474" t="s">
         <v>3286</v>
       </c>
-      <c r="J474" s="5">
-        <v>463</v>
+      <c r="J474" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K474" s="5" t="s">
         <v>2824</v>
@@ -29745,8 +29757,8 @@
       <c r="I475" t="s">
         <v>3287</v>
       </c>
-      <c r="J475" s="5">
-        <v>464</v>
+      <c r="J475" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K475" s="5" t="s">
         <v>2824</v>
@@ -29783,8 +29795,8 @@
       <c r="I476" t="s">
         <v>3288</v>
       </c>
-      <c r="J476" s="5">
-        <v>465</v>
+      <c r="J476" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K476" s="5" t="s">
         <v>2824</v>
@@ -29821,8 +29833,8 @@
       <c r="I477" t="s">
         <v>3289</v>
       </c>
-      <c r="J477" s="5">
-        <v>466</v>
+      <c r="J477" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K477" s="5" t="s">
         <v>2824</v>
@@ -29859,8 +29871,8 @@
       <c r="I478" t="s">
         <v>3290</v>
       </c>
-      <c r="J478" s="5">
-        <v>467</v>
+      <c r="J478" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K478" s="5" t="s">
         <v>2824</v>
@@ -29897,8 +29909,8 @@
       <c r="I479" t="s">
         <v>3291</v>
       </c>
-      <c r="J479" s="5">
-        <v>468</v>
+      <c r="J479" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K479" s="5" t="s">
         <v>2824</v>
@@ -29935,8 +29947,8 @@
       <c r="I480" t="s">
         <v>3292</v>
       </c>
-      <c r="J480" s="5">
-        <v>469</v>
+      <c r="J480" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K480" s="5" t="s">
         <v>2824</v>
@@ -29973,8 +29985,8 @@
       <c r="I481" t="s">
         <v>3293</v>
       </c>
-      <c r="J481" s="5">
-        <v>470</v>
+      <c r="J481" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K481" s="5" t="s">
         <v>2824</v>
@@ -30011,8 +30023,8 @@
       <c r="I482" t="s">
         <v>3294</v>
       </c>
-      <c r="J482" s="5">
-        <v>471</v>
+      <c r="J482" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K482" s="5" t="s">
         <v>2824</v>
@@ -30049,8 +30061,8 @@
       <c r="I483" t="s">
         <v>3295</v>
       </c>
-      <c r="J483" s="5">
-        <v>472</v>
+      <c r="J483" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K483" s="5" t="s">
         <v>2824</v>
@@ -30087,8 +30099,8 @@
       <c r="I484" t="s">
         <v>3296</v>
       </c>
-      <c r="J484" s="5">
-        <v>473</v>
+      <c r="J484" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K484" s="5" t="s">
         <v>2824</v>
@@ -30125,8 +30137,8 @@
       <c r="I485" t="s">
         <v>3297</v>
       </c>
-      <c r="J485" s="5">
-        <v>474</v>
+      <c r="J485" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K485" s="5" t="s">
         <v>2824</v>
@@ -30163,8 +30175,8 @@
       <c r="I486" t="s">
         <v>3298</v>
       </c>
-      <c r="J486" s="5">
-        <v>475</v>
+      <c r="J486" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K486" s="5" t="s">
         <v>2824</v>
@@ -30201,8 +30213,8 @@
       <c r="I487" t="s">
         <v>3299</v>
       </c>
-      <c r="J487" s="5">
-        <v>476</v>
+      <c r="J487" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K487" s="5" t="s">
         <v>2824</v>
@@ -30239,8 +30251,8 @@
       <c r="I488" t="s">
         <v>3300</v>
       </c>
-      <c r="J488" s="5">
-        <v>477</v>
+      <c r="J488" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K488" s="5" t="s">
         <v>2824</v>
@@ -30277,8 +30289,8 @@
       <c r="I489" t="s">
         <v>3301</v>
       </c>
-      <c r="J489" s="5">
-        <v>478</v>
+      <c r="J489" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K489" s="5" t="s">
         <v>2824</v>
@@ -30315,8 +30327,8 @@
       <c r="I490" t="s">
         <v>3302</v>
       </c>
-      <c r="J490" s="5">
-        <v>479</v>
+      <c r="J490" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K490" s="5" t="s">
         <v>2824</v>
@@ -30353,8 +30365,8 @@
       <c r="I491" t="s">
         <v>3303</v>
       </c>
-      <c r="J491" s="5">
-        <v>480</v>
+      <c r="J491" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K491" s="5" t="s">
         <v>2824</v>
@@ -30391,8 +30403,8 @@
       <c r="I492" t="s">
         <v>3304</v>
       </c>
-      <c r="J492" s="5">
-        <v>481</v>
+      <c r="J492" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K492" s="5" t="s">
         <v>2824</v>
@@ -30429,8 +30441,8 @@
       <c r="I493" t="s">
         <v>3305</v>
       </c>
-      <c r="J493" s="5">
-        <v>482</v>
+      <c r="J493" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K493" s="5" t="s">
         <v>2824</v>
@@ -30467,8 +30479,8 @@
       <c r="I494" t="s">
         <v>3306</v>
       </c>
-      <c r="J494" s="5">
-        <v>483</v>
+      <c r="J494" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K494" s="5" t="s">
         <v>2824</v>
@@ -30505,8 +30517,8 @@
       <c r="I495" t="s">
         <v>3307</v>
       </c>
-      <c r="J495" s="5">
-        <v>484</v>
+      <c r="J495" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K495" s="5" t="s">
         <v>2824</v>
@@ -30543,8 +30555,8 @@
       <c r="I496" t="s">
         <v>3308</v>
       </c>
-      <c r="J496" s="5">
-        <v>485</v>
+      <c r="J496" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K496" s="5" t="s">
         <v>2824</v>
@@ -30581,8 +30593,8 @@
       <c r="I497" t="s">
         <v>3309</v>
       </c>
-      <c r="J497" s="5">
-        <v>486</v>
+      <c r="J497" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K497" s="5" t="s">
         <v>2824</v>
@@ -30619,8 +30631,8 @@
       <c r="I498" t="s">
         <v>3310</v>
       </c>
-      <c r="J498" s="5">
-        <v>487</v>
+      <c r="J498" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K498" s="5" t="s">
         <v>2824</v>
@@ -30657,8 +30669,8 @@
       <c r="I499" t="s">
         <v>3311</v>
       </c>
-      <c r="J499" s="5">
-        <v>488</v>
+      <c r="J499" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K499" s="5" t="s">
         <v>2824</v>
@@ -30695,8 +30707,8 @@
       <c r="I500" t="s">
         <v>3312</v>
       </c>
-      <c r="J500" s="5">
-        <v>489</v>
+      <c r="J500" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K500" s="5" t="s">
         <v>2824</v>
@@ -30733,8 +30745,8 @@
       <c r="I501" t="s">
         <v>3313</v>
       </c>
-      <c r="J501" s="5">
-        <v>490</v>
+      <c r="J501" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K501" s="5" t="s">
         <v>2824</v>
@@ -30771,8 +30783,8 @@
       <c r="I502" t="s">
         <v>3314</v>
       </c>
-      <c r="J502" s="5">
-        <v>491</v>
+      <c r="J502" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K502" s="5" t="s">
         <v>2824</v>
@@ -30809,8 +30821,8 @@
       <c r="I503" t="s">
         <v>3315</v>
       </c>
-      <c r="J503" s="5">
-        <v>492</v>
+      <c r="J503" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K503" s="5" t="s">
         <v>2824</v>
@@ -30847,8 +30859,8 @@
       <c r="I504" t="s">
         <v>3316</v>
       </c>
-      <c r="J504" s="5">
-        <v>493</v>
+      <c r="J504" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K504" s="5" t="s">
         <v>2824</v>
@@ -30885,8 +30897,8 @@
       <c r="I505" t="s">
         <v>3317</v>
       </c>
-      <c r="J505" s="5">
-        <v>494</v>
+      <c r="J505" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K505" s="5" t="s">
         <v>2824</v>
@@ -30923,8 +30935,8 @@
       <c r="I506" t="s">
         <v>3318</v>
       </c>
-      <c r="J506" s="5">
-        <v>495</v>
+      <c r="J506" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K506" s="5" t="s">
         <v>2824</v>
@@ -30961,8 +30973,8 @@
       <c r="I507" t="s">
         <v>3319</v>
       </c>
-      <c r="J507" s="5">
-        <v>496</v>
+      <c r="J507" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K507" s="5" t="s">
         <v>2824</v>
@@ -30999,8 +31011,8 @@
       <c r="I508" t="s">
         <v>3320</v>
       </c>
-      <c r="J508" s="5">
-        <v>497</v>
+      <c r="J508" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K508" s="5" t="s">
         <v>2824</v>
@@ -31037,8 +31049,8 @@
       <c r="I509" t="s">
         <v>3321</v>
       </c>
-      <c r="J509" s="5">
-        <v>498</v>
+      <c r="J509" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K509" s="5" t="s">
         <v>2824</v>
@@ -31075,8 +31087,8 @@
       <c r="I510" t="s">
         <v>3322</v>
       </c>
-      <c r="J510" s="5">
-        <v>499</v>
+      <c r="J510" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K510" s="5" t="s">
         <v>2824</v>
@@ -31113,8 +31125,8 @@
       <c r="I511" t="s">
         <v>3323</v>
       </c>
-      <c r="J511" s="5">
-        <v>500</v>
+      <c r="J511" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K511" s="5" t="s">
         <v>2824</v>
@@ -31151,8 +31163,8 @@
       <c r="I512" t="s">
         <v>3324</v>
       </c>
-      <c r="J512" s="5">
-        <v>501</v>
+      <c r="J512" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K512" s="5" t="s">
         <v>2824</v>
@@ -31189,8 +31201,8 @@
       <c r="I513" t="s">
         <v>3325</v>
       </c>
-      <c r="J513" s="5">
-        <v>502</v>
+      <c r="J513" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K513" s="5" t="s">
         <v>2824</v>
@@ -31227,8 +31239,8 @@
       <c r="I514" t="s">
         <v>3326</v>
       </c>
-      <c r="J514" s="5">
-        <v>503</v>
+      <c r="J514" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K514" s="5" t="s">
         <v>2824</v>
@@ -31265,8 +31277,8 @@
       <c r="I515" t="s">
         <v>3327</v>
       </c>
-      <c r="J515" s="5">
-        <v>504</v>
+      <c r="J515" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K515" s="5" t="s">
         <v>2824</v>
@@ -31303,8 +31315,8 @@
       <c r="I516" t="s">
         <v>3328</v>
       </c>
-      <c r="J516" s="5">
-        <v>505</v>
+      <c r="J516" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K516" s="5" t="s">
         <v>2824</v>
@@ -31341,8 +31353,8 @@
       <c r="I517" t="s">
         <v>3329</v>
       </c>
-      <c r="J517" s="5">
-        <v>506</v>
+      <c r="J517" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K517" s="5" t="s">
         <v>2824</v>
@@ -31379,8 +31391,8 @@
       <c r="I518" t="s">
         <v>3330</v>
       </c>
-      <c r="J518" s="5">
-        <v>507</v>
+      <c r="J518" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K518" s="5" t="s">
         <v>2824</v>
@@ -31417,8 +31429,8 @@
       <c r="I519" t="s">
         <v>3331</v>
       </c>
-      <c r="J519" s="5">
-        <v>508</v>
+      <c r="J519" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K519" s="5" t="s">
         <v>2824</v>
@@ -31455,8 +31467,8 @@
       <c r="I520" t="s">
         <v>3332</v>
       </c>
-      <c r="J520" s="5">
-        <v>509</v>
+      <c r="J520" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K520" s="5" t="s">
         <v>2824</v>
@@ -31493,8 +31505,8 @@
       <c r="I521" t="s">
         <v>3333</v>
       </c>
-      <c r="J521" s="5">
-        <v>510</v>
+      <c r="J521" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K521" s="5" t="s">
         <v>2824</v>
@@ -31531,8 +31543,8 @@
       <c r="I522" t="s">
         <v>3334</v>
       </c>
-      <c r="J522" s="5">
-        <v>511</v>
+      <c r="J522" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K522" s="5" t="s">
         <v>2824</v>
@@ -31569,8 +31581,8 @@
       <c r="I523" t="s">
         <v>3335</v>
       </c>
-      <c r="J523" s="5">
-        <v>512</v>
+      <c r="J523" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K523" s="5" t="s">
         <v>2824</v>
@@ -31607,8 +31619,8 @@
       <c r="I524" t="s">
         <v>3336</v>
       </c>
-      <c r="J524" s="5">
-        <v>513</v>
+      <c r="J524" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K524" s="5" t="s">
         <v>2824</v>
@@ -31645,8 +31657,8 @@
       <c r="I525" t="s">
         <v>3337</v>
       </c>
-      <c r="J525" s="5">
-        <v>514</v>
+      <c r="J525" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K525" s="5" t="s">
         <v>2824</v>
@@ -31683,8 +31695,8 @@
       <c r="I526" t="s">
         <v>3338</v>
       </c>
-      <c r="J526" s="5">
-        <v>515</v>
+      <c r="J526" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K526" s="5" t="s">
         <v>2824</v>
@@ -31721,8 +31733,8 @@
       <c r="I527" t="s">
         <v>3339</v>
       </c>
-      <c r="J527" s="5">
-        <v>516</v>
+      <c r="J527" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K527" s="5" t="s">
         <v>2824</v>
@@ -31759,8 +31771,8 @@
       <c r="I528" t="s">
         <v>3340</v>
       </c>
-      <c r="J528" s="5">
-        <v>517</v>
+      <c r="J528" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K528" s="5" t="s">
         <v>2824</v>
@@ -31797,8 +31809,8 @@
       <c r="I529" t="s">
         <v>3341</v>
       </c>
-      <c r="J529" s="5">
-        <v>518</v>
+      <c r="J529" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K529" s="5" t="s">
         <v>2824</v>
@@ -31835,8 +31847,8 @@
       <c r="I530" t="s">
         <v>3342</v>
       </c>
-      <c r="J530" s="5">
-        <v>519</v>
+      <c r="J530" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K530" s="5" t="s">
         <v>2824</v>
@@ -31873,8 +31885,8 @@
       <c r="I531" t="s">
         <v>3343</v>
       </c>
-      <c r="J531" s="5">
-        <v>520</v>
+      <c r="J531" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K531" s="5" t="s">
         <v>2824</v>
@@ -31911,8 +31923,8 @@
       <c r="I532" t="s">
         <v>3344</v>
       </c>
-      <c r="J532" s="5">
-        <v>521</v>
+      <c r="J532" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K532" s="5" t="s">
         <v>2824</v>
@@ -31949,8 +31961,8 @@
       <c r="I533" t="s">
         <v>3345</v>
       </c>
-      <c r="J533" s="5">
-        <v>522</v>
+      <c r="J533" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K533" s="5" t="s">
         <v>2824</v>
@@ -31987,8 +31999,8 @@
       <c r="I534" t="s">
         <v>3346</v>
       </c>
-      <c r="J534" s="5">
-        <v>523</v>
+      <c r="J534" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K534" s="5" t="s">
         <v>2824</v>
@@ -32025,8 +32037,8 @@
       <c r="I535" t="s">
         <v>3347</v>
       </c>
-      <c r="J535" s="5">
-        <v>524</v>
+      <c r="J535" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K535" s="5" t="s">
         <v>2824</v>
@@ -32063,8 +32075,8 @@
       <c r="I536" t="s">
         <v>3348</v>
       </c>
-      <c r="J536" s="5">
-        <v>525</v>
+      <c r="J536" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K536" s="5" t="s">
         <v>2824</v>
@@ -32101,8 +32113,8 @@
       <c r="I537" t="s">
         <v>3349</v>
       </c>
-      <c r="J537" s="5">
-        <v>526</v>
+      <c r="J537" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K537" s="5" t="s">
         <v>2824</v>
@@ -32139,8 +32151,8 @@
       <c r="I538" t="s">
         <v>3350</v>
       </c>
-      <c r="J538" s="5">
-        <v>527</v>
+      <c r="J538" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K538" s="5" t="s">
         <v>2824</v>
@@ -32177,8 +32189,8 @@
       <c r="I539" t="s">
         <v>3351</v>
       </c>
-      <c r="J539" s="5">
-        <v>528</v>
+      <c r="J539" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K539" s="5" t="s">
         <v>2824</v>
@@ -32215,8 +32227,8 @@
       <c r="I540" t="s">
         <v>3352</v>
       </c>
-      <c r="J540" s="5">
-        <v>529</v>
+      <c r="J540" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K540" s="5" t="s">
         <v>2824</v>
@@ -32253,8 +32265,8 @@
       <c r="I541" t="s">
         <v>3353</v>
       </c>
-      <c r="J541" s="5">
-        <v>530</v>
+      <c r="J541" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K541" s="5" t="s">
         <v>2824</v>
@@ -32291,8 +32303,8 @@
       <c r="I542" t="s">
         <v>3354</v>
       </c>
-      <c r="J542" s="5">
-        <v>531</v>
+      <c r="J542" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K542" s="5" t="s">
         <v>2824</v>
@@ -32329,8 +32341,8 @@
       <c r="I543" t="s">
         <v>3355</v>
       </c>
-      <c r="J543" s="5">
-        <v>532</v>
+      <c r="J543" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K543" s="5" t="s">
         <v>2824</v>
@@ -32367,8 +32379,8 @@
       <c r="I544" t="s">
         <v>3356</v>
       </c>
-      <c r="J544" s="5">
-        <v>533</v>
+      <c r="J544" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K544" s="5" t="s">
         <v>2824</v>
@@ -32405,8 +32417,8 @@
       <c r="I545" t="s">
         <v>3357</v>
       </c>
-      <c r="J545" s="5">
-        <v>534</v>
+      <c r="J545" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K545" s="5" t="s">
         <v>2824</v>
@@ -32443,8 +32455,8 @@
       <c r="I546" t="s">
         <v>3358</v>
       </c>
-      <c r="J546" s="5">
-        <v>535</v>
+      <c r="J546" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K546" s="5" t="s">
         <v>2824</v>
@@ -32481,8 +32493,8 @@
       <c r="I547" t="s">
         <v>3359</v>
       </c>
-      <c r="J547" s="5">
-        <v>536</v>
+      <c r="J547" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K547" s="5" t="s">
         <v>2824</v>
@@ -32519,8 +32531,8 @@
       <c r="I548" t="s">
         <v>3360</v>
       </c>
-      <c r="J548" s="5">
-        <v>537</v>
+      <c r="J548" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K548" s="5" t="s">
         <v>2824</v>
@@ -32557,8 +32569,8 @@
       <c r="I549" t="s">
         <v>3361</v>
       </c>
-      <c r="J549" s="5">
-        <v>538</v>
+      <c r="J549" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K549" s="5" t="s">
         <v>2824</v>
@@ -32595,8 +32607,8 @@
       <c r="I550" t="s">
         <v>3362</v>
       </c>
-      <c r="J550" s="5">
-        <v>539</v>
+      <c r="J550" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K550" s="5" t="s">
         <v>2824</v>
@@ -32633,8 +32645,8 @@
       <c r="I551" t="s">
         <v>3363</v>
       </c>
-      <c r="J551" s="5">
-        <v>540</v>
+      <c r="J551" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K551" s="5" t="s">
         <v>2824</v>
@@ -32671,8 +32683,8 @@
       <c r="I552" t="s">
         <v>3364</v>
       </c>
-      <c r="J552" s="5">
-        <v>541</v>
+      <c r="J552" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K552" s="5" t="s">
         <v>2824</v>
@@ -32709,8 +32721,8 @@
       <c r="I553" t="s">
         <v>3365</v>
       </c>
-      <c r="J553" s="5">
-        <v>542</v>
+      <c r="J553" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K553" s="5" t="s">
         <v>2824</v>
@@ -32747,8 +32759,8 @@
       <c r="I554" t="s">
         <v>3366</v>
       </c>
-      <c r="J554" s="5">
-        <v>543</v>
+      <c r="J554" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K554" s="5" t="s">
         <v>2824</v>
@@ -32785,8 +32797,8 @@
       <c r="I555" t="s">
         <v>3367</v>
       </c>
-      <c r="J555" s="5">
-        <v>544</v>
+      <c r="J555" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K555" s="5" t="s">
         <v>2824</v>
@@ -32823,8 +32835,8 @@
       <c r="I556" t="s">
         <v>3368</v>
       </c>
-      <c r="J556" s="5">
-        <v>545</v>
+      <c r="J556" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K556" s="5" t="s">
         <v>2824</v>
@@ -32861,8 +32873,8 @@
       <c r="I557" t="s">
         <v>3369</v>
       </c>
-      <c r="J557" s="5">
-        <v>546</v>
+      <c r="J557" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K557" s="5" t="s">
         <v>2824</v>
@@ -32899,8 +32911,8 @@
       <c r="I558" t="s">
         <v>3370</v>
       </c>
-      <c r="J558" s="5">
-        <v>547</v>
+      <c r="J558" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K558" s="5" t="s">
         <v>2824</v>
@@ -32937,8 +32949,8 @@
       <c r="I559" t="s">
         <v>3371</v>
       </c>
-      <c r="J559" s="5">
-        <v>548</v>
+      <c r="J559" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K559" s="5" t="s">
         <v>2824</v>
@@ -32975,8 +32987,8 @@
       <c r="I560" t="s">
         <v>3372</v>
       </c>
-      <c r="J560" s="5">
-        <v>549</v>
+      <c r="J560" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K560" s="5" t="s">
         <v>2824</v>
@@ -33013,8 +33025,8 @@
       <c r="I561" t="s">
         <v>3373</v>
       </c>
-      <c r="J561" s="5">
-        <v>550</v>
+      <c r="J561" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K561" s="5" t="s">
         <v>2824</v>
@@ -33051,8 +33063,8 @@
       <c r="I562" t="s">
         <v>3374</v>
       </c>
-      <c r="J562" s="5">
-        <v>551</v>
+      <c r="J562" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K562" s="5" t="s">
         <v>2824</v>
@@ -33089,8 +33101,8 @@
       <c r="I563" t="s">
         <v>3375</v>
       </c>
-      <c r="J563" s="5">
-        <v>552</v>
+      <c r="J563" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K563" s="5" t="s">
         <v>2824</v>
@@ -33127,8 +33139,8 @@
       <c r="I564" t="s">
         <v>3376</v>
       </c>
-      <c r="J564" s="5">
-        <v>553</v>
+      <c r="J564" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K564" s="5" t="s">
         <v>2824</v>
@@ -33165,8 +33177,8 @@
       <c r="I565" t="s">
         <v>3377</v>
       </c>
-      <c r="J565" s="5">
-        <v>554</v>
+      <c r="J565" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K565" s="5" t="s">
         <v>2824</v>
@@ -33203,8 +33215,8 @@
       <c r="I566" t="s">
         <v>3378</v>
       </c>
-      <c r="J566" s="5">
-        <v>555</v>
+      <c r="J566" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K566" s="5" t="s">
         <v>2824</v>
@@ -33241,8 +33253,8 @@
       <c r="I567" t="s">
         <v>3379</v>
       </c>
-      <c r="J567" s="5">
-        <v>556</v>
+      <c r="J567" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K567" s="5" t="s">
         <v>2824</v>
@@ -33279,8 +33291,8 @@
       <c r="I568" t="s">
         <v>3380</v>
       </c>
-      <c r="J568" s="5">
-        <v>557</v>
+      <c r="J568" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K568" s="5" t="s">
         <v>2824</v>
@@ -33317,8 +33329,8 @@
       <c r="I569" t="s">
         <v>3381</v>
       </c>
-      <c r="J569" s="5">
-        <v>558</v>
+      <c r="J569" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K569" s="5" t="s">
         <v>2824</v>
@@ -33355,8 +33367,8 @@
       <c r="I570" t="s">
         <v>3382</v>
       </c>
-      <c r="J570" s="5">
-        <v>559</v>
+      <c r="J570" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K570" s="5" t="s">
         <v>2824</v>
@@ -33393,8 +33405,8 @@
       <c r="I571" t="s">
         <v>3383</v>
       </c>
-      <c r="J571" s="5">
-        <v>560</v>
+      <c r="J571" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K571" s="5" t="s">
         <v>2824</v>
@@ -33431,8 +33443,8 @@
       <c r="I572" t="s">
         <v>3384</v>
       </c>
-      <c r="J572" s="5">
-        <v>561</v>
+      <c r="J572" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K572" s="5" t="s">
         <v>2824</v>
@@ -33469,8 +33481,8 @@
       <c r="I573" t="s">
         <v>3385</v>
       </c>
-      <c r="J573" s="5">
-        <v>562</v>
+      <c r="J573" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K573" s="5" t="s">
         <v>2824</v>
@@ -33507,8 +33519,8 @@
       <c r="I574" t="s">
         <v>3386</v>
       </c>
-      <c r="J574" s="5">
-        <v>563</v>
+      <c r="J574" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K574" s="5" t="s">
         <v>2824</v>
@@ -33545,8 +33557,8 @@
       <c r="I575" t="s">
         <v>3387</v>
       </c>
-      <c r="J575" s="5">
-        <v>564</v>
+      <c r="J575" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K575" s="5" t="s">
         <v>2824</v>
@@ -33583,8 +33595,8 @@
       <c r="I576" t="s">
         <v>3388</v>
       </c>
-      <c r="J576" s="5">
-        <v>565</v>
+      <c r="J576" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K576" s="5" t="s">
         <v>2824</v>
@@ -33621,8 +33633,8 @@
       <c r="I577" t="s">
         <v>3389</v>
       </c>
-      <c r="J577" s="5">
-        <v>566</v>
+      <c r="J577" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K577" s="5" t="s">
         <v>2824</v>
@@ -33659,8 +33671,8 @@
       <c r="I578" t="s">
         <v>3390</v>
       </c>
-      <c r="J578" s="5">
-        <v>567</v>
+      <c r="J578" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K578" s="5" t="s">
         <v>2824</v>
@@ -33697,8 +33709,8 @@
       <c r="I579" t="s">
         <v>3391</v>
       </c>
-      <c r="J579" s="5">
-        <v>568</v>
+      <c r="J579" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K579" s="5" t="s">
         <v>2824</v>
@@ -33735,8 +33747,8 @@
       <c r="I580" t="s">
         <v>3392</v>
       </c>
-      <c r="J580" s="5">
-        <v>569</v>
+      <c r="J580" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K580" s="5" t="s">
         <v>2824</v>
@@ -33773,8 +33785,8 @@
       <c r="I581" t="s">
         <v>3393</v>
       </c>
-      <c r="J581" s="5">
-        <v>570</v>
+      <c r="J581" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K581" s="5" t="s">
         <v>2824</v>
@@ -33811,8 +33823,8 @@
       <c r="I582" t="s">
         <v>3394</v>
       </c>
-      <c r="J582" s="5">
-        <v>571</v>
+      <c r="J582" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K582" s="5" t="s">
         <v>2824</v>
@@ -33849,8 +33861,8 @@
       <c r="I583" t="s">
         <v>3395</v>
       </c>
-      <c r="J583" s="5">
-        <v>572</v>
+      <c r="J583" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K583" s="5" t="s">
         <v>2824</v>
@@ -33887,8 +33899,8 @@
       <c r="I584" t="s">
         <v>3396</v>
       </c>
-      <c r="J584" s="5">
-        <v>573</v>
+      <c r="J584" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K584" s="5" t="s">
         <v>2824</v>
@@ -33925,8 +33937,8 @@
       <c r="I585" t="s">
         <v>3397</v>
       </c>
-      <c r="J585" s="5">
-        <v>574</v>
+      <c r="J585" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K585" s="5" t="s">
         <v>2824</v>
@@ -33963,8 +33975,8 @@
       <c r="I586" t="s">
         <v>3398</v>
       </c>
-      <c r="J586" s="5">
-        <v>575</v>
+      <c r="J586" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K586" s="5" t="s">
         <v>2824</v>
@@ -34001,8 +34013,8 @@
       <c r="I587" t="s">
         <v>3399</v>
       </c>
-      <c r="J587" s="5">
-        <v>576</v>
+      <c r="J587" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K587" s="5" t="s">
         <v>2824</v>
@@ -34039,8 +34051,8 @@
       <c r="I588" t="s">
         <v>3400</v>
       </c>
-      <c r="J588" s="5">
-        <v>577</v>
+      <c r="J588" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K588" s="5" t="s">
         <v>2824</v>
@@ -34077,8 +34089,8 @@
       <c r="I589" t="s">
         <v>3401</v>
       </c>
-      <c r="J589" s="5">
-        <v>578</v>
+      <c r="J589" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K589" s="5" t="s">
         <v>2824</v>
@@ -34115,8 +34127,8 @@
       <c r="I590" t="s">
         <v>3402</v>
       </c>
-      <c r="J590" s="5">
-        <v>579</v>
+      <c r="J590" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K590" s="5" t="s">
         <v>2824</v>
@@ -34153,8 +34165,8 @@
       <c r="I591" t="s">
         <v>3403</v>
       </c>
-      <c r="J591" s="5">
-        <v>580</v>
+      <c r="J591" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K591" s="5" t="s">
         <v>2824</v>
@@ -34191,8 +34203,8 @@
       <c r="I592" t="s">
         <v>3404</v>
       </c>
-      <c r="J592" s="5">
-        <v>581</v>
+      <c r="J592" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K592" s="5" t="s">
         <v>2824</v>
@@ -34229,8 +34241,8 @@
       <c r="I593" t="s">
         <v>3405</v>
       </c>
-      <c r="J593" s="5">
-        <v>582</v>
+      <c r="J593" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K593" s="5" t="s">
         <v>2824</v>
@@ -34267,8 +34279,8 @@
       <c r="I594" t="s">
         <v>3406</v>
       </c>
-      <c r="J594" s="5">
-        <v>583</v>
+      <c r="J594" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K594" s="5" t="s">
         <v>2824</v>
@@ -34305,8 +34317,8 @@
       <c r="I595" t="s">
         <v>3407</v>
       </c>
-      <c r="J595" s="5">
-        <v>584</v>
+      <c r="J595" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K595" s="5" t="s">
         <v>2824</v>
@@ -34343,8 +34355,8 @@
       <c r="I596" t="s">
         <v>3408</v>
       </c>
-      <c r="J596" s="5">
-        <v>585</v>
+      <c r="J596" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K596" s="5" t="s">
         <v>2824</v>
@@ -34381,8 +34393,8 @@
       <c r="I597" t="s">
         <v>3409</v>
       </c>
-      <c r="J597" s="5">
-        <v>586</v>
+      <c r="J597" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K597" s="5" t="s">
         <v>2824</v>
@@ -34419,8 +34431,8 @@
       <c r="I598" t="s">
         <v>3410</v>
       </c>
-      <c r="J598" s="5">
-        <v>587</v>
+      <c r="J598" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K598" s="5" t="s">
         <v>2824</v>
@@ -34457,8 +34469,8 @@
       <c r="I599" t="s">
         <v>3411</v>
       </c>
-      <c r="J599" s="5">
-        <v>588</v>
+      <c r="J599" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K599" s="5" t="s">
         <v>2824</v>
@@ -34495,8 +34507,8 @@
       <c r="I600" t="s">
         <v>3412</v>
       </c>
-      <c r="J600" s="5">
-        <v>589</v>
+      <c r="J600" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K600" s="5" t="s">
         <v>2824</v>
@@ -34533,8 +34545,8 @@
       <c r="I601" t="s">
         <v>3413</v>
       </c>
-      <c r="J601" s="5">
-        <v>590</v>
+      <c r="J601" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K601" s="5" t="s">
         <v>2824</v>
@@ -34571,8 +34583,8 @@
       <c r="I602" t="s">
         <v>3414</v>
       </c>
-      <c r="J602" s="5">
-        <v>591</v>
+      <c r="J602" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K602" s="5" t="s">
         <v>2824</v>
@@ -34609,8 +34621,8 @@
       <c r="I603" t="s">
         <v>3415</v>
       </c>
-      <c r="J603" s="5">
-        <v>592</v>
+      <c r="J603" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K603" s="5" t="s">
         <v>2824</v>
@@ -34647,8 +34659,8 @@
       <c r="I604" t="s">
         <v>3416</v>
       </c>
-      <c r="J604" s="5">
-        <v>593</v>
+      <c r="J604" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K604" s="5" t="s">
         <v>2824</v>
@@ -34685,8 +34697,8 @@
       <c r="I605" t="s">
         <v>3417</v>
       </c>
-      <c r="J605" s="5">
-        <v>594</v>
+      <c r="J605" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K605" s="5" t="s">
         <v>2824</v>
@@ -34723,8 +34735,8 @@
       <c r="I606" t="s">
         <v>3418</v>
       </c>
-      <c r="J606" s="5">
-        <v>595</v>
+      <c r="J606" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K606" s="5" t="s">
         <v>2824</v>
@@ -34761,8 +34773,8 @@
       <c r="I607" t="s">
         <v>3419</v>
       </c>
-      <c r="J607" s="5">
-        <v>596</v>
+      <c r="J607" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K607" s="5" t="s">
         <v>2824</v>
@@ -34799,8 +34811,8 @@
       <c r="I608" t="s">
         <v>3420</v>
       </c>
-      <c r="J608" s="5">
-        <v>597</v>
+      <c r="J608" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K608" s="5" t="s">
         <v>2824</v>
@@ -34837,8 +34849,8 @@
       <c r="I609" t="s">
         <v>3421</v>
       </c>
-      <c r="J609" s="5">
-        <v>598</v>
+      <c r="J609" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K609" s="5" t="s">
         <v>2824</v>
@@ -34875,8 +34887,8 @@
       <c r="I610" t="s">
         <v>3422</v>
       </c>
-      <c r="J610" s="5">
-        <v>599</v>
+      <c r="J610" s="5" t="s">
+        <v>3492</v>
       </c>
       <c r="K610" s="5" t="s">
         <v>2824</v>

--- a/app/import/DB_seoulhang.xlsx
+++ b/app/import/DB_seoulhang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="25520" windowHeight="15560" activeTab="3"/>
+    <workbookView xWindow="80" yWindow="440" windowWidth="25520" windowHeight="15560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="grades" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">questions!$A$1:$H$610</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">questions!$A$1:$H$609</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">questions_eng!$A$1:$H$610</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12334" uniqueCount="3497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12331" uniqueCount="3501">
   <si>
     <t>region_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -10628,6 +10628,22 @@
   </si>
   <si>
     <t>U111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11110,7 +11126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -11734,10 +11750,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M612"/>
+  <dimension ref="A1:M611"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
+      <selection activeCell="D494" sqref="D494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -11791,7 +11807,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>629</v>
@@ -11814,8 +11830,8 @@
       <c r="I2" t="s">
         <v>2815</v>
       </c>
-      <c r="J2" s="5">
-        <v>1</v>
+      <c r="J2" s="5" t="s">
+        <v>3497</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>2823</v>
@@ -11829,7 +11845,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2764</v>
@@ -11867,7 +11883,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2736</v>
@@ -11890,8 +11906,8 @@
       <c r="I4" t="s">
         <v>2816</v>
       </c>
-      <c r="J4" s="5">
-        <v>2</v>
+      <c r="J4" s="5" t="s">
+        <v>3498</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>2823</v>
@@ -11905,7 +11921,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2746</v>
@@ -11928,8 +11944,8 @@
       <c r="I5" t="s">
         <v>2815</v>
       </c>
-      <c r="J5" s="5">
-        <v>1</v>
+      <c r="J5" s="5" t="s">
+        <v>3499</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>2823</v>
@@ -11943,7 +11959,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>504</v>
@@ -11981,7 +11997,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>1226</v>
@@ -12004,8 +12020,8 @@
       <c r="I7" t="s">
         <v>2816</v>
       </c>
-      <c r="J7" s="5">
-        <v>2</v>
+      <c r="J7" s="5" t="s">
+        <v>3500</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>2823</v>
@@ -12019,7 +12035,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2198</v>
@@ -12042,8 +12058,8 @@
       <c r="I8" t="s">
         <v>2815</v>
       </c>
-      <c r="J8" s="5">
-        <v>1</v>
+      <c r="J8" s="5" t="s">
+        <v>3497</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>2823</v>
@@ -12057,7 +12073,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2648</v>
@@ -12549,7 +12565,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>2560</v>
@@ -12587,7 +12603,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>2701</v>
@@ -12625,7 +12641,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>2565</v>
@@ -12663,7 +12679,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>2616</v>
@@ -12701,7 +12717,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>2621</v>
@@ -12739,7 +12755,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>2305</v>
@@ -12777,7 +12793,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>2485</v>
@@ -12815,7 +12831,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>931</v>
@@ -12853,7 +12869,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>2455</v>
@@ -12891,7 +12907,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>2370</v>
@@ -13119,7 +13135,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>264</v>
@@ -13841,7 +13857,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>1131</v>
@@ -13879,7 +13895,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>2248</v>
@@ -13917,7 +13933,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>861</v>
@@ -13955,7 +13971,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>2495</v>
@@ -13993,7 +14009,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>2314</v>
@@ -14031,7 +14047,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>2665</v>
@@ -14069,7 +14085,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>2628</v>
@@ -14107,7 +14123,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>941</v>
@@ -14145,7 +14161,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>1443</v>
@@ -14183,7 +14199,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>2555</v>
@@ -14221,7 +14237,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>2550</v>
@@ -14259,7 +14275,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>1101</v>
@@ -14297,7 +14313,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>746</v>
@@ -14335,7 +14351,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>2380</v>
@@ -14981,7 +14997,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>791</v>
@@ -15019,7 +15035,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>1005</v>
@@ -15057,7 +15073,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>2096</v>
@@ -15095,7 +15111,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>886</v>
@@ -15133,7 +15149,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>966</v>
@@ -15171,7 +15187,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>971</v>
@@ -15209,7 +15225,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>1339</v>
@@ -15285,7 +15301,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>571</v>
@@ -15323,7 +15339,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>577</v>
@@ -15361,7 +15377,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>2238</v>
@@ -15399,7 +15415,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>2086</v>
@@ -15437,7 +15453,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>2345</v>
@@ -16235,7 +16251,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>450</v>
@@ -16273,7 +16289,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>2138</v>
@@ -16311,7 +16327,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>634</v>
@@ -16349,7 +16365,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>856</v>
@@ -16387,7 +16403,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>2365</v>
@@ -16425,7 +16441,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>238</v>
@@ -16463,7 +16479,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>243</v>
@@ -16501,7 +16517,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>1092</v>
@@ -16539,7 +16555,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>1574</v>
@@ -16577,7 +16593,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>1579</v>
@@ -16615,7 +16631,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>936</v>
@@ -16805,7 +16821,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>1111</v>
@@ -16843,7 +16859,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>1601</v>
@@ -16881,7 +16897,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>644</v>
@@ -16919,7 +16935,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>761</v>
@@ -16957,7 +16973,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>649</v>
@@ -16995,7 +17011,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>751</v>
@@ -17033,7 +17049,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>766</v>
@@ -17071,7 +17087,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>1231</v>
@@ -17109,7 +17125,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>1248</v>
@@ -17147,7 +17163,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>2721</v>
@@ -17679,7 +17695,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>664</v>
@@ -17717,7 +17733,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>2405</v>
@@ -17755,7 +17771,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>2213</v>
@@ -17793,7 +17809,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>1196</v>
@@ -17831,7 +17847,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>2475</v>
@@ -17869,7 +17885,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>1206</v>
@@ -17907,7 +17923,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>2530</v>
@@ -17945,7 +17961,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>90</v>
@@ -17983,7 +17999,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>2258</v>
@@ -18021,7 +18037,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>2515</v>
@@ -18059,7 +18075,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>1586</v>
@@ -18097,7 +18113,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>1718</v>
@@ -18629,7 +18645,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>2711</v>
@@ -18667,7 +18683,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>2575</v>
@@ -18705,7 +18721,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>2400</v>
@@ -18743,7 +18759,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>2390</v>
@@ -18781,7 +18797,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>2395</v>
@@ -18819,7 +18835,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>589</v>
@@ -18857,7 +18873,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>2233</v>
@@ -18895,7 +18911,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>1000</v>
@@ -18933,7 +18949,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>514</v>
@@ -18971,7 +18987,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>519</v>
@@ -19009,7 +19025,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>2339</v>
@@ -19047,7 +19063,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>901</v>
@@ -19085,7 +19101,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>543</v>
@@ -19123,7 +19139,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>1116</v>
@@ -19161,7 +19177,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>2036</v>
@@ -19199,7 +19215,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>2445</v>
@@ -19237,7 +19253,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>916</v>
@@ -19275,7 +19291,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>866</v>
@@ -19313,7 +19329,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>1581</v>
@@ -19351,7 +19367,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>1191</v>
@@ -19389,7 +19405,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>1885</v>
@@ -19427,7 +19443,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>961</v>
@@ -19465,7 +19481,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>2450</v>
@@ -19503,7 +19519,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>1037</v>
@@ -19845,7 +19861,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>659</v>
@@ -19883,7 +19899,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>556</v>
@@ -19921,7 +19937,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>2253</v>
@@ -19959,7 +19975,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>906</v>
@@ -19997,7 +20013,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>2278</v>
@@ -20035,7 +20051,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>1221</v>
@@ -20073,7 +20089,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>2329</v>
@@ -20111,7 +20127,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>1176</v>
@@ -20149,7 +20165,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>2193</v>
@@ -20187,7 +20203,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>2091</v>
@@ -20225,7 +20241,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>1189</v>
@@ -20263,7 +20279,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>1542</v>
@@ -20301,7 +20317,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>1285</v>
@@ -20339,7 +20355,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>1106</v>
@@ -20377,7 +20393,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>2435</v>
@@ -20415,7 +20431,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>2223</v>
@@ -20453,7 +20469,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>2300</v>
@@ -20491,7 +20507,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>2355</v>
@@ -20529,7 +20545,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>2273</v>
@@ -20567,7 +20583,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>1559</v>
@@ -20605,7 +20621,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>2385</v>
@@ -20643,7 +20659,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>2290</v>
@@ -20681,7 +20697,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>1121</v>
@@ -20947,7 +20963,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>2545</v>
@@ -20985,7 +21001,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>2480</v>
@@ -21023,7 +21039,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>831</v>
@@ -21061,7 +21077,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>2731</v>
@@ -21099,7 +21115,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>1097</v>
@@ -21137,7 +21153,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>2756</v>
@@ -21175,7 +21191,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>1253</v>
@@ -21213,7 +21229,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>1067</v>
@@ -21251,7 +21267,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>526</v>
@@ -21289,7 +21305,7 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>2751</v>
@@ -21783,7 +21799,7 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>2774</v>
@@ -21821,7 +21837,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>2779</v>
@@ -21859,7 +21875,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>926</v>
@@ -21897,7 +21913,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>2675</v>
@@ -21935,7 +21951,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>2658</v>
@@ -21973,7 +21989,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>2663</v>
@@ -22011,7 +22027,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>1015</v>
@@ -22049,7 +22065,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>2540</v>
@@ -22087,7 +22103,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>1082</v>
@@ -22125,7 +22141,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>1032</v>
@@ -22163,7 +22179,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>1042</v>
@@ -22201,7 +22217,7 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>2334</v>
@@ -22239,7 +22255,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>1216</v>
@@ -22277,7 +22293,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>669</v>
@@ -22315,7 +22331,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>1181</v>
@@ -22353,7 +22369,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>2505</v>
@@ -22391,7 +22407,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>1062</v>
@@ -22429,7 +22445,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>531</v>
@@ -22505,7 +22521,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>160</v>
@@ -23113,7 +23129,7 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>1468</v>
@@ -23151,7 +23167,7 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>1020</v>
@@ -23189,7 +23205,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>1025</v>
@@ -23227,7 +23243,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>594</v>
@@ -23265,7 +23281,7 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>2535</v>
@@ -23303,7 +23319,7 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>1534</v>
@@ -23341,7 +23357,7 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>2570</v>
@@ -23379,7 +23395,7 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>2228</v>
@@ -23417,7 +23433,7 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>566</v>
@@ -23455,7 +23471,7 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>729</v>
@@ -23493,7 +23509,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>1146</v>
@@ -23531,7 +23547,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>2319</v>
@@ -23569,7 +23585,7 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>786</v>
@@ -23607,7 +23623,7 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>2188</v>
@@ -23645,7 +23661,7 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>1438</v>
@@ -23683,7 +23699,7 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>101</v>
@@ -23721,7 +23737,7 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>826</v>
@@ -23759,7 +23775,7 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>1529</v>
@@ -23797,7 +23813,7 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>911</v>
@@ -23835,7 +23851,7 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>1433</v>
@@ -23873,7 +23889,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>2726</v>
@@ -23911,7 +23927,7 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>796</v>
@@ -23949,7 +23965,7 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>1141</v>
@@ -23987,7 +24003,7 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>995</v>
@@ -24025,7 +24041,7 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>499</v>
@@ -24063,7 +24079,7 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>2295</v>
@@ -24101,7 +24117,7 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>521</v>
@@ -24139,7 +24155,7 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>781</v>
@@ -24177,7 +24193,7 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>741</v>
@@ -24215,7 +24231,7 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>1409</v>
@@ -24253,7 +24269,7 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>756</v>
@@ -24291,7 +24307,7 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>639</v>
@@ -24329,7 +24345,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>139</v>
@@ -24367,7 +24383,7 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>1658</v>
@@ -24405,7 +24421,7 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>806</v>
@@ -24443,7 +24459,7 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>2500</v>
@@ -24481,7 +24497,7 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>2208</v>
@@ -24519,7 +24535,7 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>2268</v>
@@ -24557,7 +24573,7 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>1171</v>
@@ -24709,7 +24725,7 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>2653</v>
@@ -24747,7 +24763,7 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>584</v>
@@ -24785,7 +24801,7 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>1787</v>
@@ -24823,7 +24839,7 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>1792</v>
@@ -24861,7 +24877,7 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>170</v>
@@ -24899,7 +24915,7 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>801</v>
@@ -24937,7 +24953,7 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>1052</v>
@@ -24975,7 +24991,7 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>1047</v>
@@ -25013,7 +25029,7 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>1159</v>
@@ -25051,7 +25067,7 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>921</v>
@@ -25089,7 +25105,7 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>2716</v>
@@ -25127,7 +25143,7 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>2706</v>
@@ -25165,7 +25181,7 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>373</v>
@@ -25203,7 +25219,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>375</v>
@@ -25241,7 +25257,7 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>816</v>
@@ -25279,7 +25295,7 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>776</v>
@@ -25317,7 +25333,7 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>2243</v>
@@ -25355,7 +25371,7 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>2623</v>
@@ -25393,7 +25409,7 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>2784</v>
@@ -25431,7 +25447,7 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>881</v>
@@ -25469,7 +25485,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>1564</v>
@@ -25507,7 +25523,7 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>811</v>
@@ -25545,7 +25561,7 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>2741</v>
@@ -25659,7 +25675,7 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>836</v>
@@ -25811,7 +25827,7 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>891</v>
@@ -25849,7 +25865,7 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>1010</v>
@@ -25887,7 +25903,7 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>624</v>
@@ -25925,7 +25941,7 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>2460</v>
@@ -25963,7 +25979,7 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>2470</v>
@@ -26001,7 +26017,7 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>106</v>
@@ -26039,7 +26055,7 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>548</v>
@@ -26077,7 +26093,7 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>554</v>
@@ -26115,7 +26131,7 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>2324</v>
@@ -26153,7 +26169,7 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>951</v>
@@ -26191,7 +26207,7 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>168</v>
@@ -26229,7 +26245,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>2759</v>
@@ -26875,7 +26891,7 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>2633</v>
@@ -26913,7 +26929,7 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>2350</v>
@@ -26951,7 +26967,7 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>2375</v>
@@ -26989,7 +27005,7 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>876</v>
@@ -27027,7 +27043,7 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>1378</v>
@@ -27065,7 +27081,7 @@
         <v>403</v>
       </c>
       <c r="B404">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>1942</v>
@@ -27103,7 +27119,7 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>2263</v>
@@ -27141,7 +27157,7 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>1591</v>
@@ -27179,7 +27195,7 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>946</v>
@@ -27217,7 +27233,7 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>1151</v>
@@ -27255,7 +27271,7 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>536</v>
@@ -27293,7 +27309,7 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>541</v>
@@ -27331,7 +27347,7 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>1201</v>
@@ -27635,7 +27651,7 @@
         <v>418</v>
       </c>
       <c r="B419">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>2685</v>
@@ -27673,7 +27689,7 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>2690</v>
@@ -27711,7 +27727,7 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>2769</v>
@@ -27749,7 +27765,7 @@
         <v>421</v>
       </c>
       <c r="B422">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>1596</v>
@@ -27763,8 +27779,8 @@
       <c r="F422" s="3" t="s">
         <v>1598</v>
       </c>
-      <c r="G422" s="3" t="s">
-        <v>1599</v>
+      <c r="G422" s="3">
+        <v>37.670071999999998</v>
       </c>
       <c r="H422" s="3" t="s">
         <v>1600</v>
@@ -27787,7 +27803,7 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>561</v>
@@ -27825,7 +27841,7 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>1243</v>
@@ -27863,7 +27879,7 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>154</v>
@@ -27901,7 +27917,7 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>2203</v>
@@ -27939,7 +27955,7 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>1072</v>
@@ -27977,7 +27993,7 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>1263</v>
@@ -28015,7 +28031,7 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>654</v>
@@ -28053,7 +28069,7 @@
         <v>429</v>
       </c>
       <c r="B430">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>1087</v>
@@ -28091,7 +28107,7 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>1057</v>
@@ -28129,7 +28145,7 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>149</v>
@@ -28167,7 +28183,7 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>2440</v>
@@ -28205,7 +28221,7 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>579</v>
@@ -28927,7 +28943,7 @@
         <v>452</v>
       </c>
       <c r="B453">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>2218</v>
@@ -28965,7 +28981,7 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>2309</v>
@@ -29421,7 +29437,7 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>1366</v>
@@ -29573,7 +29589,7 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>1136</v>
@@ -29763,7 +29779,7 @@
         <v>474</v>
       </c>
       <c r="B475">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>990</v>
@@ -29801,7 +29817,7 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>2183</v>
@@ -29834,33 +29850,33 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A477">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B477">
-        <v>18</v>
-      </c>
-      <c r="C477" s="11">
-        <v>1919</v>
-      </c>
-      <c r="D477" s="13" t="s">
-        <v>3455</v>
-      </c>
-      <c r="E477" s="13" t="s">
-        <v>3456</v>
-      </c>
-      <c r="F477" s="13" t="s">
-        <v>3457</v>
-      </c>
-      <c r="G477" s="11">
-        <v>37.456434000000002</v>
-      </c>
-      <c r="H477" s="11">
-        <v>126.696099</v>
+        <v>19</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>2525</v>
+      </c>
+      <c r="D477" s="3" t="s">
+        <v>2526</v>
+      </c>
+      <c r="E477" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F477" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="G477" s="3" t="s">
+        <v>2528</v>
+      </c>
+      <c r="H477" s="3" t="s">
+        <v>2529</v>
       </c>
       <c r="I477" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="J477" s="5" t="s">
         <v>3463</v>
@@ -29874,31 +29890,31 @@
     </row>
     <row r="478" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A478">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B478">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>2525</v>
+        <v>212</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>2526</v>
+        <v>213</v>
       </c>
       <c r="E478" s="3" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="F478" s="3" t="s">
-        <v>2527</v>
+        <v>214</v>
       </c>
       <c r="G478" s="3" t="s">
-        <v>2528</v>
+        <v>215</v>
       </c>
       <c r="H478" s="3" t="s">
-        <v>2529</v>
+        <v>216</v>
       </c>
       <c r="I478" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="J478" s="5" t="s">
         <v>3463</v>
@@ -29912,31 +29928,31 @@
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A479">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B479">
         <v>19</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>212</v>
+        <v>462</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>213</v>
+        <v>463</v>
       </c>
       <c r="E479" s="3" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="F479" s="3" t="s">
-        <v>214</v>
+        <v>464</v>
       </c>
       <c r="G479" s="3" t="s">
-        <v>215</v>
+        <v>465</v>
       </c>
       <c r="H479" s="3" t="s">
-        <v>216</v>
+        <v>466</v>
       </c>
       <c r="I479" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="J479" s="5" t="s">
         <v>3463</v>
@@ -29950,31 +29966,31 @@
     </row>
     <row r="480" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A480">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B480">
         <v>19</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>462</v>
+        <v>226</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>463</v>
+        <v>227</v>
       </c>
       <c r="E480" s="3" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="F480" s="3" t="s">
-        <v>464</v>
+        <v>228</v>
       </c>
       <c r="G480" s="3" t="s">
-        <v>465</v>
+        <v>229</v>
       </c>
       <c r="H480" s="3" t="s">
-        <v>466</v>
+        <v>230</v>
       </c>
       <c r="I480" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="J480" s="5" t="s">
         <v>3463</v>
@@ -29988,31 +30004,31 @@
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A481">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B481">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>226</v>
+        <v>2066</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>227</v>
+        <v>2067</v>
       </c>
       <c r="E481" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F481" s="3" t="s">
-        <v>228</v>
+        <v>2068</v>
       </c>
       <c r="G481" s="3" t="s">
-        <v>229</v>
+        <v>2069</v>
       </c>
       <c r="H481" s="3" t="s">
-        <v>230</v>
+        <v>2070</v>
       </c>
       <c r="I481" t="s">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="J481" s="5" t="s">
         <v>3463</v>
@@ -30026,31 +30042,31 @@
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A482">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B482">
         <v>19</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>2066</v>
+        <v>2799</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>2067</v>
+        <v>2800</v>
       </c>
       <c r="E482" s="3" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="F482" s="3" t="s">
-        <v>2068</v>
+        <v>2801</v>
       </c>
       <c r="G482" s="3" t="s">
-        <v>2069</v>
+        <v>2802</v>
       </c>
       <c r="H482" s="3" t="s">
-        <v>2070</v>
+        <v>2803</v>
       </c>
       <c r="I482" t="s">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="J482" s="5" t="s">
         <v>3463</v>
@@ -30064,31 +30080,31 @@
     </row>
     <row r="483" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A483">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B483">
         <v>19</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>2799</v>
+        <v>724</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>2800</v>
+        <v>725</v>
       </c>
       <c r="E483" s="3" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="F483" s="3" t="s">
-        <v>2801</v>
+        <v>726</v>
       </c>
       <c r="G483" s="3" t="s">
-        <v>2802</v>
+        <v>727</v>
       </c>
       <c r="H483" s="3" t="s">
-        <v>2803</v>
+        <v>728</v>
       </c>
       <c r="I483" t="s">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="J483" s="5" t="s">
         <v>3463</v>
@@ -30102,31 +30118,31 @@
     </row>
     <row r="484" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A484">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B484">
         <v>19</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>724</v>
+        <v>2178</v>
       </c>
       <c r="D484" s="3" t="s">
-        <v>725</v>
+        <v>2179</v>
       </c>
       <c r="E484" s="3" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="F484" s="3" t="s">
-        <v>726</v>
+        <v>2180</v>
       </c>
       <c r="G484" s="3" t="s">
-        <v>727</v>
+        <v>2181</v>
       </c>
       <c r="H484" s="3" t="s">
-        <v>728</v>
+        <v>2182</v>
       </c>
       <c r="I484" t="s">
-        <v>3295</v>
+        <v>3296</v>
       </c>
       <c r="J484" s="5" t="s">
         <v>3463</v>
@@ -30140,31 +30156,31 @@
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A485">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B485">
         <v>19</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>2178</v>
+        <v>1670</v>
       </c>
       <c r="D485" s="3" t="s">
-        <v>2179</v>
+        <v>1671</v>
       </c>
       <c r="E485" s="3" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="F485" s="3" t="s">
-        <v>2180</v>
+        <v>1672</v>
       </c>
       <c r="G485" s="3" t="s">
-        <v>2181</v>
+        <v>1673</v>
       </c>
       <c r="H485" s="3" t="s">
-        <v>2182</v>
+        <v>1674</v>
       </c>
       <c r="I485" t="s">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="J485" s="5" t="s">
         <v>3463</v>
@@ -30178,31 +30194,31 @@
     </row>
     <row r="486" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A486">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B486">
         <v>19</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>1670</v>
+        <v>1663</v>
       </c>
       <c r="D486" s="3" t="s">
-        <v>1671</v>
+        <v>1664</v>
       </c>
       <c r="E486" s="3" t="s">
         <v>118</v>
       </c>
       <c r="F486" s="3" t="s">
-        <v>1672</v>
+        <v>1665</v>
       </c>
       <c r="G486" s="3" t="s">
-        <v>1673</v>
+        <v>1666</v>
       </c>
       <c r="H486" s="3" t="s">
-        <v>1674</v>
+        <v>1667</v>
       </c>
       <c r="I486" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="J486" s="5" t="s">
         <v>3463</v>
@@ -30216,22 +30232,22 @@
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A487">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B487">
         <v>19</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>1663</v>
+        <v>1668</v>
       </c>
       <c r="D487" s="3" t="s">
         <v>1664</v>
       </c>
       <c r="E487" s="3" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="F487" s="3" t="s">
-        <v>1665</v>
+        <v>1669</v>
       </c>
       <c r="G487" s="3" t="s">
         <v>1666</v>
@@ -30240,7 +30256,7 @@
         <v>1667</v>
       </c>
       <c r="I487" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="J487" s="5" t="s">
         <v>3463</v>
@@ -30254,31 +30270,31 @@
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A488">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B488">
         <v>19</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>1668</v>
+        <v>467</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>1664</v>
+        <v>468</v>
       </c>
       <c r="E488" s="3" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="F488" s="3" t="s">
-        <v>1669</v>
+        <v>469</v>
       </c>
       <c r="G488" s="3" t="s">
-        <v>1666</v>
+        <v>470</v>
       </c>
       <c r="H488" s="3" t="s">
-        <v>1667</v>
+        <v>471</v>
       </c>
       <c r="I488" t="s">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="J488" s="5" t="s">
         <v>3463</v>
@@ -30292,31 +30308,31 @@
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A489">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B489">
         <v>19</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>467</v>
+        <v>231</v>
       </c>
       <c r="D489" s="3" t="s">
-        <v>468</v>
+        <v>232</v>
       </c>
       <c r="E489" s="3" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="F489" s="3" t="s">
-        <v>469</v>
+        <v>233</v>
       </c>
       <c r="G489" s="3" t="s">
-        <v>470</v>
+        <v>234</v>
       </c>
       <c r="H489" s="3" t="s">
-        <v>471</v>
+        <v>235</v>
       </c>
       <c r="I489" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="J489" s="5" t="s">
         <v>3463</v>
@@ -30330,22 +30346,22 @@
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A490">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B490">
         <v>19</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D490" s="3" t="s">
         <v>232</v>
       </c>
       <c r="E490" s="3" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="F490" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G490" s="3" t="s">
         <v>234</v>
@@ -30354,7 +30370,7 @@
         <v>235</v>
       </c>
       <c r="I490" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="J490" s="5" t="s">
         <v>3463</v>
@@ -30368,31 +30384,31 @@
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A491">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B491">
         <v>19</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>236</v>
+        <v>2415</v>
       </c>
       <c r="D491" s="3" t="s">
-        <v>232</v>
+        <v>2416</v>
       </c>
       <c r="E491" s="3" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="F491" s="3" t="s">
-        <v>237</v>
+        <v>2417</v>
       </c>
       <c r="G491" s="3" t="s">
-        <v>234</v>
+        <v>2418</v>
       </c>
       <c r="H491" s="3" t="s">
-        <v>235</v>
+        <v>2419</v>
       </c>
       <c r="I491" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="J491" s="5" t="s">
         <v>3463</v>
@@ -30406,31 +30422,31 @@
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A492">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B492">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>2415</v>
+        <v>1334</v>
       </c>
       <c r="D492" s="3" t="s">
-        <v>2416</v>
+        <v>1335</v>
       </c>
       <c r="E492" s="3" t="s">
-        <v>118</v>
+        <v>255</v>
       </c>
       <c r="F492" s="3" t="s">
-        <v>2417</v>
+        <v>1336</v>
       </c>
       <c r="G492" s="3" t="s">
-        <v>2418</v>
+        <v>1337</v>
       </c>
       <c r="H492" s="3" t="s">
-        <v>2419</v>
+        <v>1338</v>
       </c>
       <c r="I492" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="J492" s="5" t="s">
         <v>3463</v>
@@ -30444,31 +30460,31 @@
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A493">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B493">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>1334</v>
+        <v>2510</v>
       </c>
       <c r="D493" s="3" t="s">
-        <v>1335</v>
+        <v>2511</v>
       </c>
       <c r="E493" s="3" t="s">
-        <v>255</v>
+        <v>618</v>
       </c>
       <c r="F493" s="3" t="s">
-        <v>1336</v>
+        <v>2512</v>
       </c>
       <c r="G493" s="3" t="s">
-        <v>1337</v>
+        <v>2513</v>
       </c>
       <c r="H493" s="3" t="s">
-        <v>1338</v>
+        <v>2514</v>
       </c>
       <c r="I493" t="s">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="J493" s="5" t="s">
         <v>3463</v>
@@ -30482,31 +30498,31 @@
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A494">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B494">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>2510</v>
+        <v>2173</v>
       </c>
       <c r="D494" s="3" t="s">
-        <v>2511</v>
+        <v>2174</v>
       </c>
       <c r="E494" s="3" t="s">
-        <v>618</v>
+        <v>16</v>
       </c>
       <c r="F494" s="3" t="s">
-        <v>2512</v>
+        <v>2175</v>
       </c>
       <c r="G494" s="3" t="s">
-        <v>2513</v>
+        <v>2176</v>
       </c>
       <c r="H494" s="3" t="s">
-        <v>2514</v>
+        <v>2177</v>
       </c>
       <c r="I494" t="s">
-        <v>3305</v>
+        <v>3306</v>
       </c>
       <c r="J494" s="5" t="s">
         <v>3463</v>
@@ -30520,31 +30536,31 @@
     </row>
     <row r="495" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A495">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B495">
         <v>20</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>2173</v>
+        <v>2586</v>
       </c>
       <c r="D495" s="3" t="s">
-        <v>2174</v>
+        <v>2587</v>
       </c>
       <c r="E495" s="3" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="F495" s="3" t="s">
-        <v>2175</v>
+        <v>2588</v>
       </c>
       <c r="G495" s="3" t="s">
-        <v>2176</v>
+        <v>2589</v>
       </c>
       <c r="H495" s="3" t="s">
-        <v>2177</v>
+        <v>2590</v>
       </c>
       <c r="I495" t="s">
-        <v>3306</v>
+        <v>3307</v>
       </c>
       <c r="J495" s="5" t="s">
         <v>3463</v>
@@ -30558,31 +30574,31 @@
     </row>
     <row r="496" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A496">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B496">
         <v>20</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>2586</v>
+        <v>2580</v>
       </c>
       <c r="D496" s="3" t="s">
-        <v>2587</v>
+        <v>2581</v>
       </c>
       <c r="E496" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F496" s="3" t="s">
-        <v>2588</v>
+        <v>2582</v>
       </c>
       <c r="G496" s="3" t="s">
-        <v>2589</v>
+        <v>2281</v>
       </c>
       <c r="H496" s="3" t="s">
-        <v>2590</v>
+        <v>2583</v>
       </c>
       <c r="I496" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="J496" s="5" t="s">
         <v>3463</v>
@@ -30596,22 +30612,22 @@
     </row>
     <row r="497" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A497">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B497">
         <v>20</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>2580</v>
+        <v>2584</v>
       </c>
       <c r="D497" s="3" t="s">
         <v>2581</v>
       </c>
       <c r="E497" s="3" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="F497" s="3" t="s">
-        <v>2582</v>
+        <v>2585</v>
       </c>
       <c r="G497" s="3" t="s">
         <v>2281</v>
@@ -30620,7 +30636,7 @@
         <v>2583</v>
       </c>
       <c r="I497" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="J497" s="5" t="s">
         <v>3463</v>
@@ -30634,31 +30650,31 @@
     </row>
     <row r="498" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A498">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B498">
         <v>20</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>2584</v>
+        <v>436</v>
       </c>
       <c r="D498" s="3" t="s">
-        <v>2581</v>
+        <v>437</v>
       </c>
       <c r="E498" s="3" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="F498" s="3" t="s">
-        <v>2585</v>
+        <v>438</v>
       </c>
       <c r="G498" s="3" t="s">
-        <v>2281</v>
+        <v>439</v>
       </c>
       <c r="H498" s="3" t="s">
-        <v>2583</v>
+        <v>440</v>
       </c>
       <c r="I498" t="s">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="J498" s="5" t="s">
         <v>3463</v>
@@ -30672,22 +30688,22 @@
     </row>
     <row r="499" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A499">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B499">
         <v>20</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D499" s="3" t="s">
         <v>437</v>
       </c>
       <c r="E499" s="3" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="F499" s="3" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G499" s="3" t="s">
         <v>439</v>
@@ -30696,7 +30712,7 @@
         <v>440</v>
       </c>
       <c r="I499" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="J499" s="5" t="s">
         <v>3463</v>
@@ -30710,31 +30726,31 @@
     </row>
     <row r="500" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A500">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B500">
         <v>20</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>441</v>
+        <v>175</v>
       </c>
       <c r="D500" s="3" t="s">
-        <v>437</v>
+        <v>176</v>
       </c>
       <c r="E500" s="3" t="s">
         <v>156</v>
       </c>
       <c r="F500" s="3" t="s">
-        <v>442</v>
+        <v>177</v>
       </c>
       <c r="G500" s="3" t="s">
-        <v>439</v>
+        <v>178</v>
       </c>
       <c r="H500" s="3" t="s">
-        <v>440</v>
+        <v>179</v>
       </c>
       <c r="I500" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
       <c r="J500" s="5" t="s">
         <v>3463</v>
@@ -30748,22 +30764,22 @@
     </row>
     <row r="501" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A501">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B501">
         <v>20</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D501" s="3" t="s">
         <v>176</v>
       </c>
       <c r="E501" s="3" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="F501" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G501" s="3" t="s">
         <v>178</v>
@@ -30772,7 +30788,7 @@
         <v>179</v>
       </c>
       <c r="I501" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="J501" s="5" t="s">
         <v>3463</v>
@@ -30786,31 +30802,31 @@
     </row>
     <row r="502" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A502">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B502">
         <v>20</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>180</v>
+        <v>2051</v>
       </c>
       <c r="D502" s="3" t="s">
-        <v>176</v>
+        <v>2052</v>
       </c>
       <c r="E502" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F502" s="3" t="s">
-        <v>181</v>
+        <v>2053</v>
       </c>
       <c r="G502" s="3" t="s">
-        <v>178</v>
+        <v>2054</v>
       </c>
       <c r="H502" s="3" t="s">
-        <v>179</v>
+        <v>2055</v>
       </c>
       <c r="I502" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
       <c r="J502" s="5" t="s">
         <v>3463</v>
@@ -30824,31 +30840,31 @@
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A503">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B503">
         <v>20</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>2051</v>
+        <v>2046</v>
       </c>
       <c r="D503" s="3" t="s">
-        <v>2052</v>
+        <v>2047</v>
       </c>
       <c r="E503" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F503" s="3" t="s">
-        <v>2053</v>
+        <v>2048</v>
       </c>
       <c r="G503" s="3" t="s">
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="H503" s="3" t="s">
-        <v>2055</v>
+        <v>2050</v>
       </c>
       <c r="I503" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
       <c r="J503" s="5" t="s">
         <v>3463</v>
@@ -30862,31 +30878,31 @@
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A504">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B504">
         <v>20</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>2046</v>
+        <v>202</v>
       </c>
       <c r="D504" s="3" t="s">
-        <v>2047</v>
+        <v>203</v>
       </c>
       <c r="E504" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F504" s="3" t="s">
-        <v>2048</v>
+        <v>204</v>
       </c>
       <c r="G504" s="3" t="s">
-        <v>2049</v>
+        <v>205</v>
       </c>
       <c r="H504" s="3" t="s">
-        <v>2050</v>
+        <v>206</v>
       </c>
       <c r="I504" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
       <c r="J504" s="5" t="s">
         <v>3463</v>
@@ -30900,31 +30916,31 @@
     </row>
     <row r="505" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A505">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B505">
         <v>20</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>202</v>
+        <v>2061</v>
       </c>
       <c r="D505" s="3" t="s">
-        <v>203</v>
+        <v>2062</v>
       </c>
       <c r="E505" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F505" s="3" t="s">
-        <v>204</v>
+        <v>2063</v>
       </c>
       <c r="G505" s="3" t="s">
-        <v>205</v>
+        <v>2064</v>
       </c>
       <c r="H505" s="3" t="s">
-        <v>206</v>
+        <v>2065</v>
       </c>
       <c r="I505" t="s">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="J505" s="5" t="s">
         <v>3463</v>
@@ -30938,31 +30954,31 @@
     </row>
     <row r="506" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A506">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B506">
         <v>20</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>2061</v>
+        <v>2056</v>
       </c>
       <c r="D506" s="3" t="s">
-        <v>2062</v>
+        <v>2057</v>
       </c>
       <c r="E506" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F506" s="3" t="s">
-        <v>2063</v>
+        <v>2058</v>
       </c>
       <c r="G506" s="3" t="s">
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="H506" s="3" t="s">
-        <v>2065</v>
+        <v>2060</v>
       </c>
       <c r="I506" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="J506" s="5" t="s">
         <v>3463</v>
@@ -30976,31 +30992,31 @@
     </row>
     <row r="507" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A507">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B507">
         <v>20</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>2056</v>
+        <v>443</v>
       </c>
       <c r="D507" s="3" t="s">
-        <v>2057</v>
+        <v>444</v>
       </c>
       <c r="E507" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F507" s="3" t="s">
-        <v>2058</v>
+        <v>445</v>
       </c>
       <c r="G507" s="3" t="s">
-        <v>2059</v>
+        <v>446</v>
       </c>
       <c r="H507" s="3" t="s">
-        <v>2060</v>
+        <v>447</v>
       </c>
       <c r="I507" t="s">
-        <v>3318</v>
+        <v>3319</v>
       </c>
       <c r="J507" s="5" t="s">
         <v>3463</v>
@@ -31014,22 +31030,22 @@
     </row>
     <row r="508" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A508">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B508">
         <v>20</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="D508" s="3" t="s">
         <v>444</v>
       </c>
       <c r="E508" s="3" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="F508" s="3" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G508" s="3" t="s">
         <v>446</v>
@@ -31038,7 +31054,7 @@
         <v>447</v>
       </c>
       <c r="I508" t="s">
-        <v>3319</v>
+        <v>3320</v>
       </c>
       <c r="J508" s="5" t="s">
         <v>3463</v>
@@ -31052,31 +31068,31 @@
     </row>
     <row r="509" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A509">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B509">
         <v>20</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>448</v>
+        <v>509</v>
       </c>
       <c r="D509" s="3" t="s">
-        <v>444</v>
+        <v>510</v>
       </c>
       <c r="E509" s="3" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="F509" s="3" t="s">
-        <v>449</v>
+        <v>511</v>
       </c>
       <c r="G509" s="3" t="s">
-        <v>446</v>
+        <v>512</v>
       </c>
       <c r="H509" s="3" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="I509" t="s">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="J509" s="5" t="s">
         <v>3463</v>
@@ -31090,31 +31106,31 @@
     </row>
     <row r="510" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A510">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B510">
         <v>20</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>509</v>
+        <v>896</v>
       </c>
       <c r="D510" s="3" t="s">
-        <v>510</v>
+        <v>897</v>
       </c>
       <c r="E510" s="3" t="s">
-        <v>66</v>
+        <v>255</v>
       </c>
       <c r="F510" s="3" t="s">
-        <v>511</v>
+        <v>898</v>
       </c>
       <c r="G510" s="3" t="s">
-        <v>512</v>
+        <v>899</v>
       </c>
       <c r="H510" s="3" t="s">
-        <v>513</v>
+        <v>900</v>
       </c>
       <c r="I510" t="s">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="J510" s="5" t="s">
         <v>3463</v>
@@ -31128,31 +31144,31 @@
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A511">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B511">
         <v>20</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>896</v>
+        <v>2591</v>
       </c>
       <c r="D511" s="3" t="s">
-        <v>897</v>
+        <v>2592</v>
       </c>
       <c r="E511" s="3" t="s">
-        <v>255</v>
+        <v>57</v>
       </c>
       <c r="F511" s="3" t="s">
-        <v>898</v>
+        <v>2593</v>
       </c>
       <c r="G511" s="3" t="s">
-        <v>899</v>
+        <v>2594</v>
       </c>
       <c r="H511" s="3" t="s">
-        <v>900</v>
+        <v>2595</v>
       </c>
       <c r="I511" t="s">
-        <v>3322</v>
+        <v>3323</v>
       </c>
       <c r="J511" s="5" t="s">
         <v>3463</v>
@@ -31166,31 +31182,31 @@
     </row>
     <row r="512" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A512">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B512">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>2591</v>
+        <v>182</v>
       </c>
       <c r="D512" s="3" t="s">
-        <v>2592</v>
+        <v>183</v>
       </c>
       <c r="E512" s="3" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="F512" s="3" t="s">
-        <v>2593</v>
+        <v>184</v>
       </c>
       <c r="G512" s="3" t="s">
-        <v>2594</v>
+        <v>185</v>
       </c>
       <c r="H512" s="3" t="s">
-        <v>2595</v>
+        <v>186</v>
       </c>
       <c r="I512" t="s">
-        <v>3323</v>
+        <v>3324</v>
       </c>
       <c r="J512" s="5" t="s">
         <v>3463</v>
@@ -31204,31 +31220,31 @@
     </row>
     <row r="513" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A513">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B513">
         <v>21</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D513" s="3" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E513" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F513" s="3" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G513" s="3" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="H513" s="3" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="I513" t="s">
-        <v>3324</v>
+        <v>3325</v>
       </c>
       <c r="J513" s="5" t="s">
         <v>3463</v>
@@ -31242,31 +31258,31 @@
     </row>
     <row r="514" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A514">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B514">
         <v>21</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D514" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E514" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F514" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G514" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H514" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I514" t="s">
-        <v>3325</v>
+        <v>3326</v>
       </c>
       <c r="J514" s="5" t="s">
         <v>3463</v>
@@ -31280,31 +31296,31 @@
     </row>
     <row r="515" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A515">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B515">
         <v>21</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D515" s="3" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="E515" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F515" s="3" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="G515" s="3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="H515" s="3" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="I515" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
       <c r="J515" s="5" t="s">
         <v>3463</v>
@@ -31318,31 +31334,31 @@
     </row>
     <row r="516" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A516">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B516">
         <v>21</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>197</v>
+        <v>2804</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>198</v>
+        <v>2805</v>
       </c>
       <c r="E516" s="3" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="F516" s="3" t="s">
-        <v>199</v>
+        <v>2806</v>
       </c>
       <c r="G516" s="3" t="s">
-        <v>200</v>
+        <v>2807</v>
       </c>
       <c r="H516" s="3" t="s">
-        <v>201</v>
+        <v>2808</v>
       </c>
       <c r="I516" t="s">
-        <v>3327</v>
+        <v>3328</v>
       </c>
       <c r="J516" s="5" t="s">
         <v>3463</v>
@@ -31356,22 +31372,22 @@
     </row>
     <row r="517" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A517">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B517">
         <v>21</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>2804</v>
+        <v>2809</v>
       </c>
       <c r="D517" s="3" t="s">
         <v>2805</v>
       </c>
       <c r="E517" s="3" t="s">
-        <v>79</v>
+        <v>550</v>
       </c>
       <c r="F517" s="3" t="s">
-        <v>2806</v>
+        <v>2810</v>
       </c>
       <c r="G517" s="3" t="s">
         <v>2807</v>
@@ -31380,7 +31396,7 @@
         <v>2808</v>
       </c>
       <c r="I517" t="s">
-        <v>3328</v>
+        <v>3329</v>
       </c>
       <c r="J517" s="5" t="s">
         <v>3463</v>
@@ -31394,31 +31410,31 @@
     </row>
     <row r="518" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A518">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B518">
         <v>21</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>2809</v>
+        <v>771</v>
       </c>
       <c r="D518" s="3" t="s">
-        <v>2805</v>
+        <v>772</v>
       </c>
       <c r="E518" s="3" t="s">
-        <v>550</v>
+        <v>255</v>
       </c>
       <c r="F518" s="3" t="s">
-        <v>2810</v>
+        <v>773</v>
       </c>
       <c r="G518" s="3" t="s">
-        <v>2807</v>
+        <v>774</v>
       </c>
       <c r="H518" s="3" t="s">
-        <v>2808</v>
+        <v>775</v>
       </c>
       <c r="I518" t="s">
-        <v>3329</v>
+        <v>3330</v>
       </c>
       <c r="J518" s="5" t="s">
         <v>3463</v>
@@ -31432,31 +31448,31 @@
     </row>
     <row r="519" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A519">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B519">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>771</v>
+        <v>1383</v>
       </c>
       <c r="D519" s="3" t="s">
-        <v>772</v>
+        <v>1384</v>
       </c>
       <c r="E519" s="3" t="s">
-        <v>255</v>
+        <v>57</v>
       </c>
       <c r="F519" s="3" t="s">
-        <v>773</v>
+        <v>1385</v>
       </c>
       <c r="G519" s="3" t="s">
-        <v>774</v>
+        <v>1386</v>
       </c>
       <c r="H519" s="3" t="s">
-        <v>775</v>
+        <v>1387</v>
       </c>
       <c r="I519" t="s">
-        <v>3330</v>
+        <v>3331</v>
       </c>
       <c r="J519" s="5" t="s">
         <v>3463</v>
@@ -31470,22 +31486,22 @@
     </row>
     <row r="520" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A520">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B520">
         <v>22</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>1383</v>
+        <v>1388</v>
       </c>
       <c r="D520" s="3" t="s">
         <v>1384</v>
       </c>
       <c r="E520" s="3" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="F520" s="3" t="s">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="G520" s="3" t="s">
         <v>1386</v>
@@ -31494,7 +31510,7 @@
         <v>1387</v>
       </c>
       <c r="I520" t="s">
-        <v>3331</v>
+        <v>3332</v>
       </c>
       <c r="J520" s="5" t="s">
         <v>3463</v>
@@ -31508,22 +31524,22 @@
     </row>
     <row r="521" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A521">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B521">
         <v>22</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="D521" s="3" t="s">
         <v>1384</v>
       </c>
       <c r="E521" s="3" t="s">
-        <v>16</v>
+        <v>291</v>
       </c>
       <c r="F521" s="3" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="G521" s="3" t="s">
         <v>1386</v>
@@ -31532,7 +31548,7 @@
         <v>1387</v>
       </c>
       <c r="I521" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
       <c r="J521" s="5" t="s">
         <v>3463</v>
@@ -31546,31 +31562,31 @@
     </row>
     <row r="522" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A522">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B522">
         <v>22</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="D522" s="3" t="s">
-        <v>1384</v>
+        <v>1393</v>
       </c>
       <c r="E522" s="3" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="F522" s="3" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="G522" s="3" t="s">
-        <v>1386</v>
+        <v>1395</v>
       </c>
       <c r="H522" s="3" t="s">
-        <v>1387</v>
+        <v>1396</v>
       </c>
       <c r="I522" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="J522" s="5" t="s">
         <v>3463</v>
@@ -31584,22 +31600,22 @@
     </row>
     <row r="523" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A523">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B523">
         <v>22</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1392</v>
+        <v>1397</v>
       </c>
       <c r="D523" s="3" t="s">
         <v>1393</v>
       </c>
       <c r="E523" s="3" t="s">
-        <v>21</v>
+        <v>291</v>
       </c>
       <c r="F523" s="3" t="s">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="G523" s="3" t="s">
         <v>1395</v>
@@ -31608,7 +31624,7 @@
         <v>1396</v>
       </c>
       <c r="I523" t="s">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="J523" s="5" t="s">
         <v>3463</v>
@@ -31622,31 +31638,31 @@
     </row>
     <row r="524" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A524">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B524">
         <v>22</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1397</v>
+        <v>2596</v>
       </c>
       <c r="D524" s="3" t="s">
-        <v>1393</v>
+        <v>2597</v>
       </c>
       <c r="E524" s="3" t="s">
-        <v>291</v>
+        <v>57</v>
       </c>
       <c r="F524" s="3" t="s">
-        <v>1398</v>
+        <v>2598</v>
       </c>
       <c r="G524" s="3" t="s">
-        <v>1395</v>
+        <v>2599</v>
       </c>
       <c r="H524" s="3" t="s">
-        <v>1396</v>
+        <v>2600</v>
       </c>
       <c r="I524" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="J524" s="5" t="s">
         <v>3463</v>
@@ -31660,31 +31676,31 @@
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A525">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B525">
         <v>22</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>2596</v>
+        <v>1399</v>
       </c>
       <c r="D525" s="3" t="s">
-        <v>2597</v>
+        <v>1400</v>
       </c>
       <c r="E525" s="3" t="s">
-        <v>57</v>
+        <v>291</v>
       </c>
       <c r="F525" s="3" t="s">
-        <v>2598</v>
+        <v>1401</v>
       </c>
       <c r="G525" s="3" t="s">
-        <v>2599</v>
+        <v>1402</v>
       </c>
       <c r="H525" s="3" t="s">
-        <v>2600</v>
+        <v>1403</v>
       </c>
       <c r="I525" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
       <c r="J525" s="5" t="s">
         <v>3463</v>
@@ -31698,31 +31714,31 @@
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A526">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B526">
         <v>22</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>1399</v>
+        <v>1324</v>
       </c>
       <c r="D526" s="3" t="s">
-        <v>1400</v>
+        <v>1325</v>
       </c>
       <c r="E526" s="3" t="s">
-        <v>291</v>
+        <v>156</v>
       </c>
       <c r="F526" s="3" t="s">
-        <v>1401</v>
+        <v>1326</v>
       </c>
       <c r="G526" s="3" t="s">
-        <v>1402</v>
+        <v>1327</v>
       </c>
       <c r="H526" s="3" t="s">
-        <v>1403</v>
+        <v>1328</v>
       </c>
       <c r="I526" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
       <c r="J526" s="5" t="s">
         <v>3463</v>
@@ -31736,31 +31752,31 @@
     </row>
     <row r="527" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A527">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B527">
         <v>22</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1324</v>
+        <v>2041</v>
       </c>
       <c r="D527" s="3" t="s">
-        <v>1325</v>
+        <v>2042</v>
       </c>
       <c r="E527" s="3" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="F527" s="3" t="s">
-        <v>1326</v>
+        <v>2043</v>
       </c>
       <c r="G527" s="3" t="s">
-        <v>1327</v>
+        <v>2044</v>
       </c>
       <c r="H527" s="3" t="s">
-        <v>1328</v>
+        <v>2045</v>
       </c>
       <c r="I527" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
       <c r="J527" s="5" t="s">
         <v>3463</v>
@@ -31774,31 +31790,31 @@
     </row>
     <row r="528" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A528">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B528">
         <v>22</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>2041</v>
+        <v>96</v>
       </c>
       <c r="D528" s="3" t="s">
-        <v>2042</v>
+        <v>97</v>
       </c>
       <c r="E528" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F528" s="3" t="s">
-        <v>2043</v>
+        <v>98</v>
       </c>
       <c r="G528" s="3" t="s">
-        <v>2044</v>
+        <v>99</v>
       </c>
       <c r="H528" s="3" t="s">
-        <v>2045</v>
+        <v>100</v>
       </c>
       <c r="I528" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="J528" s="5" t="s">
         <v>3463</v>
@@ -31812,31 +31828,31 @@
     </row>
     <row r="529" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A529">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B529">
         <v>22</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>96</v>
+        <v>2606</v>
       </c>
       <c r="D529" s="3" t="s">
-        <v>97</v>
+        <v>2607</v>
       </c>
       <c r="E529" s="3" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F529" s="3" t="s">
-        <v>98</v>
+        <v>2608</v>
       </c>
       <c r="G529" s="3" t="s">
-        <v>99</v>
+        <v>2609</v>
       </c>
       <c r="H529" s="3" t="s">
-        <v>100</v>
+        <v>2610</v>
       </c>
       <c r="I529" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
       <c r="J529" s="5" t="s">
         <v>3463</v>
@@ -31850,31 +31866,31 @@
     </row>
     <row r="530" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A530">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B530">
         <v>22</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>2606</v>
+        <v>85</v>
       </c>
       <c r="D530" s="3" t="s">
-        <v>2607</v>
+        <v>86</v>
       </c>
       <c r="E530" s="3" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="F530" s="3" t="s">
-        <v>2608</v>
+        <v>87</v>
       </c>
       <c r="G530" s="3" t="s">
-        <v>2609</v>
+        <v>88</v>
       </c>
       <c r="H530" s="3" t="s">
-        <v>2610</v>
+        <v>89</v>
       </c>
       <c r="I530" t="s">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="J530" s="5" t="s">
         <v>3463</v>
@@ -31888,31 +31904,31 @@
     </row>
     <row r="531" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A531">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B531">
         <v>22</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>85</v>
+        <v>2601</v>
       </c>
       <c r="D531" s="3" t="s">
-        <v>86</v>
+        <v>2602</v>
       </c>
       <c r="E531" s="3" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F531" s="3" t="s">
-        <v>87</v>
+        <v>2603</v>
       </c>
       <c r="G531" s="3" t="s">
-        <v>88</v>
+        <v>2604</v>
       </c>
       <c r="H531" s="3" t="s">
-        <v>89</v>
+        <v>2605</v>
       </c>
       <c r="I531" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="J531" s="5" t="s">
         <v>3463</v>
@@ -31926,31 +31942,31 @@
     </row>
     <row r="532" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A532">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B532">
         <v>22</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>2601</v>
+        <v>1404</v>
       </c>
       <c r="D532" s="3" t="s">
-        <v>2602</v>
+        <v>1405</v>
       </c>
       <c r="E532" s="3" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F532" s="3" t="s">
-        <v>2603</v>
+        <v>1406</v>
       </c>
       <c r="G532" s="3" t="s">
-        <v>2604</v>
+        <v>1407</v>
       </c>
       <c r="H532" s="3" t="s">
-        <v>2605</v>
+        <v>1408</v>
       </c>
       <c r="I532" t="s">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="J532" s="5" t="s">
         <v>3463</v>
@@ -31964,31 +31980,31 @@
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A533">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B533">
         <v>22</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1404</v>
+        <v>2638</v>
       </c>
       <c r="D533" s="3" t="s">
-        <v>1405</v>
+        <v>2639</v>
       </c>
       <c r="E533" s="3" t="s">
         <v>79</v>
       </c>
       <c r="F533" s="3" t="s">
-        <v>1406</v>
+        <v>2640</v>
       </c>
       <c r="G533" s="3" t="s">
-        <v>1407</v>
+        <v>2641</v>
       </c>
       <c r="H533" s="3" t="s">
-        <v>1408</v>
+        <v>2642</v>
       </c>
       <c r="I533" t="s">
-        <v>3344</v>
+        <v>3345</v>
       </c>
       <c r="J533" s="5" t="s">
         <v>3463</v>
@@ -32002,31 +32018,31 @@
     </row>
     <row r="534" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A534">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B534">
         <v>22</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>2638</v>
+        <v>2643</v>
       </c>
       <c r="D534" s="3" t="s">
-        <v>2639</v>
+        <v>2644</v>
       </c>
       <c r="E534" s="3" t="s">
         <v>79</v>
       </c>
       <c r="F534" s="3" t="s">
-        <v>2640</v>
+        <v>2645</v>
       </c>
       <c r="G534" s="3" t="s">
-        <v>2641</v>
+        <v>2646</v>
       </c>
       <c r="H534" s="3" t="s">
-        <v>2642</v>
+        <v>2647</v>
       </c>
       <c r="I534" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="J534" s="5" t="s">
         <v>3463</v>
@@ -32040,31 +32056,31 @@
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A535">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B535">
         <v>22</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>2643</v>
+        <v>956</v>
       </c>
       <c r="D535" s="3" t="s">
-        <v>2644</v>
+        <v>957</v>
       </c>
       <c r="E535" s="3" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="F535" s="3" t="s">
-        <v>2645</v>
+        <v>958</v>
       </c>
       <c r="G535" s="3" t="s">
-        <v>2646</v>
+        <v>959</v>
       </c>
       <c r="H535" s="3" t="s">
-        <v>2647</v>
+        <v>960</v>
       </c>
       <c r="I535" t="s">
-        <v>3346</v>
+        <v>3347</v>
       </c>
       <c r="J535" s="5" t="s">
         <v>3463</v>
@@ -32078,31 +32094,31 @@
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A536">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B536">
         <v>22</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>956</v>
+        <v>1077</v>
       </c>
       <c r="D536" s="3" t="s">
-        <v>957</v>
+        <v>1078</v>
       </c>
       <c r="E536" s="3" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="F536" s="3" t="s">
-        <v>958</v>
+        <v>1079</v>
       </c>
       <c r="G536" s="3" t="s">
-        <v>959</v>
+        <v>1080</v>
       </c>
       <c r="H536" s="3" t="s">
-        <v>960</v>
+        <v>1081</v>
       </c>
       <c r="I536" t="s">
-        <v>3347</v>
+        <v>3348</v>
       </c>
       <c r="J536" s="5" t="s">
         <v>3463</v>
@@ -32116,31 +32132,31 @@
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A537">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B537">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1077</v>
+        <v>77</v>
       </c>
       <c r="D537" s="3" t="s">
-        <v>1078</v>
+        <v>78</v>
       </c>
       <c r="E537" s="3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F537" s="3" t="s">
-        <v>1079</v>
+        <v>80</v>
       </c>
       <c r="G537" s="3" t="s">
-        <v>1080</v>
+        <v>81</v>
       </c>
       <c r="H537" s="3" t="s">
-        <v>1081</v>
+        <v>82</v>
       </c>
       <c r="I537" t="s">
-        <v>3348</v>
+        <v>3349</v>
       </c>
       <c r="J537" s="5" t="s">
         <v>3463</v>
@@ -32154,22 +32170,22 @@
     </row>
     <row r="538" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A538">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B538">
         <v>23</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D538" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E538" s="3" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="F538" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G538" s="3" t="s">
         <v>81</v>
@@ -32178,7 +32194,7 @@
         <v>82</v>
       </c>
       <c r="I538" t="s">
-        <v>3349</v>
+        <v>3350</v>
       </c>
       <c r="J538" s="5" t="s">
         <v>3463</v>
@@ -32192,31 +32208,31 @@
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A539">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B539">
         <v>23</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>83</v>
+        <v>2024</v>
       </c>
       <c r="D539" s="3" t="s">
-        <v>78</v>
+        <v>2025</v>
       </c>
       <c r="E539" s="3" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="F539" s="3" t="s">
-        <v>84</v>
+        <v>2026</v>
       </c>
       <c r="G539" s="3" t="s">
-        <v>81</v>
+        <v>2027</v>
       </c>
       <c r="H539" s="3" t="s">
-        <v>82</v>
+        <v>2028</v>
       </c>
       <c r="I539" t="s">
-        <v>3350</v>
+        <v>3351</v>
       </c>
       <c r="J539" s="5" t="s">
         <v>3463</v>
@@ -32230,22 +32246,22 @@
     </row>
     <row r="540" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A540">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B540">
         <v>23</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>2024</v>
+        <v>2029</v>
       </c>
       <c r="D540" s="3" t="s">
         <v>2025</v>
       </c>
       <c r="E540" s="3" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="F540" s="3" t="s">
-        <v>2026</v>
+        <v>2030</v>
       </c>
       <c r="G540" s="3" t="s">
         <v>2027</v>
@@ -32254,7 +32270,7 @@
         <v>2028</v>
       </c>
       <c r="I540" t="s">
-        <v>3351</v>
+        <v>3352</v>
       </c>
       <c r="J540" s="5" t="s">
         <v>3463</v>
@@ -32268,31 +32284,31 @@
     </row>
     <row r="541" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A541">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B541">
         <v>23</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>2029</v>
+        <v>707</v>
       </c>
       <c r="D541" s="3" t="s">
-        <v>2025</v>
+        <v>708</v>
       </c>
       <c r="E541" s="3" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F541" s="3" t="s">
-        <v>2030</v>
+        <v>709</v>
       </c>
       <c r="G541" s="3" t="s">
-        <v>2027</v>
+        <v>710</v>
       </c>
       <c r="H541" s="3" t="s">
-        <v>2028</v>
+        <v>711</v>
       </c>
       <c r="I541" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="J541" s="5" t="s">
         <v>3463</v>
@@ -32306,31 +32322,31 @@
     </row>
     <row r="542" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A542">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B542">
         <v>23</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="D542" s="3" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="E542" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F542" s="3" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="G542" s="3" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="H542" s="3" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="I542" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="J542" s="5" t="s">
         <v>3463</v>
@@ -32344,31 +32360,31 @@
     </row>
     <row r="543" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A543">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B543">
         <v>23</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>702</v>
+        <v>2031</v>
       </c>
       <c r="D543" s="3" t="s">
-        <v>703</v>
+        <v>2032</v>
       </c>
       <c r="E543" s="3" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="F543" s="3" t="s">
-        <v>704</v>
+        <v>2033</v>
       </c>
       <c r="G543" s="3" t="s">
-        <v>705</v>
+        <v>2034</v>
       </c>
       <c r="H543" s="3" t="s">
-        <v>706</v>
+        <v>2035</v>
       </c>
       <c r="I543" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
       <c r="J543" s="5" t="s">
         <v>3463</v>
@@ -32382,31 +32398,31 @@
     </row>
     <row r="544" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A544">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B544">
         <v>23</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>2031</v>
+        <v>712</v>
       </c>
       <c r="D544" s="3" t="s">
-        <v>2032</v>
+        <v>713</v>
       </c>
       <c r="E544" s="3" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F544" s="3" t="s">
-        <v>2033</v>
+        <v>714</v>
       </c>
       <c r="G544" s="3" t="s">
-        <v>2034</v>
+        <v>715</v>
       </c>
       <c r="H544" s="3" t="s">
-        <v>2035</v>
+        <v>716</v>
       </c>
       <c r="I544" t="s">
-        <v>3355</v>
+        <v>3356</v>
       </c>
       <c r="J544" s="5" t="s">
         <v>3463</v>
@@ -32420,31 +32436,31 @@
     </row>
     <row r="545" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A545">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B545">
         <v>23</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>712</v>
+        <v>1453</v>
       </c>
       <c r="D545" s="3" t="s">
-        <v>713</v>
+        <v>1454</v>
       </c>
       <c r="E545" s="3" t="s">
-        <v>66</v>
+        <v>291</v>
       </c>
       <c r="F545" s="3" t="s">
-        <v>714</v>
+        <v>1455</v>
       </c>
       <c r="G545" s="3" t="s">
-        <v>715</v>
+        <v>1456</v>
       </c>
       <c r="H545" s="3" t="s">
-        <v>716</v>
+        <v>1457</v>
       </c>
       <c r="I545" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="J545" s="5" t="s">
         <v>3463</v>
@@ -32458,31 +32474,31 @@
     </row>
     <row r="546" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A546">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B546">
         <v>23</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>1453</v>
+        <v>1423</v>
       </c>
       <c r="D546" s="3" t="s">
-        <v>1454</v>
+        <v>1424</v>
       </c>
       <c r="E546" s="3" t="s">
         <v>291</v>
       </c>
       <c r="F546" s="3" t="s">
-        <v>1455</v>
+        <v>1425</v>
       </c>
       <c r="G546" s="3" t="s">
-        <v>1456</v>
+        <v>1426</v>
       </c>
       <c r="H546" s="3" t="s">
-        <v>1457</v>
+        <v>1427</v>
       </c>
       <c r="I546" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="J546" s="5" t="s">
         <v>3463</v>
@@ -32496,31 +32512,31 @@
     </row>
     <row r="547" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A547">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B547">
         <v>23</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
       <c r="D547" s="3" t="s">
-        <v>1424</v>
+        <v>1417</v>
       </c>
       <c r="E547" s="3" t="s">
-        <v>291</v>
+        <v>66</v>
       </c>
       <c r="F547" s="3" t="s">
-        <v>1425</v>
+        <v>1418</v>
       </c>
       <c r="G547" s="3" t="s">
-        <v>1426</v>
+        <v>1419</v>
       </c>
       <c r="H547" s="3" t="s">
-        <v>1427</v>
+        <v>1420</v>
       </c>
       <c r="I547" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
       <c r="J547" s="5" t="s">
         <v>3463</v>
@@ -32534,22 +32550,22 @@
     </row>
     <row r="548" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A548">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B548">
         <v>23</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>1416</v>
+        <v>1421</v>
       </c>
       <c r="D548" s="3" t="s">
         <v>1417</v>
       </c>
       <c r="E548" s="3" t="s">
-        <v>66</v>
+        <v>291</v>
       </c>
       <c r="F548" s="3" t="s">
-        <v>1418</v>
+        <v>1422</v>
       </c>
       <c r="G548" s="3" t="s">
         <v>1419</v>
@@ -32558,7 +32574,7 @@
         <v>1420</v>
       </c>
       <c r="I548" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
       <c r="J548" s="5" t="s">
         <v>3463</v>
@@ -32572,31 +32588,31 @@
     </row>
     <row r="549" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A549">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B549">
         <v>23</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>1421</v>
+        <v>1411</v>
       </c>
       <c r="D549" s="3" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="E549" s="3" t="s">
         <v>291</v>
       </c>
       <c r="F549" s="3" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="G549" s="3" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="H549" s="3" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
       <c r="I549" t="s">
-        <v>3360</v>
+        <v>3361</v>
       </c>
       <c r="J549" s="5" t="s">
         <v>3463</v>
@@ -32610,31 +32626,31 @@
     </row>
     <row r="550" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A550">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B550">
         <v>23</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>1411</v>
+        <v>59</v>
       </c>
       <c r="D550" s="3" t="s">
-        <v>1412</v>
+        <v>60</v>
       </c>
       <c r="E550" s="3" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="F550" s="3" t="s">
-        <v>1413</v>
+        <v>61</v>
       </c>
       <c r="G550" s="3" t="s">
-        <v>1414</v>
+        <v>62</v>
       </c>
       <c r="H550" s="3" t="s">
-        <v>1415</v>
+        <v>63</v>
       </c>
       <c r="I550" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="J550" s="5" t="s">
         <v>3463</v>
@@ -32648,31 +32664,31 @@
     </row>
     <row r="551" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A551">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B551">
         <v>23</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D551" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E551" s="3" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="F551" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G551" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H551" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I551" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
       <c r="J551" s="5" t="s">
         <v>3463</v>
@@ -32686,22 +32702,22 @@
     </row>
     <row r="552" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A552">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B552">
         <v>23</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D552" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E552" s="3" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="F552" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G552" s="3" t="s">
         <v>68</v>
@@ -32710,7 +32726,7 @@
         <v>69</v>
       </c>
       <c r="I552" t="s">
-        <v>3363</v>
+        <v>3364</v>
       </c>
       <c r="J552" s="5" t="s">
         <v>3463</v>
@@ -32724,31 +32740,31 @@
     </row>
     <row r="553" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A553">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B553">
         <v>23</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>70</v>
+        <v>1463</v>
       </c>
       <c r="D553" s="3" t="s">
-        <v>65</v>
+        <v>1464</v>
       </c>
       <c r="E553" s="3" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="F553" s="3" t="s">
-        <v>71</v>
+        <v>1465</v>
       </c>
       <c r="G553" s="3" t="s">
-        <v>68</v>
+        <v>1466</v>
       </c>
       <c r="H553" s="3" t="s">
-        <v>69</v>
+        <v>1467</v>
       </c>
       <c r="I553" t="s">
-        <v>3364</v>
+        <v>3365</v>
       </c>
       <c r="J553" s="5" t="s">
         <v>3463</v>
@@ -32762,31 +32778,31 @@
     </row>
     <row r="554" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A554">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B554">
         <v>23</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>1463</v>
+        <v>2611</v>
       </c>
       <c r="D554" s="3" t="s">
-        <v>1464</v>
+        <v>2612</v>
       </c>
       <c r="E554" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F554" s="3" t="s">
-        <v>1465</v>
+        <v>2613</v>
       </c>
       <c r="G554" s="3" t="s">
-        <v>1466</v>
+        <v>2614</v>
       </c>
       <c r="H554" s="3" t="s">
-        <v>1467</v>
+        <v>2615</v>
       </c>
       <c r="I554" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="J554" s="5" t="s">
         <v>3463</v>
@@ -32800,31 +32816,31 @@
     </row>
     <row r="555" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A555">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B555">
         <v>23</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>2611</v>
+        <v>1373</v>
       </c>
       <c r="D555" s="3" t="s">
-        <v>2612</v>
+        <v>1374</v>
       </c>
       <c r="E555" s="3" t="s">
-        <v>57</v>
+        <v>291</v>
       </c>
       <c r="F555" s="3" t="s">
-        <v>2613</v>
+        <v>1375</v>
       </c>
       <c r="G555" s="3" t="s">
-        <v>2614</v>
+        <v>1376</v>
       </c>
       <c r="H555" s="3" t="s">
-        <v>2615</v>
+        <v>1377</v>
       </c>
       <c r="I555" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="J555" s="5" t="s">
         <v>3463</v>
@@ -32838,31 +32854,31 @@
     </row>
     <row r="556" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A556">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B556">
         <v>23</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="D556" s="3" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="E556" s="3" t="s">
         <v>291</v>
       </c>
       <c r="F556" s="3" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="G556" s="3" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="H556" s="3" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="I556" t="s">
-        <v>3367</v>
+        <v>3368</v>
       </c>
       <c r="J556" s="5" t="s">
         <v>3463</v>
@@ -32876,31 +32892,31 @@
     </row>
     <row r="557" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A557">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B557">
         <v>23</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>1368</v>
+        <v>72</v>
       </c>
       <c r="D557" s="3" t="s">
-        <v>1369</v>
+        <v>73</v>
       </c>
       <c r="E557" s="3" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="F557" s="3" t="s">
-        <v>1370</v>
+        <v>74</v>
       </c>
       <c r="G557" s="3" t="s">
-        <v>1371</v>
+        <v>75</v>
       </c>
       <c r="H557" s="3" t="s">
-        <v>1372</v>
+        <v>76</v>
       </c>
       <c r="I557" t="s">
-        <v>3368</v>
+        <v>3369</v>
       </c>
       <c r="J557" s="5" t="s">
         <v>3463</v>
@@ -32914,31 +32930,31 @@
     </row>
     <row r="558" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A558">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B558">
         <v>23</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>72</v>
+        <v>1458</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>73</v>
+        <v>1459</v>
       </c>
       <c r="E558" s="3" t="s">
-        <v>21</v>
+        <v>291</v>
       </c>
       <c r="F558" s="3" t="s">
-        <v>74</v>
+        <v>1460</v>
       </c>
       <c r="G558" s="3" t="s">
-        <v>75</v>
+        <v>1461</v>
       </c>
       <c r="H558" s="3" t="s">
-        <v>76</v>
+        <v>1462</v>
       </c>
       <c r="I558" t="s">
-        <v>3369</v>
+        <v>3370</v>
       </c>
       <c r="J558" s="5" t="s">
         <v>3463</v>
@@ -32952,31 +32968,31 @@
     </row>
     <row r="559" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A559">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B559">
         <v>23</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>1458</v>
+        <v>2019</v>
       </c>
       <c r="D559" s="3" t="s">
-        <v>1459</v>
+        <v>2020</v>
       </c>
       <c r="E559" s="3" t="s">
-        <v>291</v>
+        <v>16</v>
       </c>
       <c r="F559" s="3" t="s">
-        <v>1460</v>
+        <v>2021</v>
       </c>
       <c r="G559" s="3" t="s">
-        <v>1461</v>
+        <v>2022</v>
       </c>
       <c r="H559" s="3" t="s">
-        <v>1462</v>
+        <v>2023</v>
       </c>
       <c r="I559" t="s">
-        <v>3370</v>
+        <v>3371</v>
       </c>
       <c r="J559" s="5" t="s">
         <v>3463</v>
@@ -32990,31 +33006,31 @@
     </row>
     <row r="560" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A560">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B560">
         <v>23</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>2019</v>
+        <v>871</v>
       </c>
       <c r="D560" s="3" t="s">
-        <v>2020</v>
+        <v>872</v>
       </c>
       <c r="E560" s="3" t="s">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="F560" s="3" t="s">
-        <v>2021</v>
+        <v>873</v>
       </c>
       <c r="G560" s="3" t="s">
-        <v>2022</v>
+        <v>874</v>
       </c>
       <c r="H560" s="3" t="s">
-        <v>2023</v>
+        <v>875</v>
       </c>
       <c r="I560" t="s">
-        <v>3371</v>
+        <v>3372</v>
       </c>
       <c r="J560" s="5" t="s">
         <v>3463</v>
@@ -33028,31 +33044,31 @@
     </row>
     <row r="561" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A561">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B561">
         <v>23</v>
       </c>
       <c r="C561" s="3" t="s">
-        <v>871</v>
+        <v>2168</v>
       </c>
       <c r="D561" s="3" t="s">
-        <v>872</v>
+        <v>2169</v>
       </c>
       <c r="E561" s="3" t="s">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="F561" s="3" t="s">
-        <v>873</v>
+        <v>2170</v>
       </c>
       <c r="G561" s="3" t="s">
-        <v>874</v>
+        <v>2171</v>
       </c>
       <c r="H561" s="3" t="s">
-        <v>875</v>
+        <v>2172</v>
       </c>
       <c r="I561" t="s">
-        <v>3372</v>
+        <v>3373</v>
       </c>
       <c r="J561" s="5" t="s">
         <v>3463</v>
@@ -33066,31 +33082,31 @@
     </row>
     <row r="562" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A562">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B562">
         <v>23</v>
       </c>
       <c r="C562" s="3" t="s">
-        <v>2168</v>
+        <v>1428</v>
       </c>
       <c r="D562" s="3" t="s">
-        <v>2169</v>
+        <v>1429</v>
       </c>
       <c r="E562" s="3" t="s">
-        <v>16</v>
+        <v>291</v>
       </c>
       <c r="F562" s="3" t="s">
-        <v>2170</v>
+        <v>1430</v>
       </c>
       <c r="G562" s="3" t="s">
-        <v>2171</v>
+        <v>1431</v>
       </c>
       <c r="H562" s="3" t="s">
-        <v>2172</v>
+        <v>1432</v>
       </c>
       <c r="I562" t="s">
-        <v>3373</v>
+        <v>3374</v>
       </c>
       <c r="J562" s="5" t="s">
         <v>3463</v>
@@ -33104,31 +33120,31 @@
     </row>
     <row r="563" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A563">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B563">
         <v>23</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>1428</v>
+        <v>697</v>
       </c>
       <c r="D563" s="3" t="s">
-        <v>1429</v>
+        <v>698</v>
       </c>
       <c r="E563" s="3" t="s">
-        <v>291</v>
+        <v>66</v>
       </c>
       <c r="F563" s="3" t="s">
-        <v>1430</v>
+        <v>699</v>
       </c>
       <c r="G563" s="3" t="s">
-        <v>1431</v>
+        <v>700</v>
       </c>
       <c r="H563" s="3" t="s">
-        <v>1432</v>
+        <v>701</v>
       </c>
       <c r="I563" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="J563" s="5" t="s">
         <v>3463</v>
@@ -33142,31 +33158,31 @@
     </row>
     <row r="564" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A564">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B564">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>697</v>
+        <v>2121</v>
       </c>
       <c r="D564" s="3" t="s">
-        <v>698</v>
+        <v>2122</v>
       </c>
       <c r="E564" s="3" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="F564" s="3" t="s">
-        <v>699</v>
+        <v>2123</v>
       </c>
       <c r="G564" s="3" t="s">
-        <v>700</v>
+        <v>2124</v>
       </c>
       <c r="H564" s="3" t="s">
-        <v>701</v>
+        <v>2125</v>
       </c>
       <c r="I564" t="s">
-        <v>3375</v>
+        <v>3376</v>
       </c>
       <c r="J564" s="5" t="s">
         <v>3463</v>
@@ -33180,31 +33196,31 @@
     </row>
     <row r="565" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A565">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B565">
         <v>24</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>2121</v>
+        <v>2126</v>
       </c>
       <c r="D565" s="3" t="s">
         <v>2122</v>
       </c>
-      <c r="E565" s="3" t="s">
-        <v>40</v>
+      <c r="E565" s="3">
+        <v>3</v>
       </c>
       <c r="F565" s="3" t="s">
-        <v>2123</v>
-      </c>
-      <c r="G565" s="3" t="s">
-        <v>2124</v>
+        <v>2127</v>
+      </c>
+      <c r="G565" s="3">
+        <v>37.492522000000001</v>
       </c>
       <c r="H565" s="3" t="s">
         <v>2125</v>
       </c>
       <c r="I565" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="J565" s="5" t="s">
         <v>3463</v>
@@ -33218,31 +33234,31 @@
     </row>
     <row r="566" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A566">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B566">
         <v>24</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>2126</v>
+        <v>1794</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>2122</v>
-      </c>
-      <c r="E566" s="3">
-        <v>3</v>
+        <v>1795</v>
+      </c>
+      <c r="E566" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="F566" s="3" t="s">
-        <v>2127</v>
-      </c>
-      <c r="G566" s="3">
-        <v>37.492522000000001</v>
+        <v>1796</v>
+      </c>
+      <c r="G566" s="3" t="s">
+        <v>1797</v>
       </c>
       <c r="H566" s="3" t="s">
-        <v>2125</v>
+        <v>1798</v>
       </c>
       <c r="I566" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="J566" s="5" t="s">
         <v>3463</v>
@@ -33256,31 +33272,31 @@
     </row>
     <row r="567" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A567">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B567">
         <v>24</v>
       </c>
       <c r="C567" s="3" t="s">
-        <v>1794</v>
+        <v>1799</v>
       </c>
       <c r="D567" s="3" t="s">
-        <v>1795</v>
+        <v>1800</v>
       </c>
       <c r="E567" s="3" t="s">
         <v>118</v>
       </c>
       <c r="F567" s="3" t="s">
-        <v>1796</v>
+        <v>1801</v>
       </c>
       <c r="G567" s="3" t="s">
-        <v>1797</v>
+        <v>1802</v>
       </c>
       <c r="H567" s="3" t="s">
-        <v>1798</v>
+        <v>1803</v>
       </c>
       <c r="I567" t="s">
-        <v>3378</v>
+        <v>3379</v>
       </c>
       <c r="J567" s="5" t="s">
         <v>3463</v>
@@ -33294,31 +33310,31 @@
     </row>
     <row r="568" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A568">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B568">
         <v>24</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>1799</v>
+        <v>1470</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>1800</v>
+        <v>1471</v>
       </c>
       <c r="E568" s="3" t="s">
-        <v>118</v>
+        <v>291</v>
       </c>
       <c r="F568" s="3" t="s">
-        <v>1801</v>
+        <v>1472</v>
       </c>
       <c r="G568" s="3" t="s">
-        <v>1802</v>
+        <v>1473</v>
       </c>
       <c r="H568" s="3" t="s">
-        <v>1803</v>
+        <v>1474</v>
       </c>
       <c r="I568" t="s">
-        <v>3379</v>
+        <v>3380</v>
       </c>
       <c r="J568" s="5" t="s">
         <v>3463</v>
@@ -33332,31 +33348,31 @@
     </row>
     <row r="569" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A569">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B569">
         <v>24</v>
       </c>
       <c r="C569" s="3" t="s">
-        <v>1470</v>
+        <v>1804</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>1471</v>
+        <v>1805</v>
       </c>
       <c r="E569" s="3" t="s">
-        <v>291</v>
+        <v>118</v>
       </c>
       <c r="F569" s="3" t="s">
-        <v>1472</v>
+        <v>1806</v>
       </c>
       <c r="G569" s="3" t="s">
-        <v>1473</v>
+        <v>1807</v>
       </c>
       <c r="H569" s="3" t="s">
-        <v>1474</v>
+        <v>1808</v>
       </c>
       <c r="I569" t="s">
-        <v>3380</v>
+        <v>3381</v>
       </c>
       <c r="J569" s="5" t="s">
         <v>3463</v>
@@ -33370,31 +33386,31 @@
     </row>
     <row r="570" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A570">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B570">
         <v>24</v>
       </c>
       <c r="C570" s="3" t="s">
-        <v>1804</v>
+        <v>2106</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>1805</v>
+        <v>2107</v>
       </c>
       <c r="E570" s="3" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="F570" s="3" t="s">
-        <v>1806</v>
+        <v>2108</v>
       </c>
       <c r="G570" s="3" t="s">
-        <v>1807</v>
+        <v>2109</v>
       </c>
       <c r="H570" s="3" t="s">
-        <v>1808</v>
+        <v>2110</v>
       </c>
       <c r="I570" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="J570" s="5" t="s">
         <v>3463</v>
@@ -33408,31 +33424,31 @@
     </row>
     <row r="571" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A571">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B571">
         <v>24</v>
       </c>
       <c r="C571" s="3" t="s">
-        <v>2106</v>
+        <v>2128</v>
       </c>
       <c r="D571" s="3" t="s">
-        <v>2107</v>
+        <v>2129</v>
       </c>
       <c r="E571" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F571" s="3" t="s">
-        <v>2108</v>
+        <v>2130</v>
       </c>
       <c r="G571" s="3" t="s">
-        <v>2109</v>
+        <v>2131</v>
       </c>
       <c r="H571" s="3" t="s">
-        <v>2110</v>
+        <v>2132</v>
       </c>
       <c r="I571" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="J571" s="5" t="s">
         <v>3463</v>
@@ -33446,31 +33462,31 @@
     </row>
     <row r="572" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A572">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B572">
         <v>24</v>
       </c>
       <c r="C572" s="3" t="s">
-        <v>2128</v>
+        <v>2420</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>2129</v>
+        <v>2421</v>
       </c>
       <c r="E572" s="3" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="F572" s="3" t="s">
-        <v>2130</v>
+        <v>2422</v>
       </c>
       <c r="G572" s="3" t="s">
-        <v>2131</v>
+        <v>2423</v>
       </c>
       <c r="H572" s="3" t="s">
-        <v>2132</v>
+        <v>2424</v>
       </c>
       <c r="I572" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="J572" s="5" t="s">
         <v>3463</v>
@@ -33484,31 +33500,31 @@
     </row>
     <row r="573" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A573">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B573">
         <v>24</v>
       </c>
       <c r="C573" s="3" t="s">
-        <v>2420</v>
+        <v>717</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>2421</v>
+        <v>718</v>
       </c>
       <c r="E573" s="3" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="F573" s="3" t="s">
-        <v>2422</v>
+        <v>719</v>
       </c>
       <c r="G573" s="3" t="s">
-        <v>2423</v>
+        <v>720</v>
       </c>
       <c r="H573" s="3" t="s">
-        <v>2424</v>
+        <v>721</v>
       </c>
       <c r="I573" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="J573" s="5" t="s">
         <v>3463</v>
@@ -33522,22 +33538,22 @@
     </row>
     <row r="574" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A574">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B574">
         <v>24</v>
       </c>
       <c r="C574" s="3" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="D574" s="3" t="s">
         <v>718</v>
       </c>
       <c r="E574" s="3" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="F574" s="3" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="G574" s="3" t="s">
         <v>720</v>
@@ -33546,7 +33562,7 @@
         <v>721</v>
       </c>
       <c r="I574" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="J574" s="5" t="s">
         <v>3463</v>
@@ -33560,31 +33576,31 @@
     </row>
     <row r="575" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A575">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B575">
         <v>24</v>
       </c>
       <c r="C575" s="3" t="s">
-        <v>722</v>
+        <v>2111</v>
       </c>
       <c r="D575" s="3" t="s">
-        <v>718</v>
+        <v>2112</v>
       </c>
       <c r="E575" s="3" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="F575" s="3" t="s">
-        <v>723</v>
+        <v>2113</v>
       </c>
       <c r="G575" s="3" t="s">
-        <v>720</v>
+        <v>2114</v>
       </c>
       <c r="H575" s="3" t="s">
-        <v>721</v>
+        <v>2115</v>
       </c>
       <c r="I575" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="J575" s="5" t="s">
         <v>3463</v>
@@ -33598,31 +33614,31 @@
     </row>
     <row r="576" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A576">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B576">
         <v>24</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>2111</v>
+        <v>2116</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>2112</v>
+        <v>2117</v>
       </c>
       <c r="E576" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F576" s="3" t="s">
-        <v>2113</v>
+        <v>2118</v>
       </c>
       <c r="G576" s="3" t="s">
-        <v>2114</v>
+        <v>2119</v>
       </c>
       <c r="H576" s="3" t="s">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="I576" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="J576" s="5" t="s">
         <v>3463</v>
@@ -33636,31 +33652,31 @@
     </row>
     <row r="577" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A577">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B577">
         <v>24</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>2116</v>
+        <v>1782</v>
       </c>
       <c r="D577" s="3" t="s">
-        <v>2117</v>
+        <v>1783</v>
       </c>
       <c r="E577" s="3" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="F577" s="3" t="s">
-        <v>2118</v>
+        <v>1784</v>
       </c>
       <c r="G577" s="3" t="s">
-        <v>2119</v>
+        <v>1785</v>
       </c>
       <c r="H577" s="3" t="s">
-        <v>2120</v>
+        <v>1786</v>
       </c>
       <c r="I577" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="J577" s="5" t="s">
         <v>3463</v>
@@ -33674,31 +33690,31 @@
     </row>
     <row r="578" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A578">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B578">
         <v>24</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>1782</v>
+        <v>38</v>
       </c>
       <c r="D578" s="3" t="s">
-        <v>1783</v>
+        <v>39</v>
       </c>
       <c r="E578" s="3" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="F578" s="3" t="s">
-        <v>1784</v>
+        <v>41</v>
       </c>
       <c r="G578" s="3" t="s">
-        <v>1785</v>
+        <v>42</v>
       </c>
       <c r="H578" s="3" t="s">
-        <v>1786</v>
+        <v>43</v>
       </c>
       <c r="I578" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="J578" s="5" t="s">
         <v>3463</v>
@@ -33712,22 +33728,22 @@
     </row>
     <row r="579" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A579">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B579">
         <v>24</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D579" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E579" s="3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F579" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G579" s="3" t="s">
         <v>42</v>
@@ -33736,7 +33752,7 @@
         <v>43</v>
       </c>
       <c r="I579" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="J579" s="5" t="s">
         <v>3463</v>
@@ -33750,31 +33766,31 @@
     </row>
     <row r="580" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A580">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B580">
         <v>24</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D580" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E580" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F580" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G580" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H580" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I580" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="J580" s="5" t="s">
         <v>3463</v>
@@ -33788,31 +33804,31 @@
     </row>
     <row r="581" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A581">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B581">
         <v>24</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D581" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E581" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F581" s="3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G581" s="3" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H581" s="3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I581" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="J581" s="5" t="s">
         <v>3463</v>
@@ -33826,31 +33842,31 @@
     </row>
     <row r="582" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A582">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B582">
         <v>24</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>46</v>
+        <v>2133</v>
       </c>
       <c r="D582" s="3" t="s">
-        <v>47</v>
+        <v>2134</v>
       </c>
       <c r="E582" s="3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F582" s="3" t="s">
-        <v>48</v>
+        <v>2135</v>
       </c>
       <c r="G582" s="3" t="s">
-        <v>49</v>
+        <v>2136</v>
       </c>
       <c r="H582" s="3" t="s">
-        <v>50</v>
+        <v>2137</v>
       </c>
       <c r="I582" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="J582" s="5" t="s">
         <v>3463</v>
@@ -33864,31 +33880,31 @@
     </row>
     <row r="583" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A583">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B583">
         <v>24</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>2133</v>
+        <v>51</v>
       </c>
       <c r="D583" s="3" t="s">
-        <v>2134</v>
+        <v>52</v>
       </c>
       <c r="E583" s="3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F583" s="3" t="s">
-        <v>2135</v>
+        <v>53</v>
       </c>
       <c r="G583" s="3" t="s">
-        <v>2136</v>
+        <v>54</v>
       </c>
       <c r="H583" s="3" t="s">
-        <v>2137</v>
+        <v>55</v>
       </c>
       <c r="I583" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="J583" s="5" t="s">
         <v>3463</v>
@@ -33902,22 +33918,22 @@
     </row>
     <row r="584" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A584">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B584">
         <v>24</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D584" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E584" s="3" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F584" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G584" s="3" t="s">
         <v>54</v>
@@ -33926,7 +33942,7 @@
         <v>55</v>
       </c>
       <c r="I584" t="s">
-        <v>3395</v>
+        <v>3396</v>
       </c>
       <c r="J584" s="5" t="s">
         <v>3463</v>
@@ -33940,31 +33956,31 @@
     </row>
     <row r="585" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A585">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B585">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>56</v>
+        <v>1752</v>
       </c>
       <c r="D585" s="3" t="s">
-        <v>52</v>
+        <v>1753</v>
       </c>
       <c r="E585" s="3" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="F585" s="3" t="s">
-        <v>58</v>
+        <v>1754</v>
       </c>
       <c r="G585" s="3" t="s">
-        <v>54</v>
+        <v>1755</v>
       </c>
       <c r="H585" s="3" t="s">
-        <v>55</v>
+        <v>1756</v>
       </c>
       <c r="I585" t="s">
-        <v>3396</v>
+        <v>3397</v>
       </c>
       <c r="J585" s="5" t="s">
         <v>3463</v>
@@ -33978,31 +33994,31 @@
     </row>
     <row r="586" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A586">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B586">
         <v>25</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>1752</v>
+        <v>2101</v>
       </c>
       <c r="D586" s="3" t="s">
-        <v>1753</v>
+        <v>2102</v>
       </c>
       <c r="E586" s="3" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="F586" s="3" t="s">
-        <v>1754</v>
+        <v>2103</v>
       </c>
       <c r="G586" s="3" t="s">
-        <v>1755</v>
+        <v>2104</v>
       </c>
       <c r="H586" s="3" t="s">
-        <v>1756</v>
+        <v>2105</v>
       </c>
       <c r="I586" t="s">
-        <v>3397</v>
+        <v>3398</v>
       </c>
       <c r="J586" s="5" t="s">
         <v>3463</v>
@@ -34016,31 +34032,31 @@
     </row>
     <row r="587" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A587">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B587">
         <v>25</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>2101</v>
+        <v>1772</v>
       </c>
       <c r="D587" s="3" t="s">
-        <v>2102</v>
+        <v>1773</v>
       </c>
       <c r="E587" s="3" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="F587" s="3" t="s">
-        <v>2103</v>
+        <v>1774</v>
       </c>
       <c r="G587" s="3" t="s">
-        <v>2104</v>
+        <v>1775</v>
       </c>
       <c r="H587" s="3" t="s">
-        <v>2105</v>
+        <v>1776</v>
       </c>
       <c r="I587" t="s">
-        <v>3398</v>
+        <v>3399</v>
       </c>
       <c r="J587" s="5" t="s">
         <v>3463</v>
@@ -34054,31 +34070,31 @@
     </row>
     <row r="588" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A588">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B588">
         <v>25</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>1772</v>
+        <v>1762</v>
       </c>
       <c r="D588" s="3" t="s">
-        <v>1773</v>
+        <v>1763</v>
       </c>
       <c r="E588" s="3" t="s">
         <v>118</v>
       </c>
       <c r="F588" s="3" t="s">
-        <v>1774</v>
+        <v>1764</v>
       </c>
       <c r="G588" s="3" t="s">
-        <v>1775</v>
+        <v>1765</v>
       </c>
       <c r="H588" s="3" t="s">
-        <v>1776</v>
+        <v>1766</v>
       </c>
       <c r="I588" t="s">
-        <v>3399</v>
+        <v>3400</v>
       </c>
       <c r="J588" s="5" t="s">
         <v>3463</v>
@@ -34092,31 +34108,31 @@
     </row>
     <row r="589" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A589">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B589">
         <v>25</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>1762</v>
+        <v>1757</v>
       </c>
       <c r="D589" s="3" t="s">
-        <v>1763</v>
+        <v>1758</v>
       </c>
       <c r="E589" s="3" t="s">
         <v>118</v>
       </c>
       <c r="F589" s="3" t="s">
-        <v>1764</v>
+        <v>1759</v>
       </c>
       <c r="G589" s="3" t="s">
-        <v>1765</v>
+        <v>1760</v>
       </c>
       <c r="H589" s="3" t="s">
-        <v>1766</v>
+        <v>1761</v>
       </c>
       <c r="I589" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="J589" s="5" t="s">
         <v>3463</v>
@@ -34130,31 +34146,31 @@
     </row>
     <row r="590" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A590">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B590">
         <v>25</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>1757</v>
+        <v>2153</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>1758</v>
+        <v>2154</v>
       </c>
       <c r="E590" s="3" t="s">
         <v>118</v>
       </c>
       <c r="F590" s="3" t="s">
-        <v>1759</v>
+        <v>2155</v>
       </c>
       <c r="G590" s="3" t="s">
-        <v>1760</v>
+        <v>2156</v>
       </c>
       <c r="H590" s="3" t="s">
-        <v>1761</v>
+        <v>2157</v>
       </c>
       <c r="I590" t="s">
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="J590" s="5" t="s">
         <v>3463</v>
@@ -34168,31 +34184,31 @@
     </row>
     <row r="591" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A591">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B591">
         <v>25</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>2153</v>
+        <v>1767</v>
       </c>
       <c r="D591" s="3" t="s">
-        <v>2154</v>
+        <v>1768</v>
       </c>
       <c r="E591" s="3" t="s">
         <v>118</v>
       </c>
       <c r="F591" s="3" t="s">
-        <v>2155</v>
+        <v>1769</v>
       </c>
       <c r="G591" s="3" t="s">
-        <v>2156</v>
+        <v>1770</v>
       </c>
       <c r="H591" s="3" t="s">
-        <v>2157</v>
+        <v>1771</v>
       </c>
       <c r="I591" t="s">
-        <v>3402</v>
+        <v>3403</v>
       </c>
       <c r="J591" s="5" t="s">
         <v>3463</v>
@@ -34206,31 +34222,31 @@
     </row>
     <row r="592" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A592">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B592">
         <v>25</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>1767</v>
+        <v>1777</v>
       </c>
       <c r="D592" s="3" t="s">
-        <v>1768</v>
+        <v>1778</v>
       </c>
       <c r="E592" s="3" t="s">
         <v>118</v>
       </c>
       <c r="F592" s="3" t="s">
-        <v>1769</v>
+        <v>1779</v>
       </c>
       <c r="G592" s="3" t="s">
-        <v>1770</v>
+        <v>1780</v>
       </c>
       <c r="H592" s="3" t="s">
-        <v>1771</v>
+        <v>1781</v>
       </c>
       <c r="I592" t="s">
-        <v>3403</v>
+        <v>3404</v>
       </c>
       <c r="J592" s="5" t="s">
         <v>3463</v>
@@ -34244,31 +34260,31 @@
     </row>
     <row r="593" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A593">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B593">
         <v>25</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>1777</v>
+        <v>2360</v>
       </c>
       <c r="D593" s="3" t="s">
-        <v>1778</v>
+        <v>2361</v>
       </c>
       <c r="E593" s="3" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="F593" s="3" t="s">
-        <v>1779</v>
+        <v>2362</v>
       </c>
       <c r="G593" s="3" t="s">
-        <v>1780</v>
+        <v>2363</v>
       </c>
       <c r="H593" s="3" t="s">
-        <v>1781</v>
+        <v>2364</v>
       </c>
       <c r="I593" t="s">
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="J593" s="5" t="s">
         <v>3463</v>
@@ -34282,31 +34298,31 @@
     </row>
     <row r="594" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A594">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B594">
         <v>25</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>2360</v>
+        <v>1745</v>
       </c>
       <c r="D594" s="3" t="s">
-        <v>2361</v>
+        <v>1746</v>
       </c>
       <c r="E594" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F594" s="3" t="s">
-        <v>2362</v>
+        <v>1747</v>
       </c>
       <c r="G594" s="3" t="s">
-        <v>2363</v>
+        <v>1748</v>
       </c>
       <c r="H594" s="3" t="s">
-        <v>2364</v>
+        <v>1749</v>
       </c>
       <c r="I594" t="s">
-        <v>3405</v>
+        <v>3406</v>
       </c>
       <c r="J594" s="5" t="s">
         <v>3463</v>
@@ -34320,22 +34336,22 @@
     </row>
     <row r="595" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A595">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B595">
         <v>25</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>1745</v>
+        <v>1750</v>
       </c>
       <c r="D595" s="3" t="s">
         <v>1746</v>
       </c>
       <c r="E595" s="3" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="F595" s="3" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="G595" s="3" t="s">
         <v>1748</v>
@@ -34344,7 +34360,7 @@
         <v>1749</v>
       </c>
       <c r="I595" t="s">
-        <v>3406</v>
+        <v>3407</v>
       </c>
       <c r="J595" s="5" t="s">
         <v>3463</v>
@@ -34358,31 +34374,31 @@
     </row>
     <row r="596" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A596">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B596">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>1750</v>
+        <v>2076</v>
       </c>
       <c r="D596" s="3" t="s">
-        <v>1746</v>
+        <v>2077</v>
       </c>
       <c r="E596" s="3" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="F596" s="3" t="s">
-        <v>1751</v>
+        <v>2078</v>
       </c>
       <c r="G596" s="3" t="s">
-        <v>1748</v>
+        <v>2079</v>
       </c>
       <c r="H596" s="3" t="s">
-        <v>1749</v>
+        <v>2080</v>
       </c>
       <c r="I596" t="s">
-        <v>3407</v>
+        <v>3408</v>
       </c>
       <c r="J596" s="5" t="s">
         <v>3463</v>
@@ -34396,31 +34412,31 @@
     </row>
     <row r="597" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A597">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B597">
         <v>26</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>2076</v>
+        <v>2430</v>
       </c>
       <c r="D597" s="3" t="s">
-        <v>2077</v>
+        <v>2431</v>
       </c>
       <c r="E597" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F597" s="3" t="s">
-        <v>2078</v>
+        <v>2432</v>
       </c>
       <c r="G597" s="3" t="s">
-        <v>2079</v>
+        <v>2433</v>
       </c>
       <c r="H597" s="3" t="s">
-        <v>2080</v>
+        <v>2434</v>
       </c>
       <c r="I597" t="s">
-        <v>3408</v>
+        <v>3409</v>
       </c>
       <c r="J597" s="5" t="s">
         <v>3463</v>
@@ -34434,31 +34450,31 @@
     </row>
     <row r="598" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A598">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B598">
         <v>26</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>2430</v>
+        <v>1126</v>
       </c>
       <c r="D598" s="3" t="s">
-        <v>2431</v>
+        <v>1127</v>
       </c>
       <c r="E598" s="3" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="F598" s="3" t="s">
-        <v>2432</v>
+        <v>1128</v>
       </c>
       <c r="G598" s="3" t="s">
-        <v>2433</v>
+        <v>1129</v>
       </c>
       <c r="H598" s="3" t="s">
-        <v>2434</v>
+        <v>1130</v>
       </c>
       <c r="I598" t="s">
-        <v>3409</v>
+        <v>3410</v>
       </c>
       <c r="J598" s="5" t="s">
         <v>3463</v>
@@ -34472,31 +34488,31 @@
     </row>
     <row r="599" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A599">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B599">
         <v>26</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>1126</v>
+        <v>851</v>
       </c>
       <c r="D599" s="3" t="s">
-        <v>1127</v>
+        <v>852</v>
       </c>
       <c r="E599" s="3" t="s">
-        <v>156</v>
+        <v>255</v>
       </c>
       <c r="F599" s="3" t="s">
-        <v>1128</v>
+        <v>853</v>
       </c>
       <c r="G599" s="3" t="s">
-        <v>1129</v>
+        <v>854</v>
       </c>
       <c r="H599" s="3" t="s">
-        <v>1130</v>
+        <v>855</v>
       </c>
       <c r="I599" t="s">
-        <v>3410</v>
+        <v>3411</v>
       </c>
       <c r="J599" s="5" t="s">
         <v>3463</v>
@@ -34510,31 +34526,31 @@
     </row>
     <row r="600" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A600">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B600">
         <v>26</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>851</v>
+        <v>253</v>
       </c>
       <c r="D600" s="3" t="s">
-        <v>852</v>
+        <v>254</v>
       </c>
       <c r="E600" s="3" t="s">
         <v>255</v>
       </c>
       <c r="F600" s="3" t="s">
-        <v>853</v>
+        <v>256</v>
       </c>
       <c r="G600" s="3" t="s">
-        <v>854</v>
+        <v>257</v>
       </c>
       <c r="H600" s="3" t="s">
-        <v>855</v>
+        <v>258</v>
       </c>
       <c r="I600" t="s">
-        <v>3411</v>
+        <v>3412</v>
       </c>
       <c r="J600" s="5" t="s">
         <v>3463</v>
@@ -34548,22 +34564,22 @@
     </row>
     <row r="601" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A601">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B601">
         <v>26</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D601" s="3" t="s">
         <v>254</v>
       </c>
       <c r="E601" s="3" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F601" s="3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G601" s="3" t="s">
         <v>257</v>
@@ -34572,7 +34588,7 @@
         <v>258</v>
       </c>
       <c r="I601" t="s">
-        <v>3412</v>
+        <v>3413</v>
       </c>
       <c r="J601" s="5" t="s">
         <v>3463</v>
@@ -34586,22 +34602,22 @@
     </row>
     <row r="602" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A602">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B602">
         <v>26</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D602" s="3" t="s">
         <v>254</v>
       </c>
       <c r="E602" s="3" t="s">
-        <v>260</v>
+        <v>21</v>
       </c>
       <c r="F602" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G602" s="3" t="s">
         <v>257</v>
@@ -34610,7 +34626,7 @@
         <v>258</v>
       </c>
       <c r="I602" t="s">
-        <v>3413</v>
+        <v>3414</v>
       </c>
       <c r="J602" s="5" t="s">
         <v>3463</v>
@@ -34624,31 +34640,31 @@
     </row>
     <row r="603" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A603">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B603">
         <v>26</v>
       </c>
       <c r="C603" s="3" t="s">
-        <v>262</v>
+        <v>1932</v>
       </c>
       <c r="D603" s="3" t="s">
-        <v>254</v>
+        <v>1933</v>
       </c>
       <c r="E603" s="3" t="s">
-        <v>21</v>
+        <v>251</v>
       </c>
       <c r="F603" s="3" t="s">
-        <v>263</v>
+        <v>1934</v>
       </c>
       <c r="G603" s="3" t="s">
-        <v>257</v>
+        <v>1935</v>
       </c>
       <c r="H603" s="3" t="s">
-        <v>258</v>
+        <v>1936</v>
       </c>
       <c r="I603" t="s">
-        <v>3414</v>
+        <v>3415</v>
       </c>
       <c r="J603" s="5" t="s">
         <v>3463</v>
@@ -34662,31 +34678,31 @@
     </row>
     <row r="604" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A604">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B604">
         <v>26</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>1932</v>
+        <v>1448</v>
       </c>
       <c r="D604" s="3" t="s">
-        <v>1933</v>
+        <v>1449</v>
       </c>
       <c r="E604" s="3" t="s">
-        <v>251</v>
+        <v>92</v>
       </c>
       <c r="F604" s="3" t="s">
-        <v>1934</v>
+        <v>1450</v>
       </c>
       <c r="G604" s="3" t="s">
-        <v>1935</v>
+        <v>1451</v>
       </c>
       <c r="H604" s="3" t="s">
-        <v>1936</v>
+        <v>1452</v>
       </c>
       <c r="I604" t="s">
-        <v>3415</v>
+        <v>3416</v>
       </c>
       <c r="J604" s="5" t="s">
         <v>3463</v>
@@ -34700,31 +34716,31 @@
     </row>
     <row r="605" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A605">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B605">
         <v>26</v>
       </c>
       <c r="C605" s="3" t="s">
-        <v>1448</v>
+        <v>846</v>
       </c>
       <c r="D605" s="3" t="s">
-        <v>1449</v>
+        <v>847</v>
       </c>
       <c r="E605" s="3" t="s">
-        <v>92</v>
+        <v>255</v>
       </c>
       <c r="F605" s="3" t="s">
-        <v>1450</v>
+        <v>848</v>
       </c>
       <c r="G605" s="3" t="s">
-        <v>1451</v>
+        <v>849</v>
       </c>
       <c r="H605" s="3" t="s">
-        <v>1452</v>
+        <v>850</v>
       </c>
       <c r="I605" t="s">
-        <v>3416</v>
+        <v>3417</v>
       </c>
       <c r="J605" s="5" t="s">
         <v>3463</v>
@@ -34738,31 +34754,31 @@
     </row>
     <row r="606" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A606">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B606">
         <v>26</v>
       </c>
       <c r="C606" s="3" t="s">
-        <v>846</v>
+        <v>1569</v>
       </c>
       <c r="D606" s="3" t="s">
-        <v>847</v>
+        <v>1570</v>
       </c>
       <c r="E606" s="3" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="F606" s="3" t="s">
-        <v>848</v>
+        <v>1571</v>
       </c>
       <c r="G606" s="3" t="s">
-        <v>849</v>
+        <v>1572</v>
       </c>
       <c r="H606" s="3" t="s">
-        <v>850</v>
+        <v>1573</v>
       </c>
       <c r="I606" t="s">
-        <v>3417</v>
+        <v>3418</v>
       </c>
       <c r="J606" s="5" t="s">
         <v>3463</v>
@@ -34776,31 +34792,31 @@
     </row>
     <row r="607" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A607">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B607">
         <v>26</v>
       </c>
       <c r="C607" s="3" t="s">
-        <v>1569</v>
+        <v>616</v>
       </c>
       <c r="D607" s="3" t="s">
-        <v>1570</v>
+        <v>617</v>
       </c>
       <c r="E607" s="3" t="s">
-        <v>291</v>
+        <v>618</v>
       </c>
       <c r="F607" s="3" t="s">
-        <v>1571</v>
+        <v>619</v>
       </c>
       <c r="G607" s="3" t="s">
-        <v>1572</v>
+        <v>620</v>
       </c>
       <c r="H607" s="3" t="s">
-        <v>1573</v>
+        <v>621</v>
       </c>
       <c r="I607" t="s">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="J607" s="5" t="s">
         <v>3463</v>
@@ -34814,22 +34830,22 @@
     </row>
     <row r="608" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A608">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B608">
         <v>26</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="D608" s="3" t="s">
         <v>617</v>
       </c>
       <c r="E608" s="3" t="s">
-        <v>618</v>
+        <v>92</v>
       </c>
       <c r="F608" s="3" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G608" s="3" t="s">
         <v>620</v>
@@ -34838,7 +34854,7 @@
         <v>621</v>
       </c>
       <c r="I608" t="s">
-        <v>3419</v>
+        <v>3420</v>
       </c>
       <c r="J608" s="5" t="s">
         <v>3463</v>
@@ -34852,31 +34868,31 @@
     </row>
     <row r="609" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A609">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B609">
         <v>26</v>
       </c>
       <c r="C609" s="3" t="s">
-        <v>622</v>
+        <v>2490</v>
       </c>
       <c r="D609" s="3" t="s">
-        <v>617</v>
+        <v>2491</v>
       </c>
       <c r="E609" s="3" t="s">
-        <v>92</v>
+        <v>618</v>
       </c>
       <c r="F609" s="3" t="s">
-        <v>623</v>
+        <v>2492</v>
       </c>
       <c r="G609" s="3" t="s">
-        <v>620</v>
+        <v>2493</v>
       </c>
       <c r="H609" s="3" t="s">
-        <v>621</v>
+        <v>2494</v>
       </c>
       <c r="I609" t="s">
-        <v>3420</v>
+        <v>3421</v>
       </c>
       <c r="J609" s="5" t="s">
         <v>3463</v>
@@ -34888,122 +34904,84 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A610">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B610">
         <v>26</v>
       </c>
-      <c r="C610" s="3" t="s">
-        <v>2490</v>
-      </c>
-      <c r="D610" s="3" t="s">
-        <v>2491</v>
-      </c>
-      <c r="E610" s="3" t="s">
+      <c r="C610" s="12" t="s">
+        <v>2465</v>
+      </c>
+      <c r="D610" s="14" t="s">
+        <v>2466</v>
+      </c>
+      <c r="E610" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="F610" s="3" t="s">
-        <v>2492</v>
-      </c>
-      <c r="G610" s="3" t="s">
-        <v>2493</v>
-      </c>
-      <c r="H610" s="3" t="s">
-        <v>2494</v>
-      </c>
-      <c r="I610" t="s">
-        <v>3421</v>
+      <c r="F610" s="14" t="s">
+        <v>2467</v>
+      </c>
+      <c r="G610" s="12" t="s">
+        <v>2468</v>
+      </c>
+      <c r="H610" s="12" t="s">
+        <v>2469</v>
+      </c>
+      <c r="I610" s="9" t="s">
+        <v>3459</v>
       </c>
       <c r="J610" s="5" t="s">
-        <v>3463</v>
+        <v>3460</v>
       </c>
       <c r="K610" s="5" t="s">
-        <v>2823</v>
+        <v>3461</v>
       </c>
       <c r="L610" s="4" t="s">
-        <v>2813</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="611" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A611">
-        <v>610</v>
+        <v>1002</v>
       </c>
       <c r="B611">
         <v>26</v>
       </c>
-      <c r="C611" s="12" t="s">
-        <v>2465</v>
-      </c>
-      <c r="D611" s="14" t="s">
-        <v>2466</v>
-      </c>
-      <c r="E611" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="F611" s="14" t="s">
-        <v>2467</v>
-      </c>
-      <c r="G611" s="12" t="s">
-        <v>2468</v>
-      </c>
-      <c r="H611" s="12" t="s">
-        <v>2469</v>
-      </c>
-      <c r="I611" s="9" t="s">
-        <v>3459</v>
+      <c r="C611">
+        <v>1818</v>
+      </c>
+      <c r="D611" s="8" t="s">
+        <v>3494</v>
+      </c>
+      <c r="E611" s="8" t="s">
+        <v>3495</v>
+      </c>
+      <c r="F611" s="8" t="s">
+        <v>3496</v>
+      </c>
+      <c r="G611" s="11">
+        <v>37.456434000000002</v>
+      </c>
+      <c r="H611" s="11">
+        <v>126.696099</v>
+      </c>
+      <c r="I611" t="s">
+        <v>3288</v>
       </c>
       <c r="J611" s="5" t="s">
-        <v>3460</v>
+        <v>3463</v>
       </c>
       <c r="K611" s="5" t="s">
-        <v>3461</v>
+        <v>2823</v>
       </c>
       <c r="L611" s="4" t="s">
-        <v>3458</v>
-      </c>
-    </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A612">
-        <v>1002</v>
-      </c>
-      <c r="B612">
-        <v>26</v>
-      </c>
-      <c r="C612">
-        <v>1818</v>
-      </c>
-      <c r="D612" s="8" t="s">
-        <v>3494</v>
-      </c>
-      <c r="E612" s="8" t="s">
-        <v>3495</v>
-      </c>
-      <c r="F612" s="8" t="s">
-        <v>3496</v>
-      </c>
-      <c r="G612" s="11">
-        <v>37.456434000000002</v>
-      </c>
-      <c r="H612" s="11">
-        <v>126.696099</v>
-      </c>
-      <c r="I612" t="s">
-        <v>3288</v>
-      </c>
-      <c r="J612" s="5" t="s">
-        <v>3463</v>
-      </c>
-      <c r="K612" s="5" t="s">
-        <v>2823</v>
-      </c>
-      <c r="L612" s="4" t="s">
         <v>2813</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H610">
+  <autoFilter ref="A1:H609">
     <sortState ref="A2:H611">
       <sortCondition ref="B1:B610"/>
     </sortState>
@@ -35017,8 +34995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L612"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -58290,6 +58268,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/app/import/DB_seoulhang.xlsx
+++ b/app/import/DB_seoulhang.xlsx
@@ -4232,7 +4232,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -4547,8 +4547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M347"/>
   <sheetViews>
-    <sheetView topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="C354" sqref="C354"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -4822,8 +4822,8 @@
       <c r="K7" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>786</v>
+      <c r="L7" s="8" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.15">
@@ -33764,7 +33764,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -33796,7 +33796,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -33807,7 +33807,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -33818,7 +33818,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -33829,7 +33829,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -33840,7 +33840,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -33851,7 +33851,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>1600</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -33862,7 +33862,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>3200</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>

--- a/app/import/DB_seoulhang.xlsx
+++ b/app/import/DB_seoulhang.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3155" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3155" uniqueCount="771">
   <si>
     <t>region_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3010,6 +3010,9 @@
   <si>
     <t>User-quiz</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gyeongbokgung Palace</t>
   </si>
 </sst>
 </file>
@@ -3644,7 +3647,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -4284,8 +4287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M286"/>
   <sheetViews>
-    <sheetView topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="F283" sqref="A1:L286"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -15180,7 +15183,7 @@
   <dimension ref="A1:L286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -15240,7 +15243,7 @@
         <v>317</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>157</v>
+        <v>770</v>
       </c>
       <c r="E2" s="13">
         <v>3</v>

--- a/app/import/DB_seoulhang.xlsx
+++ b/app/import/DB_seoulhang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="25520" windowHeight="15560" activeTab="2"/>
+    <workbookView xWindow="80" yWindow="440" windowWidth="25520" windowHeight="15560" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="6" r:id="rId1"/>
@@ -4535,7 +4535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L296"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A290" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -27082,10 +27082,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B347"/>
+  <dimension ref="A1:B296"/>
   <sheetViews>
-    <sheetView topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="E349" sqref="E349"/>
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="D316" sqref="D316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -29458,414 +29458,6 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297">
-        <v>296</v>
-      </c>
-      <c r="B297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298">
-        <v>297</v>
-      </c>
-      <c r="B298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299">
-        <v>298</v>
-      </c>
-      <c r="B299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300">
-        <v>299</v>
-      </c>
-      <c r="B300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301">
-        <v>300</v>
-      </c>
-      <c r="B301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302">
-        <v>301</v>
-      </c>
-      <c r="B302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303">
-        <v>302</v>
-      </c>
-      <c r="B303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304">
-        <v>303</v>
-      </c>
-      <c r="B304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305">
-        <v>304</v>
-      </c>
-      <c r="B305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306">
-        <v>305</v>
-      </c>
-      <c r="B306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307">
-        <v>306</v>
-      </c>
-      <c r="B307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308">
-        <v>307</v>
-      </c>
-      <c r="B308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309">
-        <v>308</v>
-      </c>
-      <c r="B309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310">
-        <v>309</v>
-      </c>
-      <c r="B310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311">
-        <v>310</v>
-      </c>
-      <c r="B311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312">
-        <v>311</v>
-      </c>
-      <c r="B312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313">
-        <v>312</v>
-      </c>
-      <c r="B313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314">
-        <v>313</v>
-      </c>
-      <c r="B314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315">
-        <v>314</v>
-      </c>
-      <c r="B315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316">
-        <v>315</v>
-      </c>
-      <c r="B316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317">
-        <v>316</v>
-      </c>
-      <c r="B317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318">
-        <v>317</v>
-      </c>
-      <c r="B318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319">
-        <v>318</v>
-      </c>
-      <c r="B319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320">
-        <v>319</v>
-      </c>
-      <c r="B320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321">
-        <v>320</v>
-      </c>
-      <c r="B321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322">
-        <v>321</v>
-      </c>
-      <c r="B322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323">
-        <v>322</v>
-      </c>
-      <c r="B323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324">
-        <v>323</v>
-      </c>
-      <c r="B324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325">
-        <v>324</v>
-      </c>
-      <c r="B325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326">
-        <v>325</v>
-      </c>
-      <c r="B326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327">
-        <v>326</v>
-      </c>
-      <c r="B327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328">
-        <v>327</v>
-      </c>
-      <c r="B328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329">
-        <v>328</v>
-      </c>
-      <c r="B329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330">
-        <v>329</v>
-      </c>
-      <c r="B330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331">
-        <v>330</v>
-      </c>
-      <c r="B331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332">
-        <v>331</v>
-      </c>
-      <c r="B332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333">
-        <v>332</v>
-      </c>
-      <c r="B333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334">
-        <v>333</v>
-      </c>
-      <c r="B334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335">
-        <v>334</v>
-      </c>
-      <c r="B335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336">
-        <v>335</v>
-      </c>
-      <c r="B336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337">
-        <v>336</v>
-      </c>
-      <c r="B337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338">
-        <v>337</v>
-      </c>
-      <c r="B338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339">
-        <v>338</v>
-      </c>
-      <c r="B339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340">
-        <v>339</v>
-      </c>
-      <c r="B340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341">
-        <v>340</v>
-      </c>
-      <c r="B341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342">
-        <v>341</v>
-      </c>
-      <c r="B342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343">
-        <v>342</v>
-      </c>
-      <c r="B343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344">
-        <v>343</v>
-      </c>
-      <c r="B344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345">
-        <v>344</v>
-      </c>
-      <c r="B345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346">
-        <v>345</v>
-      </c>
-      <c r="B346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347">
-        <v>346</v>
-      </c>
-      <c r="B347">
         <v>0</v>
       </c>
     </row>

--- a/app/import/DB_seoulhang.xlsx
+++ b/app/import/DB_seoulhang.xlsx
@@ -27084,7 +27084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
       <selection activeCell="D316" sqref="D316"/>
     </sheetView>
   </sheetViews>

--- a/app/import/DB_seoulhang.xlsx
+++ b/app/import/DB_seoulhang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="25520" windowHeight="15560" activeTab="4"/>
+    <workbookView xWindow="80" yWindow="440" windowWidth="25520" windowHeight="15560"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="6" r:id="rId1"/>
@@ -2995,10 +2995,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사용자퀴즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>User-quiz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3264,6 +3260,10 @@
   </si>
   <si>
     <t>경복궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저퀴즈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3894,8 +3894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -4198,7 +4198,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>765</v>
+        <v>847</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>689</v>
@@ -4220,7 +4220,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -4519,7 +4519,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C27" t="s">
         <v>649</v>
@@ -4535,8 +4535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L296"/>
   <sheetViews>
-    <sheetView topLeftCell="A290" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -4596,7 +4596,7 @@
         <v>317</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E2" s="12">
         <v>3</v>
@@ -15385,34 +15385,34 @@
         <v>25</v>
       </c>
       <c r="C286" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="D286" s="20" t="s">
         <v>768</v>
       </c>
-      <c r="D286" s="20" t="s">
+      <c r="E286" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="E286" s="20" t="s">
+      <c r="F286" s="20" t="s">
         <v>770</v>
       </c>
-      <c r="F286" s="20" t="s">
+      <c r="G286" s="20" t="s">
         <v>771</v>
       </c>
-      <c r="G286" s="20" t="s">
+      <c r="H286" s="20" t="s">
         <v>772</v>
-      </c>
-      <c r="H286" s="20" t="s">
-        <v>773</v>
       </c>
       <c r="I286" t="s">
         <v>593</v>
       </c>
       <c r="J286" s="21" t="s">
+        <v>773</v>
+      </c>
+      <c r="K286" s="21" t="s">
         <v>774</v>
       </c>
-      <c r="K286" s="21" t="s">
+      <c r="L286" s="2" t="s">
         <v>775</v>
-      </c>
-      <c r="L286" s="2" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.15">
@@ -15423,34 +15423,34 @@
         <v>25</v>
       </c>
       <c r="C287" s="20" t="s">
+        <v>776</v>
+      </c>
+      <c r="D287" s="20" t="s">
         <v>777</v>
       </c>
-      <c r="D287" s="20" t="s">
+      <c r="E287" s="20" t="s">
         <v>778</v>
       </c>
-      <c r="E287" s="20" t="s">
+      <c r="F287" s="20" t="s">
         <v>779</v>
       </c>
-      <c r="F287" s="20" t="s">
+      <c r="G287" s="20" t="s">
         <v>780</v>
       </c>
-      <c r="G287" s="20" t="s">
+      <c r="H287" s="20" t="s">
         <v>781</v>
-      </c>
-      <c r="H287" s="20" t="s">
-        <v>782</v>
       </c>
       <c r="I287" t="s">
         <v>594</v>
       </c>
       <c r="J287" s="21" t="s">
+        <v>782</v>
+      </c>
+      <c r="K287" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="L287" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="K287" s="21" t="s">
-        <v>775</v>
-      </c>
-      <c r="L287" s="2" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.15">
@@ -15461,34 +15461,34 @@
         <v>25</v>
       </c>
       <c r="C288" s="20" t="s">
+        <v>784</v>
+      </c>
+      <c r="D288" s="20" t="s">
         <v>785</v>
       </c>
-      <c r="D288" s="20" t="s">
+      <c r="E288" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="F288" s="20" t="s">
         <v>786</v>
       </c>
-      <c r="E288" s="20" t="s">
-        <v>770</v>
-      </c>
-      <c r="F288" s="20" t="s">
+      <c r="G288" s="20" t="s">
         <v>787</v>
       </c>
-      <c r="G288" s="20" t="s">
+      <c r="H288" s="20" t="s">
         <v>788</v>
-      </c>
-      <c r="H288" s="20" t="s">
-        <v>789</v>
       </c>
       <c r="I288" t="s">
         <v>595</v>
       </c>
       <c r="J288" s="21" t="s">
+        <v>782</v>
+      </c>
+      <c r="K288" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="L288" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="K288" s="21" t="s">
-        <v>775</v>
-      </c>
-      <c r="L288" s="2" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.15">
@@ -15499,34 +15499,34 @@
         <v>25</v>
       </c>
       <c r="C289" s="20" t="s">
+        <v>789</v>
+      </c>
+      <c r="D289" s="20" t="s">
         <v>790</v>
       </c>
-      <c r="D289" s="20" t="s">
+      <c r="E289" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="F289" s="20" t="s">
         <v>791</v>
       </c>
-      <c r="E289" s="20" t="s">
-        <v>770</v>
-      </c>
-      <c r="F289" s="20" t="s">
+      <c r="G289" s="20" t="s">
         <v>792</v>
       </c>
-      <c r="G289" s="20" t="s">
+      <c r="H289" s="20" t="s">
         <v>793</v>
       </c>
-      <c r="H289" s="20" t="s">
+      <c r="I289" t="s">
         <v>794</v>
       </c>
-      <c r="I289" t="s">
-        <v>795</v>
-      </c>
       <c r="J289" s="21" t="s">
+        <v>782</v>
+      </c>
+      <c r="K289" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="L289" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="K289" s="21" t="s">
-        <v>775</v>
-      </c>
-      <c r="L289" s="2" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.15">
@@ -15537,34 +15537,34 @@
         <v>25</v>
       </c>
       <c r="C290" s="20" t="s">
+        <v>795</v>
+      </c>
+      <c r="D290" s="20" t="s">
         <v>796</v>
       </c>
-      <c r="D290" s="20" t="s">
+      <c r="E290" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="F290" s="20" t="s">
         <v>797</v>
       </c>
-      <c r="E290" s="20" t="s">
-        <v>770</v>
-      </c>
-      <c r="F290" s="20" t="s">
+      <c r="G290" s="20" t="s">
         <v>798</v>
       </c>
-      <c r="G290" s="20" t="s">
+      <c r="H290" s="20" t="s">
         <v>799</v>
       </c>
-      <c r="H290" s="20" t="s">
+      <c r="I290" t="s">
         <v>800</v>
       </c>
-      <c r="I290" t="s">
+      <c r="J290" s="21" t="s">
         <v>801</v>
       </c>
-      <c r="J290" s="21" t="s">
+      <c r="K290" s="21" t="s">
         <v>802</v>
       </c>
-      <c r="K290" s="21" t="s">
+      <c r="L290" s="2" t="s">
         <v>803</v>
-      </c>
-      <c r="L290" s="2" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.15">
@@ -15575,34 +15575,34 @@
         <v>25</v>
       </c>
       <c r="C291" s="20" t="s">
+        <v>804</v>
+      </c>
+      <c r="D291" s="20" t="s">
         <v>805</v>
       </c>
-      <c r="D291" s="20" t="s">
+      <c r="E291" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="F291" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="E291" s="20" t="s">
-        <v>770</v>
-      </c>
-      <c r="F291" s="20" t="s">
+      <c r="G291" s="20" t="s">
         <v>807</v>
       </c>
-      <c r="G291" s="20" t="s">
+      <c r="H291" s="20" t="s">
         <v>808</v>
       </c>
-      <c r="H291" s="20" t="s">
+      <c r="I291" t="s">
         <v>809</v>
       </c>
-      <c r="I291" t="s">
+      <c r="J291" s="21" t="s">
         <v>810</v>
       </c>
-      <c r="J291" s="21" t="s">
+      <c r="K291" s="21" t="s">
         <v>811</v>
       </c>
-      <c r="K291" s="21" t="s">
+      <c r="L291" s="2" t="s">
         <v>812</v>
-      </c>
-      <c r="L291" s="2" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.15">
@@ -15613,34 +15613,34 @@
         <v>25</v>
       </c>
       <c r="C292" s="20" t="s">
+        <v>813</v>
+      </c>
+      <c r="D292" s="20" t="s">
         <v>814</v>
       </c>
-      <c r="D292" s="20" t="s">
+      <c r="E292" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="F292" s="20" t="s">
         <v>815</v>
       </c>
-      <c r="E292" s="20" t="s">
-        <v>770</v>
-      </c>
-      <c r="F292" s="20" t="s">
+      <c r="G292" s="20" t="s">
         <v>816</v>
       </c>
-      <c r="G292" s="20" t="s">
+      <c r="H292" s="20" t="s">
         <v>817</v>
       </c>
-      <c r="H292" s="20" t="s">
+      <c r="I292" t="s">
         <v>818</v>
       </c>
-      <c r="I292" t="s">
-        <v>819</v>
-      </c>
       <c r="J292" s="21" t="s">
+        <v>782</v>
+      </c>
+      <c r="K292" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="L292" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="K292" s="21" t="s">
-        <v>775</v>
-      </c>
-      <c r="L292" s="2" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.15">
@@ -15651,34 +15651,34 @@
         <v>25</v>
       </c>
       <c r="C293" s="20" t="s">
+        <v>819</v>
+      </c>
+      <c r="D293" s="20" t="s">
         <v>820</v>
       </c>
-      <c r="D293" s="20" t="s">
+      <c r="E293" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="F293" s="20" t="s">
         <v>821</v>
       </c>
-      <c r="E293" s="20" t="s">
-        <v>770</v>
-      </c>
-      <c r="F293" s="20" t="s">
+      <c r="G293" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="G293" s="20" t="s">
+      <c r="H293" s="20" t="s">
         <v>823</v>
       </c>
-      <c r="H293" s="20" t="s">
+      <c r="I293" t="s">
         <v>824</v>
       </c>
-      <c r="I293" t="s">
-        <v>825</v>
-      </c>
       <c r="J293" s="21" t="s">
+        <v>782</v>
+      </c>
+      <c r="K293" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="L293" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="K293" s="21" t="s">
-        <v>775</v>
-      </c>
-      <c r="L293" s="2" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.15">
@@ -15689,34 +15689,34 @@
         <v>25</v>
       </c>
       <c r="C294" s="20" t="s">
+        <v>825</v>
+      </c>
+      <c r="D294" s="20" t="s">
         <v>826</v>
       </c>
-      <c r="D294" s="20" t="s">
+      <c r="E294" s="20" t="s">
+        <v>778</v>
+      </c>
+      <c r="F294" s="20" t="s">
         <v>827</v>
       </c>
-      <c r="E294" s="20" t="s">
-        <v>779</v>
-      </c>
-      <c r="F294" s="20" t="s">
+      <c r="G294" s="20" t="s">
         <v>828</v>
       </c>
-      <c r="G294" s="20" t="s">
+      <c r="H294" s="20" t="s">
         <v>829</v>
       </c>
-      <c r="H294" s="20" t="s">
+      <c r="I294" t="s">
         <v>830</v>
       </c>
-      <c r="I294" t="s">
+      <c r="J294" s="21" t="s">
         <v>831</v>
       </c>
-      <c r="J294" s="21" t="s">
+      <c r="K294" s="21" t="s">
         <v>832</v>
       </c>
-      <c r="K294" s="21" t="s">
+      <c r="L294" s="2" t="s">
         <v>833</v>
-      </c>
-      <c r="L294" s="2" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.15">
@@ -15727,34 +15727,34 @@
         <v>25</v>
       </c>
       <c r="C295" s="20" t="s">
+        <v>837</v>
+      </c>
+      <c r="D295" s="20" t="s">
+        <v>834</v>
+      </c>
+      <c r="E295" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="F295" s="20" t="s">
         <v>838</v>
       </c>
-      <c r="D295" s="20" t="s">
+      <c r="G295" s="20" t="s">
         <v>835</v>
       </c>
-      <c r="E295" s="20" t="s">
-        <v>770</v>
-      </c>
-      <c r="F295" s="20" t="s">
+      <c r="H295" s="20" t="s">
+        <v>836</v>
+      </c>
+      <c r="I295" t="s">
         <v>839</v>
       </c>
-      <c r="G295" s="20" t="s">
-        <v>836</v>
-      </c>
-      <c r="H295" s="20" t="s">
-        <v>837</v>
-      </c>
-      <c r="I295" t="s">
+      <c r="J295" s="21" t="s">
         <v>840</v>
       </c>
-      <c r="J295" s="21" t="s">
+      <c r="K295" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="K295" s="21" t="s">
+      <c r="L295" s="2" t="s">
         <v>842</v>
-      </c>
-      <c r="L295" s="2" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.2">
@@ -15768,13 +15768,13 @@
         <v>1818</v>
       </c>
       <c r="D296" s="22" t="s">
+        <v>843</v>
+      </c>
+      <c r="E296" s="22" t="s">
         <v>844</v>
       </c>
-      <c r="E296" s="22" t="s">
+      <c r="F296" s="22" t="s">
         <v>845</v>
-      </c>
-      <c r="F296" s="22" t="s">
-        <v>846</v>
       </c>
       <c r="G296" s="23">
         <v>37.456434000000002</v>
@@ -15786,13 +15786,13 @@
         <v>596</v>
       </c>
       <c r="J296" s="21" t="s">
+        <v>782</v>
+      </c>
+      <c r="K296" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="L296" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="K296" s="21" t="s">
-        <v>775</v>
-      </c>
-      <c r="L296" s="2" t="s">
-        <v>784</v>
       </c>
     </row>
   </sheetData>
@@ -15870,7 +15870,7 @@
         <v>317</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E2" s="12">
         <v>3</v>
@@ -26659,34 +26659,34 @@
         <v>25</v>
       </c>
       <c r="C286" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="D286" s="20" t="s">
         <v>768</v>
       </c>
-      <c r="D286" s="20" t="s">
+      <c r="E286" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="E286" s="20" t="s">
+      <c r="F286" s="20" t="s">
         <v>770</v>
       </c>
-      <c r="F286" s="20" t="s">
+      <c r="G286" s="20" t="s">
         <v>771</v>
       </c>
-      <c r="G286" s="20" t="s">
+      <c r="H286" s="20" t="s">
         <v>772</v>
-      </c>
-      <c r="H286" s="20" t="s">
-        <v>773</v>
       </c>
       <c r="I286" t="s">
         <v>593</v>
       </c>
       <c r="J286" s="21" t="s">
+        <v>773</v>
+      </c>
+      <c r="K286" s="21" t="s">
         <v>774</v>
       </c>
-      <c r="K286" s="21" t="s">
+      <c r="L286" s="2" t="s">
         <v>775</v>
-      </c>
-      <c r="L286" s="2" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.15">
@@ -26697,34 +26697,34 @@
         <v>25</v>
       </c>
       <c r="C287" s="20" t="s">
+        <v>776</v>
+      </c>
+      <c r="D287" s="20" t="s">
         <v>777</v>
       </c>
-      <c r="D287" s="20" t="s">
+      <c r="E287" s="20" t="s">
         <v>778</v>
       </c>
-      <c r="E287" s="20" t="s">
+      <c r="F287" s="20" t="s">
         <v>779</v>
       </c>
-      <c r="F287" s="20" t="s">
+      <c r="G287" s="20" t="s">
         <v>780</v>
       </c>
-      <c r="G287" s="20" t="s">
+      <c r="H287" s="20" t="s">
         <v>781</v>
-      </c>
-      <c r="H287" s="20" t="s">
-        <v>782</v>
       </c>
       <c r="I287" t="s">
         <v>594</v>
       </c>
       <c r="J287" s="21" t="s">
+        <v>782</v>
+      </c>
+      <c r="K287" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="L287" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="K287" s="21" t="s">
-        <v>775</v>
-      </c>
-      <c r="L287" s="2" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.15">
@@ -26735,34 +26735,34 @@
         <v>25</v>
       </c>
       <c r="C288" s="20" t="s">
+        <v>784</v>
+      </c>
+      <c r="D288" s="20" t="s">
         <v>785</v>
       </c>
-      <c r="D288" s="20" t="s">
+      <c r="E288" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="F288" s="20" t="s">
         <v>786</v>
       </c>
-      <c r="E288" s="20" t="s">
-        <v>770</v>
-      </c>
-      <c r="F288" s="20" t="s">
+      <c r="G288" s="20" t="s">
         <v>787</v>
       </c>
-      <c r="G288" s="20" t="s">
+      <c r="H288" s="20" t="s">
         <v>788</v>
-      </c>
-      <c r="H288" s="20" t="s">
-        <v>789</v>
       </c>
       <c r="I288" t="s">
         <v>595</v>
       </c>
       <c r="J288" s="21" t="s">
+        <v>782</v>
+      </c>
+      <c r="K288" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="L288" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="K288" s="21" t="s">
-        <v>775</v>
-      </c>
-      <c r="L288" s="2" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.15">
@@ -26773,34 +26773,34 @@
         <v>25</v>
       </c>
       <c r="C289" s="20" t="s">
+        <v>789</v>
+      </c>
+      <c r="D289" s="20" t="s">
         <v>790</v>
       </c>
-      <c r="D289" s="20" t="s">
+      <c r="E289" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="F289" s="20" t="s">
         <v>791</v>
       </c>
-      <c r="E289" s="20" t="s">
-        <v>770</v>
-      </c>
-      <c r="F289" s="20" t="s">
+      <c r="G289" s="20" t="s">
         <v>792</v>
       </c>
-      <c r="G289" s="20" t="s">
+      <c r="H289" s="20" t="s">
         <v>793</v>
       </c>
-      <c r="H289" s="20" t="s">
+      <c r="I289" t="s">
         <v>794</v>
       </c>
-      <c r="I289" t="s">
-        <v>795</v>
-      </c>
       <c r="J289" s="21" t="s">
+        <v>782</v>
+      </c>
+      <c r="K289" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="L289" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="K289" s="21" t="s">
-        <v>775</v>
-      </c>
-      <c r="L289" s="2" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.15">
@@ -26811,34 +26811,34 @@
         <v>25</v>
       </c>
       <c r="C290" s="20" t="s">
+        <v>795</v>
+      </c>
+      <c r="D290" s="20" t="s">
         <v>796</v>
       </c>
-      <c r="D290" s="20" t="s">
+      <c r="E290" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="F290" s="20" t="s">
         <v>797</v>
       </c>
-      <c r="E290" s="20" t="s">
-        <v>770</v>
-      </c>
-      <c r="F290" s="20" t="s">
+      <c r="G290" s="20" t="s">
         <v>798</v>
       </c>
-      <c r="G290" s="20" t="s">
+      <c r="H290" s="20" t="s">
         <v>799</v>
       </c>
-      <c r="H290" s="20" t="s">
+      <c r="I290" t="s">
         <v>800</v>
       </c>
-      <c r="I290" t="s">
+      <c r="J290" s="21" t="s">
         <v>801</v>
       </c>
-      <c r="J290" s="21" t="s">
+      <c r="K290" s="21" t="s">
         <v>802</v>
       </c>
-      <c r="K290" s="21" t="s">
+      <c r="L290" s="2" t="s">
         <v>803</v>
-      </c>
-      <c r="L290" s="2" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.15">
@@ -26849,34 +26849,34 @@
         <v>25</v>
       </c>
       <c r="C291" s="20" t="s">
+        <v>804</v>
+      </c>
+      <c r="D291" s="20" t="s">
         <v>805</v>
       </c>
-      <c r="D291" s="20" t="s">
+      <c r="E291" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="F291" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="E291" s="20" t="s">
-        <v>770</v>
-      </c>
-      <c r="F291" s="20" t="s">
+      <c r="G291" s="20" t="s">
         <v>807</v>
       </c>
-      <c r="G291" s="20" t="s">
+      <c r="H291" s="20" t="s">
         <v>808</v>
       </c>
-      <c r="H291" s="20" t="s">
+      <c r="I291" t="s">
         <v>809</v>
       </c>
-      <c r="I291" t="s">
+      <c r="J291" s="21" t="s">
         <v>810</v>
       </c>
-      <c r="J291" s="21" t="s">
+      <c r="K291" s="21" t="s">
         <v>811</v>
       </c>
-      <c r="K291" s="21" t="s">
+      <c r="L291" s="2" t="s">
         <v>812</v>
-      </c>
-      <c r="L291" s="2" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.15">
@@ -26887,34 +26887,34 @@
         <v>25</v>
       </c>
       <c r="C292" s="20" t="s">
+        <v>813</v>
+      </c>
+      <c r="D292" s="20" t="s">
         <v>814</v>
       </c>
-      <c r="D292" s="20" t="s">
+      <c r="E292" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="F292" s="20" t="s">
         <v>815</v>
       </c>
-      <c r="E292" s="20" t="s">
-        <v>770</v>
-      </c>
-      <c r="F292" s="20" t="s">
+      <c r="G292" s="20" t="s">
         <v>816</v>
       </c>
-      <c r="G292" s="20" t="s">
+      <c r="H292" s="20" t="s">
         <v>817</v>
       </c>
-      <c r="H292" s="20" t="s">
+      <c r="I292" t="s">
         <v>818</v>
       </c>
-      <c r="I292" t="s">
-        <v>819</v>
-      </c>
       <c r="J292" s="21" t="s">
+        <v>782</v>
+      </c>
+      <c r="K292" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="L292" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="K292" s="21" t="s">
-        <v>775</v>
-      </c>
-      <c r="L292" s="2" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.15">
@@ -26925,34 +26925,34 @@
         <v>25</v>
       </c>
       <c r="C293" s="20" t="s">
+        <v>819</v>
+      </c>
+      <c r="D293" s="20" t="s">
         <v>820</v>
       </c>
-      <c r="D293" s="20" t="s">
+      <c r="E293" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="F293" s="20" t="s">
         <v>821</v>
       </c>
-      <c r="E293" s="20" t="s">
-        <v>770</v>
-      </c>
-      <c r="F293" s="20" t="s">
+      <c r="G293" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="G293" s="20" t="s">
+      <c r="H293" s="20" t="s">
         <v>823</v>
       </c>
-      <c r="H293" s="20" t="s">
+      <c r="I293" t="s">
         <v>824</v>
       </c>
-      <c r="I293" t="s">
-        <v>825</v>
-      </c>
       <c r="J293" s="21" t="s">
+        <v>782</v>
+      </c>
+      <c r="K293" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="L293" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="K293" s="21" t="s">
-        <v>775</v>
-      </c>
-      <c r="L293" s="2" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.15">
@@ -26963,34 +26963,34 @@
         <v>25</v>
       </c>
       <c r="C294" s="20" t="s">
+        <v>825</v>
+      </c>
+      <c r="D294" s="20" t="s">
         <v>826</v>
       </c>
-      <c r="D294" s="20" t="s">
+      <c r="E294" s="20" t="s">
+        <v>778</v>
+      </c>
+      <c r="F294" s="20" t="s">
         <v>827</v>
       </c>
-      <c r="E294" s="20" t="s">
-        <v>779</v>
-      </c>
-      <c r="F294" s="20" t="s">
+      <c r="G294" s="20" t="s">
         <v>828</v>
       </c>
-      <c r="G294" s="20" t="s">
+      <c r="H294" s="20" t="s">
         <v>829</v>
       </c>
-      <c r="H294" s="20" t="s">
+      <c r="I294" t="s">
         <v>830</v>
       </c>
-      <c r="I294" t="s">
+      <c r="J294" s="21" t="s">
         <v>831</v>
       </c>
-      <c r="J294" s="21" t="s">
+      <c r="K294" s="21" t="s">
         <v>832</v>
       </c>
-      <c r="K294" s="21" t="s">
+      <c r="L294" s="2" t="s">
         <v>833</v>
-      </c>
-      <c r="L294" s="2" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.15">
@@ -27001,34 +27001,34 @@
         <v>25</v>
       </c>
       <c r="C295" s="20" t="s">
+        <v>837</v>
+      </c>
+      <c r="D295" s="20" t="s">
+        <v>834</v>
+      </c>
+      <c r="E295" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="F295" s="20" t="s">
         <v>838</v>
       </c>
-      <c r="D295" s="20" t="s">
+      <c r="G295" s="20" t="s">
         <v>835</v>
       </c>
-      <c r="E295" s="20" t="s">
-        <v>770</v>
-      </c>
-      <c r="F295" s="20" t="s">
+      <c r="H295" s="20" t="s">
+        <v>836</v>
+      </c>
+      <c r="I295" t="s">
         <v>839</v>
       </c>
-      <c r="G295" s="20" t="s">
-        <v>836</v>
-      </c>
-      <c r="H295" s="20" t="s">
-        <v>837</v>
-      </c>
-      <c r="I295" t="s">
+      <c r="J295" s="21" t="s">
         <v>840</v>
       </c>
-      <c r="J295" s="21" t="s">
+      <c r="K295" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="K295" s="21" t="s">
+      <c r="L295" s="2" t="s">
         <v>842</v>
-      </c>
-      <c r="L295" s="2" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.2">
@@ -27042,13 +27042,13 @@
         <v>1818</v>
       </c>
       <c r="D296" s="22" t="s">
+        <v>843</v>
+      </c>
+      <c r="E296" s="22" t="s">
         <v>844</v>
       </c>
-      <c r="E296" s="22" t="s">
+      <c r="F296" s="22" t="s">
         <v>845</v>
-      </c>
-      <c r="F296" s="22" t="s">
-        <v>846</v>
       </c>
       <c r="G296" s="23">
         <v>37.456434000000002</v>
@@ -27060,13 +27060,13 @@
         <v>596</v>
       </c>
       <c r="J296" s="21" t="s">
+        <v>782</v>
+      </c>
+      <c r="K296" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="L296" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="K296" s="21" t="s">
-        <v>775</v>
-      </c>
-      <c r="L296" s="2" t="s">
-        <v>784</v>
       </c>
     </row>
   </sheetData>
@@ -27084,7 +27084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+    <sheetView topLeftCell="A250" workbookViewId="0">
       <selection activeCell="D316" sqref="D316"/>
     </sheetView>
   </sheetViews>

--- a/app/import/DB_seoulhang.xlsx
+++ b/app/import/DB_seoulhang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="25520" windowHeight="15560" activeTab="3"/>
+    <workbookView xWindow="80" yWindow="440" windowWidth="25520" windowHeight="15560" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="6" r:id="rId1"/>
@@ -2182,9 +2182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gyeongbokgung Palace</t>
-  </si>
-  <si>
     <t>2549</t>
   </si>
   <si>
@@ -3918,6 +3915,10 @@
   </si>
   <si>
     <t>Sookmyung Women Univ.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gyeongbokgung</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4689,7 +4690,7 @@
         <v>578</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -4701,7 +4702,7 @@
         <v>579</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -4713,7 +4714,7 @@
         <v>580</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -4725,7 +4726,7 @@
         <v>581</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -4737,7 +4738,7 @@
         <v>582</v>
       </c>
       <c r="C6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -4749,7 +4750,7 @@
         <v>583</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4760,7 +4761,7 @@
         <v>584</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4771,7 +4772,7 @@
         <v>585</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -4783,7 +4784,7 @@
         <v>586</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4794,7 +4795,7 @@
         <v>587</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4805,7 +4806,7 @@
         <v>588</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4816,7 +4817,7 @@
         <v>589</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4827,7 +4828,7 @@
         <v>590</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4838,7 +4839,7 @@
         <v>591</v>
       </c>
       <c r="C15" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4849,7 +4850,7 @@
         <v>592</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -4860,7 +4861,7 @@
         <v>593</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D17" s="4"/>
     </row>
@@ -4872,7 +4873,7 @@
         <v>594</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -4883,7 +4884,7 @@
         <v>595</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -4894,7 +4895,7 @@
         <v>596</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4905,7 +4906,7 @@
         <v>597</v>
       </c>
       <c r="C21" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -4916,7 +4917,7 @@
         <v>598</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -4927,7 +4928,7 @@
         <v>599</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -4938,7 +4939,7 @@
         <v>600</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -4949,7 +4950,7 @@
         <v>601</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -4960,7 +4961,7 @@
         <v>602</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4968,10 +4969,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C27" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
   </sheetData>
@@ -5012,7 +5013,7 @@
         <v>603</v>
       </c>
       <c r="C2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5023,7 +5024,7 @@
         <v>604</v>
       </c>
       <c r="C3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5034,7 +5035,7 @@
         <v>605</v>
       </c>
       <c r="C4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5045,7 +5046,7 @@
         <v>606</v>
       </c>
       <c r="C5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5056,7 +5057,7 @@
         <v>607</v>
       </c>
       <c r="C6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5067,7 +5068,7 @@
         <v>615</v>
       </c>
       <c r="C7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5078,7 +5079,7 @@
         <v>608</v>
       </c>
       <c r="C8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5089,7 +5090,7 @@
         <v>609</v>
       </c>
       <c r="C9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -5100,7 +5101,7 @@
         <v>610</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5111,7 +5112,7 @@
         <v>611</v>
       </c>
       <c r="C11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5122,7 +5123,7 @@
         <v>612</v>
       </c>
       <c r="C12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5133,7 +5134,7 @@
         <v>613</v>
       </c>
       <c r="C13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5144,7 +5145,7 @@
         <v>614</v>
       </c>
       <c r="C14" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5155,7 +5156,7 @@
         <v>616</v>
       </c>
       <c r="C15" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5166,7 +5167,7 @@
         <v>617</v>
       </c>
       <c r="C16" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5177,7 +5178,7 @@
         <v>618</v>
       </c>
       <c r="C17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5188,7 +5189,7 @@
         <v>619</v>
       </c>
       <c r="C18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5199,7 +5200,7 @@
         <v>620</v>
       </c>
       <c r="C19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5210,7 +5211,7 @@
         <v>621</v>
       </c>
       <c r="C20" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5221,7 +5222,7 @@
         <v>622</v>
       </c>
       <c r="C21" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5232,7 +5233,7 @@
         <v>623</v>
       </c>
       <c r="C22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5243,7 +5244,7 @@
         <v>624</v>
       </c>
       <c r="C23" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5254,7 +5255,7 @@
         <v>625</v>
       </c>
       <c r="C24" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5265,7 +5266,7 @@
         <v>626</v>
       </c>
       <c r="C25" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5276,7 +5277,7 @@
         <v>627</v>
       </c>
       <c r="C26" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5287,7 +5288,7 @@
         <v>691</v>
       </c>
       <c r="C27" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
   </sheetData>
@@ -5362,7 +5363,7 @@
         <v>317</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E2" s="12">
         <v>3</v>
@@ -5380,7 +5381,7 @@
         <v>648</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>649</v>
@@ -6023,16 +6024,16 @@
         <v>126.99191</v>
       </c>
       <c r="I19" s="24" t="s">
+        <v>824</v>
+      </c>
+      <c r="J19" t="s">
         <v>825</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" s="25" t="s">
         <v>826</v>
       </c>
-      <c r="K19" s="25" t="s">
-        <v>827</v>
-      </c>
       <c r="L19" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
@@ -6099,16 +6100,16 @@
         <v>126.982618</v>
       </c>
       <c r="I21" s="24" t="s">
+        <v>827</v>
+      </c>
+      <c r="J21" s="24" t="s">
         <v>828</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="K21" s="24" t="s">
         <v>829</v>
       </c>
-      <c r="K21" s="24" t="s">
-        <v>830</v>
-      </c>
       <c r="L21" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
@@ -6137,16 +6138,16 @@
         <v>127.013828</v>
       </c>
       <c r="I22" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J22" t="s">
+        <v>832</v>
+      </c>
+      <c r="K22" t="s">
         <v>833</v>
       </c>
-      <c r="K22" t="s">
-        <v>834</v>
-      </c>
       <c r="L22" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
@@ -6213,16 +6214,16 @@
         <v>126.978246</v>
       </c>
       <c r="I24" t="s">
+        <v>835</v>
+      </c>
+      <c r="J24" t="s">
         <v>836</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>837</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" s="2" t="s">
         <v>838</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
@@ -6289,13 +6290,13 @@
         <v>126.986695</v>
       </c>
       <c r="I26" t="s">
+        <v>839</v>
+      </c>
+      <c r="J26" t="s">
         <v>840</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>841</v>
-      </c>
-      <c r="K26" t="s">
-        <v>842</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>643</v>
@@ -6327,16 +6328,16 @@
         <v>126.97311000000001</v>
       </c>
       <c r="I27" t="s">
+        <v>842</v>
+      </c>
+      <c r="J27" t="s">
         <v>843</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" s="13" t="s">
         <v>844</v>
       </c>
-      <c r="K27" s="13" t="s">
-        <v>845</v>
-      </c>
       <c r="L27" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
@@ -6365,16 +6366,16 @@
         <v>126.98853699999999</v>
       </c>
       <c r="I28" t="s">
+        <v>845</v>
+      </c>
+      <c r="J28" t="s">
         <v>846</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>847</v>
       </c>
-      <c r="K28" t="s">
-        <v>848</v>
-      </c>
       <c r="L28" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
@@ -6517,16 +6518,16 @@
         <v>126.974345</v>
       </c>
       <c r="I32" t="s">
+        <v>848</v>
+      </c>
+      <c r="J32" t="s">
         <v>849</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>850</v>
       </c>
-      <c r="K32" t="s">
-        <v>851</v>
-      </c>
       <c r="L32" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
@@ -6555,16 +6556,16 @@
         <v>126.994302</v>
       </c>
       <c r="I33" t="s">
+        <v>852</v>
+      </c>
+      <c r="J33" t="s">
         <v>853</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>854</v>
       </c>
-      <c r="K33" t="s">
-        <v>855</v>
-      </c>
       <c r="L33" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
@@ -6593,16 +6594,16 @@
         <v>127.00172499999999</v>
       </c>
       <c r="I34" t="s">
+        <v>855</v>
+      </c>
+      <c r="J34" t="s">
         <v>856</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>857</v>
       </c>
-      <c r="K34" t="s">
-        <v>858</v>
-      </c>
       <c r="L34" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
@@ -6631,13 +6632,13 @@
         <v>127.009169</v>
       </c>
       <c r="I35" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J35" t="s">
+        <v>858</v>
+      </c>
+      <c r="K35" t="s">
         <v>859</v>
-      </c>
-      <c r="K35" t="s">
-        <v>860</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>643</v>
@@ -15847,34 +15848,34 @@
         <v>25</v>
       </c>
       <c r="C278" s="20" t="s">
+        <v>692</v>
+      </c>
+      <c r="D278" s="20" t="s">
         <v>693</v>
       </c>
-      <c r="D278" s="20" t="s">
+      <c r="E278" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="E278" s="20" t="s">
+      <c r="F278" s="20" t="s">
         <v>695</v>
       </c>
-      <c r="F278" s="20" t="s">
+      <c r="G278" s="20" t="s">
         <v>696</v>
       </c>
-      <c r="G278" s="20" t="s">
+      <c r="H278" s="20" t="s">
         <v>697</v>
-      </c>
-      <c r="H278" s="20" t="s">
-        <v>698</v>
       </c>
       <c r="I278" t="s">
         <v>571</v>
       </c>
       <c r="J278" s="21" t="s">
+        <v>698</v>
+      </c>
+      <c r="K278" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="K278" s="21" t="s">
+      <c r="L278" s="2" t="s">
         <v>700</v>
-      </c>
-      <c r="L278" s="2" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.15">
@@ -15885,34 +15886,34 @@
         <v>25</v>
       </c>
       <c r="C279" s="20" t="s">
+        <v>701</v>
+      </c>
+      <c r="D279" s="20" t="s">
         <v>702</v>
       </c>
-      <c r="D279" s="20" t="s">
+      <c r="E279" s="20" t="s">
         <v>703</v>
       </c>
-      <c r="E279" s="20" t="s">
+      <c r="F279" s="20" t="s">
         <v>704</v>
       </c>
-      <c r="F279" s="20" t="s">
+      <c r="G279" s="20" t="s">
         <v>705</v>
       </c>
-      <c r="G279" s="20" t="s">
+      <c r="H279" s="20" t="s">
         <v>706</v>
-      </c>
-      <c r="H279" s="20" t="s">
-        <v>707</v>
       </c>
       <c r="I279" t="s">
         <v>572</v>
       </c>
       <c r="J279" s="21" t="s">
+        <v>707</v>
+      </c>
+      <c r="K279" s="21" t="s">
+        <v>699</v>
+      </c>
+      <c r="L279" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="K279" s="21" t="s">
-        <v>700</v>
-      </c>
-      <c r="L279" s="2" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.15">
@@ -15923,34 +15924,34 @@
         <v>25</v>
       </c>
       <c r="C280" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="D280" s="20" t="s">
         <v>710</v>
       </c>
-      <c r="D280" s="20" t="s">
+      <c r="E280" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="F280" s="20" t="s">
         <v>711</v>
       </c>
-      <c r="E280" s="20" t="s">
-        <v>695</v>
-      </c>
-      <c r="F280" s="20" t="s">
+      <c r="G280" s="20" t="s">
         <v>712</v>
       </c>
-      <c r="G280" s="20" t="s">
+      <c r="H280" s="20" t="s">
         <v>713</v>
-      </c>
-      <c r="H280" s="20" t="s">
-        <v>714</v>
       </c>
       <c r="I280" t="s">
         <v>573</v>
       </c>
       <c r="J280" s="21" t="s">
+        <v>707</v>
+      </c>
+      <c r="K280" s="21" t="s">
+        <v>699</v>
+      </c>
+      <c r="L280" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="K280" s="21" t="s">
-        <v>700</v>
-      </c>
-      <c r="L280" s="2" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.15">
@@ -15961,34 +15962,34 @@
         <v>25</v>
       </c>
       <c r="C281" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="D281" s="20" t="s">
         <v>715</v>
       </c>
-      <c r="D281" s="20" t="s">
+      <c r="E281" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="F281" s="20" t="s">
         <v>716</v>
       </c>
-      <c r="E281" s="20" t="s">
-        <v>695</v>
-      </c>
-      <c r="F281" s="20" t="s">
+      <c r="G281" s="20" t="s">
         <v>717</v>
       </c>
-      <c r="G281" s="20" t="s">
+      <c r="H281" s="20" t="s">
         <v>718</v>
       </c>
-      <c r="H281" s="20" t="s">
+      <c r="I281" t="s">
         <v>719</v>
       </c>
-      <c r="I281" t="s">
-        <v>720</v>
-      </c>
       <c r="J281" s="21" t="s">
+        <v>707</v>
+      </c>
+      <c r="K281" s="21" t="s">
+        <v>699</v>
+      </c>
+      <c r="L281" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="K281" s="21" t="s">
-        <v>700</v>
-      </c>
-      <c r="L281" s="2" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.15">
@@ -15999,34 +16000,34 @@
         <v>25</v>
       </c>
       <c r="C282" s="20" t="s">
+        <v>720</v>
+      </c>
+      <c r="D282" s="20" t="s">
         <v>721</v>
       </c>
-      <c r="D282" s="20" t="s">
+      <c r="E282" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="F282" s="20" t="s">
         <v>722</v>
       </c>
-      <c r="E282" s="20" t="s">
-        <v>695</v>
-      </c>
-      <c r="F282" s="20" t="s">
+      <c r="G282" s="20" t="s">
         <v>723</v>
       </c>
-      <c r="G282" s="20" t="s">
+      <c r="H282" s="20" t="s">
         <v>724</v>
       </c>
-      <c r="H282" s="20" t="s">
+      <c r="I282" t="s">
         <v>725</v>
       </c>
-      <c r="I282" t="s">
+      <c r="J282" s="21" t="s">
         <v>726</v>
       </c>
-      <c r="J282" s="21" t="s">
+      <c r="K282" s="21" t="s">
         <v>727</v>
       </c>
-      <c r="K282" s="21" t="s">
+      <c r="L282" s="2" t="s">
         <v>728</v>
-      </c>
-      <c r="L282" s="2" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.15">
@@ -16037,34 +16038,34 @@
         <v>25</v>
       </c>
       <c r="C283" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="D283" s="20" t="s">
         <v>730</v>
       </c>
-      <c r="D283" s="20" t="s">
+      <c r="E283" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="F283" s="20" t="s">
         <v>731</v>
       </c>
-      <c r="E283" s="20" t="s">
-        <v>695</v>
-      </c>
-      <c r="F283" s="20" t="s">
+      <c r="G283" s="20" t="s">
         <v>732</v>
       </c>
-      <c r="G283" s="20" t="s">
+      <c r="H283" s="20" t="s">
         <v>733</v>
       </c>
-      <c r="H283" s="20" t="s">
+      <c r="I283" t="s">
         <v>734</v>
       </c>
-      <c r="I283" t="s">
+      <c r="J283" s="21" t="s">
         <v>735</v>
       </c>
-      <c r="J283" s="21" t="s">
+      <c r="K283" s="21" t="s">
         <v>736</v>
       </c>
-      <c r="K283" s="21" t="s">
+      <c r="L283" s="2" t="s">
         <v>737</v>
-      </c>
-      <c r="L283" s="2" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.15">
@@ -16075,34 +16076,34 @@
         <v>25</v>
       </c>
       <c r="C284" s="20" t="s">
+        <v>738</v>
+      </c>
+      <c r="D284" s="20" t="s">
         <v>739</v>
       </c>
-      <c r="D284" s="20" t="s">
+      <c r="E284" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="F284" s="20" t="s">
         <v>740</v>
       </c>
-      <c r="E284" s="20" t="s">
-        <v>695</v>
-      </c>
-      <c r="F284" s="20" t="s">
+      <c r="G284" s="20" t="s">
         <v>741</v>
       </c>
-      <c r="G284" s="20" t="s">
+      <c r="H284" s="20" t="s">
         <v>742</v>
       </c>
-      <c r="H284" s="20" t="s">
+      <c r="I284" t="s">
         <v>743</v>
       </c>
-      <c r="I284" t="s">
-        <v>744</v>
-      </c>
       <c r="J284" s="21" t="s">
+        <v>707</v>
+      </c>
+      <c r="K284" s="21" t="s">
+        <v>699</v>
+      </c>
+      <c r="L284" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="K284" s="21" t="s">
-        <v>700</v>
-      </c>
-      <c r="L284" s="2" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.15">
@@ -16113,34 +16114,34 @@
         <v>25</v>
       </c>
       <c r="C285" s="20" t="s">
+        <v>744</v>
+      </c>
+      <c r="D285" s="20" t="s">
         <v>745</v>
       </c>
-      <c r="D285" s="20" t="s">
+      <c r="E285" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="F285" s="20" t="s">
         <v>746</v>
       </c>
-      <c r="E285" s="20" t="s">
-        <v>695</v>
-      </c>
-      <c r="F285" s="20" t="s">
+      <c r="G285" s="20" t="s">
         <v>747</v>
       </c>
-      <c r="G285" s="20" t="s">
+      <c r="H285" s="20" t="s">
         <v>748</v>
       </c>
-      <c r="H285" s="20" t="s">
+      <c r="I285" t="s">
         <v>749</v>
       </c>
-      <c r="I285" t="s">
-        <v>750</v>
-      </c>
       <c r="J285" s="21" t="s">
+        <v>707</v>
+      </c>
+      <c r="K285" s="21" t="s">
+        <v>699</v>
+      </c>
+      <c r="L285" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="K285" s="21" t="s">
-        <v>700</v>
-      </c>
-      <c r="L285" s="2" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.15">
@@ -16151,34 +16152,34 @@
         <v>25</v>
       </c>
       <c r="C286" s="20" t="s">
+        <v>750</v>
+      </c>
+      <c r="D286" s="20" t="s">
         <v>751</v>
       </c>
-      <c r="D286" s="20" t="s">
+      <c r="E286" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="F286" s="20" t="s">
         <v>752</v>
       </c>
-      <c r="E286" s="20" t="s">
-        <v>704</v>
-      </c>
-      <c r="F286" s="20" t="s">
+      <c r="G286" s="20" t="s">
         <v>753</v>
       </c>
-      <c r="G286" s="20" t="s">
+      <c r="H286" s="20" t="s">
         <v>754</v>
       </c>
-      <c r="H286" s="20" t="s">
+      <c r="I286" t="s">
         <v>755</v>
       </c>
-      <c r="I286" t="s">
+      <c r="J286" s="21" t="s">
         <v>756</v>
       </c>
-      <c r="J286" s="21" t="s">
+      <c r="K286" s="21" t="s">
         <v>757</v>
       </c>
-      <c r="K286" s="21" t="s">
+      <c r="L286" s="2" t="s">
         <v>758</v>
-      </c>
-      <c r="L286" s="2" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.15">
@@ -16189,34 +16190,34 @@
         <v>25</v>
       </c>
       <c r="C287" s="20" t="s">
+        <v>762</v>
+      </c>
+      <c r="D287" s="20" t="s">
+        <v>759</v>
+      </c>
+      <c r="E287" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="F287" s="20" t="s">
         <v>763</v>
       </c>
-      <c r="D287" s="20" t="s">
+      <c r="G287" s="20" t="s">
         <v>760</v>
       </c>
-      <c r="E287" s="20" t="s">
-        <v>695</v>
-      </c>
-      <c r="F287" s="20" t="s">
+      <c r="H287" s="20" t="s">
+        <v>761</v>
+      </c>
+      <c r="I287" t="s">
         <v>764</v>
       </c>
-      <c r="G287" s="20" t="s">
-        <v>761</v>
-      </c>
-      <c r="H287" s="20" t="s">
-        <v>762</v>
-      </c>
-      <c r="I287" t="s">
+      <c r="J287" s="21" t="s">
         <v>765</v>
       </c>
-      <c r="J287" s="21" t="s">
+      <c r="K287" s="21" t="s">
         <v>766</v>
       </c>
-      <c r="K287" s="21" t="s">
+      <c r="L287" s="2" t="s">
         <v>767</v>
-      </c>
-      <c r="L287" s="2" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.2">
@@ -16230,13 +16231,13 @@
         <v>1818</v>
       </c>
       <c r="D288" s="22" t="s">
+        <v>768</v>
+      </c>
+      <c r="E288" s="22" t="s">
         <v>769</v>
       </c>
-      <c r="E288" s="22" t="s">
+      <c r="F288" s="22" t="s">
         <v>770</v>
-      </c>
-      <c r="F288" s="22" t="s">
-        <v>771</v>
       </c>
       <c r="G288" s="23">
         <v>37.456434000000002</v>
@@ -16248,13 +16249,13 @@
         <v>574</v>
       </c>
       <c r="J288" s="21" t="s">
+        <v>707</v>
+      </c>
+      <c r="K288" s="21" t="s">
+        <v>699</v>
+      </c>
+      <c r="L288" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="K288" s="21" t="s">
-        <v>700</v>
-      </c>
-      <c r="L288" s="2" t="s">
-        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -16267,8 +16268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="D221" sqref="D221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -16330,7 +16331,7 @@
         <v>317</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>692</v>
+        <v>1152</v>
       </c>
       <c r="E2" s="28">
         <v>3</v>
@@ -16348,7 +16349,7 @@
         <v>648</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="K2" s="29" t="s">
         <v>649</v>
@@ -16368,7 +16369,7 @@
         <v>2534</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E3" s="28">
         <v>5</v>
@@ -16406,7 +16407,7 @@
         <v>2637</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E4" s="28">
         <v>6</v>
@@ -16444,7 +16445,7 @@
         <v>318</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E5" s="28">
         <v>3</v>
@@ -16482,7 +16483,7 @@
         <v>152</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E6" s="28">
         <v>1</v>
@@ -16520,7 +16521,7 @@
         <v>2535</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E7" s="28">
         <v>5</v>
@@ -16558,7 +16559,7 @@
         <v>154</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E8" s="28">
         <v>1</v>
@@ -16596,7 +16597,7 @@
         <v>2638</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E9" s="28">
         <v>6</v>
@@ -16634,7 +16635,7 @@
         <v>420</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E10" s="28">
         <v>4</v>
@@ -16672,7 +16673,7 @@
         <v>2537</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E11" s="28">
         <v>5</v>
@@ -16710,7 +16711,7 @@
         <v>322</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E12" s="28">
         <v>3</v>
@@ -16748,7 +16749,7 @@
         <v>424</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E13" s="28">
         <v>4</v>
@@ -16786,7 +16787,7 @@
         <v>150</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E14" s="28">
         <v>1</v>
@@ -16824,7 +16825,7 @@
         <v>1251</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E15" s="28" t="s">
         <v>55</v>
@@ -16862,7 +16863,7 @@
         <v>151</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E16" s="28">
         <v>1</v>
@@ -16900,7 +16901,7 @@
         <v>206</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E17" s="28">
         <v>2</v>
@@ -16938,7 +16939,7 @@
         <v>323</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E18" s="28">
         <v>3</v>
@@ -16976,7 +16977,7 @@
         <v>320</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E19" s="28">
         <v>3</v>
@@ -16991,16 +16992,16 @@
         <v>126.99191</v>
       </c>
       <c r="I19" s="33" t="s">
+        <v>824</v>
+      </c>
+      <c r="J19" s="32" t="s">
         <v>825</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="K19" s="42" t="s">
         <v>826</v>
       </c>
-      <c r="K19" s="42" t="s">
-        <v>827</v>
-      </c>
       <c r="L19" s="45" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -17014,7 +17015,7 @@
         <v>2536</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E20" s="28">
         <v>5</v>
@@ -17052,7 +17053,7 @@
         <v>202</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E21" s="28">
         <v>2</v>
@@ -17067,16 +17068,16 @@
         <v>126.982618</v>
       </c>
       <c r="I21" s="33" t="s">
+        <v>827</v>
+      </c>
+      <c r="J21" s="33" t="s">
         <v>828</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="K21" s="33" t="s">
         <v>829</v>
       </c>
-      <c r="K21" s="33" t="s">
-        <v>830</v>
-      </c>
       <c r="L21" s="45" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -17090,7 +17091,7 @@
         <v>2538</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E22" s="28">
         <v>5</v>
@@ -17105,16 +17106,16 @@
         <v>127.013828</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J22" s="32" t="s">
+        <v>832</v>
+      </c>
+      <c r="K22" s="32" t="s">
         <v>833</v>
       </c>
-      <c r="K22" s="32" t="s">
-        <v>834</v>
-      </c>
       <c r="L22" s="45" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -17128,7 +17129,7 @@
         <v>423</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E23" s="28">
         <v>4</v>
@@ -17166,7 +17167,7 @@
         <v>425</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E24" s="28">
         <v>4</v>
@@ -17181,16 +17182,16 @@
         <v>126.978246</v>
       </c>
       <c r="I24" s="32" t="s">
+        <v>835</v>
+      </c>
+      <c r="J24" s="32" t="s">
         <v>836</v>
       </c>
-      <c r="J24" s="32" t="s">
+      <c r="K24" s="32" t="s">
         <v>837</v>
       </c>
-      <c r="K24" s="32" t="s">
+      <c r="L24" s="45" t="s">
         <v>838</v>
-      </c>
-      <c r="L24" s="45" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -17204,7 +17205,7 @@
         <v>2633</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E25" s="28">
         <v>6</v>
@@ -17242,7 +17243,7 @@
         <v>2630</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E26" s="28">
         <v>6</v>
@@ -17257,13 +17258,13 @@
         <v>126.986695</v>
       </c>
       <c r="I26" s="32" t="s">
+        <v>839</v>
+      </c>
+      <c r="J26" s="32" t="s">
         <v>840</v>
       </c>
-      <c r="J26" s="32" t="s">
+      <c r="K26" s="32" t="s">
         <v>841</v>
-      </c>
-      <c r="K26" s="32" t="s">
-        <v>842</v>
       </c>
       <c r="L26" s="45" t="s">
         <v>643</v>
@@ -17280,7 +17281,7 @@
         <v>2629</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E27" s="28">
         <v>6</v>
@@ -17295,16 +17296,16 @@
         <v>126.97311000000001</v>
       </c>
       <c r="I27" s="32" t="s">
+        <v>842</v>
+      </c>
+      <c r="J27" s="32" t="s">
         <v>843</v>
       </c>
-      <c r="J27" s="32" t="s">
+      <c r="K27" s="29" t="s">
         <v>844</v>
       </c>
-      <c r="K27" s="29" t="s">
-        <v>845</v>
-      </c>
       <c r="L27" s="45" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -17318,7 +17319,7 @@
         <v>1009</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E28" s="28" t="s">
         <v>55</v>
@@ -17333,16 +17334,16 @@
         <v>126.98853699999999</v>
       </c>
       <c r="I28" s="32" t="s">
+        <v>845</v>
+      </c>
+      <c r="J28" s="32" t="s">
         <v>846</v>
       </c>
-      <c r="J28" s="32" t="s">
+      <c r="K28" s="32" t="s">
         <v>847</v>
       </c>
-      <c r="K28" s="32" t="s">
-        <v>848</v>
-      </c>
       <c r="L28" s="45" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -17356,7 +17357,7 @@
         <v>427</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E29" s="28">
         <v>4</v>
@@ -17394,7 +17395,7 @@
         <v>429</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E30" s="28">
         <v>4</v>
@@ -17432,7 +17433,7 @@
         <v>1290</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E31" s="28" t="s">
         <v>55</v>
@@ -17470,7 +17471,7 @@
         <v>430</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E32" s="28">
         <v>4</v>
@@ -17485,16 +17486,16 @@
         <v>126.974345</v>
       </c>
       <c r="I32" s="32" t="s">
+        <v>848</v>
+      </c>
+      <c r="J32" s="32" t="s">
         <v>849</v>
       </c>
-      <c r="J32" s="32" t="s">
+      <c r="K32" s="32" t="s">
         <v>850</v>
       </c>
-      <c r="K32" s="32" t="s">
-        <v>851</v>
-      </c>
       <c r="L32" s="45" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -17508,7 +17509,7 @@
         <v>2631</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E33" s="28">
         <v>6</v>
@@ -17523,16 +17524,16 @@
         <v>126.994302</v>
       </c>
       <c r="I33" s="32" t="s">
+        <v>852</v>
+      </c>
+      <c r="J33" s="32" t="s">
         <v>853</v>
       </c>
-      <c r="J33" s="32" t="s">
+      <c r="K33" s="32" t="s">
         <v>854</v>
       </c>
-      <c r="K33" s="32" t="s">
-        <v>855</v>
-      </c>
       <c r="L33" s="45" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -17546,7 +17547,7 @@
         <v>2632</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E34" s="28">
         <v>6</v>
@@ -17561,16 +17562,16 @@
         <v>127.00172499999999</v>
       </c>
       <c r="I34" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="J34" s="32" t="s">
         <v>856</v>
       </c>
-      <c r="J34" s="32" t="s">
+      <c r="K34" s="32" t="s">
         <v>857</v>
       </c>
-      <c r="K34" s="32" t="s">
-        <v>858</v>
-      </c>
       <c r="L34" s="45" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -17584,7 +17585,7 @@
         <v>1010</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E35" s="28" t="s">
         <v>55</v>
@@ -17599,13 +17600,13 @@
         <v>127.009169</v>
       </c>
       <c r="I35" s="32" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J35" s="32" t="s">
+        <v>858</v>
+      </c>
+      <c r="K35" s="32" t="s">
         <v>859</v>
-      </c>
-      <c r="K35" s="32" t="s">
-        <v>860</v>
       </c>
       <c r="L35" s="45" t="s">
         <v>643</v>
@@ -17622,7 +17623,7 @@
         <v>1261</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E36" s="28" t="s">
         <v>55</v>
@@ -17660,7 +17661,7 @@
         <v>1002</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E37" s="28">
         <v>1</v>
@@ -17698,7 +17699,7 @@
         <v>324</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E38" s="28">
         <v>3</v>
@@ -17736,7 +17737,7 @@
         <v>2543</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E39" s="28">
         <v>5</v>
@@ -17774,7 +17775,7 @@
         <v>210</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E40" s="28">
         <v>2</v>
@@ -17812,7 +17813,7 @@
         <v>207</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E41" s="28">
         <v>2</v>
@@ -17850,7 +17851,7 @@
         <v>211</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E42" s="28">
         <v>2</v>
@@ -17888,7 +17889,7 @@
         <v>2539</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E43" s="28">
         <v>5</v>
@@ -17926,7 +17927,7 @@
         <v>245</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E44" s="28">
         <v>2</v>
@@ -17964,7 +17965,7 @@
         <v>1011</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E45" s="28" t="s">
         <v>55</v>
@@ -18002,7 +18003,7 @@
         <v>208</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E46" s="28">
         <v>2</v>
@@ -18040,7 +18041,7 @@
         <v>244</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E47" s="28">
         <v>2</v>
@@ -18078,7 +18079,7 @@
         <v>1012</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E48" s="28" t="s">
         <v>55</v>
@@ -18116,7 +18117,7 @@
         <v>209</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E49" s="28">
         <v>2</v>
@@ -18154,7 +18155,7 @@
         <v>2540</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E50" s="28">
         <v>5</v>
@@ -18192,7 +18193,7 @@
         <v>2542</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E51" s="28">
         <v>5</v>
@@ -18230,7 +18231,7 @@
         <v>1847</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E52" s="28" t="s">
         <v>21</v>
@@ -18268,7 +18269,7 @@
         <v>214</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E53" s="28">
         <v>2</v>
@@ -18306,7 +18307,7 @@
         <v>212</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E54" s="28">
         <v>2</v>
@@ -18344,7 +18345,7 @@
         <v>2547</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E55" s="28">
         <v>5</v>
@@ -18382,7 +18383,7 @@
         <v>213</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E56" s="28">
         <v>2</v>
@@ -18420,7 +18421,7 @@
         <v>2727</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E57" s="28">
         <v>7</v>
@@ -18458,7 +18459,7 @@
         <v>2730</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E58" s="28">
         <v>7</v>
@@ -18496,7 +18497,7 @@
         <v>2546</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E59" s="28">
         <v>5</v>
@@ -18534,7 +18535,7 @@
         <v>2728</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E60" s="28">
         <v>7</v>
@@ -18572,7 +18573,7 @@
         <v>2726</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E61" s="28">
         <v>7</v>
@@ -18610,7 +18611,7 @@
         <v>155</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E62" s="28">
         <v>1</v>
@@ -18648,7 +18649,7 @@
         <v>156</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E63" s="28">
         <v>1</v>
@@ -18686,7 +18687,7 @@
         <v>1017</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E64" s="28">
         <v>1</v>
@@ -18724,7 +18725,7 @@
         <v>1016</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E65" s="28">
         <v>1</v>
@@ -18762,7 +18763,7 @@
         <v>250</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E66" s="28">
         <v>2</v>
@@ -18800,7 +18801,7 @@
         <v>2544</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E67" s="28">
         <v>5</v>
@@ -18838,7 +18839,7 @@
         <v>157</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E68" s="28">
         <v>1</v>
@@ -18876,7 +18877,7 @@
         <v>158</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E69" s="28">
         <v>1</v>
@@ -18914,7 +18915,7 @@
         <v>1015</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E70" s="28">
         <v>1</v>
@@ -18952,7 +18953,7 @@
         <v>1203</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E71" s="28" t="s">
         <v>55</v>
@@ -18990,7 +18991,7 @@
         <v>2720</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E72" s="28">
         <v>7</v>
@@ -19028,7 +19029,7 @@
         <v>2723</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E73" s="28">
         <v>7</v>
@@ -19066,7 +19067,7 @@
         <v>2648</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E74" s="28">
         <v>6</v>
@@ -19104,7 +19105,7 @@
         <v>2724</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E75" s="28">
         <v>7</v>
@@ -19142,7 +19143,7 @@
         <v>2722</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E76" s="28">
         <v>7</v>
@@ -19180,7 +19181,7 @@
         <v>2725</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E77" s="28">
         <v>7</v>
@@ -19218,7 +19219,7 @@
         <v>1201</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E78" s="28" t="s">
         <v>55</v>
@@ -19256,7 +19257,7 @@
         <v>2721</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E79" s="28">
         <v>7</v>
@@ -19294,7 +19295,7 @@
         <v>1204</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E80" s="28" t="s">
         <v>55</v>
@@ -19332,7 +19333,7 @@
         <v>2641</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E81" s="28">
         <v>6</v>
@@ -19370,7 +19371,7 @@
         <v>417</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E82" s="28">
         <v>4</v>
@@ -19408,7 +19409,7 @@
         <v>2644</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E83" s="28">
         <v>6</v>
@@ -19446,7 +19447,7 @@
         <v>2639</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E84" s="28">
         <v>6</v>
@@ -19484,7 +19485,7 @@
         <v>2643</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E85" s="28">
         <v>6</v>
@@ -19522,7 +19523,7 @@
         <v>418</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E86" s="28">
         <v>4</v>
@@ -19560,7 +19561,7 @@
         <v>2640</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E87" s="28">
         <v>6</v>
@@ -19598,7 +19599,7 @@
         <v>2642</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E88" s="28">
         <v>6</v>
@@ -19636,7 +19637,7 @@
         <v>419</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E89" s="28">
         <v>4</v>
@@ -19674,7 +19675,7 @@
         <v>415</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E90" s="28">
         <v>4</v>
@@ -19712,7 +19713,7 @@
         <v>416</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E91" s="28">
         <v>4</v>
@@ -19750,7 +19751,7 @@
         <v>414</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E92" s="28">
         <v>4</v>
@@ -19788,7 +19789,7 @@
         <v>1021</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E93" s="28">
         <v>1</v>
@@ -19826,7 +19827,7 @@
         <v>1902</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E94" s="28">
         <v>1</v>
@@ -19864,7 +19865,7 @@
         <v>2712</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E95" s="28">
         <v>7</v>
@@ -19902,7 +19903,7 @@
         <v>1901</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E96" s="28">
         <v>1</v>
@@ -19940,7 +19941,7 @@
         <v>413</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E97" s="28">
         <v>4</v>
@@ -19978,7 +19979,7 @@
         <v>1022</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E98" s="28">
         <v>1</v>
@@ -20016,7 +20017,7 @@
         <v>2718</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E99" s="28">
         <v>7</v>
@@ -20054,7 +20055,7 @@
         <v>1019</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E100" s="28">
         <v>1</v>
@@ -20092,7 +20093,7 @@
         <v>2715</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E101" s="28">
         <v>7</v>
@@ -20130,7 +20131,7 @@
         <v>409</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E102" s="28">
         <v>4</v>
@@ -20168,7 +20169,7 @@
         <v>2714</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E103" s="28">
         <v>7</v>
@@ -20206,7 +20207,7 @@
         <v>410</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E104" s="28">
         <v>4</v>
@@ -20244,7 +20245,7 @@
         <v>1018</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E105" s="28">
         <v>1</v>
@@ -20282,7 +20283,7 @@
         <v>2713</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E106" s="28">
         <v>7</v>
@@ -20320,7 +20321,7 @@
         <v>1020</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E107" s="28">
         <v>1</v>
@@ -20358,7 +20359,7 @@
         <v>2716</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E108" s="28">
         <v>7</v>
@@ -20396,7 +20397,7 @@
         <v>2646</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E109" s="28">
         <v>6</v>
@@ -20434,7 +20435,7 @@
         <v>2717</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E110" s="28">
         <v>7</v>
@@ -20472,7 +20473,7 @@
         <v>2647</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E111" s="28">
         <v>6</v>
@@ -20510,7 +20511,7 @@
         <v>312</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E112" s="28">
         <v>3</v>
@@ -20548,7 +20549,7 @@
         <v>2616</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E113" s="28">
         <v>6</v>
@@ -20586,7 +20587,7 @@
         <v>310</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E114" s="28">
         <v>3</v>
@@ -20624,7 +20625,7 @@
         <v>313</v>
       </c>
       <c r="D115" s="28" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E115" s="28">
         <v>3</v>
@@ -20662,7 +20663,7 @@
         <v>2614</v>
       </c>
       <c r="D116" s="28" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E116" s="28">
         <v>6</v>
@@ -20700,7 +20701,7 @@
         <v>1266</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E117" s="28" t="s">
         <v>55</v>
@@ -20738,7 +20739,7 @@
         <v>2613</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E118" s="28">
         <v>6</v>
@@ -20776,7 +20777,7 @@
         <v>2617</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E119" s="28">
         <v>6</v>
@@ -20814,7 +20815,7 @@
         <v>1267</v>
       </c>
       <c r="D120" s="28" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E120" s="28" t="s">
         <v>55</v>
@@ -20852,7 +20853,7 @@
         <v>2612</v>
       </c>
       <c r="D121" s="28" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E121" s="28">
         <v>6</v>
@@ -20890,7 +20891,7 @@
         <v>311</v>
       </c>
       <c r="D122" s="28" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E122" s="28">
         <v>3</v>
@@ -20928,7 +20929,7 @@
         <v>2611</v>
       </c>
       <c r="D123" s="28" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E123" s="28">
         <v>6</v>
@@ -20966,7 +20967,7 @@
         <v>2618</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E124" s="28">
         <v>6</v>
@@ -21004,7 +21005,7 @@
         <v>1252</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E125" s="28" t="s">
         <v>55</v>
@@ -21042,7 +21043,7 @@
         <v>316</v>
       </c>
       <c r="D126" s="28" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E126" s="28">
         <v>3</v>
@@ -21080,7 +21081,7 @@
         <v>315</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E127" s="28">
         <v>3</v>
@@ -21118,7 +21119,7 @@
         <v>2533</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E128" s="28">
         <v>5</v>
@@ -21156,7 +21157,7 @@
         <v>243</v>
       </c>
       <c r="D129" s="28" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E129" s="28">
         <v>2</v>
@@ -21194,7 +21195,7 @@
         <v>314</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E130" s="28">
         <v>3</v>
@@ -21232,7 +21233,7 @@
         <v>1263</v>
       </c>
       <c r="D131" s="28" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E131" s="28" t="s">
         <v>55</v>
@@ -21270,7 +21271,7 @@
         <v>240</v>
       </c>
       <c r="D132" s="28" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E132" s="28">
         <v>2</v>
@@ -21308,7 +21309,7 @@
         <v>241</v>
       </c>
       <c r="D133" s="28" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E133" s="28">
         <v>2</v>
@@ -21346,7 +21347,7 @@
         <v>2530</v>
       </c>
       <c r="D134" s="28" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E134" s="28">
         <v>5</v>
@@ -21384,7 +21385,7 @@
         <v>2625</v>
       </c>
       <c r="D135" s="28" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E135" s="28">
         <v>6</v>
@@ -21422,7 +21423,7 @@
         <v>2626</v>
       </c>
       <c r="D136" s="28" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E136" s="28">
         <v>6</v>
@@ -21460,7 +21461,7 @@
         <v>2529</v>
       </c>
       <c r="D137" s="28" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E137" s="28">
         <v>5</v>
@@ -21498,7 +21499,7 @@
         <v>2621</v>
       </c>
       <c r="D138" s="28" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E138" s="28">
         <v>6</v>
@@ -21536,7 +21537,7 @@
         <v>2622</v>
       </c>
       <c r="D139" s="28" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E139" s="28">
         <v>6</v>
@@ -21574,7 +21575,7 @@
         <v>2624</v>
       </c>
       <c r="D140" s="28" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E140" s="28">
         <v>6</v>
@@ -21612,7 +21613,7 @@
         <v>242</v>
       </c>
       <c r="D141" s="28" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E141" s="28">
         <v>2</v>
@@ -21650,7 +21651,7 @@
         <v>2531</v>
       </c>
       <c r="D142" s="28" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E142" s="28">
         <v>5</v>
@@ -21688,7 +21689,7 @@
         <v>2620</v>
       </c>
       <c r="D143" s="28" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E143" s="28">
         <v>6</v>
@@ -21726,7 +21727,7 @@
         <v>2623</v>
       </c>
       <c r="D144" s="28" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E144" s="28">
         <v>6</v>
@@ -21764,7 +21765,7 @@
         <v>239</v>
       </c>
       <c r="D145" s="28" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E145" s="28">
         <v>2</v>
@@ -21802,7 +21803,7 @@
         <v>248</v>
       </c>
       <c r="D146" s="28" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E146" s="28">
         <v>2</v>
@@ -21840,7 +21841,7 @@
         <v>2521</v>
       </c>
       <c r="D147" s="28" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E147" s="28">
         <v>5</v>
@@ -21878,7 +21879,7 @@
         <v>4111</v>
       </c>
       <c r="D148" s="28" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E148" s="28">
         <v>9</v>
@@ -21916,7 +21917,7 @@
         <v>2520</v>
       </c>
       <c r="D149" s="28" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E149" s="28">
         <v>5</v>
@@ -21954,7 +21955,7 @@
         <v>249</v>
       </c>
       <c r="D150" s="28" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E150" s="28">
         <v>2</v>
@@ -21992,7 +21993,7 @@
         <v>2522</v>
       </c>
       <c r="D151" s="28" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E151" s="28">
         <v>5</v>
@@ -22030,7 +22031,7 @@
         <v>4103</v>
       </c>
       <c r="D152" s="28" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E152" s="28">
         <v>9</v>
@@ -22068,7 +22069,7 @@
         <v>4105</v>
       </c>
       <c r="D153" s="28" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E153" s="28">
         <v>9</v>
@@ -22106,7 +22107,7 @@
         <v>4107</v>
       </c>
       <c r="D154" s="28" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E154" s="28">
         <v>9</v>
@@ -22144,7 +22145,7 @@
         <v>4101</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E155" s="28">
         <v>9</v>
@@ -22182,7 +22183,7 @@
         <v>2512</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E156" s="28">
         <v>5</v>
@@ -22220,7 +22221,7 @@
         <v>2513</v>
       </c>
       <c r="D157" s="28" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E157" s="28">
         <v>5</v>
@@ -22258,7 +22259,7 @@
         <v>2519</v>
       </c>
       <c r="D158" s="28" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E158" s="28">
         <v>5</v>
@@ -22296,7 +22297,7 @@
         <v>4109</v>
       </c>
       <c r="D159" s="28" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E159" s="28">
         <v>9</v>
@@ -22334,7 +22335,7 @@
         <v>2515</v>
       </c>
       <c r="D160" s="28" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E160" s="28">
         <v>5</v>
@@ -22372,7 +22373,7 @@
         <v>2516</v>
       </c>
       <c r="D161" s="28" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E161" s="28">
         <v>5</v>
@@ -22410,7 +22411,7 @@
         <v>2511</v>
       </c>
       <c r="D162" s="28" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E162" s="28">
         <v>5</v>
@@ -22448,7 +22449,7 @@
         <v>2514</v>
       </c>
       <c r="D163" s="28" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E163" s="28">
         <v>5</v>
@@ -22486,7 +22487,7 @@
         <v>4104</v>
       </c>
       <c r="D164" s="28" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E164" s="28">
         <v>9</v>
@@ -22524,7 +22525,7 @@
         <v>4106</v>
       </c>
       <c r="D165" s="28" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E165" s="28">
         <v>9</v>
@@ -22562,7 +22563,7 @@
         <v>4110</v>
       </c>
       <c r="D166" s="28" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E166" s="28">
         <v>9</v>
@@ -22600,7 +22601,7 @@
         <v>2517</v>
       </c>
       <c r="D167" s="28" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E167" s="28">
         <v>5</v>
@@ -22638,7 +22639,7 @@
         <v>4108</v>
       </c>
       <c r="D168" s="28" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E168" s="28">
         <v>9</v>
@@ -22676,7 +22677,7 @@
         <v>2518</v>
       </c>
       <c r="D169" s="28" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E169" s="28">
         <v>5</v>
@@ -22714,7 +22715,7 @@
         <v>1801</v>
       </c>
       <c r="D170" s="28" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E170" s="28">
         <v>1</v>
@@ -22752,7 +22753,7 @@
         <v>1701</v>
       </c>
       <c r="D171" s="28" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E171" s="28">
         <v>1</v>
@@ -22790,7 +22791,7 @@
         <v>232</v>
       </c>
       <c r="D172" s="28" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E172" s="28">
         <v>2</v>
@@ -22828,7 +22829,7 @@
         <v>1813</v>
       </c>
       <c r="D173" s="28" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E173" s="28">
         <v>1</v>
@@ -22866,7 +22867,7 @@
         <v>2747</v>
       </c>
       <c r="D174" s="28" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E174" s="28">
         <v>7</v>
@@ -22904,7 +22905,7 @@
         <v>233</v>
       </c>
       <c r="D175" s="28" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E175" s="28">
         <v>2</v>
@@ -22942,7 +22943,7 @@
         <v>247</v>
       </c>
       <c r="D176" s="28" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E176" s="28">
         <v>2</v>
@@ -22980,7 +22981,7 @@
         <v>1007</v>
       </c>
       <c r="D177" s="28" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E177" s="28">
         <v>1</v>
@@ -23018,7 +23019,7 @@
         <v>1802</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E178" s="28">
         <v>1</v>
@@ -23056,7 +23057,7 @@
         <v>1821</v>
       </c>
       <c r="D179" s="28" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E179" s="28">
         <v>1</v>
@@ -23094,7 +23095,7 @@
         <v>2751</v>
       </c>
       <c r="D180" s="28" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E180" s="28">
         <v>7</v>
@@ -23132,7 +23133,7 @@
         <v>2746</v>
       </c>
       <c r="D181" s="28" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E181" s="28">
         <v>7</v>
@@ -23170,7 +23171,7 @@
         <v>2559</v>
       </c>
       <c r="D182" s="28" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E182" s="28">
         <v>5</v>
@@ -23208,7 +23209,7 @@
         <v>1702</v>
       </c>
       <c r="D183" s="28" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E183" s="28">
         <v>1</v>
@@ -23246,7 +23247,7 @@
         <v>1703</v>
       </c>
       <c r="D184" s="28" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E184" s="28">
         <v>1</v>
@@ -23284,7 +23285,7 @@
         <v>1714</v>
       </c>
       <c r="D185" s="28" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E185" s="28">
         <v>1</v>
@@ -23322,7 +23323,7 @@
         <v>4113</v>
       </c>
       <c r="D186" s="28" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E186" s="28">
         <v>9</v>
@@ -23360,7 +23361,7 @@
         <v>4112</v>
       </c>
       <c r="D187" s="28" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E187" s="28">
         <v>9</v>
@@ -23398,7 +23399,7 @@
         <v>2526</v>
       </c>
       <c r="D188" s="28" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E188" s="28">
         <v>5</v>
@@ -23436,7 +23437,7 @@
         <v>4114</v>
       </c>
       <c r="D189" s="28" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E189" s="28">
         <v>9</v>
@@ -23474,7 +23475,7 @@
         <v>1005</v>
       </c>
       <c r="D190" s="28" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E190" s="28">
         <v>1</v>
@@ -23512,7 +23513,7 @@
         <v>235</v>
       </c>
       <c r="D191" s="28" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E191" s="28">
         <v>2</v>
@@ -23550,7 +23551,7 @@
         <v>4116</v>
       </c>
       <c r="D192" s="28" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E192" s="28">
         <v>9</v>
@@ -23588,7 +23589,7 @@
         <v>1032</v>
       </c>
       <c r="D193" s="28" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E193" s="28">
         <v>1</v>
@@ -23626,7 +23627,7 @@
         <v>2745</v>
       </c>
       <c r="D194" s="28" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E194" s="28">
         <v>7</v>
@@ -23664,7 +23665,7 @@
         <v>2528</v>
       </c>
       <c r="D195" s="28" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E195" s="28">
         <v>5</v>
@@ -23702,7 +23703,7 @@
         <v>2527</v>
       </c>
       <c r="D196" s="28" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E196" s="28">
         <v>5</v>
@@ -23740,7 +23741,7 @@
         <v>1006</v>
       </c>
       <c r="D197" s="28" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E197" s="28">
         <v>1</v>
@@ -23778,7 +23779,7 @@
         <v>2524</v>
       </c>
       <c r="D198" s="28" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E198" s="28">
         <v>5</v>
@@ -23816,7 +23817,7 @@
         <v>2525</v>
       </c>
       <c r="D199" s="28" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E199" s="28">
         <v>5</v>
@@ -23854,7 +23855,7 @@
         <v>2744</v>
       </c>
       <c r="D200" s="28" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E200" s="28">
         <v>7</v>
@@ -23892,7 +23893,7 @@
         <v>2739</v>
       </c>
       <c r="D201" s="28" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E201" s="28">
         <v>7</v>
@@ -23930,7 +23931,7 @@
         <v>4118</v>
       </c>
       <c r="D202" s="28" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E202" s="28">
         <v>9</v>
@@ -23968,7 +23969,7 @@
         <v>1004</v>
       </c>
       <c r="D203" s="28" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E203" s="28">
         <v>1</v>
@@ -24006,7 +24007,7 @@
         <v>431</v>
       </c>
       <c r="D204" s="28" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E204" s="28">
         <v>4</v>
@@ -24044,7 +24045,7 @@
         <v>433</v>
       </c>
       <c r="D205" s="28" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E205" s="28">
         <v>4</v>
@@ -24082,7 +24083,7 @@
         <v>2741</v>
       </c>
       <c r="D206" s="28" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E206" s="28">
         <v>7</v>
@@ -24120,7 +24121,7 @@
         <v>2740</v>
       </c>
       <c r="D207" s="28" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E207" s="28">
         <v>7</v>
@@ -24158,7 +24159,7 @@
         <v>231</v>
       </c>
       <c r="D208" s="28" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E208" s="28">
         <v>2</v>
@@ -24196,7 +24197,7 @@
         <v>2743</v>
       </c>
       <c r="D209" s="28" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E209" s="28">
         <v>7</v>
@@ -24234,7 +24235,7 @@
         <v>2742</v>
       </c>
       <c r="D210" s="28" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E210" s="28">
         <v>7</v>
@@ -24272,7 +24273,7 @@
         <v>2738</v>
       </c>
       <c r="D211" s="28" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E211" s="28">
         <v>7</v>
@@ -24310,7 +24311,7 @@
         <v>4119</v>
       </c>
       <c r="D212" s="28" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E212" s="28">
         <v>9</v>
@@ -24348,7 +24349,7 @@
         <v>227</v>
       </c>
       <c r="D213" s="28" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E213" s="28">
         <v>2</v>
@@ -24386,7 +24387,7 @@
         <v>229</v>
       </c>
       <c r="D214" s="28" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E214" s="28">
         <v>2</v>
@@ -24424,7 +24425,7 @@
         <v>228</v>
       </c>
       <c r="D215" s="28" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E215" s="28">
         <v>2</v>
@@ -24462,7 +24463,7 @@
         <v>230</v>
       </c>
       <c r="D216" s="28" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E216" s="28">
         <v>2</v>
@@ -24500,7 +24501,7 @@
         <v>2735</v>
       </c>
       <c r="D217" s="28" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E217" s="28">
         <v>7</v>
@@ -24538,7 +24539,7 @@
         <v>332</v>
       </c>
       <c r="D218" s="28" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E218" s="28">
         <v>3</v>
@@ -24576,7 +24577,7 @@
         <v>328</v>
       </c>
       <c r="D219" s="28" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E219" s="28">
         <v>3</v>
@@ -24614,7 +24615,7 @@
         <v>329</v>
       </c>
       <c r="D220" s="28" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E220" s="28">
         <v>3</v>
@@ -24652,7 +24653,7 @@
         <v>223</v>
       </c>
       <c r="D221" s="28" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E221" s="28">
         <v>2</v>
@@ -24690,7 +24691,7 @@
         <v>4121</v>
       </c>
       <c r="D222" s="28" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E222" s="28">
         <v>9</v>
@@ -24728,7 +24729,7 @@
         <v>331</v>
       </c>
       <c r="D223" s="28" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E223" s="28">
         <v>3</v>
@@ -24766,7 +24767,7 @@
         <v>434</v>
       </c>
       <c r="D224" s="28" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E224" s="28">
         <v>4</v>
@@ -24804,7 +24805,7 @@
         <v>2737</v>
       </c>
       <c r="D225" s="28" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E225" s="28">
         <v>7</v>
@@ -24842,7 +24843,7 @@
         <v>225</v>
       </c>
       <c r="D226" s="28" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E226" s="28">
         <v>2</v>
@@ -24880,7 +24881,7 @@
         <v>4124</v>
       </c>
       <c r="D227" s="28" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E227" s="28">
         <v>9</v>
@@ -24918,7 +24919,7 @@
         <v>224</v>
       </c>
       <c r="D228" s="28" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E228" s="28">
         <v>2</v>
@@ -24956,7 +24957,7 @@
         <v>4122</v>
       </c>
       <c r="D229" s="28" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E229" s="28">
         <v>9</v>
@@ -24994,7 +24995,7 @@
         <v>4308</v>
       </c>
       <c r="D230" s="28" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E230" s="28" t="s">
         <v>24</v>
@@ -25032,7 +25033,7 @@
         <v>4309</v>
       </c>
       <c r="D231" s="28" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E231" s="28" t="s">
         <v>24</v>
@@ -25070,7 +25071,7 @@
         <v>4310</v>
       </c>
       <c r="D232" s="28" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E232" s="28" t="s">
         <v>24</v>
@@ -25108,7 +25109,7 @@
         <v>4129</v>
       </c>
       <c r="D233" s="28" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E233" s="28">
         <v>9</v>
@@ -25146,7 +25147,7 @@
         <v>4128</v>
       </c>
       <c r="D234" s="28" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E234" s="28">
         <v>9</v>
@@ -25184,7 +25185,7 @@
         <v>1850</v>
       </c>
       <c r="D235" s="28" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E235" s="28" t="s">
         <v>21</v>
@@ -25222,7 +25223,7 @@
         <v>339</v>
       </c>
       <c r="D236" s="28" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E236" s="28">
         <v>3</v>
@@ -25260,7 +25261,7 @@
         <v>1848</v>
       </c>
       <c r="D237" s="28" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E237" s="28" t="s">
         <v>21</v>
@@ -25298,7 +25299,7 @@
         <v>4126</v>
       </c>
       <c r="D238" s="28" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E238" s="28">
         <v>9</v>
@@ -25336,7 +25337,7 @@
         <v>4307</v>
       </c>
       <c r="D239" s="28" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E239" s="28" t="s">
         <v>24</v>
@@ -25374,7 +25375,7 @@
         <v>1849</v>
       </c>
       <c r="D240" s="28" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E240" s="28" t="s">
         <v>21</v>
@@ -25412,7 +25413,7 @@
         <v>1027</v>
       </c>
       <c r="D241" s="28" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E241" s="28" t="s">
         <v>21</v>
@@ -25450,7 +25451,7 @@
         <v>1026</v>
       </c>
       <c r="D242" s="28" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E242" s="28" t="s">
         <v>21</v>
@@ -25488,7 +25489,7 @@
         <v>2734</v>
       </c>
       <c r="D243" s="28" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E243" s="28">
         <v>7</v>
@@ -25526,7 +25527,7 @@
         <v>1028</v>
       </c>
       <c r="D244" s="28" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E244" s="28" t="s">
         <v>21</v>
@@ -25564,7 +25565,7 @@
         <v>337</v>
       </c>
       <c r="D245" s="28" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E245" s="28">
         <v>3</v>
@@ -25602,7 +25603,7 @@
         <v>335</v>
       </c>
       <c r="D246" s="28" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E246" s="28">
         <v>3</v>
@@ -25640,7 +25641,7 @@
         <v>1025</v>
       </c>
       <c r="D247" s="28" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E247" s="28" t="s">
         <v>21</v>
@@ -25678,7 +25679,7 @@
         <v>333</v>
       </c>
       <c r="D248" s="28" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E248" s="28">
         <v>3</v>
@@ -25716,7 +25717,7 @@
         <v>219</v>
       </c>
       <c r="D249" s="28" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E249" s="28">
         <v>2</v>
@@ -25754,7 +25755,7 @@
         <v>220</v>
       </c>
       <c r="D250" s="28" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E250" s="28">
         <v>2</v>
@@ -25792,7 +25793,7 @@
         <v>1030</v>
       </c>
       <c r="D251" s="28" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E251" s="28" t="s">
         <v>21</v>
@@ -25830,7 +25831,7 @@
         <v>4125</v>
       </c>
       <c r="D252" s="28" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E252" s="28">
         <v>9</v>
@@ -25868,7 +25869,7 @@
         <v>327</v>
       </c>
       <c r="D253" s="28" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E253" s="28">
         <v>3</v>
@@ -25906,7 +25907,7 @@
         <v>326</v>
       </c>
       <c r="D254" s="28" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E254" s="28">
         <v>3</v>
@@ -25944,7 +25945,7 @@
         <v>221</v>
       </c>
       <c r="D255" s="28" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E255" s="28">
         <v>2</v>
@@ -25982,7 +25983,7 @@
         <v>338</v>
       </c>
       <c r="D256" s="28" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E256" s="28">
         <v>3</v>
@@ -26020,7 +26021,7 @@
         <v>2731</v>
       </c>
       <c r="D257" s="28" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E257" s="28">
         <v>7</v>
@@ -26058,7 +26059,7 @@
         <v>2733</v>
       </c>
       <c r="D258" s="28" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E258" s="28">
         <v>7</v>
@@ -26096,7 +26097,7 @@
         <v>336</v>
       </c>
       <c r="D259" s="28" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E259" s="28">
         <v>3</v>
@@ -26134,7 +26135,7 @@
         <v>1024</v>
       </c>
       <c r="D260" s="28" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E260" s="28" t="s">
         <v>21</v>
@@ -26172,7 +26173,7 @@
         <v>342</v>
       </c>
       <c r="D261" s="28" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E261" s="28">
         <v>3</v>
@@ -26210,7 +26211,7 @@
         <v>340</v>
       </c>
       <c r="D262" s="28" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E262" s="28">
         <v>3</v>
@@ -26248,7 +26249,7 @@
         <v>2560</v>
       </c>
       <c r="D263" s="28" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E263" s="28">
         <v>5</v>
@@ -26286,7 +26287,7 @@
         <v>341</v>
       </c>
       <c r="D264" s="28" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E264" s="28">
         <v>3</v>
@@ -26324,7 +26325,7 @@
         <v>2561</v>
       </c>
       <c r="D265" s="28" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E265" s="28">
         <v>5</v>
@@ -26362,7 +26363,7 @@
         <v>2814</v>
       </c>
       <c r="D266" s="28" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E266" s="28">
         <v>8</v>
@@ -26400,7 +26401,7 @@
         <v>2819</v>
       </c>
       <c r="D267" s="28" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E267" s="28">
         <v>8</v>
@@ -26438,7 +26439,7 @@
         <v>2557</v>
       </c>
       <c r="D268" s="28" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E268" s="28">
         <v>5</v>
@@ -26476,7 +26477,7 @@
         <v>1031</v>
       </c>
       <c r="D269" s="28" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E269" s="28" t="s">
         <v>21</v>
@@ -26514,7 +26515,7 @@
         <v>2816</v>
       </c>
       <c r="D270" s="28" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E270" s="28">
         <v>8</v>
@@ -26552,7 +26553,7 @@
         <v>2817</v>
       </c>
       <c r="D271" s="28" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E271" s="28">
         <v>8</v>
@@ -26590,7 +26591,7 @@
         <v>2556</v>
       </c>
       <c r="D272" s="28" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E272" s="28">
         <v>5</v>
@@ -26628,7 +26629,7 @@
         <v>216</v>
       </c>
       <c r="D273" s="28" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E273" s="28">
         <v>2</v>
@@ -26666,7 +26667,7 @@
         <v>215</v>
       </c>
       <c r="D274" s="28" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E274" s="28">
         <v>2</v>
@@ -26704,7 +26705,7 @@
         <v>217</v>
       </c>
       <c r="D275" s="28" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E275" s="28">
         <v>2</v>
@@ -26742,7 +26743,7 @@
         <v>2820</v>
       </c>
       <c r="D276" s="28" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E276" s="28">
         <v>8</v>
@@ -26780,7 +26781,7 @@
         <v>218</v>
       </c>
       <c r="D277" s="28" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E277" s="28">
         <v>2</v>
@@ -26815,34 +26816,34 @@
         <v>25</v>
       </c>
       <c r="C278" s="34" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D278" s="34" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E278" s="34" t="s">
+        <v>694</v>
+      </c>
+      <c r="F278" s="34" t="s">
         <v>695</v>
       </c>
-      <c r="F278" s="34" t="s">
+      <c r="G278" s="34" t="s">
         <v>696</v>
       </c>
-      <c r="G278" s="34" t="s">
+      <c r="H278" s="34" t="s">
         <v>697</v>
-      </c>
-      <c r="H278" s="34" t="s">
-        <v>698</v>
       </c>
       <c r="I278" s="32" t="s">
         <v>571</v>
       </c>
       <c r="J278" s="35" t="s">
+        <v>698</v>
+      </c>
+      <c r="K278" s="35" t="s">
         <v>699</v>
       </c>
-      <c r="K278" s="35" t="s">
+      <c r="L278" s="45" t="s">
         <v>700</v>
-      </c>
-      <c r="L278" s="45" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
@@ -26853,34 +26854,34 @@
         <v>25</v>
       </c>
       <c r="C279" s="34" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D279" s="34" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E279" s="34" t="s">
+        <v>703</v>
+      </c>
+      <c r="F279" s="34" t="s">
         <v>704</v>
       </c>
-      <c r="F279" s="34" t="s">
+      <c r="G279" s="34" t="s">
         <v>705</v>
       </c>
-      <c r="G279" s="34" t="s">
+      <c r="H279" s="34" t="s">
         <v>706</v>
-      </c>
-      <c r="H279" s="34" t="s">
-        <v>707</v>
       </c>
       <c r="I279" s="32" t="s">
         <v>572</v>
       </c>
       <c r="J279" s="35" t="s">
+        <v>707</v>
+      </c>
+      <c r="K279" s="35" t="s">
+        <v>699</v>
+      </c>
+      <c r="L279" s="45" t="s">
         <v>708</v>
-      </c>
-      <c r="K279" s="35" t="s">
-        <v>700</v>
-      </c>
-      <c r="L279" s="45" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
@@ -26891,34 +26892,34 @@
         <v>25</v>
       </c>
       <c r="C280" s="34" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D280" s="34" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E280" s="34" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F280" s="34" t="s">
+        <v>711</v>
+      </c>
+      <c r="G280" s="34" t="s">
         <v>712</v>
       </c>
-      <c r="G280" s="34" t="s">
+      <c r="H280" s="34" t="s">
         <v>713</v>
-      </c>
-      <c r="H280" s="34" t="s">
-        <v>714</v>
       </c>
       <c r="I280" s="32" t="s">
         <v>573</v>
       </c>
       <c r="J280" s="35" t="s">
+        <v>707</v>
+      </c>
+      <c r="K280" s="35" t="s">
+        <v>699</v>
+      </c>
+      <c r="L280" s="45" t="s">
         <v>708</v>
-      </c>
-      <c r="K280" s="35" t="s">
-        <v>700</v>
-      </c>
-      <c r="L280" s="45" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
@@ -26929,34 +26930,34 @@
         <v>25</v>
       </c>
       <c r="C281" s="34" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D281" s="34" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E281" s="34" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F281" s="34" t="s">
+        <v>716</v>
+      </c>
+      <c r="G281" s="34" t="s">
         <v>717</v>
       </c>
-      <c r="G281" s="34" t="s">
+      <c r="H281" s="34" t="s">
         <v>718</v>
       </c>
-      <c r="H281" s="34" t="s">
+      <c r="I281" s="32" t="s">
         <v>719</v>
       </c>
-      <c r="I281" s="32" t="s">
-        <v>720</v>
-      </c>
       <c r="J281" s="35" t="s">
+        <v>707</v>
+      </c>
+      <c r="K281" s="35" t="s">
+        <v>699</v>
+      </c>
+      <c r="L281" s="45" t="s">
         <v>708</v>
-      </c>
-      <c r="K281" s="35" t="s">
-        <v>700</v>
-      </c>
-      <c r="L281" s="45" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
@@ -26967,34 +26968,34 @@
         <v>25</v>
       </c>
       <c r="C282" s="34" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D282" s="34" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E282" s="34" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F282" s="34" t="s">
+        <v>722</v>
+      </c>
+      <c r="G282" s="34" t="s">
         <v>723</v>
       </c>
-      <c r="G282" s="34" t="s">
+      <c r="H282" s="34" t="s">
         <v>724</v>
       </c>
-      <c r="H282" s="34" t="s">
+      <c r="I282" s="32" t="s">
         <v>725</v>
       </c>
-      <c r="I282" s="32" t="s">
+      <c r="J282" s="35" t="s">
         <v>726</v>
       </c>
-      <c r="J282" s="35" t="s">
+      <c r="K282" s="35" t="s">
         <v>727</v>
       </c>
-      <c r="K282" s="35" t="s">
+      <c r="L282" s="45" t="s">
         <v>728</v>
-      </c>
-      <c r="L282" s="45" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
@@ -27005,34 +27006,34 @@
         <v>25</v>
       </c>
       <c r="C283" s="34" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D283" s="34" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E283" s="34" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F283" s="34" t="s">
+        <v>731</v>
+      </c>
+      <c r="G283" s="34" t="s">
         <v>732</v>
       </c>
-      <c r="G283" s="34" t="s">
+      <c r="H283" s="34" t="s">
         <v>733</v>
       </c>
-      <c r="H283" s="34" t="s">
+      <c r="I283" s="32" t="s">
         <v>734</v>
       </c>
-      <c r="I283" s="32" t="s">
+      <c r="J283" s="35" t="s">
         <v>735</v>
       </c>
-      <c r="J283" s="35" t="s">
+      <c r="K283" s="35" t="s">
         <v>736</v>
       </c>
-      <c r="K283" s="35" t="s">
+      <c r="L283" s="45" t="s">
         <v>737</v>
-      </c>
-      <c r="L283" s="45" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.2">
@@ -27043,34 +27044,34 @@
         <v>25</v>
       </c>
       <c r="C284" s="34" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D284" s="34" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E284" s="34" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F284" s="34" t="s">
+        <v>740</v>
+      </c>
+      <c r="G284" s="34" t="s">
         <v>741</v>
       </c>
-      <c r="G284" s="34" t="s">
+      <c r="H284" s="34" t="s">
         <v>742</v>
       </c>
-      <c r="H284" s="34" t="s">
+      <c r="I284" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="I284" s="32" t="s">
-        <v>744</v>
-      </c>
       <c r="J284" s="35" t="s">
+        <v>707</v>
+      </c>
+      <c r="K284" s="35" t="s">
+        <v>699</v>
+      </c>
+      <c r="L284" s="45" t="s">
         <v>708</v>
-      </c>
-      <c r="K284" s="35" t="s">
-        <v>700</v>
-      </c>
-      <c r="L284" s="45" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.2">
@@ -27081,34 +27082,34 @@
         <v>25</v>
       </c>
       <c r="C285" s="34" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D285" s="34" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E285" s="34" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F285" s="34" t="s">
+        <v>746</v>
+      </c>
+      <c r="G285" s="34" t="s">
         <v>747</v>
       </c>
-      <c r="G285" s="34" t="s">
+      <c r="H285" s="34" t="s">
         <v>748</v>
       </c>
-      <c r="H285" s="34" t="s">
+      <c r="I285" s="32" t="s">
         <v>749</v>
       </c>
-      <c r="I285" s="32" t="s">
-        <v>750</v>
-      </c>
       <c r="J285" s="35" t="s">
+        <v>707</v>
+      </c>
+      <c r="K285" s="35" t="s">
+        <v>699</v>
+      </c>
+      <c r="L285" s="45" t="s">
         <v>708</v>
-      </c>
-      <c r="K285" s="35" t="s">
-        <v>700</v>
-      </c>
-      <c r="L285" s="45" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.2">
@@ -27119,34 +27120,34 @@
         <v>25</v>
       </c>
       <c r="C286" s="34" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D286" s="34" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E286" s="34" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F286" s="34" t="s">
+        <v>752</v>
+      </c>
+      <c r="G286" s="34" t="s">
         <v>753</v>
       </c>
-      <c r="G286" s="34" t="s">
+      <c r="H286" s="34" t="s">
         <v>754</v>
       </c>
-      <c r="H286" s="34" t="s">
+      <c r="I286" s="32" t="s">
         <v>755</v>
       </c>
-      <c r="I286" s="32" t="s">
+      <c r="J286" s="35" t="s">
         <v>756</v>
       </c>
-      <c r="J286" s="35" t="s">
+      <c r="K286" s="35" t="s">
         <v>757</v>
       </c>
-      <c r="K286" s="35" t="s">
+      <c r="L286" s="45" t="s">
         <v>758</v>
-      </c>
-      <c r="L286" s="45" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.2">
@@ -27157,34 +27158,34 @@
         <v>25</v>
       </c>
       <c r="C287" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="D287" s="34" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E287" s="34" t="s">
+        <v>694</v>
+      </c>
+      <c r="F287" s="34" t="s">
         <v>763</v>
       </c>
-      <c r="D287" s="34" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E287" s="34" t="s">
-        <v>695</v>
-      </c>
-      <c r="F287" s="34" t="s">
+      <c r="G287" s="34" t="s">
+        <v>760</v>
+      </c>
+      <c r="H287" s="34" t="s">
+        <v>761</v>
+      </c>
+      <c r="I287" s="32" t="s">
         <v>764</v>
       </c>
-      <c r="G287" s="34" t="s">
-        <v>761</v>
-      </c>
-      <c r="H287" s="34" t="s">
-        <v>762</v>
-      </c>
-      <c r="I287" s="32" t="s">
+      <c r="J287" s="35" t="s">
         <v>765</v>
       </c>
-      <c r="J287" s="35" t="s">
+      <c r="K287" s="35" t="s">
         <v>766</v>
       </c>
-      <c r="K287" s="35" t="s">
+      <c r="L287" s="45" t="s">
         <v>767</v>
-      </c>
-      <c r="L287" s="45" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.2">
@@ -27198,13 +27199,13 @@
         <v>1818</v>
       </c>
       <c r="D288" s="36" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E288" s="36" t="s">
+        <v>769</v>
+      </c>
+      <c r="F288" s="36" t="s">
         <v>770</v>
-      </c>
-      <c r="F288" s="36" t="s">
-        <v>771</v>
       </c>
       <c r="G288" s="37">
         <v>37.456434000000002</v>
@@ -27216,13 +27217,13 @@
         <v>574</v>
       </c>
       <c r="J288" s="35" t="s">
+        <v>707</v>
+      </c>
+      <c r="K288" s="35" t="s">
+        <v>699</v>
+      </c>
+      <c r="L288" s="45" t="s">
         <v>708</v>
-      </c>
-      <c r="K288" s="35" t="s">
-        <v>700</v>
-      </c>
-      <c r="L288" s="45" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
@@ -27320,13 +27321,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B1" t="s">
         <v>863</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>864</v>
-      </c>
-      <c r="C1" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -27334,10 +27335,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -27350,8 +27351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B288"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E288" sqref="E288"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="E287" sqref="E287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -27772,7 +27773,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -28308,7 +28309,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -29060,7 +29061,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -29132,7 +29133,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -29308,7 +29309,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -29620,7 +29621,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">

--- a/app/import/DB_seoulhang.xlsx
+++ b/app/import/DB_seoulhang.xlsx
@@ -5301,8 +5301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L288"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:I29"/>
+    <sheetView topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -27351,8 +27351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="E287" sqref="E287"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="C223" sqref="C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -29125,7 +29125,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -29133,7 +29133,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">

--- a/app/import/DB_seoulhang.xlsx
+++ b/app/import/DB_seoulhang.xlsx
@@ -3018,10 +3018,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Hankuk Univ. of Foreign Studies </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yongdu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3906,10 +3902,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Seoul Nat l Univ. of Education</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Yangjae Citizens Forest </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3919,6 +3911,14 @@
   </si>
   <si>
     <t>Gyeongbokgung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seoul Nat l Univ. of Edu.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hankuk Univ. of Foreign Stu.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -16268,8 +16268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L312"/>
   <sheetViews>
-    <sheetView topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="D221" sqref="D221"/>
+    <sheetView topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="D264" sqref="D264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -16331,7 +16331,7 @@
         <v>317</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E2" s="28">
         <v>3</v>
@@ -17357,7 +17357,7 @@
         <v>427</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E29" s="28">
         <v>4</v>
@@ -18535,7 +18535,7 @@
         <v>2728</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E60" s="28">
         <v>7</v>
@@ -18725,7 +18725,7 @@
         <v>1016</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>927</v>
+        <v>1152</v>
       </c>
       <c r="E65" s="28">
         <v>1</v>
@@ -18763,7 +18763,7 @@
         <v>250</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E66" s="28">
         <v>2</v>
@@ -18801,7 +18801,7 @@
         <v>2544</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E67" s="28">
         <v>5</v>
@@ -18839,7 +18839,7 @@
         <v>157</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E68" s="28">
         <v>1</v>
@@ -18877,7 +18877,7 @@
         <v>158</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E69" s="28">
         <v>1</v>
@@ -18915,7 +18915,7 @@
         <v>1015</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E70" s="28">
         <v>1</v>
@@ -18953,7 +18953,7 @@
         <v>1203</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E71" s="28" t="s">
         <v>55</v>
@@ -18991,7 +18991,7 @@
         <v>2720</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E72" s="28">
         <v>7</v>
@@ -19029,7 +19029,7 @@
         <v>2723</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E73" s="28">
         <v>7</v>
@@ -19067,7 +19067,7 @@
         <v>2648</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E74" s="28">
         <v>6</v>
@@ -19105,7 +19105,7 @@
         <v>2724</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E75" s="28">
         <v>7</v>
@@ -19143,7 +19143,7 @@
         <v>2722</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E76" s="28">
         <v>7</v>
@@ -19181,7 +19181,7 @@
         <v>2725</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E77" s="28">
         <v>7</v>
@@ -19219,7 +19219,7 @@
         <v>1201</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E78" s="28" t="s">
         <v>55</v>
@@ -19257,7 +19257,7 @@
         <v>2721</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E79" s="28">
         <v>7</v>
@@ -19295,7 +19295,7 @@
         <v>1204</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E80" s="28" t="s">
         <v>55</v>
@@ -19333,7 +19333,7 @@
         <v>2641</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E81" s="28">
         <v>6</v>
@@ -19371,7 +19371,7 @@
         <v>417</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E82" s="28">
         <v>4</v>
@@ -19409,7 +19409,7 @@
         <v>2644</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E83" s="28">
         <v>6</v>
@@ -19447,7 +19447,7 @@
         <v>2639</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E84" s="28">
         <v>6</v>
@@ -19485,7 +19485,7 @@
         <v>2643</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E85" s="28">
         <v>6</v>
@@ -19523,7 +19523,7 @@
         <v>418</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E86" s="28">
         <v>4</v>
@@ -19561,7 +19561,7 @@
         <v>2640</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E87" s="28">
         <v>6</v>
@@ -19599,7 +19599,7 @@
         <v>2642</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E88" s="28">
         <v>6</v>
@@ -19637,7 +19637,7 @@
         <v>419</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E89" s="28">
         <v>4</v>
@@ -19675,7 +19675,7 @@
         <v>415</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E90" s="28">
         <v>4</v>
@@ -19713,7 +19713,7 @@
         <v>416</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E91" s="28">
         <v>4</v>
@@ -19751,7 +19751,7 @@
         <v>414</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E92" s="28">
         <v>4</v>
@@ -19789,7 +19789,7 @@
         <v>1021</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E93" s="28">
         <v>1</v>
@@ -19827,7 +19827,7 @@
         <v>1902</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E94" s="28">
         <v>1</v>
@@ -19865,7 +19865,7 @@
         <v>2712</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E95" s="28">
         <v>7</v>
@@ -19903,7 +19903,7 @@
         <v>1901</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E96" s="28">
         <v>1</v>
@@ -19941,7 +19941,7 @@
         <v>413</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E97" s="28">
         <v>4</v>
@@ -19979,7 +19979,7 @@
         <v>1022</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E98" s="28">
         <v>1</v>
@@ -20017,7 +20017,7 @@
         <v>2718</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E99" s="28">
         <v>7</v>
@@ -20055,7 +20055,7 @@
         <v>1019</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E100" s="28">
         <v>1</v>
@@ -20093,7 +20093,7 @@
         <v>2715</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E101" s="28">
         <v>7</v>
@@ -20131,7 +20131,7 @@
         <v>409</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E102" s="28">
         <v>4</v>
@@ -20169,7 +20169,7 @@
         <v>2714</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E103" s="28">
         <v>7</v>
@@ -20207,7 +20207,7 @@
         <v>410</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E104" s="28">
         <v>4</v>
@@ -20245,7 +20245,7 @@
         <v>1018</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E105" s="28">
         <v>1</v>
@@ -20283,7 +20283,7 @@
         <v>2713</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E106" s="28">
         <v>7</v>
@@ -20321,7 +20321,7 @@
         <v>1020</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E107" s="28">
         <v>1</v>
@@ -20359,7 +20359,7 @@
         <v>2716</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E108" s="28">
         <v>7</v>
@@ -20397,7 +20397,7 @@
         <v>2646</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E109" s="28">
         <v>6</v>
@@ -20435,7 +20435,7 @@
         <v>2717</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E110" s="28">
         <v>7</v>
@@ -20473,7 +20473,7 @@
         <v>2647</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E111" s="28">
         <v>6</v>
@@ -20511,7 +20511,7 @@
         <v>312</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E112" s="28">
         <v>3</v>
@@ -20549,7 +20549,7 @@
         <v>2616</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E113" s="28">
         <v>6</v>
@@ -20587,7 +20587,7 @@
         <v>310</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E114" s="28">
         <v>3</v>
@@ -20625,7 +20625,7 @@
         <v>313</v>
       </c>
       <c r="D115" s="28" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E115" s="28">
         <v>3</v>
@@ -20663,7 +20663,7 @@
         <v>2614</v>
       </c>
       <c r="D116" s="28" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E116" s="28">
         <v>6</v>
@@ -20701,7 +20701,7 @@
         <v>1266</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E117" s="28" t="s">
         <v>55</v>
@@ -20739,7 +20739,7 @@
         <v>2613</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E118" s="28">
         <v>6</v>
@@ -20777,7 +20777,7 @@
         <v>2617</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E119" s="28">
         <v>6</v>
@@ -20815,7 +20815,7 @@
         <v>1267</v>
       </c>
       <c r="D120" s="28" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E120" s="28" t="s">
         <v>55</v>
@@ -20853,7 +20853,7 @@
         <v>2612</v>
       </c>
       <c r="D121" s="28" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E121" s="28">
         <v>6</v>
@@ -20891,7 +20891,7 @@
         <v>311</v>
       </c>
       <c r="D122" s="28" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E122" s="28">
         <v>3</v>
@@ -20929,7 +20929,7 @@
         <v>2611</v>
       </c>
       <c r="D123" s="28" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E123" s="28">
         <v>6</v>
@@ -20967,7 +20967,7 @@
         <v>2618</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E124" s="28">
         <v>6</v>
@@ -21005,7 +21005,7 @@
         <v>1252</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E125" s="28" t="s">
         <v>55</v>
@@ -21043,7 +21043,7 @@
         <v>316</v>
       </c>
       <c r="D126" s="28" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E126" s="28">
         <v>3</v>
@@ -21081,7 +21081,7 @@
         <v>315</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E127" s="28">
         <v>3</v>
@@ -21119,7 +21119,7 @@
         <v>2533</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E128" s="28">
         <v>5</v>
@@ -21157,7 +21157,7 @@
         <v>243</v>
       </c>
       <c r="D129" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E129" s="28">
         <v>2</v>
@@ -21195,7 +21195,7 @@
         <v>314</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E130" s="28">
         <v>3</v>
@@ -21233,7 +21233,7 @@
         <v>1263</v>
       </c>
       <c r="D131" s="28" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E131" s="28" t="s">
         <v>55</v>
@@ -21271,7 +21271,7 @@
         <v>240</v>
       </c>
       <c r="D132" s="28" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E132" s="28">
         <v>2</v>
@@ -21309,7 +21309,7 @@
         <v>241</v>
       </c>
       <c r="D133" s="28" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E133" s="28">
         <v>2</v>
@@ -21347,7 +21347,7 @@
         <v>2530</v>
       </c>
       <c r="D134" s="28" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E134" s="28">
         <v>5</v>
@@ -21385,7 +21385,7 @@
         <v>2625</v>
       </c>
       <c r="D135" s="28" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E135" s="28">
         <v>6</v>
@@ -21423,7 +21423,7 @@
         <v>2626</v>
       </c>
       <c r="D136" s="28" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E136" s="28">
         <v>6</v>
@@ -21461,7 +21461,7 @@
         <v>2529</v>
       </c>
       <c r="D137" s="28" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E137" s="28">
         <v>5</v>
@@ -21499,7 +21499,7 @@
         <v>2621</v>
       </c>
       <c r="D138" s="28" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E138" s="28">
         <v>6</v>
@@ -21537,7 +21537,7 @@
         <v>2622</v>
       </c>
       <c r="D139" s="28" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E139" s="28">
         <v>6</v>
@@ -21575,7 +21575,7 @@
         <v>2624</v>
       </c>
       <c r="D140" s="28" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E140" s="28">
         <v>6</v>
@@ -21613,7 +21613,7 @@
         <v>242</v>
       </c>
       <c r="D141" s="28" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E141" s="28">
         <v>2</v>
@@ -21651,7 +21651,7 @@
         <v>2531</v>
       </c>
       <c r="D142" s="28" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E142" s="28">
         <v>5</v>
@@ -21689,7 +21689,7 @@
         <v>2620</v>
       </c>
       <c r="D143" s="28" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E143" s="28">
         <v>6</v>
@@ -21727,7 +21727,7 @@
         <v>2623</v>
       </c>
       <c r="D144" s="28" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E144" s="28">
         <v>6</v>
@@ -21765,7 +21765,7 @@
         <v>239</v>
       </c>
       <c r="D145" s="28" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E145" s="28">
         <v>2</v>
@@ -21803,7 +21803,7 @@
         <v>248</v>
       </c>
       <c r="D146" s="28" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E146" s="28">
         <v>2</v>
@@ -21841,7 +21841,7 @@
         <v>2521</v>
       </c>
       <c r="D147" s="28" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E147" s="28">
         <v>5</v>
@@ -21879,7 +21879,7 @@
         <v>4111</v>
       </c>
       <c r="D148" s="28" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E148" s="28">
         <v>9</v>
@@ -21917,7 +21917,7 @@
         <v>2520</v>
       </c>
       <c r="D149" s="28" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E149" s="28">
         <v>5</v>
@@ -21955,7 +21955,7 @@
         <v>249</v>
       </c>
       <c r="D150" s="28" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E150" s="28">
         <v>2</v>
@@ -21993,7 +21993,7 @@
         <v>2522</v>
       </c>
       <c r="D151" s="28" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E151" s="28">
         <v>5</v>
@@ -22031,7 +22031,7 @@
         <v>4103</v>
       </c>
       <c r="D152" s="28" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E152" s="28">
         <v>9</v>
@@ -22069,7 +22069,7 @@
         <v>4105</v>
       </c>
       <c r="D153" s="28" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E153" s="28">
         <v>9</v>
@@ -22107,7 +22107,7 @@
         <v>4107</v>
       </c>
       <c r="D154" s="28" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E154" s="28">
         <v>9</v>
@@ -22145,7 +22145,7 @@
         <v>4101</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E155" s="28">
         <v>9</v>
@@ -22183,7 +22183,7 @@
         <v>2512</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E156" s="28">
         <v>5</v>
@@ -22221,7 +22221,7 @@
         <v>2513</v>
       </c>
       <c r="D157" s="28" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E157" s="28">
         <v>5</v>
@@ -22259,7 +22259,7 @@
         <v>2519</v>
       </c>
       <c r="D158" s="28" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E158" s="28">
         <v>5</v>
@@ -22297,7 +22297,7 @@
         <v>4109</v>
       </c>
       <c r="D159" s="28" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E159" s="28">
         <v>9</v>
@@ -22335,7 +22335,7 @@
         <v>2515</v>
       </c>
       <c r="D160" s="28" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E160" s="28">
         <v>5</v>
@@ -22373,7 +22373,7 @@
         <v>2516</v>
       </c>
       <c r="D161" s="28" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E161" s="28">
         <v>5</v>
@@ -22411,7 +22411,7 @@
         <v>2511</v>
       </c>
       <c r="D162" s="28" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E162" s="28">
         <v>5</v>
@@ -22449,7 +22449,7 @@
         <v>2514</v>
       </c>
       <c r="D163" s="28" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E163" s="28">
         <v>5</v>
@@ -22487,7 +22487,7 @@
         <v>4104</v>
       </c>
       <c r="D164" s="28" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E164" s="28">
         <v>9</v>
@@ -22525,7 +22525,7 @@
         <v>4106</v>
       </c>
       <c r="D165" s="28" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E165" s="28">
         <v>9</v>
@@ -22563,7 +22563,7 @@
         <v>4110</v>
       </c>
       <c r="D166" s="28" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E166" s="28">
         <v>9</v>
@@ -22601,7 +22601,7 @@
         <v>2517</v>
       </c>
       <c r="D167" s="28" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E167" s="28">
         <v>5</v>
@@ -22639,7 +22639,7 @@
         <v>4108</v>
       </c>
       <c r="D168" s="28" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E168" s="28">
         <v>9</v>
@@ -22677,7 +22677,7 @@
         <v>2518</v>
       </c>
       <c r="D169" s="28" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E169" s="28">
         <v>5</v>
@@ -22715,7 +22715,7 @@
         <v>1801</v>
       </c>
       <c r="D170" s="28" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E170" s="28">
         <v>1</v>
@@ -22753,7 +22753,7 @@
         <v>1701</v>
       </c>
       <c r="D171" s="28" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E171" s="28">
         <v>1</v>
@@ -22791,7 +22791,7 @@
         <v>232</v>
       </c>
       <c r="D172" s="28" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E172" s="28">
         <v>2</v>
@@ -22829,7 +22829,7 @@
         <v>1813</v>
       </c>
       <c r="D173" s="28" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E173" s="28">
         <v>1</v>
@@ -22867,7 +22867,7 @@
         <v>2747</v>
       </c>
       <c r="D174" s="28" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E174" s="28">
         <v>7</v>
@@ -22905,7 +22905,7 @@
         <v>233</v>
       </c>
       <c r="D175" s="28" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E175" s="28">
         <v>2</v>
@@ -22943,7 +22943,7 @@
         <v>247</v>
       </c>
       <c r="D176" s="28" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E176" s="28">
         <v>2</v>
@@ -22981,7 +22981,7 @@
         <v>1007</v>
       </c>
       <c r="D177" s="28" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E177" s="28">
         <v>1</v>
@@ -23019,7 +23019,7 @@
         <v>1802</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E178" s="28">
         <v>1</v>
@@ -23057,7 +23057,7 @@
         <v>1821</v>
       </c>
       <c r="D179" s="28" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E179" s="28">
         <v>1</v>
@@ -23095,7 +23095,7 @@
         <v>2751</v>
       </c>
       <c r="D180" s="28" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E180" s="28">
         <v>7</v>
@@ -23133,7 +23133,7 @@
         <v>2746</v>
       </c>
       <c r="D181" s="28" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E181" s="28">
         <v>7</v>
@@ -23171,7 +23171,7 @@
         <v>2559</v>
       </c>
       <c r="D182" s="28" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E182" s="28">
         <v>5</v>
@@ -23209,7 +23209,7 @@
         <v>1702</v>
       </c>
       <c r="D183" s="28" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E183" s="28">
         <v>1</v>
@@ -23247,7 +23247,7 @@
         <v>1703</v>
       </c>
       <c r="D184" s="28" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E184" s="28">
         <v>1</v>
@@ -23285,7 +23285,7 @@
         <v>1714</v>
       </c>
       <c r="D185" s="28" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E185" s="28">
         <v>1</v>
@@ -23323,7 +23323,7 @@
         <v>4113</v>
       </c>
       <c r="D186" s="28" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E186" s="28">
         <v>9</v>
@@ -23361,7 +23361,7 @@
         <v>4112</v>
       </c>
       <c r="D187" s="28" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E187" s="28">
         <v>9</v>
@@ -23399,7 +23399,7 @@
         <v>2526</v>
       </c>
       <c r="D188" s="28" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E188" s="28">
         <v>5</v>
@@ -23437,7 +23437,7 @@
         <v>4114</v>
       </c>
       <c r="D189" s="28" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E189" s="28">
         <v>9</v>
@@ -23475,7 +23475,7 @@
         <v>1005</v>
       </c>
       <c r="D190" s="28" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E190" s="28">
         <v>1</v>
@@ -23513,7 +23513,7 @@
         <v>235</v>
       </c>
       <c r="D191" s="28" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E191" s="28">
         <v>2</v>
@@ -23551,7 +23551,7 @@
         <v>4116</v>
       </c>
       <c r="D192" s="28" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E192" s="28">
         <v>9</v>
@@ -23589,7 +23589,7 @@
         <v>1032</v>
       </c>
       <c r="D193" s="28" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E193" s="28">
         <v>1</v>
@@ -23627,7 +23627,7 @@
         <v>2745</v>
       </c>
       <c r="D194" s="28" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E194" s="28">
         <v>7</v>
@@ -23665,7 +23665,7 @@
         <v>2528</v>
       </c>
       <c r="D195" s="28" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E195" s="28">
         <v>5</v>
@@ -23703,7 +23703,7 @@
         <v>2527</v>
       </c>
       <c r="D196" s="28" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E196" s="28">
         <v>5</v>
@@ -23741,7 +23741,7 @@
         <v>1006</v>
       </c>
       <c r="D197" s="28" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E197" s="28">
         <v>1</v>
@@ -23779,7 +23779,7 @@
         <v>2524</v>
       </c>
       <c r="D198" s="28" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E198" s="28">
         <v>5</v>
@@ -23817,7 +23817,7 @@
         <v>2525</v>
       </c>
       <c r="D199" s="28" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E199" s="28">
         <v>5</v>
@@ -23855,7 +23855,7 @@
         <v>2744</v>
       </c>
       <c r="D200" s="28" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E200" s="28">
         <v>7</v>
@@ -23893,7 +23893,7 @@
         <v>2739</v>
       </c>
       <c r="D201" s="28" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E201" s="28">
         <v>7</v>
@@ -23931,7 +23931,7 @@
         <v>4118</v>
       </c>
       <c r="D202" s="28" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E202" s="28">
         <v>9</v>
@@ -23969,7 +23969,7 @@
         <v>1004</v>
       </c>
       <c r="D203" s="28" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E203" s="28">
         <v>1</v>
@@ -24007,7 +24007,7 @@
         <v>431</v>
       </c>
       <c r="D204" s="28" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E204" s="28">
         <v>4</v>
@@ -24045,7 +24045,7 @@
         <v>433</v>
       </c>
       <c r="D205" s="28" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E205" s="28">
         <v>4</v>
@@ -24083,7 +24083,7 @@
         <v>2741</v>
       </c>
       <c r="D206" s="28" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E206" s="28">
         <v>7</v>
@@ -24121,7 +24121,7 @@
         <v>2740</v>
       </c>
       <c r="D207" s="28" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E207" s="28">
         <v>7</v>
@@ -24159,7 +24159,7 @@
         <v>231</v>
       </c>
       <c r="D208" s="28" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E208" s="28">
         <v>2</v>
@@ -24197,7 +24197,7 @@
         <v>2743</v>
       </c>
       <c r="D209" s="28" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E209" s="28">
         <v>7</v>
@@ -24235,7 +24235,7 @@
         <v>2742</v>
       </c>
       <c r="D210" s="28" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E210" s="28">
         <v>7</v>
@@ -24273,7 +24273,7 @@
         <v>2738</v>
       </c>
       <c r="D211" s="28" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E211" s="28">
         <v>7</v>
@@ -24311,7 +24311,7 @@
         <v>4119</v>
       </c>
       <c r="D212" s="28" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E212" s="28">
         <v>9</v>
@@ -24349,7 +24349,7 @@
         <v>227</v>
       </c>
       <c r="D213" s="28" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E213" s="28">
         <v>2</v>
@@ -24387,7 +24387,7 @@
         <v>229</v>
       </c>
       <c r="D214" s="28" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E214" s="28">
         <v>2</v>
@@ -24425,7 +24425,7 @@
         <v>228</v>
       </c>
       <c r="D215" s="28" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E215" s="28">
         <v>2</v>
@@ -24463,7 +24463,7 @@
         <v>230</v>
       </c>
       <c r="D216" s="28" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E216" s="28">
         <v>2</v>
@@ -24501,7 +24501,7 @@
         <v>2735</v>
       </c>
       <c r="D217" s="28" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E217" s="28">
         <v>7</v>
@@ -24539,7 +24539,7 @@
         <v>332</v>
       </c>
       <c r="D218" s="28" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E218" s="28">
         <v>3</v>
@@ -24577,7 +24577,7 @@
         <v>328</v>
       </c>
       <c r="D219" s="28" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E219" s="28">
         <v>3</v>
@@ -24615,7 +24615,7 @@
         <v>329</v>
       </c>
       <c r="D220" s="28" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E220" s="28">
         <v>3</v>
@@ -24653,7 +24653,7 @@
         <v>223</v>
       </c>
       <c r="D221" s="28" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="E221" s="28">
         <v>2</v>
@@ -24691,7 +24691,7 @@
         <v>4121</v>
       </c>
       <c r="D222" s="28" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E222" s="28">
         <v>9</v>
@@ -24729,7 +24729,7 @@
         <v>331</v>
       </c>
       <c r="D223" s="28" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E223" s="28">
         <v>3</v>
@@ -24767,7 +24767,7 @@
         <v>434</v>
       </c>
       <c r="D224" s="28" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E224" s="28">
         <v>4</v>
@@ -24805,7 +24805,7 @@
         <v>2737</v>
       </c>
       <c r="D225" s="28" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E225" s="28">
         <v>7</v>
@@ -24843,7 +24843,7 @@
         <v>225</v>
       </c>
       <c r="D226" s="28" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E226" s="28">
         <v>2</v>
@@ -24881,7 +24881,7 @@
         <v>4124</v>
       </c>
       <c r="D227" s="28" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E227" s="28">
         <v>9</v>
@@ -24919,7 +24919,7 @@
         <v>224</v>
       </c>
       <c r="D228" s="28" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E228" s="28">
         <v>2</v>
@@ -24957,7 +24957,7 @@
         <v>4122</v>
       </c>
       <c r="D229" s="28" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E229" s="28">
         <v>9</v>
@@ -24995,7 +24995,7 @@
         <v>4308</v>
       </c>
       <c r="D230" s="28" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E230" s="28" t="s">
         <v>24</v>
@@ -25033,7 +25033,7 @@
         <v>4309</v>
       </c>
       <c r="D231" s="28" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="E231" s="28" t="s">
         <v>24</v>
@@ -25071,7 +25071,7 @@
         <v>4310</v>
       </c>
       <c r="D232" s="28" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E232" s="28" t="s">
         <v>24</v>
@@ -25109,7 +25109,7 @@
         <v>4129</v>
       </c>
       <c r="D233" s="28" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E233" s="28">
         <v>9</v>
@@ -25147,7 +25147,7 @@
         <v>4128</v>
       </c>
       <c r="D234" s="28" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E234" s="28">
         <v>9</v>
@@ -25185,7 +25185,7 @@
         <v>1850</v>
       </c>
       <c r="D235" s="28" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E235" s="28" t="s">
         <v>21</v>
@@ -25223,7 +25223,7 @@
         <v>339</v>
       </c>
       <c r="D236" s="28" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E236" s="28">
         <v>3</v>
@@ -25261,7 +25261,7 @@
         <v>1848</v>
       </c>
       <c r="D237" s="28" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E237" s="28" t="s">
         <v>21</v>
@@ -25299,7 +25299,7 @@
         <v>4126</v>
       </c>
       <c r="D238" s="28" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E238" s="28">
         <v>9</v>
@@ -25337,7 +25337,7 @@
         <v>4307</v>
       </c>
       <c r="D239" s="28" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E239" s="28" t="s">
         <v>24</v>
@@ -25375,7 +25375,7 @@
         <v>1849</v>
       </c>
       <c r="D240" s="28" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E240" s="28" t="s">
         <v>21</v>
@@ -25413,7 +25413,7 @@
         <v>1027</v>
       </c>
       <c r="D241" s="28" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E241" s="28" t="s">
         <v>21</v>
@@ -25451,7 +25451,7 @@
         <v>1026</v>
       </c>
       <c r="D242" s="28" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E242" s="28" t="s">
         <v>21</v>
@@ -25489,7 +25489,7 @@
         <v>2734</v>
       </c>
       <c r="D243" s="28" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E243" s="28">
         <v>7</v>
@@ -25527,7 +25527,7 @@
         <v>1028</v>
       </c>
       <c r="D244" s="28" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E244" s="28" t="s">
         <v>21</v>
@@ -25565,7 +25565,7 @@
         <v>337</v>
       </c>
       <c r="D245" s="28" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E245" s="28">
         <v>3</v>
@@ -25603,7 +25603,7 @@
         <v>335</v>
       </c>
       <c r="D246" s="28" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E246" s="28">
         <v>3</v>
@@ -25641,7 +25641,7 @@
         <v>1025</v>
       </c>
       <c r="D247" s="28" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E247" s="28" t="s">
         <v>21</v>
@@ -25679,7 +25679,7 @@
         <v>333</v>
       </c>
       <c r="D248" s="28" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E248" s="28">
         <v>3</v>
@@ -25717,7 +25717,7 @@
         <v>219</v>
       </c>
       <c r="D249" s="28" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E249" s="28">
         <v>2</v>
@@ -25755,7 +25755,7 @@
         <v>220</v>
       </c>
       <c r="D250" s="28" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E250" s="28">
         <v>2</v>
@@ -25793,7 +25793,7 @@
         <v>1030</v>
       </c>
       <c r="D251" s="28" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E251" s="28" t="s">
         <v>21</v>
@@ -25831,7 +25831,7 @@
         <v>4125</v>
       </c>
       <c r="D252" s="28" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E252" s="28">
         <v>9</v>
@@ -25869,7 +25869,7 @@
         <v>327</v>
       </c>
       <c r="D253" s="28" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E253" s="28">
         <v>3</v>
@@ -25907,7 +25907,7 @@
         <v>326</v>
       </c>
       <c r="D254" s="28" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E254" s="28">
         <v>3</v>
@@ -25945,7 +25945,7 @@
         <v>221</v>
       </c>
       <c r="D255" s="28" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E255" s="28">
         <v>2</v>
@@ -25983,7 +25983,7 @@
         <v>338</v>
       </c>
       <c r="D256" s="28" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E256" s="28">
         <v>3</v>
@@ -26021,7 +26021,7 @@
         <v>2731</v>
       </c>
       <c r="D257" s="28" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E257" s="28">
         <v>7</v>
@@ -26059,7 +26059,7 @@
         <v>2733</v>
       </c>
       <c r="D258" s="28" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E258" s="28">
         <v>7</v>
@@ -26097,7 +26097,7 @@
         <v>336</v>
       </c>
       <c r="D259" s="28" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E259" s="28">
         <v>3</v>
@@ -26135,7 +26135,7 @@
         <v>1024</v>
       </c>
       <c r="D260" s="28" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E260" s="28" t="s">
         <v>21</v>
@@ -26173,7 +26173,7 @@
         <v>342</v>
       </c>
       <c r="D261" s="28" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E261" s="28">
         <v>3</v>
@@ -26211,7 +26211,7 @@
         <v>340</v>
       </c>
       <c r="D262" s="28" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E262" s="28">
         <v>3</v>
@@ -26249,7 +26249,7 @@
         <v>2560</v>
       </c>
       <c r="D263" s="28" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E263" s="28">
         <v>5</v>
@@ -26287,7 +26287,7 @@
         <v>341</v>
       </c>
       <c r="D264" s="28" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E264" s="28">
         <v>3</v>
@@ -26325,7 +26325,7 @@
         <v>2561</v>
       </c>
       <c r="D265" s="28" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E265" s="28">
         <v>5</v>
@@ -26363,7 +26363,7 @@
         <v>2814</v>
       </c>
       <c r="D266" s="28" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E266" s="28">
         <v>8</v>
@@ -26401,7 +26401,7 @@
         <v>2819</v>
       </c>
       <c r="D267" s="28" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E267" s="28">
         <v>8</v>
@@ -26439,7 +26439,7 @@
         <v>2557</v>
       </c>
       <c r="D268" s="28" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E268" s="28">
         <v>5</v>
@@ -26477,7 +26477,7 @@
         <v>1031</v>
       </c>
       <c r="D269" s="28" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E269" s="28" t="s">
         <v>21</v>
@@ -26515,7 +26515,7 @@
         <v>2816</v>
       </c>
       <c r="D270" s="28" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E270" s="28">
         <v>8</v>
@@ -26553,7 +26553,7 @@
         <v>2817</v>
       </c>
       <c r="D271" s="28" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E271" s="28">
         <v>8</v>
@@ -26591,7 +26591,7 @@
         <v>2556</v>
       </c>
       <c r="D272" s="28" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E272" s="28">
         <v>5</v>
@@ -26629,7 +26629,7 @@
         <v>216</v>
       </c>
       <c r="D273" s="28" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E273" s="28">
         <v>2</v>
@@ -26667,7 +26667,7 @@
         <v>215</v>
       </c>
       <c r="D274" s="28" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E274" s="28">
         <v>2</v>
@@ -26705,7 +26705,7 @@
         <v>217</v>
       </c>
       <c r="D275" s="28" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E275" s="28">
         <v>2</v>
@@ -26743,7 +26743,7 @@
         <v>2820</v>
       </c>
       <c r="D276" s="28" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E276" s="28">
         <v>8</v>
@@ -26781,7 +26781,7 @@
         <v>218</v>
       </c>
       <c r="D277" s="28" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E277" s="28">
         <v>2</v>
@@ -26819,7 +26819,7 @@
         <v>692</v>
       </c>
       <c r="D278" s="34" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E278" s="34" t="s">
         <v>694</v>
@@ -26857,7 +26857,7 @@
         <v>701</v>
       </c>
       <c r="D279" s="34" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E279" s="34" t="s">
         <v>703</v>
@@ -26895,7 +26895,7 @@
         <v>709</v>
       </c>
       <c r="D280" s="34" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E280" s="34" t="s">
         <v>694</v>
@@ -26933,7 +26933,7 @@
         <v>714</v>
       </c>
       <c r="D281" s="34" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E281" s="34" t="s">
         <v>694</v>
@@ -26971,7 +26971,7 @@
         <v>720</v>
       </c>
       <c r="D282" s="34" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E282" s="34" t="s">
         <v>694</v>
@@ -27009,7 +27009,7 @@
         <v>729</v>
       </c>
       <c r="D283" s="34" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E283" s="34" t="s">
         <v>694</v>
@@ -27047,7 +27047,7 @@
         <v>738</v>
       </c>
       <c r="D284" s="34" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E284" s="34" t="s">
         <v>694</v>
@@ -27085,7 +27085,7 @@
         <v>744</v>
       </c>
       <c r="D285" s="34" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E285" s="34" t="s">
         <v>694</v>
@@ -27123,7 +27123,7 @@
         <v>750</v>
       </c>
       <c r="D286" s="34" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E286" s="34" t="s">
         <v>703</v>
@@ -27161,7 +27161,7 @@
         <v>762</v>
       </c>
       <c r="D287" s="34" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E287" s="34" t="s">
         <v>694</v>
@@ -27199,7 +27199,7 @@
         <v>1818</v>
       </c>
       <c r="D288" s="36" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E288" s="36" t="s">
         <v>769</v>
@@ -27351,8 +27351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="C223" sqref="C223"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="B289" sqref="B289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -27445,7 +27445,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -27477,7 +27477,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -27589,7 +27589,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -27653,7 +27653,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -27877,7 +27877,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -27965,7 +27965,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -28045,7 +28045,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -28501,7 +28501,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -28853,7 +28853,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -28941,7 +28941,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -29469,7 +29469,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -29501,7 +29501,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">

--- a/app/import/DB_seoulhang.xlsx
+++ b/app/import/DB_seoulhang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="25520" windowHeight="15560" activeTab="5"/>
+    <workbookView xWindow="80" yWindow="440" windowWidth="25520" windowHeight="15560" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="6" r:id="rId1"/>
@@ -2810,10 +2810,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dongdaemun History &amp; Culture Park</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dongguk Univ.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2826,10 +2822,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Seoul(Gyeong-ui Line)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>City Hall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3282,643 +3274,651 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Gongdeok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gwangheungchang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daeheung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mapo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mapo-gu Office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mangwon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sangsu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ahyeon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aeogae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>World Cup Stadium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hapjeong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hongik Univ.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yangcheon-gu Office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mok-dong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sinmokdong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sinjeongnegeori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sinjeong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Omokgyo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Airport Market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magongnaru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gayang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gaehwa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gaehwasan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kkachisan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deungchon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balsan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banghwa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Songjeong </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sinbanghwa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yangcheon Hyanggyo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeomchang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ujangsan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeungmi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hwagok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gaebong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guro Digital Complex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namguro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daerim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dorimcheon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sindorim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oryu-dong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Onsu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cheonwang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daerim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gaerong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eumcheon-gu Office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gasan Digital Complex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doksan Station</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangsan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seonyudo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>National Assembly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daebang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mullae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saetgang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sinpung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeouinaru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeouido</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeongdeungpo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeongdeungpo-gu Office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeongdeungpo Market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boramae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namseong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nodeul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noryangjin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dongjak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sadang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sangdo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soongsil Univ.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sindaebang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sindaebang-samgeori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jangseungbaegi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Chongshin Univ.(Isu) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heukseok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nakseongdae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bongcheon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sillim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banpo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yangjae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jamwon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Express Bus Terminal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gubanpo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nambu Bus Terminal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Namtaeryeong </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naebang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bangbae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sapyeong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seocho</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinbanpo </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yangjae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cheonggyesan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bongeunsa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samseong Central</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seonjeongneung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suseo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apgujeong-rodeo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eonju</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gangnam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gangnam-gu Office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gaepo-dong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guryong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nonhyeon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daemosan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daecheong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daechi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Dogok </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maebong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Samseong </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seolleung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suseo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sinnonhyeon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sinsa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apgujeong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeoksam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Irwon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cheongdam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Hak-dong </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hangnyeoul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hanti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ogeum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Garakmarket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Geoyeo </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>National Police Hospital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macheon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mongchontoseong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Munjeong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bangi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bokjeong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seokchon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Songpa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Olympic Park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jamsilsaenae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jamsil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jamsillaru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jangji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sports complex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Gangdong </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gangdong-gu Office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Godeok </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gubeundari</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gil-dong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dunchon-dong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Myeongil </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sangil-dong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amsa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cheonho</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnHak-Home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Childrens Grand Park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gimpo Int l Airport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seoul Nat l Univ.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Yangjae Citizens Forest </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gyeongbokgung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dongdaemun H&amp;C Park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seoul(Gyeong-ui)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sookmyung W Univ.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hankuk Univ. of Foreign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sungshin W Univ. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Ewha Womans Univ.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gongdeok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gwangheungchang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Daeheung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mapo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mapo-gu Office</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mangwon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sangsu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ahyeon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aeogae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>World Cup Stadium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hapjeong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hongik Univ.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yangcheon-gu Office</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mok-dong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sinmokdong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sinjeongnegeori</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sinjeong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Omokgyo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Airport Market</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magongnaru</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gayang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gaehwa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gaehwasan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kkachisan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deungchon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Balsan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Banghwa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Songjeong </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sinbanghwa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yangcheon Hyanggyo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeomchang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ujangsan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jeungmi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hwagok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gaebong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guro Digital Complex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Namguro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Daerim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dorimcheon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sindorim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oryu-dong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Onsu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cheonwang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Daerim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gaerong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eumcheon-gu Office</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gasan Digital Complex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Doksan Station</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dangsan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seonyudo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Singil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>National Assembly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Daebang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mullae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Saetgang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sinpung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeouinaru</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeouido</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeongdeungpo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeongdeungpo-gu Office</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeongdeungpo Market</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boramae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Namseong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nodeul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Noryangjin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dongjak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sadang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sangdo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Soongsil Univ.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sindaebang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sindaebang-samgeori</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jangseungbaegi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Chongshin Univ.(Isu) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heukseok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nakseongdae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bongcheon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sillim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Banpo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yangjae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jamwon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Express Bus Terminal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gubanpo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nambu Bus Terminal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Namtaeryeong </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Naebang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bangbae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sapyeong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seocho</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinbanpo </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yangjae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cheonggyesan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bongeunsa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Samseong Central</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seonjeongneung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Suseo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apgujeong-rodeo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eonju</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gangnam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gangnam-gu Office</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gaepo-dong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guryong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nonhyeon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Daemosan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Daecheong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Daechi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Dogok </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maebong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Samseong </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seolleung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Suseo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sinnonhyeon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sinsa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apgujeong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeoksam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Irwon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cheongdam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Hak-dong </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hangnyeoul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hanti</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ogeum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Garakmarket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Geoyeo </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>National Police Hospital</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Macheon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mongchontoseong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Munjeong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bangi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bokjeong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seokchon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Songpa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Olympic Park</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jamsilsaenae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jamsil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jamsillaru</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jangji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sports complex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Gangdong </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gangdong-gu Office</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Godeok </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gubeundari</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gil-dong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dunchon-dong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Myeongil </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sangil-dong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amsa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cheonho</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnHak-Home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Childrens Grand Park</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Sungshin Womens Univ. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gimpo Int l Airport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seoul Nat l Univ.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Yangjae Citizens Forest </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sookmyung Women Univ.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gyeongbokgung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seoul Nat l Univ. of Edu.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hankuk Univ. of Foreign Stu.</t>
+    <t>Seoul Nat. Univ. of Edu.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5301,8 +5301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L288"/>
   <sheetViews>
-    <sheetView topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="D222" sqref="D222"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -16268,7 +16268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L312"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
       <selection activeCell="D264" sqref="D264"/>
     </sheetView>
   </sheetViews>
@@ -16331,7 +16331,7 @@
         <v>317</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="E2" s="28">
         <v>3</v>
@@ -16673,7 +16673,7 @@
         <v>2537</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>875</v>
+        <v>1146</v>
       </c>
       <c r="E11" s="28">
         <v>5</v>
@@ -16711,7 +16711,7 @@
         <v>322</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E12" s="28">
         <v>3</v>
@@ -16749,7 +16749,7 @@
         <v>424</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E13" s="28">
         <v>4</v>
@@ -16787,7 +16787,7 @@
         <v>150</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E14" s="28">
         <v>1</v>
@@ -16825,7 +16825,7 @@
         <v>1251</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>879</v>
+        <v>1147</v>
       </c>
       <c r="E15" s="28" t="s">
         <v>55</v>
@@ -16863,7 +16863,7 @@
         <v>151</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E16" s="28">
         <v>1</v>
@@ -16901,7 +16901,7 @@
         <v>206</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E17" s="28">
         <v>2</v>
@@ -16939,7 +16939,7 @@
         <v>323</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E18" s="28">
         <v>3</v>
@@ -16977,7 +16977,7 @@
         <v>320</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E19" s="28">
         <v>3</v>
@@ -17015,7 +17015,7 @@
         <v>2536</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E20" s="28">
         <v>5</v>
@@ -17053,7 +17053,7 @@
         <v>202</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E21" s="28">
         <v>2</v>
@@ -17091,7 +17091,7 @@
         <v>2538</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E22" s="28">
         <v>5</v>
@@ -17129,7 +17129,7 @@
         <v>423</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E23" s="28">
         <v>4</v>
@@ -17167,7 +17167,7 @@
         <v>425</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E24" s="28">
         <v>4</v>
@@ -17205,7 +17205,7 @@
         <v>2633</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E25" s="28">
         <v>6</v>
@@ -17243,7 +17243,7 @@
         <v>2630</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E26" s="28">
         <v>6</v>
@@ -17281,7 +17281,7 @@
         <v>2629</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E27" s="28">
         <v>6</v>
@@ -17319,7 +17319,7 @@
         <v>1009</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E28" s="28" t="s">
         <v>55</v>
@@ -17357,7 +17357,7 @@
         <v>427</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E29" s="28">
         <v>4</v>
@@ -17395,7 +17395,7 @@
         <v>429</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E30" s="28">
         <v>4</v>
@@ -17433,7 +17433,7 @@
         <v>1290</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E31" s="28" t="s">
         <v>55</v>
@@ -17471,7 +17471,7 @@
         <v>430</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E32" s="28">
         <v>4</v>
@@ -17509,7 +17509,7 @@
         <v>2631</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E33" s="28">
         <v>6</v>
@@ -17547,7 +17547,7 @@
         <v>2632</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E34" s="28">
         <v>6</v>
@@ -17585,7 +17585,7 @@
         <v>1010</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E35" s="28" t="s">
         <v>55</v>
@@ -17623,7 +17623,7 @@
         <v>1261</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E36" s="28" t="s">
         <v>55</v>
@@ -17661,7 +17661,7 @@
         <v>1002</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E37" s="28">
         <v>1</v>
@@ -17699,7 +17699,7 @@
         <v>324</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E38" s="28">
         <v>3</v>
@@ -17737,7 +17737,7 @@
         <v>2543</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E39" s="28">
         <v>5</v>
@@ -17775,7 +17775,7 @@
         <v>210</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E40" s="28">
         <v>2</v>
@@ -17813,7 +17813,7 @@
         <v>207</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E41" s="28">
         <v>2</v>
@@ -17851,7 +17851,7 @@
         <v>211</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E42" s="28">
         <v>2</v>
@@ -17889,7 +17889,7 @@
         <v>2539</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E43" s="28">
         <v>5</v>
@@ -17927,7 +17927,7 @@
         <v>245</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E44" s="28">
         <v>2</v>
@@ -17965,7 +17965,7 @@
         <v>1011</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E45" s="28" t="s">
         <v>55</v>
@@ -18003,7 +18003,7 @@
         <v>208</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E46" s="28">
         <v>2</v>
@@ -18041,7 +18041,7 @@
         <v>244</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E47" s="28">
         <v>2</v>
@@ -18079,7 +18079,7 @@
         <v>1012</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E48" s="28" t="s">
         <v>55</v>
@@ -18117,7 +18117,7 @@
         <v>209</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E49" s="28">
         <v>2</v>
@@ -18155,7 +18155,7 @@
         <v>2540</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E50" s="28">
         <v>5</v>
@@ -18193,7 +18193,7 @@
         <v>2542</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E51" s="28">
         <v>5</v>
@@ -18231,7 +18231,7 @@
         <v>1847</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E52" s="28" t="s">
         <v>21</v>
@@ -18269,7 +18269,7 @@
         <v>214</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E53" s="28">
         <v>2</v>
@@ -18307,7 +18307,7 @@
         <v>212</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E54" s="28">
         <v>2</v>
@@ -18345,7 +18345,7 @@
         <v>2547</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E55" s="28">
         <v>5</v>
@@ -18383,7 +18383,7 @@
         <v>213</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E56" s="28">
         <v>2</v>
@@ -18421,7 +18421,7 @@
         <v>2727</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E57" s="28">
         <v>7</v>
@@ -18459,7 +18459,7 @@
         <v>2730</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E58" s="28">
         <v>7</v>
@@ -18497,7 +18497,7 @@
         <v>2546</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E59" s="28">
         <v>5</v>
@@ -18535,7 +18535,7 @@
         <v>2728</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="E60" s="28">
         <v>7</v>
@@ -18573,7 +18573,7 @@
         <v>2726</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E61" s="28">
         <v>7</v>
@@ -18611,7 +18611,7 @@
         <v>155</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E62" s="28">
         <v>1</v>
@@ -18649,7 +18649,7 @@
         <v>156</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E63" s="28">
         <v>1</v>
@@ -18687,7 +18687,7 @@
         <v>1017</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E64" s="28">
         <v>1</v>
@@ -18725,7 +18725,7 @@
         <v>1016</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="E65" s="28">
         <v>1</v>
@@ -18763,7 +18763,7 @@
         <v>250</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E66" s="28">
         <v>2</v>
@@ -18801,7 +18801,7 @@
         <v>2544</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E67" s="28">
         <v>5</v>
@@ -18839,7 +18839,7 @@
         <v>157</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E68" s="28">
         <v>1</v>
@@ -18877,7 +18877,7 @@
         <v>158</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E69" s="28">
         <v>1</v>
@@ -18915,7 +18915,7 @@
         <v>1015</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E70" s="28">
         <v>1</v>
@@ -18953,7 +18953,7 @@
         <v>1203</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E71" s="28" t="s">
         <v>55</v>
@@ -18991,7 +18991,7 @@
         <v>2720</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E72" s="28">
         <v>7</v>
@@ -19029,7 +19029,7 @@
         <v>2723</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E73" s="28">
         <v>7</v>
@@ -19067,7 +19067,7 @@
         <v>2648</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E74" s="28">
         <v>6</v>
@@ -19105,7 +19105,7 @@
         <v>2724</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E75" s="28">
         <v>7</v>
@@ -19143,7 +19143,7 @@
         <v>2722</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E76" s="28">
         <v>7</v>
@@ -19181,7 +19181,7 @@
         <v>2725</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E77" s="28">
         <v>7</v>
@@ -19219,7 +19219,7 @@
         <v>1201</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E78" s="28" t="s">
         <v>55</v>
@@ -19257,7 +19257,7 @@
         <v>2721</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E79" s="28">
         <v>7</v>
@@ -19295,7 +19295,7 @@
         <v>1204</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E80" s="28" t="s">
         <v>55</v>
@@ -19333,7 +19333,7 @@
         <v>2641</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E81" s="28">
         <v>6</v>
@@ -19371,7 +19371,7 @@
         <v>417</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E82" s="28">
         <v>4</v>
@@ -19409,7 +19409,7 @@
         <v>2644</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E83" s="28">
         <v>6</v>
@@ -19447,7 +19447,7 @@
         <v>2639</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E84" s="28">
         <v>6</v>
@@ -19485,7 +19485,7 @@
         <v>2643</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E85" s="28">
         <v>6</v>
@@ -19523,7 +19523,7 @@
         <v>418</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>1145</v>
+        <v>1150</v>
       </c>
       <c r="E86" s="28">
         <v>4</v>
@@ -19561,7 +19561,7 @@
         <v>2640</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E87" s="28">
         <v>6</v>
@@ -19599,7 +19599,7 @@
         <v>2642</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E88" s="28">
         <v>6</v>
@@ -19637,7 +19637,7 @@
         <v>419</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E89" s="28">
         <v>4</v>
@@ -19675,7 +19675,7 @@
         <v>415</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E90" s="28">
         <v>4</v>
@@ -19713,7 +19713,7 @@
         <v>416</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E91" s="28">
         <v>4</v>
@@ -19751,7 +19751,7 @@
         <v>414</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E92" s="28">
         <v>4</v>
@@ -19789,7 +19789,7 @@
         <v>1021</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E93" s="28">
         <v>1</v>
@@ -19827,7 +19827,7 @@
         <v>1902</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E94" s="28">
         <v>1</v>
@@ -19865,7 +19865,7 @@
         <v>2712</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E95" s="28">
         <v>7</v>
@@ -19903,7 +19903,7 @@
         <v>1901</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E96" s="28">
         <v>1</v>
@@ -19941,7 +19941,7 @@
         <v>413</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E97" s="28">
         <v>4</v>
@@ -19979,7 +19979,7 @@
         <v>1022</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E98" s="28">
         <v>1</v>
@@ -20017,7 +20017,7 @@
         <v>2718</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E99" s="28">
         <v>7</v>
@@ -20055,7 +20055,7 @@
         <v>1019</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E100" s="28">
         <v>1</v>
@@ -20093,7 +20093,7 @@
         <v>2715</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E101" s="28">
         <v>7</v>
@@ -20131,7 +20131,7 @@
         <v>409</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E102" s="28">
         <v>4</v>
@@ -20169,7 +20169,7 @@
         <v>2714</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E103" s="28">
         <v>7</v>
@@ -20207,7 +20207,7 @@
         <v>410</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E104" s="28">
         <v>4</v>
@@ -20245,7 +20245,7 @@
         <v>1018</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E105" s="28">
         <v>1</v>
@@ -20283,7 +20283,7 @@
         <v>2713</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E106" s="28">
         <v>7</v>
@@ -20321,7 +20321,7 @@
         <v>1020</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E107" s="28">
         <v>1</v>
@@ -20359,7 +20359,7 @@
         <v>2716</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E108" s="28">
         <v>7</v>
@@ -20397,7 +20397,7 @@
         <v>2646</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E109" s="28">
         <v>6</v>
@@ -20435,7 +20435,7 @@
         <v>2717</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E110" s="28">
         <v>7</v>
@@ -20473,7 +20473,7 @@
         <v>2647</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E111" s="28">
         <v>6</v>
@@ -20511,7 +20511,7 @@
         <v>312</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E112" s="28">
         <v>3</v>
@@ -20549,7 +20549,7 @@
         <v>2616</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E113" s="28">
         <v>6</v>
@@ -20587,7 +20587,7 @@
         <v>310</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E114" s="28">
         <v>3</v>
@@ -20625,7 +20625,7 @@
         <v>313</v>
       </c>
       <c r="D115" s="28" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E115" s="28">
         <v>3</v>
@@ -20663,7 +20663,7 @@
         <v>2614</v>
       </c>
       <c r="D116" s="28" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E116" s="28">
         <v>6</v>
@@ -20701,7 +20701,7 @@
         <v>1266</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E117" s="28" t="s">
         <v>55</v>
@@ -20739,7 +20739,7 @@
         <v>2613</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E118" s="28">
         <v>6</v>
@@ -20777,7 +20777,7 @@
         <v>2617</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E119" s="28">
         <v>6</v>
@@ -20815,7 +20815,7 @@
         <v>1267</v>
       </c>
       <c r="D120" s="28" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E120" s="28" t="s">
         <v>55</v>
@@ -20853,7 +20853,7 @@
         <v>2612</v>
       </c>
       <c r="D121" s="28" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E121" s="28">
         <v>6</v>
@@ -20891,7 +20891,7 @@
         <v>311</v>
       </c>
       <c r="D122" s="28" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E122" s="28">
         <v>3</v>
@@ -20929,7 +20929,7 @@
         <v>2611</v>
       </c>
       <c r="D123" s="28" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E123" s="28">
         <v>6</v>
@@ -20967,7 +20967,7 @@
         <v>2618</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E124" s="28">
         <v>6</v>
@@ -21005,7 +21005,7 @@
         <v>1252</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E125" s="28" t="s">
         <v>55</v>
@@ -21043,7 +21043,7 @@
         <v>316</v>
       </c>
       <c r="D126" s="28" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E126" s="28">
         <v>3</v>
@@ -21081,7 +21081,7 @@
         <v>315</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E127" s="28">
         <v>3</v>
@@ -21119,7 +21119,7 @@
         <v>2533</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E128" s="28">
         <v>5</v>
@@ -21157,7 +21157,7 @@
         <v>243</v>
       </c>
       <c r="D129" s="28" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E129" s="28">
         <v>2</v>
@@ -21195,7 +21195,7 @@
         <v>314</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E130" s="28">
         <v>3</v>
@@ -21233,7 +21233,7 @@
         <v>1263</v>
       </c>
       <c r="D131" s="28" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E131" s="28" t="s">
         <v>55</v>
@@ -21271,7 +21271,7 @@
         <v>240</v>
       </c>
       <c r="D132" s="28" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E132" s="28">
         <v>2</v>
@@ -21309,7 +21309,7 @@
         <v>241</v>
       </c>
       <c r="D133" s="28" t="s">
-        <v>993</v>
+        <v>1151</v>
       </c>
       <c r="E133" s="28">
         <v>2</v>
@@ -21347,7 +21347,7 @@
         <v>2530</v>
       </c>
       <c r="D134" s="28" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E134" s="28">
         <v>5</v>
@@ -21385,7 +21385,7 @@
         <v>2625</v>
       </c>
       <c r="D135" s="28" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E135" s="28">
         <v>6</v>
@@ -21423,7 +21423,7 @@
         <v>2626</v>
       </c>
       <c r="D136" s="28" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E136" s="28">
         <v>6</v>
@@ -21461,7 +21461,7 @@
         <v>2529</v>
       </c>
       <c r="D137" s="28" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="E137" s="28">
         <v>5</v>
@@ -21499,7 +21499,7 @@
         <v>2621</v>
       </c>
       <c r="D138" s="28" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="E138" s="28">
         <v>6</v>
@@ -21537,7 +21537,7 @@
         <v>2622</v>
       </c>
       <c r="D139" s="28" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E139" s="28">
         <v>6</v>
@@ -21575,7 +21575,7 @@
         <v>2624</v>
       </c>
       <c r="D140" s="28" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E140" s="28">
         <v>6</v>
@@ -21613,7 +21613,7 @@
         <v>242</v>
       </c>
       <c r="D141" s="28" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="E141" s="28">
         <v>2</v>
@@ -21651,7 +21651,7 @@
         <v>2531</v>
       </c>
       <c r="D142" s="28" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="E142" s="28">
         <v>5</v>
@@ -21689,7 +21689,7 @@
         <v>2620</v>
       </c>
       <c r="D143" s="28" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E143" s="28">
         <v>6</v>
@@ -21727,7 +21727,7 @@
         <v>2623</v>
       </c>
       <c r="D144" s="28" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E144" s="28">
         <v>6</v>
@@ -21765,7 +21765,7 @@
         <v>239</v>
       </c>
       <c r="D145" s="28" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E145" s="28">
         <v>2</v>
@@ -21803,7 +21803,7 @@
         <v>248</v>
       </c>
       <c r="D146" s="28" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E146" s="28">
         <v>2</v>
@@ -21841,7 +21841,7 @@
         <v>2521</v>
       </c>
       <c r="D147" s="28" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E147" s="28">
         <v>5</v>
@@ -21879,7 +21879,7 @@
         <v>4111</v>
       </c>
       <c r="D148" s="28" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E148" s="28">
         <v>9</v>
@@ -21917,7 +21917,7 @@
         <v>2520</v>
       </c>
       <c r="D149" s="28" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E149" s="28">
         <v>5</v>
@@ -21955,7 +21955,7 @@
         <v>249</v>
       </c>
       <c r="D150" s="28" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E150" s="28">
         <v>2</v>
@@ -21993,7 +21993,7 @@
         <v>2522</v>
       </c>
       <c r="D151" s="28" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="E151" s="28">
         <v>5</v>
@@ -22031,7 +22031,7 @@
         <v>4103</v>
       </c>
       <c r="D152" s="28" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="E152" s="28">
         <v>9</v>
@@ -22069,7 +22069,7 @@
         <v>4105</v>
       </c>
       <c r="D153" s="28" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="E153" s="28">
         <v>9</v>
@@ -22107,7 +22107,7 @@
         <v>4107</v>
       </c>
       <c r="D154" s="28" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E154" s="28">
         <v>9</v>
@@ -22145,7 +22145,7 @@
         <v>4101</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E155" s="28">
         <v>9</v>
@@ -22183,7 +22183,7 @@
         <v>2512</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E156" s="28">
         <v>5</v>
@@ -22221,7 +22221,7 @@
         <v>2513</v>
       </c>
       <c r="D157" s="28" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="E157" s="28">
         <v>5</v>
@@ -22259,7 +22259,7 @@
         <v>2519</v>
       </c>
       <c r="D158" s="28" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E158" s="28">
         <v>5</v>
@@ -22297,7 +22297,7 @@
         <v>4109</v>
       </c>
       <c r="D159" s="28" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E159" s="28">
         <v>9</v>
@@ -22335,7 +22335,7 @@
         <v>2515</v>
       </c>
       <c r="D160" s="28" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E160" s="28">
         <v>5</v>
@@ -22373,7 +22373,7 @@
         <v>2516</v>
       </c>
       <c r="D161" s="28" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E161" s="28">
         <v>5</v>
@@ -22411,7 +22411,7 @@
         <v>2511</v>
       </c>
       <c r="D162" s="28" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E162" s="28">
         <v>5</v>
@@ -22449,7 +22449,7 @@
         <v>2514</v>
       </c>
       <c r="D163" s="28" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E163" s="28">
         <v>5</v>
@@ -22487,7 +22487,7 @@
         <v>4104</v>
       </c>
       <c r="D164" s="28" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E164" s="28">
         <v>9</v>
@@ -22525,7 +22525,7 @@
         <v>4106</v>
       </c>
       <c r="D165" s="28" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E165" s="28">
         <v>9</v>
@@ -22563,7 +22563,7 @@
         <v>4110</v>
       </c>
       <c r="D166" s="28" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="E166" s="28">
         <v>9</v>
@@ -22601,7 +22601,7 @@
         <v>2517</v>
       </c>
       <c r="D167" s="28" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E167" s="28">
         <v>5</v>
@@ -22639,7 +22639,7 @@
         <v>4108</v>
       </c>
       <c r="D168" s="28" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="E168" s="28">
         <v>9</v>
@@ -22677,7 +22677,7 @@
         <v>2518</v>
       </c>
       <c r="D169" s="28" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E169" s="28">
         <v>5</v>
@@ -22715,7 +22715,7 @@
         <v>1801</v>
       </c>
       <c r="D170" s="28" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E170" s="28">
         <v>1</v>
@@ -22753,7 +22753,7 @@
         <v>1701</v>
       </c>
       <c r="D171" s="28" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="E171" s="28">
         <v>1</v>
@@ -22791,7 +22791,7 @@
         <v>232</v>
       </c>
       <c r="D172" s="28" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="E172" s="28">
         <v>2</v>
@@ -22829,7 +22829,7 @@
         <v>1813</v>
       </c>
       <c r="D173" s="28" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="E173" s="28">
         <v>1</v>
@@ -22867,7 +22867,7 @@
         <v>2747</v>
       </c>
       <c r="D174" s="28" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="E174" s="28">
         <v>7</v>
@@ -22905,7 +22905,7 @@
         <v>233</v>
       </c>
       <c r="D175" s="28" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E175" s="28">
         <v>2</v>
@@ -22943,7 +22943,7 @@
         <v>247</v>
       </c>
       <c r="D176" s="28" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="E176" s="28">
         <v>2</v>
@@ -22981,7 +22981,7 @@
         <v>1007</v>
       </c>
       <c r="D177" s="28" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E177" s="28">
         <v>1</v>
@@ -23019,7 +23019,7 @@
         <v>1802</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="E178" s="28">
         <v>1</v>
@@ -23057,7 +23057,7 @@
         <v>1821</v>
       </c>
       <c r="D179" s="28" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="E179" s="28">
         <v>1</v>
@@ -23095,7 +23095,7 @@
         <v>2751</v>
       </c>
       <c r="D180" s="28" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="E180" s="28">
         <v>7</v>
@@ -23133,7 +23133,7 @@
         <v>2746</v>
       </c>
       <c r="D181" s="28" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E181" s="28">
         <v>7</v>
@@ -23171,7 +23171,7 @@
         <v>2559</v>
       </c>
       <c r="D182" s="28" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="E182" s="28">
         <v>5</v>
@@ -23209,7 +23209,7 @@
         <v>1702</v>
       </c>
       <c r="D183" s="28" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="E183" s="28">
         <v>1</v>
@@ -23247,7 +23247,7 @@
         <v>1703</v>
       </c>
       <c r="D184" s="28" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="E184" s="28">
         <v>1</v>
@@ -23285,7 +23285,7 @@
         <v>1714</v>
       </c>
       <c r="D185" s="28" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="E185" s="28">
         <v>1</v>
@@ -23323,7 +23323,7 @@
         <v>4113</v>
       </c>
       <c r="D186" s="28" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E186" s="28">
         <v>9</v>
@@ -23361,7 +23361,7 @@
         <v>4112</v>
       </c>
       <c r="D187" s="28" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="E187" s="28">
         <v>9</v>
@@ -23399,7 +23399,7 @@
         <v>2526</v>
       </c>
       <c r="D188" s="28" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="E188" s="28">
         <v>5</v>
@@ -23437,7 +23437,7 @@
         <v>4114</v>
       </c>
       <c r="D189" s="28" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="E189" s="28">
         <v>9</v>
@@ -23475,7 +23475,7 @@
         <v>1005</v>
       </c>
       <c r="D190" s="28" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="E190" s="28">
         <v>1</v>
@@ -23513,7 +23513,7 @@
         <v>235</v>
       </c>
       <c r="D191" s="28" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="E191" s="28">
         <v>2</v>
@@ -23551,7 +23551,7 @@
         <v>4116</v>
       </c>
       <c r="D192" s="28" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="E192" s="28">
         <v>9</v>
@@ -23589,7 +23589,7 @@
         <v>1032</v>
       </c>
       <c r="D193" s="28" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="E193" s="28">
         <v>1</v>
@@ -23627,7 +23627,7 @@
         <v>2745</v>
       </c>
       <c r="D194" s="28" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E194" s="28">
         <v>7</v>
@@ -23665,7 +23665,7 @@
         <v>2528</v>
       </c>
       <c r="D195" s="28" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="E195" s="28">
         <v>5</v>
@@ -23703,7 +23703,7 @@
         <v>2527</v>
       </c>
       <c r="D196" s="28" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="E196" s="28">
         <v>5</v>
@@ -23741,7 +23741,7 @@
         <v>1006</v>
       </c>
       <c r="D197" s="28" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="E197" s="28">
         <v>1</v>
@@ -23779,7 +23779,7 @@
         <v>2524</v>
       </c>
       <c r="D198" s="28" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="E198" s="28">
         <v>5</v>
@@ -23817,7 +23817,7 @@
         <v>2525</v>
       </c>
       <c r="D199" s="28" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="E199" s="28">
         <v>5</v>
@@ -23855,7 +23855,7 @@
         <v>2744</v>
       </c>
       <c r="D200" s="28" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E200" s="28">
         <v>7</v>
@@ -23893,7 +23893,7 @@
         <v>2739</v>
       </c>
       <c r="D201" s="28" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="E201" s="28">
         <v>7</v>
@@ -23931,7 +23931,7 @@
         <v>4118</v>
       </c>
       <c r="D202" s="28" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="E202" s="28">
         <v>9</v>
@@ -23969,7 +23969,7 @@
         <v>1004</v>
       </c>
       <c r="D203" s="28" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="E203" s="28">
         <v>1</v>
@@ -24007,7 +24007,7 @@
         <v>431</v>
       </c>
       <c r="D204" s="28" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="E204" s="28">
         <v>4</v>
@@ -24045,7 +24045,7 @@
         <v>433</v>
       </c>
       <c r="D205" s="28" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="E205" s="28">
         <v>4</v>
@@ -24083,7 +24083,7 @@
         <v>2741</v>
       </c>
       <c r="D206" s="28" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="E206" s="28">
         <v>7</v>
@@ -24121,7 +24121,7 @@
         <v>2740</v>
       </c>
       <c r="D207" s="28" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="E207" s="28">
         <v>7</v>
@@ -24159,7 +24159,7 @@
         <v>231</v>
       </c>
       <c r="D208" s="28" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="E208" s="28">
         <v>2</v>
@@ -24197,7 +24197,7 @@
         <v>2743</v>
       </c>
       <c r="D209" s="28" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="E209" s="28">
         <v>7</v>
@@ -24235,7 +24235,7 @@
         <v>2742</v>
       </c>
       <c r="D210" s="28" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="E210" s="28">
         <v>7</v>
@@ -24273,7 +24273,7 @@
         <v>2738</v>
       </c>
       <c r="D211" s="28" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="E211" s="28">
         <v>7</v>
@@ -24311,7 +24311,7 @@
         <v>4119</v>
       </c>
       <c r="D212" s="28" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="E212" s="28">
         <v>9</v>
@@ -24349,7 +24349,7 @@
         <v>227</v>
       </c>
       <c r="D213" s="28" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="E213" s="28">
         <v>2</v>
@@ -24387,7 +24387,7 @@
         <v>229</v>
       </c>
       <c r="D214" s="28" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="E214" s="28">
         <v>2</v>
@@ -24425,7 +24425,7 @@
         <v>228</v>
       </c>
       <c r="D215" s="28" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="E215" s="28">
         <v>2</v>
@@ -24463,7 +24463,7 @@
         <v>230</v>
       </c>
       <c r="D216" s="28" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="E216" s="28">
         <v>2</v>
@@ -24501,7 +24501,7 @@
         <v>2735</v>
       </c>
       <c r="D217" s="28" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="E217" s="28">
         <v>7</v>
@@ -24539,7 +24539,7 @@
         <v>332</v>
       </c>
       <c r="D218" s="28" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E218" s="28">
         <v>3</v>
@@ -24577,7 +24577,7 @@
         <v>328</v>
       </c>
       <c r="D219" s="28" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="E219" s="28">
         <v>3</v>
@@ -24615,7 +24615,7 @@
         <v>329</v>
       </c>
       <c r="D220" s="28" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="E220" s="28">
         <v>3</v>
@@ -24653,7 +24653,7 @@
         <v>223</v>
       </c>
       <c r="D221" s="28" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="E221" s="28">
         <v>2</v>
@@ -24691,7 +24691,7 @@
         <v>4121</v>
       </c>
       <c r="D222" s="28" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="E222" s="28">
         <v>9</v>
@@ -24729,7 +24729,7 @@
         <v>331</v>
       </c>
       <c r="D223" s="28" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="E223" s="28">
         <v>3</v>
@@ -24767,7 +24767,7 @@
         <v>434</v>
       </c>
       <c r="D224" s="28" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="E224" s="28">
         <v>4</v>
@@ -24805,7 +24805,7 @@
         <v>2737</v>
       </c>
       <c r="D225" s="28" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E225" s="28">
         <v>7</v>
@@ -24843,7 +24843,7 @@
         <v>225</v>
       </c>
       <c r="D226" s="28" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="E226" s="28">
         <v>2</v>
@@ -24881,7 +24881,7 @@
         <v>4124</v>
       </c>
       <c r="D227" s="28" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="E227" s="28">
         <v>9</v>
@@ -24919,7 +24919,7 @@
         <v>224</v>
       </c>
       <c r="D228" s="28" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="E228" s="28">
         <v>2</v>
@@ -24957,7 +24957,7 @@
         <v>4122</v>
       </c>
       <c r="D229" s="28" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="E229" s="28">
         <v>9</v>
@@ -24995,7 +24995,7 @@
         <v>4308</v>
       </c>
       <c r="D230" s="28" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="E230" s="28" t="s">
         <v>24</v>
@@ -25033,7 +25033,7 @@
         <v>4309</v>
       </c>
       <c r="D231" s="28" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="E231" s="28" t="s">
         <v>24</v>
@@ -25071,7 +25071,7 @@
         <v>4310</v>
       </c>
       <c r="D232" s="28" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="E232" s="28" t="s">
         <v>24</v>
@@ -25109,7 +25109,7 @@
         <v>4129</v>
       </c>
       <c r="D233" s="28" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="E233" s="28">
         <v>9</v>
@@ -25147,7 +25147,7 @@
         <v>4128</v>
       </c>
       <c r="D234" s="28" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="E234" s="28">
         <v>9</v>
@@ -25185,7 +25185,7 @@
         <v>1850</v>
       </c>
       <c r="D235" s="28" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E235" s="28" t="s">
         <v>21</v>
@@ -25223,7 +25223,7 @@
         <v>339</v>
       </c>
       <c r="D236" s="28" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E236" s="28">
         <v>3</v>
@@ -25261,7 +25261,7 @@
         <v>1848</v>
       </c>
       <c r="D237" s="28" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="E237" s="28" t="s">
         <v>21</v>
@@ -25299,7 +25299,7 @@
         <v>4126</v>
       </c>
       <c r="D238" s="28" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="E238" s="28">
         <v>9</v>
@@ -25337,7 +25337,7 @@
         <v>4307</v>
       </c>
       <c r="D239" s="28" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E239" s="28" t="s">
         <v>24</v>
@@ -25375,7 +25375,7 @@
         <v>1849</v>
       </c>
       <c r="D240" s="28" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="E240" s="28" t="s">
         <v>21</v>
@@ -25413,7 +25413,7 @@
         <v>1027</v>
       </c>
       <c r="D241" s="28" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="E241" s="28" t="s">
         <v>21</v>
@@ -25451,7 +25451,7 @@
         <v>1026</v>
       </c>
       <c r="D242" s="28" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="E242" s="28" t="s">
         <v>21</v>
@@ -25489,7 +25489,7 @@
         <v>2734</v>
       </c>
       <c r="D243" s="28" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="E243" s="28">
         <v>7</v>
@@ -25527,7 +25527,7 @@
         <v>1028</v>
       </c>
       <c r="D244" s="28" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="E244" s="28" t="s">
         <v>21</v>
@@ -25565,7 +25565,7 @@
         <v>337</v>
       </c>
       <c r="D245" s="28" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="E245" s="28">
         <v>3</v>
@@ -25603,7 +25603,7 @@
         <v>335</v>
       </c>
       <c r="D246" s="28" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="E246" s="28">
         <v>3</v>
@@ -25641,7 +25641,7 @@
         <v>1025</v>
       </c>
       <c r="D247" s="28" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="E247" s="28" t="s">
         <v>21</v>
@@ -25679,7 +25679,7 @@
         <v>333</v>
       </c>
       <c r="D248" s="28" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="E248" s="28">
         <v>3</v>
@@ -25717,7 +25717,7 @@
         <v>219</v>
       </c>
       <c r="D249" s="28" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E249" s="28">
         <v>2</v>
@@ -25755,7 +25755,7 @@
         <v>220</v>
       </c>
       <c r="D250" s="28" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="E250" s="28">
         <v>2</v>
@@ -25793,7 +25793,7 @@
         <v>1030</v>
       </c>
       <c r="D251" s="28" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="E251" s="28" t="s">
         <v>21</v>
@@ -25831,7 +25831,7 @@
         <v>4125</v>
       </c>
       <c r="D252" s="28" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="E252" s="28">
         <v>9</v>
@@ -25869,7 +25869,7 @@
         <v>327</v>
       </c>
       <c r="D253" s="28" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="E253" s="28">
         <v>3</v>
@@ -25907,7 +25907,7 @@
         <v>326</v>
       </c>
       <c r="D254" s="28" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="E254" s="28">
         <v>3</v>
@@ -25945,7 +25945,7 @@
         <v>221</v>
       </c>
       <c r="D255" s="28" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="E255" s="28">
         <v>2</v>
@@ -25983,7 +25983,7 @@
         <v>338</v>
       </c>
       <c r="D256" s="28" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="E256" s="28">
         <v>3</v>
@@ -26021,7 +26021,7 @@
         <v>2731</v>
       </c>
       <c r="D257" s="28" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="E257" s="28">
         <v>7</v>
@@ -26059,7 +26059,7 @@
         <v>2733</v>
       </c>
       <c r="D258" s="28" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="E258" s="28">
         <v>7</v>
@@ -26097,7 +26097,7 @@
         <v>336</v>
       </c>
       <c r="D259" s="28" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="E259" s="28">
         <v>3</v>
@@ -26135,7 +26135,7 @@
         <v>1024</v>
       </c>
       <c r="D260" s="28" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="E260" s="28" t="s">
         <v>21</v>
@@ -26173,7 +26173,7 @@
         <v>342</v>
       </c>
       <c r="D261" s="28" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="E261" s="28">
         <v>3</v>
@@ -26211,7 +26211,7 @@
         <v>340</v>
       </c>
       <c r="D262" s="28" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="E262" s="28">
         <v>3</v>
@@ -26249,7 +26249,7 @@
         <v>2560</v>
       </c>
       <c r="D263" s="28" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="E263" s="28">
         <v>5</v>
@@ -26287,7 +26287,7 @@
         <v>341</v>
       </c>
       <c r="D264" s="28" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="E264" s="28">
         <v>3</v>
@@ -26325,7 +26325,7 @@
         <v>2561</v>
       </c>
       <c r="D265" s="28" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="E265" s="28">
         <v>5</v>
@@ -26363,7 +26363,7 @@
         <v>2814</v>
       </c>
       <c r="D266" s="28" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="E266" s="28">
         <v>8</v>
@@ -26401,7 +26401,7 @@
         <v>2819</v>
       </c>
       <c r="D267" s="28" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="E267" s="28">
         <v>8</v>
@@ -26439,7 +26439,7 @@
         <v>2557</v>
       </c>
       <c r="D268" s="28" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="E268" s="28">
         <v>5</v>
@@ -26477,7 +26477,7 @@
         <v>1031</v>
       </c>
       <c r="D269" s="28" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="E269" s="28" t="s">
         <v>21</v>
@@ -26515,7 +26515,7 @@
         <v>2816</v>
       </c>
       <c r="D270" s="28" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="E270" s="28">
         <v>8</v>
@@ -26553,7 +26553,7 @@
         <v>2817</v>
       </c>
       <c r="D271" s="28" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="E271" s="28">
         <v>8</v>
@@ -26591,7 +26591,7 @@
         <v>2556</v>
       </c>
       <c r="D272" s="28" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="E272" s="28">
         <v>5</v>
@@ -26629,7 +26629,7 @@
         <v>216</v>
       </c>
       <c r="D273" s="28" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="E273" s="28">
         <v>2</v>
@@ -26667,7 +26667,7 @@
         <v>215</v>
       </c>
       <c r="D274" s="28" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E274" s="28">
         <v>2</v>
@@ -26705,7 +26705,7 @@
         <v>217</v>
       </c>
       <c r="D275" s="28" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="E275" s="28">
         <v>2</v>
@@ -26743,7 +26743,7 @@
         <v>2820</v>
       </c>
       <c r="D276" s="28" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="E276" s="28">
         <v>8</v>
@@ -26781,7 +26781,7 @@
         <v>218</v>
       </c>
       <c r="D277" s="28" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="E277" s="28">
         <v>2</v>
@@ -26819,7 +26819,7 @@
         <v>692</v>
       </c>
       <c r="D278" s="34" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="E278" s="34" t="s">
         <v>694</v>
@@ -26857,7 +26857,7 @@
         <v>701</v>
       </c>
       <c r="D279" s="34" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="E279" s="34" t="s">
         <v>703</v>
@@ -26895,7 +26895,7 @@
         <v>709</v>
       </c>
       <c r="D280" s="34" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="E280" s="34" t="s">
         <v>694</v>
@@ -26933,7 +26933,7 @@
         <v>714</v>
       </c>
       <c r="D281" s="34" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="E281" s="34" t="s">
         <v>694</v>
@@ -26971,7 +26971,7 @@
         <v>720</v>
       </c>
       <c r="D282" s="34" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="E282" s="34" t="s">
         <v>694</v>
@@ -27009,7 +27009,7 @@
         <v>729</v>
       </c>
       <c r="D283" s="34" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="E283" s="34" t="s">
         <v>694</v>
@@ -27047,7 +27047,7 @@
         <v>738</v>
       </c>
       <c r="D284" s="34" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="E284" s="34" t="s">
         <v>694</v>
@@ -27085,7 +27085,7 @@
         <v>744</v>
       </c>
       <c r="D285" s="34" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="E285" s="34" t="s">
         <v>694</v>
@@ -27123,7 +27123,7 @@
         <v>750</v>
       </c>
       <c r="D286" s="34" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="E286" s="34" t="s">
         <v>703</v>
@@ -27161,7 +27161,7 @@
         <v>762</v>
       </c>
       <c r="D287" s="34" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="E287" s="34" t="s">
         <v>694</v>
@@ -27199,7 +27199,7 @@
         <v>1818</v>
       </c>
       <c r="D288" s="36" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="E288" s="36" t="s">
         <v>769</v>
@@ -27351,7 +27351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B289" sqref="B289"/>
     </sheetView>
   </sheetViews>

--- a/app/import/DB_seoulhang.xlsx
+++ b/app/import/DB_seoulhang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="25520" windowHeight="15560" activeTab="3"/>
+    <workbookView xWindow="80" yWindow="440" windowWidth="25520" windowHeight="15560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="1823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="1824">
   <si>
     <t>region_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6742,6 +6742,10 @@
   </si>
   <si>
     <t>same with this station name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 북쪽에 위치한 한옥동네라는 뜻으로 왕족, 양반, 관료 출신들이 살았던 고급 가옥이 대부분이라 하여서 일각에서는 '양반촌', '양반 동네' 라고도 불린 이곳은?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8394,8 +8398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L284"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -8585,7 +8589,7 @@
         <v>126.985443</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>517</v>
+        <v>1823</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>518</v>
@@ -19152,7 +19156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L308"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>

--- a/app/import/DB_seoulhang.xlsx
+++ b/app/import/DB_seoulhang.xlsx
@@ -9004,11 +9004,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The information of 25 area in Seoul was updated !!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You can register user quiz!!!!!</t>
+    <t>The information of 25 area in Seoul was updated!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can register user quiz!!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -32068,7 +32068,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>

--- a/app/import/DB_seoulhang.xlsx
+++ b/app/import/DB_seoulhang.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3212" uniqueCount="2404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3214" uniqueCount="2406">
   <si>
     <t>region_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8893,10 +8893,6 @@
   </si>
   <si>
     <t>BlackbeanNoodles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 퀴즈를 등록 할 수 있습니다!!!!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -9008,7 +9004,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>유저 퀴즈를 등록 할 수 있습니다!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>You can register user quiz!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로고침을 원하시면 설정창에서 확인을 누르세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To refresh, Please touch Confirm in the Setting menu.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11193,10 +11201,10 @@
         <v>434</v>
       </c>
       <c r="K20" s="39" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="L20" s="47" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -11500,7 +11508,7 @@
         <v>1583</v>
       </c>
       <c r="L28" s="47" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -12412,7 +12420,7 @@
         <v>1864</v>
       </c>
       <c r="L52" s="47" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -12716,7 +12724,7 @@
         <v>1911</v>
       </c>
       <c r="L60" s="47" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -13400,7 +13408,7 @@
         <v>2107</v>
       </c>
       <c r="L78" s="47" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -14730,7 +14738,7 @@
         <v>2209</v>
       </c>
       <c r="L113" s="47" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -15490,7 +15498,7 @@
         <v>2096</v>
       </c>
       <c r="L133" s="47" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -18188,7 +18196,7 @@
         <v>1152</v>
       </c>
       <c r="L204" s="47" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
@@ -18416,7 +18424,7 @@
         <v>1171</v>
       </c>
       <c r="L210" s="47" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
@@ -18834,7 +18842,7 @@
         <v>1200</v>
       </c>
       <c r="L221" s="47" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
@@ -19176,7 +19184,7 @@
         <v>1224</v>
       </c>
       <c r="L230" s="47" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
@@ -19252,7 +19260,7 @@
         <v>1453</v>
       </c>
       <c r="L232" s="47" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
@@ -20196,7 +20204,7 @@
         <v>1438</v>
       </c>
       <c r="J257" s="54" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="K257" s="39" t="s">
         <v>1437</v>
@@ -22285,7 +22293,7 @@
         <v>1585</v>
       </c>
       <c r="L28" s="19" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
@@ -22741,7 +22749,7 @@
         <v>1637</v>
       </c>
       <c r="L40" s="19" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
@@ -24635,7 +24643,7 @@
         <v>1994</v>
       </c>
       <c r="J90" s="16" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="K90" s="16" t="s">
         <v>1995</v>
@@ -26044,7 +26052,7 @@
         <v>2130</v>
       </c>
       <c r="K127" s="15" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="L127" s="19" t="s">
         <v>1604</v>
@@ -27301,7 +27309,7 @@
         <v>927</v>
       </c>
       <c r="L160" s="19" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.15">
@@ -28169,7 +28177,7 @@
         <v>1064</v>
       </c>
       <c r="J183" s="16" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="K183" s="16" t="s">
         <v>1065</v>
@@ -29157,7 +29165,7 @@
         <v>1242</v>
       </c>
       <c r="J209" s="16" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K209" s="16" t="s">
         <v>1755</v>
@@ -29543,7 +29551,7 @@
         <v>1266</v>
       </c>
       <c r="L219" s="19" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.15">
@@ -29733,7 +29741,7 @@
         <v>1759</v>
       </c>
       <c r="L224" s="19" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.15">
@@ -30221,7 +30229,7 @@
         <v>1450</v>
       </c>
       <c r="J237" s="15" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K237" s="15" t="s">
         <v>1770</v>
@@ -30493,7 +30501,7 @@
         <v>1374</v>
       </c>
       <c r="L244" s="19" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.15">
@@ -30987,7 +30995,7 @@
         <v>1784</v>
       </c>
       <c r="L257" s="19" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="258" spans="1:12" ht="26" x14ac:dyDescent="0.15">
@@ -32065,10 +32073,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -32082,10 +32090,10 @@
         <v>562</v>
       </c>
       <c r="B1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C1" t="s">
         <v>2399</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2400</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -32093,10 +32101,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>2400</v>
+      </c>
+      <c r="C2" s="55" t="s">
         <v>2401</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>2402</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -32104,9 +32112,20 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2378</v>
+        <v>2404</v>
       </c>
       <c r="C3" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2402</v>
+      </c>
+      <c r="C4" t="s">
         <v>2403</v>
       </c>
     </row>
